--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -32,115 +32,70 @@
     <t>Source</t>
   </si>
   <si>
-    <t>02/26/2013</t>
-  </si>
-  <si>
-    <t>Cash Rate</t>
-  </si>
-  <si>
-    <t>03/06/2013</t>
-  </si>
-  <si>
-    <t>03/13/2013</t>
-  </si>
-  <si>
-    <t>03/27/2013</t>
-  </si>
-  <si>
-    <t>04/29/2013</t>
-  </si>
-  <si>
-    <t>05/28/2013</t>
-  </si>
-  <si>
-    <t>06/27/2013</t>
-  </si>
-  <si>
-    <t>07/29/2013</t>
-  </si>
-  <si>
-    <t>08/27/2013</t>
-  </si>
-  <si>
-    <t>09/27/2013</t>
-  </si>
-  <si>
-    <t>10/28/2013</t>
-  </si>
-  <si>
-    <t>11/27/2013</t>
-  </si>
-  <si>
-    <t>12/27/2013</t>
-  </si>
-  <si>
-    <t>01/27/2014</t>
-  </si>
-  <si>
-    <t>02/27/2014</t>
-  </si>
-  <si>
-    <t>02/27/2015</t>
-  </si>
-  <si>
     <t>Swap Rate</t>
   </si>
   <si>
-    <t>02/29/2016</t>
-  </si>
-  <si>
-    <t>02/27/2017</t>
-  </si>
-  <si>
-    <t>02/27/2018</t>
-  </si>
-  <si>
-    <t>02/27/2019</t>
-  </si>
-  <si>
-    <t>02/27/2020</t>
-  </si>
-  <si>
-    <t>02/26/2021</t>
-  </si>
-  <si>
-    <t>02/28/2022</t>
-  </si>
-  <si>
-    <t>02/27/2023</t>
-  </si>
-  <si>
-    <t>02/27/2024</t>
-  </si>
-  <si>
-    <t>02/27/2025</t>
-  </si>
-  <si>
-    <t>02/28/2028</t>
-  </si>
-  <si>
-    <t>02/28/2033</t>
-  </si>
-  <si>
-    <t>02/26/2038</t>
-  </si>
-  <si>
-    <t>02/27/2043</t>
-  </si>
-  <si>
-    <t>05/27/2013</t>
-  </si>
-  <si>
     <t>Deposit Rate</t>
   </si>
   <si>
-    <t>03/20/2013</t>
-  </si>
-  <si>
     <t>Settle Date</t>
   </si>
   <si>
-    <t>02/27/2013</t>
+    <t>03/08/2013</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>03/11/2019</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>03/11/2021</t>
+  </si>
+  <si>
+    <t>03/11/2022</t>
+  </si>
+  <si>
+    <t>03/13/2023</t>
+  </si>
+  <si>
+    <t>03/13/2028</t>
+  </si>
+  <si>
+    <t>03/11/2033</t>
+  </si>
+  <si>
+    <t>03/11/2038</t>
+  </si>
+  <si>
+    <t>03/11/2043</t>
   </si>
 </sst>
 </file>
@@ -627,11 +582,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -692,19 +648,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -724,7 +680,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5991225"/>
+          <a:off x="95250" y="3829050"/>
           <a:ext cx="7010400" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -751,20 +707,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -784,7 +740,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="676275" y="5505450"/>
+          <a:off x="47625" y="3962400"/>
           <a:ext cx="7010400" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1096,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,528 +1066,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.1565</v>
-      </c>
-      <c r="C2">
-        <v>0.1565</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0.17469999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.17469999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.99996600000000002</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.99984099999999998</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.99992700000000001</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.99928499999999998</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.20269999999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.20269999999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.99984200000000001</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.99734900000000004</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="D6">
-        <v>0.999587</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.99505900000000003</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.28660000000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.99928399999999995</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.3135</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.31318000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.99687599999999998</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.34260000000000002</v>
-      </c>
-      <c r="C8">
-        <v>0.34260000000000002</v>
-      </c>
-      <c r="D8">
-        <v>0.99885900000000005</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.39399000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.99215900000000001</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.39989999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.39989999999999998</v>
-      </c>
-      <c r="D9">
-        <v>0.99831400000000003</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.53781000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.984016</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0.45989999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.45989999999999998</v>
-      </c>
-      <c r="D10">
-        <v>0.99769300000000005</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.749</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.75231999999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.97036999999999995</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>0.5222</v>
-      </c>
-      <c r="C11">
-        <v>0.5222</v>
-      </c>
-      <c r="D11">
-        <v>0.99693399999999999</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.006</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.01495</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.95061399999999996</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="C12">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="D12">
-        <v>0.99618099999999998</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.266</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.2840499999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.92607799999999996</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="D13">
-        <v>0.99536500000000006</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.53922</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.89822599999999997</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="C14">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="D14">
-        <v>0.99446699999999999</v>
-      </c>
-      <c r="E14" t="s">
-        <v>6</v>
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.76729</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.86869600000000002</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="C15">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="D15">
-        <v>0.99349299999999996</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.9105000000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.9701299999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.83824500000000002</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>0.31850000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.31839000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.99682400000000004</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B16" s="3">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2.1541899999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.80703599999999998</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0.38640000000000002</v>
-      </c>
-      <c r="C17">
-        <v>0.38646000000000003</v>
-      </c>
-      <c r="D17">
-        <v>0.99230799999999997</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2.6327500000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2.7906300000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.65977600000000003</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.50419999999999998</v>
-      </c>
-      <c r="C18">
-        <v>0.50485000000000002</v>
-      </c>
-      <c r="D18">
-        <v>0.98495999999999995</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.8732500000000001</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3.0739899999999998</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.54328500000000002</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.68930000000000002</v>
-      </c>
-      <c r="C19">
-        <v>0.69191999999999998</v>
-      </c>
-      <c r="D19">
-        <v>0.97274899999999997</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.9889999999999999</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.2072099999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.45138200000000001</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="C20">
-        <v>0.93022000000000005</v>
-      </c>
-      <c r="D20">
-        <v>0.95465699999999998</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.0586000000000002</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3.2868200000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.37605100000000002</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1.167</v>
-      </c>
-      <c r="C21">
-        <v>1.1820200000000001</v>
-      </c>
-      <c r="D21">
-        <v>0.93172999999999995</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1.3940999999999999</v>
-      </c>
-      <c r="C22">
-        <v>1.4195500000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.90572699999999995</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1.5995999999999999</v>
-      </c>
-      <c r="C23">
-        <v>1.63761</v>
-      </c>
-      <c r="D23">
-        <v>0.877718</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1.7814000000000001</v>
-      </c>
-      <c r="C24">
-        <v>1.8332999999999999</v>
-      </c>
-      <c r="D24">
-        <v>0.84848999999999997</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1.9419999999999999</v>
-      </c>
-      <c r="C25">
-        <v>2.00881</v>
-      </c>
-      <c r="D25">
-        <v>0.81882999999999995</v>
-      </c>
-      <c r="E25" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>2.0874999999999999</v>
-      </c>
-      <c r="C26">
-        <v>2.1703299999999999</v>
-      </c>
-      <c r="D26">
-        <v>0.788636</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>2.2151999999999998</v>
-      </c>
-      <c r="C27">
-        <v>2.3141500000000002</v>
-      </c>
-      <c r="D27">
-        <v>0.75873400000000002</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C28">
-        <v>2.6295500000000001</v>
-      </c>
-      <c r="D28">
-        <v>0.67574800000000002</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>2.73</v>
-      </c>
-      <c r="C29">
-        <v>2.9098700000000002</v>
-      </c>
-      <c r="D29">
-        <v>0.56109699999999996</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>2.8450000000000002</v>
-      </c>
-      <c r="C30">
-        <v>3.04189</v>
-      </c>
-      <c r="D30">
-        <v>0.470169</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>2.915</v>
-      </c>
-      <c r="C31">
-        <v>3.1223000000000001</v>
-      </c>
-      <c r="D31">
-        <v>0.39477000000000001</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -1652,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1663,31 +1466,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>41581</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>0.05</v>
@@ -1697,518 +1500,398 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C3" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>0.99998600000000004</v>
+        <v>0.99991799999999997</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>0.99998299999999996</v>
+        <v>0.99965499999999996</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>5.5E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>5.5E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.99996799999999997</v>
+        <v>0.99864699999999995</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>0.08</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="3">
-        <v>0.08</v>
+        <v>0.375</v>
       </c>
       <c r="D6" s="3">
-        <v>0.99993799999999999</v>
+        <v>0.99714400000000003</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C7" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.33032</v>
       </c>
       <c r="D7" s="3">
-        <v>0.99983900000000003</v>
+        <v>0.99670800000000004</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>0.15</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>0.15</v>
+        <v>0.44989000000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>0.99962899999999999</v>
+        <v>0.99106300000000003</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="C9" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.59245000000000003</v>
       </c>
       <c r="D9" s="3">
-        <v>0.99931700000000001</v>
+        <v>0.98243499999999995</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.75968000000000002</v>
       </c>
       <c r="D10" s="3">
-        <v>0.99905100000000002</v>
+        <v>0.97014</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>0.26500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="C11" s="3">
-        <v>0.26500000000000001</v>
+        <v>0.95071000000000006</v>
       </c>
       <c r="D11" s="3">
-        <v>0.99866900000000003</v>
+        <v>0.953766</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>0.29499999999999998</v>
+        <v>1.139</v>
       </c>
       <c r="C12" s="3">
-        <v>0.29499999999999998</v>
+        <v>1.1462300000000001</v>
       </c>
       <c r="D12" s="3">
-        <v>0.99826599999999999</v>
+        <v>0.93390300000000004</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>0.34499999999999997</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="C13" s="3">
-        <v>0.34499999999999997</v>
+        <v>1.33324</v>
       </c>
       <c r="D13" s="3">
-        <v>0.99767700000000004</v>
+        <v>0.91145799999999999</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>0.38500000000000001</v>
+        <v>1.4794</v>
       </c>
       <c r="C14" s="3">
-        <v>0.38500000000000001</v>
+        <v>1.5037199999999999</v>
       </c>
       <c r="D14" s="3">
-        <v>0.997089</v>
+        <v>0.88745099999999999</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>0.41499999999999998</v>
+        <v>1.633</v>
       </c>
       <c r="C15" s="3">
-        <v>0.41499999999999998</v>
+        <v>1.66808</v>
       </c>
       <c r="D15" s="3">
-        <v>0.99651900000000004</v>
+        <v>0.86166500000000001</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>0.45500000000000002</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="C16" s="3">
-        <v>0.45500000000000002</v>
+        <v>1.81314</v>
       </c>
       <c r="D16" s="3">
-        <v>0.99579600000000001</v>
+        <v>0.83544600000000002</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>0.39100000000000001</v>
+        <v>2.2103000000000002</v>
       </c>
       <c r="C17" s="3">
-        <v>0.35170000000000001</v>
+        <v>2.30931</v>
       </c>
       <c r="D17" s="3">
-        <v>0.99649500000000002</v>
+        <v>0.70993300000000004</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>0.498</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="C18" s="3">
-        <v>0.47859000000000002</v>
+        <v>2.4746999999999999</v>
       </c>
       <c r="D18" s="3">
-        <v>0.99049600000000004</v>
+        <v>0.61329100000000003</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>0.62250000000000005</v>
+        <v>2.4140000000000001</v>
       </c>
       <c r="C19" s="3">
-        <v>0.61040000000000005</v>
+        <v>2.52407</v>
       </c>
       <c r="D19" s="3">
-        <v>0.98185999999999996</v>
+        <v>0.53623299999999996</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>0.77800000000000002</v>
+        <v>2.431</v>
       </c>
       <c r="C20" s="3">
-        <v>0.77092000000000005</v>
+        <v>2.5304799999999998</v>
       </c>
       <c r="D20" s="3">
-        <v>0.96974899999999997</v>
+        <v>0.47250999999999999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.95350000000000001</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.95174000000000003</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.95374199999999998</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.1678999999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.93270299999999995</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.3176000000000001</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.3305400000000001</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.91162799999999999</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.5004999999999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.52433</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.88604799999999995</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.6525000000000001</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.68712</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.86009400000000003</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1.7733000000000001</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.8177399999999999</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.83515200000000001</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1.903</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.96051</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.80769599999999997</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2.0678200000000002</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.78222899999999995</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2.3333599999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.70748</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2.49742</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.61045199999999999</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2.427</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2.532</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.53523500000000002</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2.5304799999999998</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.47250999999999999</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="EUR" sheetId="2" r:id="rId2"/>
+    <sheet name="03042013" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -96,16 +97,99 @@
   </si>
   <si>
     <t>03/11/2043</t>
+  </si>
+  <si>
+    <t>DaysBetween</t>
+  </si>
+  <si>
+    <t>DayCOunt</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>06/03/2019</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>07/03/2022</t>
+  </si>
+  <si>
+    <t>06/03/2023</t>
+  </si>
+  <si>
+    <t>06/03/2028</t>
+  </si>
+  <si>
+    <t>07/03/2033</t>
+  </si>
+  <si>
+    <t>08/03/2038</t>
+  </si>
+  <si>
+    <t>09/03/2043</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>BBG_SERVERAPI "EUDR1 Curncy" BSF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -240,6 +324,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -538,70 +626,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1 2" xfId="44"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="46"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3 2" xfId="48"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4 2" xfId="50"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5 2" xfId="52"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6 2" xfId="54"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1 2" xfId="45"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2 2" xfId="47"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3 2" xfId="49"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4 2" xfId="51"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5 2" xfId="53"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6 2" xfId="55"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -627,7 +747,10 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="56"/>
+    <cellStyle name="Normal 3" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="43"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -653,8 +776,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1050,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1062,10 +1185,11 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,11 +1202,23 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="4">
+        <v>41340</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1096,8 +1232,17 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <v>41341</v>
+      </c>
+      <c r="H2">
+        <v>0.99999400000000005</v>
+      </c>
+      <c r="J2" s="4">
+        <v>41344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1113,8 +1258,26 @@
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <v>41375</v>
+      </c>
+      <c r="H3">
+        <v>0.99984600000000001</v>
+      </c>
+      <c r="J3">
+        <f>G3-$J$2</f>
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <f>J3/360</f>
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="L3">
+        <f>1/(1+K3*B3/100)</f>
+        <v>0.99984071981866218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1130,8 +1293,26 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <v>41436</v>
+      </c>
+      <c r="H4">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="J4">
+        <f>G4-$J$2</f>
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="0">J4/360</f>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="1">1/(1+K4*B4/100)</f>
+        <v>0.99928495609808088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1147,8 +1328,26 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <v>41528</v>
+      </c>
+      <c r="H5">
+        <v>0.99740700000000004</v>
+      </c>
+      <c r="J5">
+        <f>G5-$J$2</f>
+        <v>184</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0.99734926728073825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1164,8 +1363,26 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="9">
+        <v>41619</v>
+      </c>
+      <c r="H6">
+        <v>0.99518600000000002</v>
+      </c>
+      <c r="J6">
+        <f>G6-$J$2</f>
+        <v>275</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0.99505925439657261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1181,8 +1398,18 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="9">
+        <v>41709</v>
+      </c>
+      <c r="H7">
+        <v>0.99691099999999999</v>
+      </c>
+      <c r="J7">
+        <f>G7-$J$2</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1198,8 +1425,18 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="9">
+        <v>42074</v>
+      </c>
+      <c r="H8">
+        <v>0.992143</v>
+      </c>
+      <c r="J8">
+        <f>G8-$J$2</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1215,8 +1452,18 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="9">
+        <v>42440</v>
+      </c>
+      <c r="H9">
+        <v>0.98401499999999997</v>
+      </c>
+      <c r="J9">
+        <f>G9-$J$2</f>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1232,8 +1479,18 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="9">
+        <v>42807</v>
+      </c>
+      <c r="H10">
+        <v>0.97034100000000001</v>
+      </c>
+      <c r="J10">
+        <f>G10-$J$2</f>
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1249,8 +1506,18 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="9">
+        <v>43171</v>
+      </c>
+      <c r="H11">
+        <v>0.95074899999999996</v>
+      </c>
+      <c r="J11">
+        <f>G11-$J$2</f>
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1266,8 +1533,18 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" s="9">
+        <v>43535</v>
+      </c>
+      <c r="H12">
+        <v>0.92610400000000004</v>
+      </c>
+      <c r="J12">
+        <f>G12-$J$2</f>
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1283,8 +1560,18 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="9">
+        <v>43901</v>
+      </c>
+      <c r="H13">
+        <v>0.89828600000000003</v>
+      </c>
+      <c r="J13">
+        <f>G13-$J$2</f>
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1300,8 +1587,18 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="9">
+        <v>44266</v>
+      </c>
+      <c r="H14">
+        <v>0.86865599999999998</v>
+      </c>
+      <c r="J14">
+        <f>G14-$J$2</f>
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1317,8 +1614,18 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="9">
+        <v>44631</v>
+      </c>
+      <c r="H15">
+        <v>0.83819900000000003</v>
+      </c>
+      <c r="J15">
+        <f>G15-$J$2</f>
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1334,8 +1641,18 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="9">
+        <v>44998</v>
+      </c>
+      <c r="H16">
+        <v>0.80704699999999996</v>
+      </c>
+      <c r="J16">
+        <f>G16-$J$2</f>
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1351,8 +1668,18 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="9">
+        <v>46825</v>
+      </c>
+      <c r="H17">
+        <v>0.66018699999999997</v>
+      </c>
+      <c r="J17">
+        <f>G17-$J$2</f>
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1368,8 +1695,18 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="9">
+        <v>48649</v>
+      </c>
+      <c r="H18">
+        <v>0.54398599999999997</v>
+      </c>
+      <c r="J18">
+        <f>G18-$J$2</f>
+        <v>7305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1385,8 +1722,18 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="9">
+        <v>50475</v>
+      </c>
+      <c r="H19">
+        <v>0.452102</v>
+      </c>
+      <c r="J19">
+        <f>G19-$J$2</f>
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1402,41 +1749,54 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="4">
+        <v>52301</v>
+      </c>
+      <c r="H20">
+        <v>0.37684299999999998</v>
+      </c>
+      <c r="J20">
+        <f>G20-$J$2</f>
+        <v>10957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -1897,4 +2257,506 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8">
+        <v>41339</v>
+      </c>
+      <c r="G1" s="8">
+        <v>360</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="C2" s="5">
+        <v>99.999499999999998</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <f>F2/$G$1</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H2" s="7">
+        <f>100/(1+G2*B2/100)</f>
+        <v>99.999500002499985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>99.998943999999995</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <f>F3/$G$1</f>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="H3" s="7">
+        <f>100/(1+G3*B3/100)*H2/100</f>
+        <v>99.998944452808573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="C4" s="5">
+        <v>99.981988999999999</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8">
+        <f>A4-$F$1</f>
+        <v>33</v>
+      </c>
+      <c r="G4" s="8">
+        <f>F4/$G$1</f>
+        <v>9.166666666666666E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <f>100/(1+G4*B4/100)</f>
+        <v>99.983044542029759</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4*$H$3/100</f>
+        <v>99.981989173811201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>99.922336999999999</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8">
+        <f>A5-$F$1</f>
+        <v>92</v>
+      </c>
+      <c r="G5" s="8">
+        <f>F5/$G$1</f>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H7" si="0">100/(1+G5*B5/100)</f>
+        <v>99.923392066082684</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I7" si="1">H5*$H$3/100</f>
+        <v>99.922337327524147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>99.751417000000004</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8">
+        <f>A6-$F$1</f>
+        <v>184</v>
+      </c>
+      <c r="G6" s="8">
+        <f>F6/$G$1</f>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>99.752469788024882</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>99.751416853631653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>99.575720000000004</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <f>A7-$F$1</f>
+        <v>275</v>
+      </c>
+      <c r="G7" s="8">
+        <f>F7/$G$1</f>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>99.576771062769055</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>99.575719982958788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="C8" s="5">
+        <v>99.680205000000001</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="8">
+        <f>A8-$F$1</f>
+        <v>365</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="C9" s="5">
+        <v>99.250208000000001</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <f>A9-$F$1</f>
+        <v>733</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>98.537175000000005</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8">
+        <f>A10-$F$1</f>
+        <v>1097</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C11" s="5">
+        <v>97.309833999999995</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8">
+        <f>A11-$F$1</f>
+        <v>1461</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="C12" s="5">
+        <v>95.508167999999998</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="8">
+        <f>A12-$F$1</f>
+        <v>1826</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>93.194607000000005</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <f>A13-$F$1</f>
+        <v>2191</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.399</v>
+      </c>
+      <c r="C14" s="5">
+        <v>90.531492999999998</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="8">
+        <f>A14-$F$1</f>
+        <v>2557</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.613</v>
+      </c>
+      <c r="C15" s="5">
+        <v>87.650510999999995</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8">
+        <f>A15-$F$1</f>
+        <v>2924</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="C16" s="5">
+        <v>84.711267000000007</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="8">
+        <f>A16-$F$1</f>
+        <v>3288</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>81.703954999999993</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8">
+        <f>A17-$F$1</f>
+        <v>3652</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="C18" s="5">
+        <v>67.220318000000006</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <f>A18-$F$1</f>
+        <v>5479</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="C19" s="5">
+        <v>55.718128</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="8">
+        <f>A19-$F$1</f>
+        <v>7306</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2.871</v>
+      </c>
+      <c r="C20" s="5">
+        <v>46.600157000000003</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="8">
+        <f>A20-$F$1</f>
+        <v>9133</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="C21" s="5">
+        <v>39.062437000000003</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8">
+        <f>A21-$F$1</f>
+        <v>10960</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="EUR" sheetId="2" r:id="rId2"/>
     <sheet name="03042013" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -108,81 +108,148 @@
     <t>DF</t>
   </si>
   <si>
-    <t>05/03/2013</t>
-  </si>
-  <si>
-    <t>06/03/2013</t>
-  </si>
-  <si>
-    <t>08/04/2013</t>
-  </si>
-  <si>
-    <t>06/06/2013</t>
-  </si>
-  <si>
-    <t>09/03/2015</t>
-  </si>
-  <si>
-    <t>07/03/2016</t>
-  </si>
-  <si>
-    <t>06/03/2017</t>
-  </si>
-  <si>
-    <t>06/03/2018</t>
-  </si>
-  <si>
-    <t>06/03/2019</t>
-  </si>
-  <si>
-    <t>06/03/2020</t>
-  </si>
-  <si>
-    <t>08/03/2021</t>
-  </si>
-  <si>
-    <t>06/09/2013</t>
-  </si>
-  <si>
-    <t>06/12/2013</t>
-  </si>
-  <si>
-    <t>07/03/2022</t>
-  </si>
-  <si>
-    <t>06/03/2023</t>
-  </si>
-  <si>
-    <t>06/03/2028</t>
-  </si>
-  <si>
-    <t>07/03/2033</t>
-  </si>
-  <si>
-    <t>08/03/2038</t>
-  </si>
-  <si>
-    <t>09/03/2043</t>
-  </si>
-  <si>
-    <t>06/03/2014</t>
-  </si>
-  <si>
     <t>BBG_SERVERAPI "EUDR1 Curncy" BSF</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>13/03/2013</t>
+  </si>
+  <si>
+    <t>15/04/2013</t>
+  </si>
+  <si>
+    <t>13/06/2013</t>
+  </si>
+  <si>
+    <t>13/09/2013</t>
+  </si>
+  <si>
+    <t>13/12/2013</t>
+  </si>
+  <si>
+    <t>13/03/2014</t>
+  </si>
+  <si>
+    <t>16/03/2015</t>
+  </si>
+  <si>
+    <t>14/03/2016</t>
+  </si>
+  <si>
+    <t>13/03/2017</t>
+  </si>
+  <si>
+    <t>13/03/2018</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
+  </si>
+  <si>
+    <t>13/03/2020</t>
+  </si>
+  <si>
+    <t>15/03/2021</t>
+  </si>
+  <si>
+    <t>14/03/2022</t>
+  </si>
+  <si>
+    <t>13/03/2023</t>
+  </si>
+  <si>
+    <t>13/03/2028</t>
+  </si>
+  <si>
+    <t>14/03/2033</t>
+  </si>
+  <si>
+    <t>15/03/2038</t>
+  </si>
+  <si>
+    <t>16/03/2043</t>
+  </si>
+  <si>
+    <t>Float Rate</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Fixed Rate</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Pay/Rec</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Curr</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Start Day</t>
+  </si>
+  <si>
+    <t>End Day</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Pay Day</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Forw</t>
+  </si>
+  <si>
+    <t>Proj</t>
+  </si>
+  <si>
+    <t>Present Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+  <numFmts count="11">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -628,74 +695,81 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1175,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1339,7 @@
         <v>0.99984600000000001</v>
       </c>
       <c r="J3">
-        <f>G3-$J$2</f>
+        <f t="shared" ref="J3:J20" si="0">G3-$J$2</f>
         <v>31</v>
       </c>
       <c r="K3">
@@ -1300,15 +1374,15 @@
         <v>0.99929999999999997</v>
       </c>
       <c r="J4">
-        <f>G4-$J$2</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K6" si="0">J4/360</f>
+        <f t="shared" ref="K4:K6" si="1">J4/360</f>
         <v>0.25555555555555554</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L6" si="1">1/(1+K4*B4/100)</f>
+        <f t="shared" ref="L4:L6" si="2">1/(1+K4*B4/100)</f>
         <v>0.99928495609808088</v>
       </c>
     </row>
@@ -1335,15 +1409,15 @@
         <v>0.99740700000000004</v>
       </c>
       <c r="J5">
-        <f>G5-$J$2</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.51111111111111107</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99734926728073825</v>
       </c>
     </row>
@@ -1363,22 +1437,22 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>41619</v>
       </c>
       <c r="H6">
         <v>0.99518600000000002</v>
       </c>
       <c r="J6">
-        <f>G6-$J$2</f>
+        <f t="shared" si="0"/>
         <v>275</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76388888888888884</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99505925439657261</v>
       </c>
     </row>
@@ -1398,14 +1472,14 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>41709</v>
       </c>
       <c r="H7">
         <v>0.99691099999999999</v>
       </c>
       <c r="J7">
-        <f>G7-$J$2</f>
+        <f t="shared" si="0"/>
         <v>365</v>
       </c>
     </row>
@@ -1425,14 +1499,14 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>42074</v>
       </c>
       <c r="H8">
         <v>0.992143</v>
       </c>
       <c r="J8">
-        <f>G8-$J$2</f>
+        <f t="shared" si="0"/>
         <v>730</v>
       </c>
     </row>
@@ -1452,14 +1526,14 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>42440</v>
       </c>
       <c r="H9">
         <v>0.98401499999999997</v>
       </c>
       <c r="J9">
-        <f>G9-$J$2</f>
+        <f t="shared" si="0"/>
         <v>1096</v>
       </c>
     </row>
@@ -1479,14 +1553,14 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>42807</v>
       </c>
       <c r="H10">
         <v>0.97034100000000001</v>
       </c>
       <c r="J10">
-        <f>G10-$J$2</f>
+        <f t="shared" si="0"/>
         <v>1463</v>
       </c>
     </row>
@@ -1506,14 +1580,14 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>43171</v>
       </c>
       <c r="H11">
         <v>0.95074899999999996</v>
       </c>
       <c r="J11">
-        <f>G11-$J$2</f>
+        <f t="shared" si="0"/>
         <v>1827</v>
       </c>
     </row>
@@ -1533,14 +1607,14 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>43535</v>
       </c>
       <c r="H12">
         <v>0.92610400000000004</v>
       </c>
       <c r="J12">
-        <f>G12-$J$2</f>
+        <f t="shared" si="0"/>
         <v>2191</v>
       </c>
     </row>
@@ -1560,14 +1634,14 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>43901</v>
       </c>
       <c r="H13">
         <v>0.89828600000000003</v>
       </c>
       <c r="J13">
-        <f>G13-$J$2</f>
+        <f t="shared" si="0"/>
         <v>2557</v>
       </c>
     </row>
@@ -1587,14 +1661,14 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>44266</v>
       </c>
       <c r="H14">
         <v>0.86865599999999998</v>
       </c>
       <c r="J14">
-        <f>G14-$J$2</f>
+        <f t="shared" si="0"/>
         <v>2922</v>
       </c>
     </row>
@@ -1614,14 +1688,14 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>44631</v>
       </c>
       <c r="H15">
         <v>0.83819900000000003</v>
       </c>
       <c r="J15">
-        <f>G15-$J$2</f>
+        <f t="shared" si="0"/>
         <v>3287</v>
       </c>
     </row>
@@ -1641,14 +1715,14 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>44998</v>
       </c>
       <c r="H16">
         <v>0.80704699999999996</v>
       </c>
       <c r="J16">
-        <f>G16-$J$2</f>
+        <f t="shared" si="0"/>
         <v>3654</v>
       </c>
     </row>
@@ -1668,14 +1742,14 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>46825</v>
       </c>
       <c r="H17">
         <v>0.66018699999999997</v>
       </c>
       <c r="J17">
-        <f>G17-$J$2</f>
+        <f t="shared" si="0"/>
         <v>5481</v>
       </c>
     </row>
@@ -1695,14 +1769,14 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>48649</v>
       </c>
       <c r="H18">
         <v>0.54398599999999997</v>
       </c>
       <c r="J18">
-        <f>G18-$J$2</f>
+        <f t="shared" si="0"/>
         <v>7305</v>
       </c>
     </row>
@@ -1722,14 +1796,14 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>50475</v>
       </c>
       <c r="H19">
         <v>0.452102</v>
       </c>
       <c r="J19">
-        <f>G19-$J$2</f>
+        <f t="shared" si="0"/>
         <v>9131</v>
       </c>
     </row>
@@ -1756,7 +1830,7 @@
         <v>0.37684299999999998</v>
       </c>
       <c r="J20">
-        <f>G20-$J$2</f>
+        <f t="shared" si="0"/>
         <v>10957</v>
       </c>
     </row>
@@ -1769,7 +1843,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2261,22 +2335,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2286,475 +2366,1514 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8">
-        <v>41339</v>
-      </c>
-      <c r="G1" s="8">
-        <v>360</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="4">
+        <v>41344</v>
+      </c>
+      <c r="H1" s="7">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="3">
         <v>0.18</v>
       </c>
-      <c r="C2" s="5">
-        <v>99.999499999999998</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <f>F2/$G$1</f>
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="H2" s="7">
-        <f>100/(1+G2*B2/100)</f>
-        <v>99.999500002499985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="C2" s="16">
+        <v>99.9995000025</v>
+      </c>
+      <c r="D2" s="12">
+        <v>99.9995000025</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4">
+        <v>41345</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.99999500002499997</v>
+      </c>
+      <c r="I2">
+        <f>H2*100</f>
+        <v>99.9995000025</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5">
         <v>0.2</v>
       </c>
-      <c r="C3" s="7">
-        <v>99.998943999999995</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <f>F3/$G$1</f>
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="H3" s="7">
-        <f>100/(1+G3*B3/100)*H2/100</f>
-        <v>99.998944452808573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
+      <c r="C3" s="12">
+        <v>99.998944452800004</v>
+      </c>
+      <c r="D3" s="12">
+        <v>99.998944452808601</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
+        <v>8.5975671026972122E-12</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4">
+        <v>41346</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.99998944452808602</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I21" si="1">H3*100</f>
+        <v>99.998944452808601</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>0.185</v>
       </c>
-      <c r="C4" s="5">
-        <v>99.981988999999999</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8">
-        <f>A4-$F$1</f>
-        <v>33</v>
-      </c>
-      <c r="G4" s="8">
-        <f>F4/$G$1</f>
-        <v>9.166666666666666E-2</v>
-      </c>
-      <c r="H4" s="7">
-        <f>100/(1+G4*B4/100)</f>
-        <v>99.983044542029759</v>
-      </c>
-      <c r="I4" s="7">
-        <f>H4*$H$3/100</f>
+      <c r="C4" s="16">
+        <v>99.981989173800002</v>
+      </c>
+      <c r="D4" s="12">
         <v>99.981989173811201</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>1.1198153515579179E-11</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4">
+        <v>41379</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.99981989173811203</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>99.981989173811201</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>0.3</v>
       </c>
-      <c r="C5" s="5">
-        <v>99.922336999999999</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8">
-        <f>A5-$F$1</f>
-        <v>92</v>
-      </c>
-      <c r="G5" s="8">
-        <f>F5/$G$1</f>
-        <v>0.25555555555555554</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" ref="H5:H7" si="0">100/(1+G5*B5/100)</f>
-        <v>99.923392066082684</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5:I7" si="1">H5*$H$3/100</f>
-        <v>99.922337327524147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
+      <c r="C5" s="16">
+        <v>99.922337327500003</v>
+      </c>
+      <c r="D5" s="12">
+        <v>99.922337327524104</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>2.4101609596982598E-11</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="4">
+        <v>41438</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.99922337327524102</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>99.922337327524104</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>0.48549999999999999</v>
       </c>
-      <c r="C6" s="5">
-        <v>99.751417000000004</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8">
-        <f>A6-$F$1</f>
-        <v>184</v>
-      </c>
-      <c r="G6" s="8">
-        <f>F6/$G$1</f>
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="C6" s="16">
+        <v>99.751416853600006</v>
+      </c>
+      <c r="D6" s="12">
+        <v>99.751416853631696</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
-        <v>99.752469788024882</v>
-      </c>
-      <c r="I6" s="7">
+        <v>3.1690206014900468E-11</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4">
+        <v>41530</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.99751416853631703</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>99.751416853631653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>99.751416853631696</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="3">
         <v>0.55640000000000001</v>
       </c>
-      <c r="C7" s="5">
-        <v>99.575720000000004</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8">
-        <f>A7-$F$1</f>
-        <v>275</v>
-      </c>
-      <c r="G7" s="8">
-        <f>F7/$G$1</f>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="C7" s="16">
+        <v>99.575719982899997</v>
+      </c>
+      <c r="D7" s="12">
+        <v>99.575719982958802</v>
+      </c>
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
-        <v>99.576771062769055</v>
-      </c>
-      <c r="I7" s="7">
+        <v>5.8804516811505891E-11</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4">
+        <v>41621</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.99575719982958799</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>99.575719982958788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>99.575719982958802</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="3">
         <v>0.311</v>
       </c>
-      <c r="C8" s="5">
-        <v>99.680205000000001</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <f>A8-$F$1</f>
-        <v>365</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
+      <c r="C8" s="16">
+        <v>99.688814892400003</v>
+      </c>
+      <c r="D8" s="12">
+        <v>99.688814892440206</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>4.0202507989306469E-11</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4">
+        <v>41711</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.99688814892440203</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>99.688814892440206</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="3">
         <v>0.372</v>
       </c>
-      <c r="C9" s="5">
-        <v>99.250208000000001</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8">
-        <f>A9-$F$1</f>
-        <v>733</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
+      <c r="C9" s="16">
+        <v>99.254409104299995</v>
+      </c>
+      <c r="D9" s="12">
+        <v>99.258347549043606</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>3.9384447436106029E-3</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4">
+        <v>42076</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.99258347549043602</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>99.258347549043606</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="3">
         <v>0.48899999999999999</v>
       </c>
-      <c r="C10" s="5">
-        <v>98.537175000000005</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="8">
-        <f>A10-$F$1</f>
-        <v>1097</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
+      <c r="C10" s="16">
+        <v>98.541432291600003</v>
+      </c>
+      <c r="D10" s="12">
+        <v>98.541338006170605</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>-9.4285429398155429E-5</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4">
+        <v>42443</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.98541338006170598</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>98.541338006170605</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>0.67900000000000005</v>
       </c>
-      <c r="C11" s="5">
-        <v>97.309833999999995</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="8">
-        <f>A11-$F$1</f>
-        <v>1461</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
+      <c r="C11" s="16">
+        <v>97.314034454799994</v>
+      </c>
+      <c r="D11" s="12">
+        <v>97.314000791116399</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>-3.3663683595364091E-5</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4">
+        <v>42807</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.97314000791116395</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>97.314000791116399</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="3">
         <v>0.91300000000000003</v>
       </c>
-      <c r="C12" s="5">
-        <v>95.508167999999998</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8">
-        <f>A12-$F$1</f>
-        <v>1826</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>38</v>
+      <c r="C12" s="16">
+        <v>95.512284811800001</v>
+      </c>
+      <c r="D12" s="12">
+        <v>95.512595653876801</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>3.1084207680009968E-4</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4">
+        <v>43172</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.95512595653876797</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>95.512595653876801</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="3">
         <v>1.1619999999999999</v>
       </c>
-      <c r="C13" s="5">
-        <v>93.194607000000005</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <f>A13-$F$1</f>
-        <v>2191</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>39</v>
+      <c r="C13" s="16">
+        <v>93.1986156225</v>
+      </c>
+      <c r="D13" s="12">
+        <v>93.1994043138574</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>7.8869135739978447E-4</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4">
+        <v>43537</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.93199404313857404</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>93.1994043138574</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B14" s="3">
         <v>1.399</v>
       </c>
-      <c r="C14" s="5">
-        <v>90.531492999999998</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="8">
-        <f>A14-$F$1</f>
-        <v>2557</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
+      <c r="C14" s="16">
+        <v>90.535378502</v>
+      </c>
+      <c r="D14" s="12">
+        <v>90.536708559872807</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3300578728063783E-3</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4">
+        <v>43903</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.90536708559872803</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>90.536708559872807</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="3">
         <v>1.613</v>
       </c>
-      <c r="C15" s="5">
-        <v>87.650510999999995</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="8">
-        <f>A15-$F$1</f>
-        <v>2924</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
+      <c r="C15" s="16">
+        <v>87.6542671622</v>
+      </c>
+      <c r="D15" s="12">
+        <v>87.655972946365495</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>1.705784165494606E-3</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4">
+        <v>44270</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.87655972946365501</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>87.655972946365495</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B16" s="3">
         <v>1.7969999999999999</v>
       </c>
-      <c r="C16" s="5">
-        <v>84.711267000000007</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="8">
-        <f>A16-$F$1</f>
-        <v>3288</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
+      <c r="C16" s="16">
+        <v>84.714893678699994</v>
+      </c>
+      <c r="D16" s="12">
+        <v>84.716781845209297</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.8881665093033462E-3</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4">
+        <v>44634</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.84716781845209299</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>84.716781845209297</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="3">
         <v>1.9610000000000001</v>
       </c>
-      <c r="C17" s="5">
-        <v>81.703954999999993</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8">
-        <f>A17-$F$1</f>
-        <v>3652</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
+      <c r="C17" s="16">
+        <v>81.707446031000003</v>
+      </c>
+      <c r="D17" s="12">
+        <v>81.709627522519497</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1814915194937612E-3</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4">
+        <v>44998</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.81709627522519501</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>81.709627522519497</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="3">
         <v>2.5169999999999999</v>
       </c>
-      <c r="C18" s="5">
-        <v>67.220318000000006</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="8">
-        <f>A18-$F$1</f>
-        <v>5479</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
+      <c r="C18" s="16">
+        <v>67.222813942800002</v>
+      </c>
+      <c r="D18" s="12">
+        <v>67.242917614603897</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>2.010367180389494E-2</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4">
+        <v>46825</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.67242917614603903</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>67.242917614603897</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="3">
         <v>2.7559999999999998</v>
       </c>
-      <c r="C19" s="5">
-        <v>55.718128</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="8">
-        <f>A19-$F$1</f>
-        <v>7306</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
+      <c r="C19" s="16">
+        <v>55.720053002900002</v>
+      </c>
+      <c r="D19" s="12">
+        <v>55.734512405066504</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4459402166501434E-2</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4">
+        <v>48652</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.55734512405066505</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>55.734512405066504</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="3">
         <v>2.871</v>
       </c>
-      <c r="C20" s="5">
-        <v>46.600157000000003</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="8">
-        <f>A20-$F$1</f>
-        <v>9133</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="16">
+        <v>46.6017097139</v>
+      </c>
+      <c r="D20" s="12">
+        <v>46.604133439115195</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="0"/>
+        <v>2.4237252151948496E-3</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4">
+        <v>50479</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.46604133439115197</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>46.604133439115195</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3">
         <v>2.9409999999999998</v>
       </c>
-      <c r="C21" s="5">
-        <v>39.062437000000003</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="8">
-        <f>A21-$F$1</f>
-        <v>10960</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="C21" s="16">
+        <v>39.0637069653</v>
+      </c>
+      <c r="D21" s="12">
+        <v>39.066271556672</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5645913719998248E-3</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4">
+        <v>52303</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.39066271556672</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>39.066271556672</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="12">
+        <f>0.00311*(184/360*C6/100+181/360*C8/100)</f>
+        <v>3.144377265871804E-3</v>
+      </c>
+      <c r="C26" s="12">
+        <f>0.00311*(184/360*D6/100+181/360*D8/100)</f>
+        <v>3.1443772658729359E-3</v>
+      </c>
+      <c r="E26">
+        <f>0.00311*(184/360*C6/100+181/360*C8/100)</f>
+        <v>3.144377265871804E-3</v>
+      </c>
+      <c r="F26">
+        <f>0.00311*(184/360*D6/100+181/360*D8/100)</f>
+        <v>3.1443772658729359E-3</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="12">
+        <f>B26+C8/100</f>
+        <v>1.0000325261898719</v>
+      </c>
+      <c r="C27" s="12">
+        <f>C26+D8/100</f>
+        <v>1.0000325261902749</v>
+      </c>
+      <c r="E27">
+        <f>B26+C8/100</f>
+        <v>1.0000325261898719</v>
+      </c>
+      <c r="F27">
+        <f>C26+D8/100</f>
+        <v>1.0000325261902749</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="12">
+        <v>99.998944452800004</v>
+      </c>
+      <c r="C29" s="6">
+        <f>B29/100</f>
+        <v>0.99998944452799998</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="16">
+        <v>99.922337327500003</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" ref="C30:C33" si="2">B30/100</f>
+        <v>0.99922337327499999</v>
+      </c>
+      <c r="D30" s="10">
+        <f>(C29/C30-1)/92*360</f>
+        <v>3.0000000006104852E-3</v>
+      </c>
+      <c r="E30">
+        <f>D30/100*92/360</f>
+        <v>7.6666666682267952E-6</v>
+      </c>
+      <c r="F30">
+        <f>C30*E30</f>
+        <v>7.6607125300005841E-6</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="16">
+        <v>99.751416853600006</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99751416853600006</v>
+      </c>
+      <c r="D31" s="13">
+        <f>(C30/C31-1)/92*360</f>
+        <v>6.7048596079312952E-3</v>
+      </c>
+      <c r="E31">
+        <f>D31/100*92/360</f>
+        <v>1.7134641220268867E-5</v>
+      </c>
+      <c r="F31">
+        <f>C31*E31</f>
+        <v>1.7092047389999173E-5</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="16">
+        <v>99.575719982899997</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99575719982900002</v>
+      </c>
+      <c r="D32" s="13">
+        <f>(C31/C32-1)/91*360</f>
+        <v>6.9802612880728102E-3</v>
+      </c>
+      <c r="E32">
+        <f>D32/100*91/360</f>
+        <v>1.7644549367072933E-5</v>
+      </c>
+      <c r="F32">
+        <f>C32*E32</f>
+        <v>1.75696870700011E-5</v>
+      </c>
+      <c r="H32" s="13">
+        <f>SUM(F30:F33)</f>
+        <v>3.1443100070000426E-5</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="16">
+        <v>99.684513452100006</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9968451345210001</v>
+      </c>
+      <c r="D33" s="13">
+        <f>(C32/C33-1)/90*360</f>
+        <v>-4.3655113691167813E-3</v>
+      </c>
+      <c r="E33">
+        <f>D33/100*90/360</f>
+        <v>-1.0913778422791952E-5</v>
+      </c>
+      <c r="F33">
+        <f>C33*E33</f>
+        <v>-1.0879346920000431E-5</v>
+      </c>
+      <c r="H33" s="13">
+        <f>H32*100-B26</f>
+        <v>-6.7258871761562838E-8</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G35"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="F37" s="4">
+        <v>41346</v>
+      </c>
+      <c r="G37" s="4">
+        <v>41530</v>
+      </c>
+      <c r="H37" s="7">
+        <v>180</v>
+      </c>
+      <c r="I37" s="4">
+        <v>41530</v>
+      </c>
+      <c r="J37">
+        <v>0.372</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="L37" s="9">
+        <v>-1860</v>
+      </c>
+      <c r="M37" s="9">
+        <v>-1855.38</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="F38" s="4">
+        <v>41530</v>
+      </c>
+      <c r="G38" s="4">
+        <v>41711</v>
+      </c>
+      <c r="H38" s="7">
+        <v>180</v>
+      </c>
+      <c r="I38" s="4">
+        <v>41711</v>
+      </c>
+      <c r="J38">
+        <v>0.372</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="L38" s="9">
+        <v>-1860</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-1854.21</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="F39" s="4">
+        <v>41711</v>
+      </c>
+      <c r="G39" s="4">
+        <v>41897</v>
+      </c>
+      <c r="H39" s="7">
+        <v>182</v>
+      </c>
+      <c r="I39" s="4">
+        <v>41897</v>
+      </c>
+      <c r="J39">
+        <v>0.372</v>
+      </c>
+      <c r="K39" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="L39" s="9">
+        <v>-1880.67</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-1870.97</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="F40" s="4">
+        <v>41897</v>
+      </c>
+      <c r="G40" s="4">
+        <v>42076</v>
+      </c>
+      <c r="H40" s="7">
+        <v>178</v>
+      </c>
+      <c r="I40" s="4">
+        <v>42076</v>
+      </c>
+      <c r="J40">
+        <v>0.372</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="L40" s="9">
+        <v>-1839.33</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-1825.69</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F41" s="4">
+        <v>41346</v>
+      </c>
+      <c r="G41" s="4">
+        <v>41438</v>
+      </c>
+      <c r="H41" s="7">
+        <v>92</v>
+      </c>
+      <c r="I41" s="4">
+        <v>41438</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="L41" s="9">
+        <v>766.67</v>
+      </c>
+      <c r="M41" s="9">
+        <v>766.07</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" ref="N41:N47" si="3">M41/L41</f>
+        <v>0.99921739470697968</v>
+      </c>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F42" s="4">
+        <v>41438</v>
+      </c>
+      <c r="G42" s="4">
+        <v>41530</v>
+      </c>
+      <c r="H42" s="7">
+        <v>92</v>
+      </c>
+      <c r="I42" s="4">
+        <v>41530</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1713.46</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1709.2</v>
+      </c>
+      <c r="N42" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99751380248152866</v>
+      </c>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F43" s="4">
+        <v>41530</v>
+      </c>
+      <c r="G43" s="4">
+        <v>41621</v>
+      </c>
+      <c r="H43" s="7">
+        <v>91</v>
+      </c>
+      <c r="I43" s="4">
+        <v>41621</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1764.45</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1756.97</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99576071863753579</v>
+      </c>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F44" s="4">
+        <v>41621</v>
+      </c>
+      <c r="G44" s="4">
+        <v>41711</v>
+      </c>
+      <c r="H44" s="7">
+        <v>90</v>
+      </c>
+      <c r="I44" s="4">
+        <v>41711</v>
+      </c>
+      <c r="K44" s="9">
+        <v>-0.45379999999999998</v>
+      </c>
+      <c r="L44" s="9">
+        <v>-1134.48</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-1130.95</v>
+      </c>
+      <c r="N44" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99688844228192652</v>
+      </c>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F45" s="4">
+        <v>41711</v>
+      </c>
+      <c r="G45" s="4">
+        <v>41803</v>
+      </c>
+      <c r="H45" s="7">
+        <v>92</v>
+      </c>
+      <c r="I45" s="4">
+        <v>41803</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="L45" s="9">
+        <v>975.67</v>
+      </c>
+      <c r="M45" s="9">
+        <v>971.69</v>
+      </c>
+      <c r="N45" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99592075189357065</v>
+      </c>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F46" s="4">
+        <v>41803</v>
+      </c>
+      <c r="G46" s="4">
+        <v>41897</v>
+      </c>
+      <c r="H46" s="7">
+        <v>94</v>
+      </c>
+      <c r="I46" s="4">
+        <v>41897</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1077.25</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1071.7</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99484799257368306</v>
+      </c>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F47" s="4">
+        <v>41897</v>
+      </c>
+      <c r="G47" s="4">
+        <v>41988</v>
+      </c>
+      <c r="H47" s="7">
+        <v>91</v>
+      </c>
+      <c r="I47" s="4">
+        <v>41988</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1120.24</v>
+      </c>
+      <c r="M47" s="9">
+        <v>1113.22</v>
+      </c>
+      <c r="N47" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99373348568163966</v>
+      </c>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="F48" s="4">
+        <v>41988</v>
+      </c>
+      <c r="G48" s="4">
+        <v>42076</v>
+      </c>
+      <c r="H48" s="7">
+        <v>88</v>
+      </c>
+      <c r="I48" s="4">
+        <v>42076</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0.4733</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1156.93</v>
+      </c>
+      <c r="M48" s="9">
+        <v>1148.3499999999999</v>
+      </c>
+      <c r="N48" s="11">
+        <f>M48/L48</f>
+        <v>0.99258382097447539</v>
+      </c>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
     <sheet name="EUR" sheetId="2" r:id="rId2"/>
     <sheet name="03042013" sheetId="3" r:id="rId3"/>
+    <sheet name="03122013" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -220,36 +223,63 @@
   </si>
   <si>
     <t>Present Value</t>
+  </si>
+  <si>
+    <t>Fixed Amount</t>
+  </si>
+  <si>
+    <t>B 04/04/13</t>
+  </si>
+  <si>
+    <t>T 0 1/4 03/31/14</t>
+  </si>
+  <si>
+    <t>T 0 3/8 04/15/15</t>
+  </si>
+  <si>
+    <t>T 1 1/4 08/31/15</t>
+  </si>
+  <si>
+    <t>T 1 03/31/17</t>
+  </si>
+  <si>
+    <t>T 2 3/4 02/15/19</t>
+  </si>
+  <si>
+    <t>T 1 1/2 03/31/19</t>
+  </si>
+  <si>
+    <t>T 3 5/8 02/15/20</t>
+  </si>
+  <si>
+    <t>T 2 11/15/21</t>
+  </si>
+  <si>
+    <t>T 2 02/15/22</t>
+  </si>
+  <si>
+    <t>T 3 1/8 02/15/42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="11">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="176" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="186" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -695,81 +725,83 @@
   </borders>
   <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2337,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2352,6 +2384,7 @@
     <col min="7" max="7" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3246,7 +3279,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B33" s="16">
         <v>99.684513452100006</v>
       </c>
@@ -3277,7 +3310,8 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
@@ -3285,7 +3319,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G35"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -3294,540 +3328,482 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="J36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="D37" t="s">
-        <v>52</v>
+      <c r="B37" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>41346</v>
+      </c>
+      <c r="D37" s="4">
+        <v>41530</v>
       </c>
       <c r="E37" s="7">
+        <v>180</v>
+      </c>
+      <c r="F37" s="4">
+        <v>41530</v>
+      </c>
+      <c r="G37">
+        <v>0.372</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="I37" s="9">
+        <v>-1860</v>
+      </c>
+      <c r="J37" s="9">
+        <v>-1855.38</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" ref="K37:K40" si="3">J37/I37</f>
+        <v>0.99751612903225817</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="7">
         <v>-1000000</v>
       </c>
-      <c r="F37" s="4">
+      <c r="C38" s="4">
+        <v>41530</v>
+      </c>
+      <c r="D38" s="4">
+        <v>41711</v>
+      </c>
+      <c r="E38" s="7">
+        <v>180</v>
+      </c>
+      <c r="F38" s="4">
+        <v>41711</v>
+      </c>
+      <c r="G38">
+        <v>0.372</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-1860</v>
+      </c>
+      <c r="J38" s="9">
+        <v>-1854.21</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99688709677419352</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>41711</v>
+      </c>
+      <c r="D39" s="4">
+        <v>41897</v>
+      </c>
+      <c r="E39" s="7">
+        <v>182</v>
+      </c>
+      <c r="F39" s="4">
+        <v>41897</v>
+      </c>
+      <c r="G39">
+        <v>0.372</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-1880.67</v>
+      </c>
+      <c r="J39" s="9">
+        <v>-1870.97</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="3"/>
+        <v>0.99484226366135475</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="7">
+        <v>-1000000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>41897</v>
+      </c>
+      <c r="D40" s="4">
+        <v>42076</v>
+      </c>
+      <c r="E40" s="7">
+        <v>178</v>
+      </c>
+      <c r="F40" s="4">
+        <v>42076</v>
+      </c>
+      <c r="G40">
+        <v>0.372</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="I40" s="9">
+        <v>-1839.33</v>
+      </c>
+      <c r="J40" s="9">
+        <v>-1825.69</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" si="3"/>
+        <v>0.9925842562237337</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C41" s="4">
         <v>41346</v>
       </c>
-      <c r="G37" s="4">
+      <c r="D41" s="4">
+        <v>41438</v>
+      </c>
+      <c r="E41" s="7">
+        <v>92</v>
+      </c>
+      <c r="F41" s="4">
+        <v>41438</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="I41" s="9">
+        <v>766.67</v>
+      </c>
+      <c r="J41" s="9">
+        <v>766.07</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" ref="K41:K47" si="4">J41/I41</f>
+        <v>0.99921739470697968</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>41438</v>
+      </c>
+      <c r="D42" s="4">
         <v>41530</v>
       </c>
-      <c r="H37" s="7">
-        <v>180</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="E42" s="7">
+        <v>92</v>
+      </c>
+      <c r="F42" s="4">
         <v>41530</v>
       </c>
-      <c r="J37">
-        <v>0.372</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="L37" s="9">
-        <v>-1860</v>
-      </c>
-      <c r="M37" s="9">
-        <v>-1855.38</v>
-      </c>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="G42"/>
+      <c r="H42" s="9">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1713.46</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1709.2</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99751380248152866</v>
+      </c>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C43" s="4">
         <v>41530</v>
       </c>
-      <c r="G38" s="4">
+      <c r="D43" s="4">
+        <v>41621</v>
+      </c>
+      <c r="E43" s="7">
+        <v>91</v>
+      </c>
+      <c r="F43" s="4">
+        <v>41621</v>
+      </c>
+      <c r="G43"/>
+      <c r="H43" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1764.45</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1756.97</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99576071863753579</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>41621</v>
+      </c>
+      <c r="D44" s="4">
         <v>41711</v>
       </c>
-      <c r="H38" s="7">
-        <v>180</v>
-      </c>
-      <c r="I38" s="4">
+      <c r="E44" s="7">
+        <v>90</v>
+      </c>
+      <c r="F44" s="4">
         <v>41711</v>
       </c>
-      <c r="J38">
-        <v>0.372</v>
-      </c>
-      <c r="K38" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="L38" s="9">
-        <v>-1860</v>
-      </c>
-      <c r="M38" s="9">
-        <v>-1854.21</v>
-      </c>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="G44"/>
+      <c r="H44" s="9">
+        <v>-0.45379999999999998</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-1134.48</v>
+      </c>
+      <c r="J44" s="9">
+        <v>-1130.95</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99688844228192652</v>
+      </c>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C45" s="4">
         <v>41711</v>
       </c>
-      <c r="G39" s="4">
+      <c r="D45" s="4">
+        <v>41803</v>
+      </c>
+      <c r="E45" s="7">
+        <v>92</v>
+      </c>
+      <c r="F45" s="4">
+        <v>41803</v>
+      </c>
+      <c r="G45"/>
+      <c r="H45" s="9">
+        <v>0.38179999999999997</v>
+      </c>
+      <c r="I45" s="9">
+        <v>975.67</v>
+      </c>
+      <c r="J45" s="9">
+        <v>971.69</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99592075189357065</v>
+      </c>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>41803</v>
+      </c>
+      <c r="D46" s="4">
         <v>41897</v>
       </c>
-      <c r="H39" s="7">
-        <v>182</v>
-      </c>
-      <c r="I39" s="4">
+      <c r="E46" s="7">
+        <v>94</v>
+      </c>
+      <c r="F46" s="4">
         <v>41897</v>
       </c>
-      <c r="J39">
-        <v>0.372</v>
-      </c>
-      <c r="K39" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="L39" s="9">
-        <v>-1880.67</v>
-      </c>
-      <c r="M39" s="9">
-        <v>-1870.97</v>
-      </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="G46"/>
+      <c r="H46" s="9">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1077.25</v>
+      </c>
+      <c r="J46" s="9">
+        <v>1071.7</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99484799257368306</v>
+      </c>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C47" s="4">
         <v>41897</v>
       </c>
-      <c r="G40" s="4">
+      <c r="D47" s="4">
+        <v>41988</v>
+      </c>
+      <c r="E47" s="7">
+        <v>91</v>
+      </c>
+      <c r="F47" s="4">
+        <v>41988</v>
+      </c>
+      <c r="G47"/>
+      <c r="H47" s="9">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1120.24</v>
+      </c>
+      <c r="J47" s="9">
+        <v>1113.22</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99373348568163966</v>
+      </c>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="C48" s="4">
+        <v>41988</v>
+      </c>
+      <c r="D48" s="4">
         <v>42076</v>
       </c>
-      <c r="H40" s="7">
-        <v>178</v>
-      </c>
-      <c r="I40" s="4">
+      <c r="E48" s="7">
+        <v>88</v>
+      </c>
+      <c r="F48" s="4">
         <v>42076</v>
       </c>
-      <c r="J40">
-        <v>0.372</v>
-      </c>
-      <c r="K40" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="L40" s="9">
-        <v>-1839.33</v>
-      </c>
-      <c r="M40" s="9">
-        <v>-1825.69</v>
-      </c>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F41" s="4">
-        <v>41346</v>
-      </c>
-      <c r="G41" s="4">
-        <v>41438</v>
-      </c>
-      <c r="H41" s="7">
-        <v>92</v>
-      </c>
-      <c r="I41" s="4">
-        <v>41438</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="L41" s="9">
-        <v>766.67</v>
-      </c>
-      <c r="M41" s="9">
-        <v>766.07</v>
-      </c>
-      <c r="N41" s="11">
-        <f t="shared" ref="N41:N47" si="3">M41/L41</f>
-        <v>0.99921739470697968</v>
-      </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F42" s="4">
-        <v>41438</v>
-      </c>
-      <c r="G42" s="4">
-        <v>41530</v>
-      </c>
-      <c r="H42" s="7">
-        <v>92</v>
-      </c>
-      <c r="I42" s="4">
-        <v>41530</v>
-      </c>
-      <c r="K42" s="9">
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="L42" s="9">
-        <v>1713.46</v>
-      </c>
-      <c r="M42" s="9">
-        <v>1709.2</v>
-      </c>
-      <c r="N42" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99751380248152866</v>
-      </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F43" s="4">
-        <v>41530</v>
-      </c>
-      <c r="G43" s="4">
-        <v>41621</v>
-      </c>
-      <c r="H43" s="7">
-        <v>91</v>
-      </c>
-      <c r="I43" s="4">
-        <v>41621</v>
-      </c>
-      <c r="K43" s="9">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="L43" s="9">
-        <v>1764.45</v>
-      </c>
-      <c r="M43" s="9">
-        <v>1756.97</v>
-      </c>
-      <c r="N43" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99576071863753579</v>
-      </c>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F44" s="4">
-        <v>41621</v>
-      </c>
-      <c r="G44" s="4">
-        <v>41711</v>
-      </c>
-      <c r="H44" s="7">
-        <v>90</v>
-      </c>
-      <c r="I44" s="4">
-        <v>41711</v>
-      </c>
-      <c r="K44" s="9">
-        <v>-0.45379999999999998</v>
-      </c>
-      <c r="L44" s="9">
-        <v>-1134.48</v>
-      </c>
-      <c r="M44" s="9">
-        <v>-1130.95</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99688844228192652</v>
-      </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F45" s="4">
-        <v>41711</v>
-      </c>
-      <c r="G45" s="4">
-        <v>41803</v>
-      </c>
-      <c r="H45" s="7">
-        <v>92</v>
-      </c>
-      <c r="I45" s="4">
-        <v>41803</v>
-      </c>
-      <c r="K45" s="9">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="L45" s="9">
-        <v>975.67</v>
-      </c>
-      <c r="M45" s="9">
-        <v>971.69</v>
-      </c>
-      <c r="N45" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99592075189357065</v>
-      </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F46" s="4">
-        <v>41803</v>
-      </c>
-      <c r="G46" s="4">
-        <v>41897</v>
-      </c>
-      <c r="H46" s="7">
-        <v>94</v>
-      </c>
-      <c r="I46" s="4">
-        <v>41897</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0.41260000000000002</v>
-      </c>
-      <c r="L46" s="9">
-        <v>1077.25</v>
-      </c>
-      <c r="M46" s="9">
-        <v>1071.7</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99484799257368306</v>
-      </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F47" s="4">
-        <v>41897</v>
-      </c>
-      <c r="G47" s="4">
-        <v>41988</v>
-      </c>
-      <c r="H47" s="7">
-        <v>91</v>
-      </c>
-      <c r="I47" s="4">
-        <v>41988</v>
-      </c>
-      <c r="K47" s="9">
-        <v>0.44319999999999998</v>
-      </c>
-      <c r="L47" s="9">
-        <v>1120.24</v>
-      </c>
-      <c r="M47" s="9">
-        <v>1113.22</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99373348568163966</v>
-      </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="F48" s="4">
-        <v>41988</v>
-      </c>
-      <c r="G48" s="4">
-        <v>42076</v>
-      </c>
-      <c r="H48" s="7">
-        <v>88</v>
-      </c>
-      <c r="I48" s="4">
-        <v>42076</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="G48"/>
+      <c r="H48" s="9">
         <v>0.4733</v>
       </c>
-      <c r="L48" s="9">
+      <c r="I48" s="9">
         <v>1156.93</v>
       </c>
-      <c r="M48" s="9">
+      <c r="J48" s="9">
         <v>1148.3499999999999</v>
       </c>
-      <c r="N48" s="11">
-        <f>M48/L48</f>
+      <c r="K48" s="11">
+        <f>J48/I48</f>
         <v>0.99258382097447539</v>
       </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-    </row>
-    <row r="49" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
@@ -3835,7 +3811,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="11:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
@@ -3843,7 +3819,9 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="11:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+      <c r="G51" s="16"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -3851,7 +3829,9 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="11:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D52" s="4"/>
+      <c r="G52" s="16"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -3859,7 +3839,8 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="11:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
@@ -3867,7 +3848,10 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="11:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D54" s="4"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="16"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -3878,4 +3862,1967 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>41346</v>
+      </c>
+      <c r="B1" s="17">
+        <v>99.9995000025</v>
+      </c>
+      <c r="E1" s="4">
+        <v>41346</v>
+      </c>
+      <c r="F1" s="17">
+        <v>99.9995000025</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41347</v>
+      </c>
+      <c r="B2" s="17">
+        <v>99.998944452800004</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41347</v>
+      </c>
+      <c r="F2" s="17">
+        <v>99.998944452800004</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>41379</v>
+      </c>
+      <c r="B3" s="17">
+        <v>99.982502885700001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41379</v>
+      </c>
+      <c r="F3" s="17">
+        <v>99.982502885700001</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>41439</v>
+      </c>
+      <c r="B4" s="17">
+        <v>99.922337327500003</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41439</v>
+      </c>
+      <c r="F4" s="17">
+        <v>99.922337327500003</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>41533</v>
+      </c>
+      <c r="B5" s="17">
+        <v>99.748733068299998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>41533</v>
+      </c>
+      <c r="F5" s="17">
+        <v>99.748733068299998</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>41624</v>
+      </c>
+      <c r="B6" s="17">
+        <v>99.572655108099994</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41624</v>
+      </c>
+      <c r="F6" s="17">
+        <v>99.572655108099994</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>41712</v>
+      </c>
+      <c r="F7" s="17">
+        <v>99.686781031699994</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>41715</v>
+      </c>
+      <c r="B8" s="17">
+        <v>99.692788574100007</v>
+      </c>
+      <c r="E8" s="4">
+        <v>41715</v>
+      </c>
+      <c r="F8" s="17">
+        <v>99.692788603599993</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>42079</v>
+      </c>
+      <c r="B9" s="17">
+        <v>99.254292267599993</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42079</v>
+      </c>
+      <c r="F9" s="17">
+        <v>99.254281785700002</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>42443</v>
+      </c>
+      <c r="B10" s="17">
+        <v>98.540754018300007</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42443</v>
+      </c>
+      <c r="F10" s="17">
+        <v>98.540743533799997</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>42808</v>
+      </c>
+      <c r="B11" s="17">
+        <v>97.311915402699995</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42808</v>
+      </c>
+      <c r="F11" s="17">
+        <v>97.311905612000004</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>43173</v>
+      </c>
+      <c r="B12" s="17">
+        <v>95.510198264300001</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43173</v>
+      </c>
+      <c r="F12" s="17">
+        <v>95.510190272000003</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>43538</v>
+      </c>
+      <c r="B13" s="17">
+        <v>93.196572403299996</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43538</v>
+      </c>
+      <c r="F13" s="17">
+        <v>93.196567686899996</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>43906</v>
+      </c>
+      <c r="B14" s="17">
+        <v>90.526367050199994</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43906</v>
+      </c>
+      <c r="F14" s="17">
+        <v>90.526366777600003</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44270</v>
+      </c>
+      <c r="B15" s="17">
+        <v>87.656277167100001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>44270</v>
+      </c>
+      <c r="F15" s="17">
+        <v>87.656279721100006</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44634</v>
+      </c>
+      <c r="B16" s="17">
+        <v>84.717166741</v>
+      </c>
+      <c r="E16" s="4">
+        <v>44634</v>
+      </c>
+      <c r="F16" s="17">
+        <v>84.717173268899998</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>44999</v>
+      </c>
+      <c r="B17" s="17">
+        <v>81.705507020599995</v>
+      </c>
+      <c r="E17" s="4">
+        <v>44999</v>
+      </c>
+      <c r="F17" s="17">
+        <v>81.705518263599998</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>46826</v>
+      </c>
+      <c r="B18" s="17">
+        <v>67.221288864800002</v>
+      </c>
+      <c r="E18" s="4">
+        <v>46826</v>
+      </c>
+      <c r="F18" s="17">
+        <v>67.221658074000004</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>48652</v>
+      </c>
+      <c r="B19" s="17">
+        <v>55.723244691600001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>48652</v>
+      </c>
+      <c r="F19" s="17">
+        <v>55.7236862329</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>50479</v>
+      </c>
+      <c r="B20" s="17">
+        <v>46.604616174199997</v>
+      </c>
+      <c r="E20" s="4">
+        <v>50479</v>
+      </c>
+      <c r="F20" s="17">
+        <v>46.605037532700003</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>52306</v>
+      </c>
+      <c r="B21" s="17">
+        <v>39.068311229300001</v>
+      </c>
+      <c r="E21" s="4">
+        <v>52306</v>
+      </c>
+      <c r="F21" s="17">
+        <v>39.0686931061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="4">
+        <v>41533</v>
+      </c>
+      <c r="I23">
+        <v>0.372</v>
+      </c>
+      <c r="J23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>-1000000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>41347</v>
+      </c>
+      <c r="F24" s="4">
+        <v>41533</v>
+      </c>
+      <c r="G24">
+        <v>182</v>
+      </c>
+      <c r="H24" s="4">
+        <v>41712</v>
+      </c>
+      <c r="I24">
+        <v>0.372</v>
+      </c>
+      <c r="J24">
+        <v>0.372</v>
+      </c>
+      <c r="K24">
+        <v>-1880.6666666666999</v>
+      </c>
+      <c r="L24">
+        <v>-1875.9411732376</v>
+      </c>
+      <c r="M24" s="12">
+        <f>L24/K24</f>
+        <v>0.99748733068286077</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" ref="O24:O35" si="0">VLOOKUP(F24,$A$1:$B$21,2)</f>
+        <v>99.748733068299998</v>
+      </c>
+      <c r="P24">
+        <f>O24/100-M24</f>
+        <v>1.3922196728799463E-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>-1000000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>41533</v>
+      </c>
+      <c r="F25" s="4">
+        <v>41712</v>
+      </c>
+      <c r="G25">
+        <v>178</v>
+      </c>
+      <c r="H25" s="4">
+        <v>41897</v>
+      </c>
+      <c r="I25">
+        <v>0.372</v>
+      </c>
+      <c r="J25">
+        <v>0.372</v>
+      </c>
+      <c r="K25">
+        <v>-1839.3333333333001</v>
+      </c>
+      <c r="L25">
+        <v>-1833.572385793</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" ref="M25:M35" si="1">L25/K25</f>
+        <v>0.99686791543658926</v>
+      </c>
+      <c r="O25" s="18">
+        <f t="shared" si="0"/>
+        <v>99.572655108099994</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P35" si="2">O25/100-M25</f>
+        <v>-1.1413643555893138E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>-1000000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>41712</v>
+      </c>
+      <c r="F26" s="4">
+        <v>41897</v>
+      </c>
+      <c r="G26">
+        <v>181</v>
+      </c>
+      <c r="H26" s="4">
+        <v>42079</v>
+      </c>
+      <c r="I26">
+        <v>0.372</v>
+      </c>
+      <c r="J26">
+        <v>0.372</v>
+      </c>
+      <c r="K26">
+        <v>-1870.3333333333001</v>
+      </c>
+      <c r="L26">
+        <v>-1860.8008858065</v>
+      </c>
+      <c r="M26" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9949033429726607</v>
+      </c>
+      <c r="O26" s="18">
+        <f t="shared" si="0"/>
+        <v>99.692788574100007</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>2.0245427683394102E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>-1000000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41897</v>
+      </c>
+      <c r="F27" s="4">
+        <v>42079</v>
+      </c>
+      <c r="G27">
+        <v>181</v>
+      </c>
+      <c r="H27" s="4">
+        <v>41439</v>
+      </c>
+      <c r="J27">
+        <v>0.372</v>
+      </c>
+      <c r="K27">
+        <v>-1870.3333333333001</v>
+      </c>
+      <c r="L27">
+        <v>-1856.386113045</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9925429226760113</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="0"/>
+        <v>99.254292267599993</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>-1.1324274851176597E-14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>1000000</v>
+      </c>
+      <c r="E28" s="4">
+        <v>41347</v>
+      </c>
+      <c r="F28" s="4">
+        <v>41439</v>
+      </c>
+      <c r="G28">
+        <v>92</v>
+      </c>
+      <c r="H28" s="4">
+        <v>41533</v>
+      </c>
+      <c r="J28">
+        <v>0.3</v>
+      </c>
+      <c r="K28">
+        <v>766.66666666660001</v>
+      </c>
+      <c r="L28">
+        <v>766.07125284419999</v>
+      </c>
+      <c r="M28" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99922337327513033</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" si="0"/>
+        <v>99.922337327500003</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>-1.3034018309099338E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>1000000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>41439</v>
+      </c>
+      <c r="F29" s="4">
+        <v>41533</v>
+      </c>
+      <c r="G29">
+        <v>94</v>
+      </c>
+      <c r="H29" s="4">
+        <v>41624</v>
+      </c>
+      <c r="J29">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="K29">
+        <v>1740.4156813110001</v>
+      </c>
+      <c r="L29">
+        <v>1736.0425922295999</v>
+      </c>
+      <c r="M29" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99748733068291706</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="0"/>
+        <v>99.748733068299998</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>8.2933659939499194E-14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41533</v>
+      </c>
+      <c r="F30" s="4">
+        <v>41624</v>
+      </c>
+      <c r="G30">
+        <v>91</v>
+      </c>
+      <c r="H30" s="4">
+        <v>41712</v>
+      </c>
+      <c r="J30">
+        <v>0.6996</v>
+      </c>
+      <c r="K30">
+        <v>1768.3364974797</v>
+      </c>
+      <c r="L30">
+        <v>1760.7796017861999</v>
+      </c>
+      <c r="M30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9957265510810468</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="0"/>
+        <v>99.572655108099994</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>-4.6851411639181606E-14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>41624</v>
+      </c>
+      <c r="F31" s="4">
+        <v>41712</v>
+      </c>
+      <c r="G31">
+        <v>88</v>
+      </c>
+      <c r="H31" s="4">
+        <v>41806</v>
+      </c>
+      <c r="J31">
+        <v>-0.47670000000000001</v>
+      </c>
+      <c r="K31">
+        <v>-1165.3101870661999</v>
+      </c>
+      <c r="L31">
+        <v>-1161.6603370176001</v>
+      </c>
+      <c r="M31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99686791543649966</v>
+      </c>
+      <c r="O31" s="18">
+        <f t="shared" si="0"/>
+        <v>99.572655108099994</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>-1.1413643554997188E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>1000000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>41712</v>
+      </c>
+      <c r="F32" s="4">
+        <v>41806</v>
+      </c>
+      <c r="G32">
+        <v>94</v>
+      </c>
+      <c r="H32" s="4">
+        <v>41897</v>
+      </c>
+      <c r="J32">
+        <v>0.35</v>
+      </c>
+      <c r="K32">
+        <v>913.87302623899996</v>
+      </c>
+      <c r="L32">
+        <v>910.17891068510005</v>
+      </c>
+      <c r="M32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99595773652593422</v>
+      </c>
+      <c r="O32" s="18">
+        <f t="shared" si="0"/>
+        <v>99.692788574100007</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>9.7014921506588525E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>41806</v>
+      </c>
+      <c r="F33" s="4">
+        <v>41897</v>
+      </c>
+      <c r="G33">
+        <v>91</v>
+      </c>
+      <c r="H33" s="4">
+        <v>41988</v>
+      </c>
+      <c r="J33">
+        <v>0.4194</v>
+      </c>
+      <c r="K33">
+        <v>1060.2720839199001</v>
+      </c>
+      <c r="L33">
+        <v>1054.8682407525</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99490334297266259</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="0"/>
+        <v>99.692788574100007</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>2.0245427683375228E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>1000000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>41897</v>
+      </c>
+      <c r="F34" s="4">
+        <v>41988</v>
+      </c>
+      <c r="G34">
+        <v>91</v>
+      </c>
+      <c r="H34" s="4">
+        <v>42079</v>
+      </c>
+      <c r="J34">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="K34">
+        <v>1145.5105373778999</v>
+      </c>
+      <c r="L34">
+        <v>1138.3682502216</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99376497472240732</v>
+      </c>
+      <c r="O34" s="18">
+        <f t="shared" si="0"/>
+        <v>99.692788574100007</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>3.1629110185927845E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>1000000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>41988</v>
+      </c>
+      <c r="F35" s="4">
+        <v>42079</v>
+      </c>
+      <c r="G35">
+        <v>91</v>
+      </c>
+      <c r="J35">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="K35">
+        <v>1231.2334494168999</v>
+      </c>
+      <c r="L35">
+        <v>1222.0520463806999</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99254292267599764</v>
+      </c>
+      <c r="O35" s="18">
+        <f t="shared" si="0"/>
+        <v>99.254292267599993</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>2.3314683517128287E-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>41368</v>
+      </c>
+      <c r="F1">
+        <v>99.995500000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>100.07810000000001</v>
+      </c>
+      <c r="C2">
+        <v>100.07810000000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41729</v>
+      </c>
+      <c r="F2">
+        <v>99.815600000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>100.2578</v>
+      </c>
+      <c r="C3">
+        <v>100.2578</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42109</v>
+      </c>
+      <c r="F3">
+        <v>99.475499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>102.375</v>
+      </c>
+      <c r="C4">
+        <v>102.375</v>
+      </c>
+      <c r="E4" s="4">
+        <v>42247</v>
+      </c>
+      <c r="F4">
+        <v>99.304199999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5">
+        <v>101.75</v>
+      </c>
+      <c r="C5">
+        <v>101.75</v>
+      </c>
+      <c r="E5" s="4">
+        <v>42825</v>
+      </c>
+      <c r="F5">
+        <v>97.734899999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6">
+        <v>110.29689999999999</v>
+      </c>
+      <c r="C6">
+        <v>110.29689999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43511</v>
+      </c>
+      <c r="F6">
+        <v>94.312899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7">
+        <v>102.85939999999999</v>
+      </c>
+      <c r="C7">
+        <v>102.85939999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43556</v>
+      </c>
+      <c r="F7">
+        <v>93.971199999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>116.20310000000001</v>
+      </c>
+      <c r="C8">
+        <v>116.20310000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43879</v>
+      </c>
+      <c r="F8">
+        <v>91.782799999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>102.9375</v>
+      </c>
+      <c r="C9">
+        <v>102.9375</v>
+      </c>
+      <c r="E9" s="4">
+        <v>44515</v>
+      </c>
+      <c r="F9">
+        <v>86.378399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>102.57810000000001</v>
+      </c>
+      <c r="C10">
+        <v>102.57810000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>44607</v>
+      </c>
+      <c r="F10">
+        <v>85.584900000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>101.17189999999999</v>
+      </c>
+      <c r="C11">
+        <v>101.17189999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>51914</v>
+      </c>
+      <c r="F11">
+        <v>36.783799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>41001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41182</v>
+      </c>
+      <c r="F2">
+        <v>181</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41183</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <v>0.25</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41182</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41364</v>
+      </c>
+      <c r="F3">
+        <v>182</v>
+      </c>
+      <c r="G3" s="4">
+        <v>41365</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41364</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41547</v>
+      </c>
+      <c r="F4">
+        <v>183</v>
+      </c>
+      <c r="G4" s="4">
+        <v>41547</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>41729</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41547</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41729</v>
+      </c>
+      <c r="F6">
+        <v>182</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41729</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>0.25</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>41182</v>
+      </c>
+      <c r="F9">
+        <v>181</v>
+      </c>
+      <c r="G9" s="4">
+        <v>41183</v>
+      </c>
+      <c r="H9">
+        <v>1.5</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9">
+        <v>0.01</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41182</v>
+      </c>
+      <c r="E10" s="4">
+        <v>41364</v>
+      </c>
+      <c r="F10">
+        <v>182</v>
+      </c>
+      <c r="G10" s="4">
+        <v>41365</v>
+      </c>
+      <c r="H10">
+        <v>1.5</v>
+      </c>
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="J10">
+        <v>0.01</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>41364</v>
+      </c>
+      <c r="E11" s="4">
+        <v>41547</v>
+      </c>
+      <c r="F11">
+        <v>183</v>
+      </c>
+      <c r="G11" s="4">
+        <v>41547</v>
+      </c>
+      <c r="H11">
+        <v>1.5</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>0.01</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41547</v>
+      </c>
+      <c r="E12" s="4">
+        <v>41729</v>
+      </c>
+      <c r="F12">
+        <v>182</v>
+      </c>
+      <c r="G12" s="4">
+        <v>41729</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>0.01</v>
+      </c>
+      <c r="K12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41729</v>
+      </c>
+      <c r="E13" s="4">
+        <v>41912</v>
+      </c>
+      <c r="F13">
+        <v>183</v>
+      </c>
+      <c r="G13" s="4">
+        <v>41912</v>
+      </c>
+      <c r="H13">
+        <v>1.5</v>
+      </c>
+      <c r="I13">
+        <v>1.5</v>
+      </c>
+      <c r="J13">
+        <v>0.01</v>
+      </c>
+      <c r="K13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>41912</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42094</v>
+      </c>
+      <c r="F14">
+        <v>182</v>
+      </c>
+      <c r="G14" s="4">
+        <v>42094</v>
+      </c>
+      <c r="H14">
+        <v>1.5</v>
+      </c>
+      <c r="I14">
+        <v>1.5</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+      <c r="K14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42094</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42277</v>
+      </c>
+      <c r="F15">
+        <v>183</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42277</v>
+      </c>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+      <c r="I15">
+        <v>1.5</v>
+      </c>
+      <c r="J15">
+        <v>0.01</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42277</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42460</v>
+      </c>
+      <c r="F16">
+        <v>183</v>
+      </c>
+      <c r="G16" s="4">
+        <v>42460</v>
+      </c>
+      <c r="H16">
+        <v>1.5</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="J16">
+        <v>0.01</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42460</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42643</v>
+      </c>
+      <c r="F17">
+        <v>183</v>
+      </c>
+      <c r="G17" s="4">
+        <v>42643</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
+      </c>
+      <c r="I17">
+        <v>1.5</v>
+      </c>
+      <c r="J17">
+        <v>0.01</v>
+      </c>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42643</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42825</v>
+      </c>
+      <c r="F18">
+        <v>182</v>
+      </c>
+      <c r="G18" s="4">
+        <v>42825</v>
+      </c>
+      <c r="H18">
+        <v>1.5</v>
+      </c>
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18">
+        <v>0.01</v>
+      </c>
+      <c r="K18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42825</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43008</v>
+      </c>
+      <c r="F19">
+        <v>183</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43010</v>
+      </c>
+      <c r="H19">
+        <v>1.5</v>
+      </c>
+      <c r="I19">
+        <v>1.5</v>
+      </c>
+      <c r="J19">
+        <v>0.01</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43008</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43190</v>
+      </c>
+      <c r="F20">
+        <v>182</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43192</v>
+      </c>
+      <c r="H20">
+        <v>1.5</v>
+      </c>
+      <c r="I20">
+        <v>1.5</v>
+      </c>
+      <c r="J20">
+        <v>0.01</v>
+      </c>
+      <c r="K20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43190</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43373</v>
+      </c>
+      <c r="F21">
+        <v>183</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43374</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21">
+        <v>0.01</v>
+      </c>
+      <c r="K21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>43556</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43373</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43555</v>
+      </c>
+      <c r="F23">
+        <v>182</v>
+      </c>
+      <c r="G23" s="4">
+        <v>43556</v>
+      </c>
+      <c r="H23">
+        <v>1.5</v>
+      </c>
+      <c r="I23">
+        <v>1.5</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -273,8 +273,8 @@
     <numFmt numFmtId="168" formatCode="0.00000000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000000000"/>
-    <numFmt numFmtId="179" formatCode="0.000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000"/>
+    <numFmt numFmtId="172" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -424,6 +424,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -800,8 +801,8 @@
     <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4874,11 +4875,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5076,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -180,16 +180,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Pay</t>
-  </si>
-  <si>
     <t>Fixed Rate</t>
-  </si>
-  <si>
-    <t>Receive</t>
-  </si>
-  <si>
-    <t>Pay/Rec</t>
   </si>
   <si>
     <t>Type</t>
@@ -783,7 +774,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -803,6 +794,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2371,7 +2363,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B21"/>
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3331,34 +3323,34 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="H36" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J36" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3366,7 +3358,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="7">
         <v>-1000000</v>
@@ -3404,7 +3396,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="7">
         <v>-1000000</v>
@@ -3442,7 +3434,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="7">
         <v>-1000000</v>
@@ -3480,7 +3472,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="7">
         <v>-1000000</v>
@@ -3867,18 +3859,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -3888,32 +3882,42 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
-        <v>41346</v>
+        <v>41347</v>
       </c>
       <c r="B1" s="17">
         <v>99.9995000025</v>
       </c>
-      <c r="E1" s="4">
-        <v>41346</v>
-      </c>
-      <c r="F1" s="17">
+      <c r="D1" s="4">
+        <v>41347</v>
+      </c>
+      <c r="E1" s="18">
         <v>99.9995000025</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18">
+        <f>E1-B1</f>
+        <v>0</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>41347</v>
+        <v>41348</v>
       </c>
       <c r="B2" s="17">
         <v>99.998944452800004</v>
       </c>
-      <c r="E2" s="4">
-        <v>41347</v>
-      </c>
-      <c r="F2" s="17">
-        <v>99.998944452800004</v>
+      <c r="D2" s="4">
+        <v>41348</v>
+      </c>
+      <c r="E2" s="18">
+        <v>99.998944452808601</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18">
+        <f t="shared" ref="G2:G20" si="0">E2-B2</f>
+        <v>8.5975671026972122E-12</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="18"/>
@@ -3923,29 +3927,39 @@
         <v>41379</v>
       </c>
       <c r="B3" s="17">
-        <v>99.982502885700001</v>
-      </c>
-      <c r="E3" s="4">
+        <v>99.983016602800006</v>
+      </c>
+      <c r="D3" s="4">
         <v>41379</v>
       </c>
-      <c r="F3" s="17">
-        <v>99.982502885700001</v>
+      <c r="E3" s="18">
+        <v>99.983016602802493</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18">
+        <f t="shared" si="0"/>
+        <v>2.4868995751603507E-12</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>41439</v>
+        <v>41442</v>
       </c>
       <c r="B4" s="17">
-        <v>99.922337327500003</v>
-      </c>
-      <c r="E4" s="4">
-        <v>41439</v>
-      </c>
-      <c r="F4" s="17">
-        <v>99.922337327500003</v>
+        <v>99.920673258799994</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41442</v>
+      </c>
+      <c r="E4" s="18">
+        <v>99.920673258755897</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18">
+        <f t="shared" si="0"/>
+        <v>-4.4096282181271818E-11</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="18"/>
@@ -3955,13 +3969,18 @@
         <v>41533</v>
       </c>
       <c r="B5" s="17">
-        <v>99.748733068299998</v>
-      </c>
-      <c r="E5" s="4">
+        <v>99.7500749429</v>
+      </c>
+      <c r="D5" s="4">
         <v>41533</v>
       </c>
-      <c r="F5" s="17">
-        <v>99.748733068299998</v>
+      <c r="E5" s="18">
+        <v>99.750074942914495</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4495071809506044E-11</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="18"/>
@@ -3971,13 +3990,18 @@
         <v>41624</v>
       </c>
       <c r="B6" s="17">
-        <v>99.572655108099994</v>
-      </c>
-      <c r="E6" s="4">
+        <v>99.574187522000003</v>
+      </c>
+      <c r="D6" s="4">
         <v>41624</v>
       </c>
-      <c r="F6" s="17">
-        <v>99.572655108099994</v>
+      <c r="E6" s="18">
+        <v>99.574187521956603</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>-4.3399950300226919E-11</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="18"/>
@@ -3986,11 +4010,22 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="4">
-        <v>41712</v>
-      </c>
-      <c r="F7" s="17">
-        <v>99.686781031699994</v>
+      <c r="A7" s="4">
+        <v>41715</v>
+      </c>
+      <c r="B7" s="17">
+        <v>99.686967177599996</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41715</v>
+      </c>
+      <c r="E7" s="18">
+        <v>99.687096735281102</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2955768110600729E-4</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4000,16 +4035,21 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>41715</v>
+        <v>42079</v>
       </c>
       <c r="B8" s="17">
-        <v>99.692788574100007</v>
-      </c>
-      <c r="E8" s="4">
-        <v>41715</v>
-      </c>
-      <c r="F8" s="17">
-        <v>99.692788603599993</v>
+        <v>99.257251486800001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42079</v>
+      </c>
+      <c r="E8" s="18">
+        <v>99.257323629819311</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>7.2143019309578449E-5</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="18"/>
@@ -4019,16 +4059,21 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>42079</v>
+        <v>42444</v>
       </c>
       <c r="B9" s="17">
-        <v>99.254292267599993</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42079</v>
-      </c>
-      <c r="F9" s="17">
-        <v>99.254281785700002</v>
+        <v>98.542602045600006</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42444</v>
+      </c>
+      <c r="E9" s="18">
+        <v>98.542670369572406</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>6.8323972399753075E-5</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="18"/>
@@ -4038,16 +4083,21 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>42443</v>
+        <v>42809</v>
       </c>
       <c r="B10" s="17">
-        <v>98.540754018300007</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42443</v>
-      </c>
-      <c r="F10" s="17">
-        <v>98.540743533799997</v>
+        <v>97.313748211100005</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42809</v>
+      </c>
+      <c r="E10" s="18">
+        <v>97.314007281041199</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>2.5906994119395677E-4</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="18"/>
@@ -4057,16 +4107,21 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>42808</v>
+        <v>43174</v>
       </c>
       <c r="B11" s="17">
-        <v>97.311915402699995</v>
-      </c>
-      <c r="E11" s="4">
-        <v>42808</v>
-      </c>
-      <c r="F11" s="17">
-        <v>97.311905612000004</v>
+        <v>95.512007753999995</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43174</v>
+      </c>
+      <c r="E11" s="18">
+        <v>95.512604306264905</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>5.9655226490917812E-4</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="18"/>
@@ -4076,16 +4131,21 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>43173</v>
+        <v>43542</v>
       </c>
       <c r="B12" s="17">
-        <v>95.510198264300001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43173</v>
-      </c>
-      <c r="F12" s="17">
-        <v>95.510190272000003</v>
+        <v>93.178143749100002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43539</v>
+      </c>
+      <c r="E12" s="18">
+        <v>93.199415611469703</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1271862369701466E-2</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="18"/>
@@ -4095,16 +4155,21 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>43538</v>
+        <v>43906</v>
       </c>
       <c r="B13" s="17">
-        <v>93.196572403299996</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43538</v>
-      </c>
-      <c r="F13" s="17">
-        <v>93.196567686899996</v>
+        <v>90.532315713499997</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43906</v>
+      </c>
+      <c r="E13" s="18">
+        <v>90.533214516849</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>8.9880334900271919E-4</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="18"/>
@@ -4114,16 +4179,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>43906</v>
+        <v>44270</v>
       </c>
       <c r="B14" s="17">
-        <v>90.526367050199994</v>
-      </c>
-      <c r="E14" s="4">
-        <v>43906</v>
-      </c>
-      <c r="F14" s="17">
-        <v>90.526366777600003</v>
+        <v>87.662473852299996</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44270</v>
+      </c>
+      <c r="E14" s="18">
+        <v>87.663743844516191</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>1.2699922161942823E-3</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="18"/>
@@ -4133,16 +4203,21 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44270</v>
+        <v>44635</v>
       </c>
       <c r="B15" s="17">
-        <v>87.656277167100001</v>
-      </c>
-      <c r="E15" s="4">
-        <v>44270</v>
-      </c>
-      <c r="F15" s="17">
-        <v>87.656279721100006</v>
+        <v>84.719324922699997</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44635</v>
+      </c>
+      <c r="E15" s="18">
+        <v>84.721079524396202</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>1.754601696205782E-3</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="18"/>
@@ -4152,16 +4227,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>44634</v>
+        <v>45000</v>
       </c>
       <c r="B16" s="17">
-        <v>84.717166741</v>
-      </c>
-      <c r="E16" s="4">
-        <v>44634</v>
-      </c>
-      <c r="F16" s="17">
-        <v>84.717173268899998</v>
+        <v>81.707618222700006</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45000</v>
+      </c>
+      <c r="E16" s="18">
+        <v>81.709801766349401</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1835436493944371E-3</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="18"/>
@@ -4169,18 +4249,23 @@
       <c r="K16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>44999</v>
+        <v>46827</v>
       </c>
       <c r="B17" s="17">
-        <v>81.705507020599995</v>
-      </c>
-      <c r="E17" s="4">
-        <v>44999</v>
-      </c>
-      <c r="F17" s="17">
-        <v>81.705518263599998</v>
+        <v>67.223180685100004</v>
+      </c>
+      <c r="D17" s="4">
+        <v>46827</v>
+      </c>
+      <c r="E17" s="18">
+        <v>67.243114964526796</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>1.9934279426792045E-2</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="18"/>
@@ -4188,683 +4273,370 @@
       <c r="K17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>46826</v>
+        <v>48653</v>
       </c>
       <c r="B18" s="17">
-        <v>67.221288864800002</v>
-      </c>
-      <c r="E18" s="4">
-        <v>46826</v>
-      </c>
-      <c r="F18" s="17">
-        <v>67.221658074000004</v>
+        <v>55.725022196499999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>48653</v>
+      </c>
+      <c r="E18" s="18">
+        <v>55.739033033306299</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4010836806299665E-2</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>48652</v>
+        <v>50479</v>
       </c>
       <c r="B19" s="17">
-        <v>55.723244691600001</v>
-      </c>
-      <c r="E19" s="4">
-        <v>48652</v>
-      </c>
-      <c r="F19" s="17">
-        <v>55.7236862329</v>
+        <v>46.6098948108</v>
+      </c>
+      <c r="D19" s="4">
+        <v>50479</v>
+      </c>
+      <c r="E19" s="18">
+        <v>46.6119585164613</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>2.063705661299764E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>50479</v>
+        <v>52306</v>
       </c>
       <c r="B20" s="17">
-        <v>46.604616174199997</v>
-      </c>
-      <c r="E20" s="4">
-        <v>50479</v>
-      </c>
-      <c r="F20" s="17">
-        <v>46.605037532700003</v>
+        <v>39.072969033900002</v>
+      </c>
+      <c r="D20" s="4">
+        <v>52306</v>
+      </c>
+      <c r="E20" s="18">
+        <v>39.063576950501201</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>-9.3920833988008212E-3</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>52306</v>
-      </c>
-      <c r="B21" s="17">
-        <v>39.068311229300001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>52306</v>
-      </c>
-      <c r="F21" s="17">
-        <v>39.0686931061</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="17"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="12">
+        <f>0.00311*(181/360*B5/100+181/360*B7/100)</f>
+        <v>3.1184751494458514E-3</v>
+      </c>
+      <c r="E23" s="12">
+        <f>0.00311*(181/360*E5/100+181/360*E7/100)</f>
+        <v>3.1184771752603637E-3</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="12">
+        <f>(B2-B7)/100</f>
+        <v>3.119772752000074E-3</v>
+      </c>
+      <c r="E24" s="12">
+        <f>(E2-E7)/100</f>
+        <v>3.1184771752749895E-3</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="M24" s="12"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="M25" s="12"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="M26" s="12"/>
+      <c r="O26" s="18"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
         <v>63</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="K27" s="12"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>-1000000</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41348</v>
+      </c>
+      <c r="D28" s="4">
         <v>41533</v>
       </c>
-      <c r="I23">
-        <v>0.372</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="E28">
+        <v>181</v>
+      </c>
+      <c r="F28" s="4">
+        <v>41533</v>
+      </c>
+      <c r="G28">
+        <v>0.311</v>
+      </c>
+      <c r="H28">
+        <v>0.311</v>
+      </c>
+      <c r="I28">
+        <v>-1563.6388890000001</v>
+      </c>
+      <c r="J28">
+        <v>-1559.7309640000001</v>
+      </c>
+      <c r="K28" s="12">
+        <f>J28/I28*100</f>
+        <v>99.750074967596944</v>
+      </c>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
+      <c r="B29">
         <v>-1000000</v>
       </c>
-      <c r="E24" s="4">
-        <v>41347</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="C29" s="4">
         <v>41533</v>
       </c>
-      <c r="G24">
-        <v>182</v>
-      </c>
-      <c r="H24" s="4">
-        <v>41712</v>
-      </c>
-      <c r="I24">
-        <v>0.372</v>
-      </c>
-      <c r="J24">
-        <v>0.372</v>
-      </c>
-      <c r="K24">
-        <v>-1880.6666666666999</v>
-      </c>
-      <c r="L24">
-        <v>-1875.9411732376</v>
-      </c>
-      <c r="M24" s="12">
-        <f>L24/K24</f>
-        <v>0.99748733068286077</v>
-      </c>
-      <c r="O24" s="18">
-        <f t="shared" ref="O24:O35" si="0">VLOOKUP(F24,$A$1:$B$21,2)</f>
-        <v>99.748733068299998</v>
-      </c>
-      <c r="P24">
-        <f>O24/100-M24</f>
-        <v>1.3922196728799463E-13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <v>-1000000</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="D29" s="4">
+        <v>41715</v>
+      </c>
+      <c r="E29">
+        <v>181</v>
+      </c>
+      <c r="F29" s="4">
+        <v>41715</v>
+      </c>
+      <c r="G29">
+        <v>0.311</v>
+      </c>
+      <c r="H29">
+        <v>0.311</v>
+      </c>
+      <c r="I29">
+        <v>-1563.6388890000001</v>
+      </c>
+      <c r="J29">
+        <v>-1558.7441859999999</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" ref="K29:K33" si="1">J29/I29*100</f>
+        <v>99.686967174170846</v>
+      </c>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41348</v>
+      </c>
+      <c r="D30" s="4">
+        <v>41442</v>
+      </c>
+      <c r="E30">
+        <v>94</v>
+      </c>
+      <c r="F30" s="4">
+        <v>41442</v>
+      </c>
+      <c r="H30">
+        <v>0.3</v>
+      </c>
+      <c r="I30">
+        <v>783.33333330000005</v>
+      </c>
+      <c r="J30">
+        <v>782.71194049999997</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="1"/>
+        <v>99.920673259571075</v>
+      </c>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>1000000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>41442</v>
+      </c>
+      <c r="D31" s="4">
         <v>41533</v>
       </c>
-      <c r="F25" s="4">
-        <v>41712</v>
-      </c>
-      <c r="G25">
-        <v>178</v>
-      </c>
-      <c r="H25" s="4">
-        <v>41897</v>
-      </c>
-      <c r="I25">
-        <v>0.372</v>
-      </c>
-      <c r="J25">
-        <v>0.372</v>
-      </c>
-      <c r="K25">
-        <v>-1839.3333333333001</v>
-      </c>
-      <c r="L25">
-        <v>-1833.572385793</v>
-      </c>
-      <c r="M25" s="12">
-        <f t="shared" ref="M25:M35" si="1">L25/K25</f>
-        <v>0.99686791543658926</v>
-      </c>
-      <c r="O25" s="18">
-        <f t="shared" si="0"/>
-        <v>99.572655108099994</v>
-      </c>
-      <c r="P25">
-        <f t="shared" ref="P25:P35" si="2">O25/100-M25</f>
-        <v>-1.1413643555893138E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26">
-        <v>-1000000</v>
-      </c>
-      <c r="E26" s="4">
-        <v>41712</v>
-      </c>
-      <c r="F26" s="4">
-        <v>41897</v>
-      </c>
-      <c r="G26">
-        <v>181</v>
-      </c>
-      <c r="H26" s="4">
-        <v>42079</v>
-      </c>
-      <c r="I26">
-        <v>0.372</v>
-      </c>
-      <c r="J26">
-        <v>0.372</v>
-      </c>
-      <c r="K26">
-        <v>-1870.3333333333001</v>
-      </c>
-      <c r="L26">
-        <v>-1860.8008858065</v>
-      </c>
-      <c r="M26" s="12">
+      <c r="E31">
+        <v>91</v>
+      </c>
+      <c r="F31" s="4">
+        <v>41533</v>
+      </c>
+      <c r="H31">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="I31">
+        <v>1708.9566669999999</v>
+      </c>
+      <c r="J31">
+        <v>1704.6855559999999</v>
+      </c>
+      <c r="K31" s="12">
         <f t="shared" si="1"/>
-        <v>0.9949033429726607</v>
-      </c>
-      <c r="O26" s="18">
-        <f t="shared" si="0"/>
-        <v>99.692788574100007</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
-        <v>2.0245427683394102E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27">
-        <v>-1000000</v>
-      </c>
-      <c r="E27" s="4">
-        <v>41897</v>
-      </c>
-      <c r="F27" s="4">
-        <v>42079</v>
-      </c>
-      <c r="G27">
-        <v>181</v>
-      </c>
-      <c r="H27" s="4">
-        <v>41439</v>
-      </c>
-      <c r="J27">
-        <v>0.372</v>
-      </c>
-      <c r="K27">
-        <v>-1870.3333333333001</v>
-      </c>
-      <c r="L27">
-        <v>-1856.386113045</v>
-      </c>
-      <c r="M27" s="12">
+        <v>99.750074938558981</v>
+      </c>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>1000000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41533</v>
+      </c>
+      <c r="D32" s="4">
+        <v>41624</v>
+      </c>
+      <c r="E32">
+        <v>91</v>
+      </c>
+      <c r="F32" s="4">
+        <v>41624</v>
+      </c>
+      <c r="H32">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="I32">
+        <v>1766.395743</v>
+      </c>
+      <c r="J32">
+        <v>1758.8742099999999</v>
+      </c>
+      <c r="K32" s="12">
         <f t="shared" si="1"/>
-        <v>0.9925429226760113</v>
-      </c>
-      <c r="O27" s="18">
-        <f t="shared" si="0"/>
-        <v>99.254292267599993</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
-        <v>-1.1324274851176597E-14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
+        <v>99.574187549431841</v>
+      </c>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28">
+      <c r="B33">
         <v>1000000</v>
       </c>
-      <c r="E28" s="4">
-        <v>41347</v>
-      </c>
-      <c r="F28" s="4">
-        <v>41439</v>
-      </c>
-      <c r="G28">
-        <v>92</v>
-      </c>
-      <c r="H28" s="4">
-        <v>41533</v>
-      </c>
-      <c r="J28">
-        <v>0.3</v>
-      </c>
-      <c r="K28">
-        <v>766.66666666660001</v>
-      </c>
-      <c r="L28">
-        <v>766.07125284419999</v>
-      </c>
-      <c r="M28" s="12">
+      <c r="C33" s="4">
+        <v>41624</v>
+      </c>
+      <c r="D33" s="4">
+        <v>41715</v>
+      </c>
+      <c r="E33">
+        <v>91</v>
+      </c>
+      <c r="F33" s="4">
+        <v>41715</v>
+      </c>
+      <c r="H33">
+        <v>-0.4476</v>
+      </c>
+      <c r="I33">
+        <v>-1131.3380160260999</v>
+      </c>
+      <c r="J33">
+        <v>-1127.7965570389999</v>
+      </c>
+      <c r="K33" s="12">
         <f t="shared" si="1"/>
-        <v>0.99922337327513033</v>
-      </c>
-      <c r="O28" s="18">
-        <f t="shared" si="0"/>
-        <v>99.922337327500003</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
-        <v>-1.3034018309099338E-13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>1000000</v>
-      </c>
-      <c r="E29" s="4">
-        <v>41439</v>
-      </c>
-      <c r="F29" s="4">
-        <v>41533</v>
-      </c>
-      <c r="G29">
-        <v>94</v>
-      </c>
-      <c r="H29" s="4">
-        <v>41624</v>
-      </c>
-      <c r="J29">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="K29">
-        <v>1740.4156813110001</v>
-      </c>
-      <c r="L29">
-        <v>1736.0425922295999</v>
-      </c>
-      <c r="M29" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99748733068291706</v>
-      </c>
-      <c r="O29" s="18">
-        <f t="shared" si="0"/>
-        <v>99.748733068299998</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
-        <v>8.2933659939499194E-14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30">
-        <v>1000000</v>
-      </c>
-      <c r="E30" s="4">
-        <v>41533</v>
-      </c>
-      <c r="F30" s="4">
-        <v>41624</v>
-      </c>
-      <c r="G30">
-        <v>91</v>
-      </c>
-      <c r="H30" s="4">
-        <v>41712</v>
-      </c>
-      <c r="J30">
-        <v>0.6996</v>
-      </c>
-      <c r="K30">
-        <v>1768.3364974797</v>
-      </c>
-      <c r="L30">
-        <v>1760.7796017861999</v>
-      </c>
-      <c r="M30" s="12">
-        <f t="shared" si="1"/>
-        <v>0.9957265510810468</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" si="0"/>
-        <v>99.572655108099994</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
-        <v>-4.6851411639181606E-14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31">
-        <v>1000000</v>
-      </c>
-      <c r="E31" s="4">
-        <v>41624</v>
-      </c>
-      <c r="F31" s="4">
-        <v>41712</v>
-      </c>
-      <c r="G31">
-        <v>88</v>
-      </c>
-      <c r="H31" s="4">
-        <v>41806</v>
-      </c>
-      <c r="J31">
-        <v>-0.47670000000000001</v>
-      </c>
-      <c r="K31">
-        <v>-1165.3101870661999</v>
-      </c>
-      <c r="L31">
-        <v>-1161.6603370176001</v>
-      </c>
-      <c r="M31" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99686791543649966</v>
-      </c>
-      <c r="O31" s="18">
-        <f t="shared" si="0"/>
-        <v>99.572655108099994</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
-        <v>-1.1413643554997188E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32">
-        <v>1000000</v>
-      </c>
-      <c r="E32" s="4">
-        <v>41712</v>
-      </c>
-      <c r="F32" s="4">
-        <v>41806</v>
-      </c>
-      <c r="G32">
-        <v>94</v>
-      </c>
-      <c r="H32" s="4">
-        <v>41897</v>
-      </c>
-      <c r="J32">
-        <v>0.35</v>
-      </c>
-      <c r="K32">
-        <v>913.87302623899996</v>
-      </c>
-      <c r="L32">
-        <v>910.17891068510005</v>
-      </c>
-      <c r="M32" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99595773652593422</v>
-      </c>
-      <c r="O32" s="18">
-        <f t="shared" si="0"/>
-        <v>99.692788574100007</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
-        <v>9.7014921506588525E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33">
-        <v>1000000</v>
-      </c>
-      <c r="E33" s="4">
-        <v>41806</v>
-      </c>
-      <c r="F33" s="4">
-        <v>41897</v>
-      </c>
-      <c r="G33">
-        <v>91</v>
-      </c>
-      <c r="H33" s="4">
-        <v>41988</v>
-      </c>
-      <c r="J33">
-        <v>0.4194</v>
-      </c>
-      <c r="K33">
-        <v>1060.2720839199001</v>
-      </c>
-      <c r="L33">
-        <v>1054.8682407525</v>
-      </c>
-      <c r="M33" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99490334297266259</v>
-      </c>
-      <c r="O33" s="18">
-        <f t="shared" si="0"/>
-        <v>99.692788574100007</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
-        <v>2.0245427683375228E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34">
-        <v>1000000</v>
-      </c>
-      <c r="E34" s="4">
-        <v>41897</v>
-      </c>
-      <c r="F34" s="4">
-        <v>41988</v>
-      </c>
-      <c r="G34">
-        <v>91</v>
-      </c>
-      <c r="H34" s="4">
-        <v>42079</v>
-      </c>
-      <c r="J34">
-        <v>0.45319999999999999</v>
-      </c>
-      <c r="K34">
-        <v>1145.5105373778999</v>
-      </c>
-      <c r="L34">
-        <v>1138.3682502216</v>
-      </c>
-      <c r="M34" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99376497472240732</v>
-      </c>
-      <c r="O34" s="18">
-        <f t="shared" si="0"/>
-        <v>99.692788574100007</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>3.1629110185927845E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>1000000</v>
-      </c>
-      <c r="E35" s="4">
-        <v>41988</v>
-      </c>
-      <c r="F35" s="4">
-        <v>42079</v>
-      </c>
-      <c r="G35">
-        <v>91</v>
-      </c>
-      <c r="J35">
-        <v>0.48709999999999998</v>
-      </c>
-      <c r="K35">
-        <v>1231.2334494168999</v>
-      </c>
-      <c r="L35">
-        <v>1222.0520463806999</v>
-      </c>
-      <c r="M35" s="12">
-        <f t="shared" si="1"/>
-        <v>0.99254292267599764</v>
-      </c>
-      <c r="O35" s="18">
-        <f t="shared" si="0"/>
-        <v>99.254292267599993</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
-        <v>2.3314683517128287E-15</v>
-      </c>
+        <v>99.686967207241949</v>
+      </c>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="M34" s="12"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="M35" s="12"/>
+      <c r="O35" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4873,20 +4645,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F15" sqref="F15:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>6.5000000000000002E-2</v>
@@ -4898,46 +4676,65 @@
         <v>41368</v>
       </c>
       <c r="F1">
-        <v>99.995500000000007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99.995708354800001</v>
+      </c>
+      <c r="H1" s="4">
+        <v>41347</v>
+      </c>
+      <c r="I1">
+        <f>(E1-H1)/360</f>
+        <v>5.8333333333333334E-2</v>
+      </c>
+      <c r="J1" s="17">
+        <f>100/(1+I1*C1/100)</f>
+        <v>99.996208477095252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>100.07810000000001</v>
+        <v>100.078125</v>
       </c>
       <c r="C2">
-        <v>100.07810000000001</v>
+        <v>100.078125</v>
       </c>
       <c r="E2" s="4">
         <v>41729</v>
       </c>
       <c r="F2">
-        <v>99.815600000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99.816266974399994</v>
+      </c>
+      <c r="H2" s="11">
+        <f>100/F1-1</f>
+        <v>4.291829390079549E-5</v>
+      </c>
+      <c r="I2">
+        <f>H2/(C1/100)*360</f>
+        <v>23.770132006594427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3">
-        <v>100.2578</v>
+        <v>100.257813</v>
       </c>
       <c r="C3">
-        <v>100.2578</v>
+        <v>100.257813</v>
       </c>
       <c r="E3" s="4">
         <v>42109</v>
       </c>
       <c r="F3">
-        <v>99.475499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99.476483153100006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>102.375</v>
@@ -4949,12 +4746,12 @@
         <v>42247</v>
       </c>
       <c r="F4">
-        <v>99.304199999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99.307587073700006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>101.75</v>
@@ -4966,63 +4763,63 @@
         <v>42825</v>
       </c>
       <c r="F5">
-        <v>97.734899999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>97.737546620800003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>110.29689999999999</v>
+        <v>110.296875</v>
       </c>
       <c r="C6">
-        <v>110.29689999999999</v>
+        <v>110.296875</v>
       </c>
       <c r="E6" s="4">
         <v>43511</v>
       </c>
       <c r="F6">
-        <v>94.312899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>94.320020079299994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>102.85939999999999</v>
+        <v>102.859375</v>
       </c>
       <c r="C7">
-        <v>102.85939999999999</v>
+        <v>102.859375</v>
       </c>
       <c r="E7" s="4">
         <v>43556</v>
       </c>
       <c r="F7">
-        <v>93.971199999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>93.975017447200003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8">
-        <v>116.20310000000001</v>
+        <v>116.203125</v>
       </c>
       <c r="C8">
-        <v>116.20310000000001</v>
+        <v>116.203125</v>
       </c>
       <c r="E8" s="4">
         <v>43879</v>
       </c>
       <c r="F8">
-        <v>91.782799999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>91.791870144699999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>102.9375</v>
@@ -5034,42 +4831,48 @@
         <v>44515</v>
       </c>
       <c r="F9">
-        <v>86.378399999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>86.383208905000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10">
-        <v>102.57810000000001</v>
+        <v>102.578125</v>
       </c>
       <c r="C10">
-        <v>102.57810000000001</v>
+        <v>102.578125</v>
       </c>
       <c r="E10" s="4">
         <v>44607</v>
       </c>
       <c r="F10">
-        <v>85.584900000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85.589676089299999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>101.17189999999999</v>
+        <v>101.171875</v>
       </c>
       <c r="C11">
-        <v>101.17189999999999</v>
+        <v>101.171875</v>
       </c>
       <c r="E11" s="4">
         <v>51914</v>
       </c>
       <c r="F11">
-        <v>36.783799999999999</v>
-      </c>
+        <v>36.788102128600002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5080,7 +4883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -5088,42 +4891,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>64</v>
-      </c>
-      <c r="I1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -5158,7 +4961,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -5193,7 +4996,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5228,7 +5031,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -5248,7 +5051,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -5283,42 +5086,42 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>64</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -5353,7 +5156,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5388,7 +5191,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -5423,7 +5226,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -5458,7 +5261,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -5493,7 +5296,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -5528,7 +5331,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5563,7 +5366,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -5598,7 +5401,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -5633,7 +5436,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -5668,7 +5471,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -5703,7 +5506,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -5738,7 +5541,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -5773,7 +5576,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -5793,7 +5596,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -256,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
@@ -266,8 +266,9 @@
     <numFmt numFmtId="170" formatCode="0.00000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000"/>
     <numFmt numFmtId="172" formatCode="0.000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -414,6 +415,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -774,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -795,6 +802,11 @@
     <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2363,7 +2375,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3859,22 +3871,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4010,16 +4024,17 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="20">
         <v>41715</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="21">
         <v>99.686967177599996</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" s="22"/>
+      <c r="D7" s="20">
         <v>41715</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="23">
         <v>99.687096735281102</v>
       </c>
       <c r="F7" s="17"/>
@@ -4371,6 +4386,10 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="H25" s="4"/>
+      <c r="J25" s="12">
+        <f>SUM(J28:J29)/B28</f>
+        <v>3.1184751500000002E-3</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="O25" s="18"/>
     </row>
@@ -4441,14 +4460,15 @@
         <v>0.311</v>
       </c>
       <c r="I28">
-        <v>-1563.6388890000001</v>
-      </c>
-      <c r="J28">
+        <f>B28*E28/360*H28/100</f>
+        <v>-1563.6388888888887</v>
+      </c>
+      <c r="J28" s="17">
         <v>-1559.7309640000001</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="17">
         <f>J28/I28*100</f>
-        <v>99.750074967596944</v>
+        <v>99.750074974685134</v>
       </c>
       <c r="M28" s="18"/>
     </row>
@@ -4478,14 +4498,15 @@
         <v>0.311</v>
       </c>
       <c r="I29">
-        <v>-1563.6388890000001</v>
-      </c>
-      <c r="J29">
+        <f>B29*E29/360*H29/100</f>
+        <v>-1563.6388888888887</v>
+      </c>
+      <c r="J29" s="17">
         <v>-1558.7441859999999</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="17">
         <f t="shared" ref="K29:K33" si="1">J29/I29*100</f>
-        <v>99.686967174170846</v>
+        <v>99.686967181254559</v>
       </c>
       <c r="M29" s="18"/>
     </row>
@@ -4514,10 +4535,10 @@
       <c r="I30">
         <v>783.33333330000005</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="17">
         <v>782.71194049999997</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="17">
         <f t="shared" si="1"/>
         <v>99.920673259571075</v>
       </c>
@@ -4548,10 +4569,10 @@
       <c r="I31">
         <v>1708.9566669999999</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="17">
         <v>1704.6855559999999</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="17">
         <f t="shared" si="1"/>
         <v>99.750074938558981</v>
       </c>
@@ -4582,10 +4603,10 @@
       <c r="I32">
         <v>1766.395743</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="17">
         <v>1758.8742099999999</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="17">
         <f t="shared" si="1"/>
         <v>99.574187549431841</v>
       </c>
@@ -4616,10 +4637,10 @@
       <c r="I33">
         <v>-1131.3380160260999</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="17">
         <v>-1127.7965570389999</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="17">
         <f t="shared" si="1"/>
         <v>99.686967207241949</v>
       </c>
@@ -4629,6 +4650,11 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="H34" s="4"/>
+      <c r="J34" s="12">
+        <f>SUM(J30:J33)/B33</f>
+        <v>3.1184751494609999E-3</v>
+      </c>
+      <c r="K34" s="17"/>
       <c r="M34" s="12"/>
       <c r="O34" s="18"/>
     </row>
@@ -4637,6 +4663,30 @@
       <c r="F35" s="4"/>
       <c r="M35" s="12"/>
       <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D36" s="24">
+        <f>(B2/B4-1)/E30*360</f>
+        <v>2.9999999979795832E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D37" s="24">
+        <f>(B4/B5-1)/E31*360</f>
+        <v>6.7658539295714307E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D38" s="24">
+        <f t="shared" ref="D38:D39" si="2">(B5/B6-1)/E32*360</f>
+        <v>6.9879392010287755E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D39" s="24">
+        <f>(B6/B7-1)/E33*360</f>
+        <v>-4.4756229177501279E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="61">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -114,66 +114,6 @@
     <t>BBG_SERVERAPI "EUDR1 Curncy" BSF</t>
   </si>
   <si>
-    <t>12/03/2013</t>
-  </si>
-  <si>
-    <t>13/03/2013</t>
-  </si>
-  <si>
-    <t>15/04/2013</t>
-  </si>
-  <si>
-    <t>13/06/2013</t>
-  </si>
-  <si>
-    <t>13/09/2013</t>
-  </si>
-  <si>
-    <t>13/12/2013</t>
-  </si>
-  <si>
-    <t>13/03/2014</t>
-  </si>
-  <si>
-    <t>16/03/2015</t>
-  </si>
-  <si>
-    <t>14/03/2016</t>
-  </si>
-  <si>
-    <t>13/03/2017</t>
-  </si>
-  <si>
-    <t>13/03/2018</t>
-  </si>
-  <si>
-    <t>13/03/2019</t>
-  </si>
-  <si>
-    <t>13/03/2020</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>14/03/2022</t>
-  </si>
-  <si>
-    <t>13/03/2023</t>
-  </si>
-  <si>
-    <t>13/03/2028</t>
-  </si>
-  <si>
-    <t>14/03/2033</t>
-  </si>
-  <si>
-    <t>15/03/2038</t>
-  </si>
-  <si>
-    <t>16/03/2043</t>
-  </si>
-  <si>
     <t>Float Rate</t>
   </si>
   <si>
@@ -251,12 +191,24 @@
   <si>
     <t>T 3 1/8 02/15/42</t>
   </si>
+  <si>
+    <t>Pay/Rec</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>18/03/2013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
@@ -266,12 +218,29 @@
     <numFmt numFmtId="170" formatCode="0.00000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000"/>
     <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -423,6 +392,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -722,93 +698,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="59">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="44"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
@@ -860,6 +842,8 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="56"/>
     <cellStyle name="Normal 3" xfId="42"/>
+    <cellStyle name="Normal_03042013" xfId="58"/>
+    <cellStyle name="Normal_03122013" xfId="57"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="43"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -2374,19 +2358,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2396,204 +2380,156 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3">
+        <v>99.998500022499996</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4">
+        <v>41351</v>
+      </c>
+      <c r="E1">
+        <v>0.99998500022499603</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="14">
+        <f>E1-B1/100</f>
+        <v>-3.8857805861880479E-15</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>41352</v>
+      </c>
+      <c r="B2" s="3">
+        <v>99.997944478364005</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="12">
+        <v>41352</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.99997944478363698</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="14">
+        <f t="shared" ref="G2:G20" si="0">E2-B2/100</f>
+        <v>-3.1086244689504383E-15</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>41383</v>
+      </c>
+      <c r="B3" s="5">
+        <v>99.982016787633995</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12">
+        <v>41383</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.99982016787633698</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="14">
+        <f t="shared" si="0"/>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
+        <v>41444</v>
+      </c>
+      <c r="B4" s="3">
+        <v>99.921338119138994</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="12">
+        <v>41444</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.99921338119139003</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>100</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="4">
-        <v>41344</v>
-      </c>
-      <c r="H1" s="7">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="C2" s="16">
-        <v>99.9995000025</v>
-      </c>
-      <c r="D2" s="12">
-        <v>99.9995000025</v>
-      </c>
-      <c r="E2" s="12">
-        <f>D2-C2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4">
-        <v>41345</v>
-      </c>
-      <c r="H2" s="14">
-        <v>0.99999500002499997</v>
-      </c>
-      <c r="I2">
-        <f>H2*100</f>
-        <v>99.9995000025</v>
-      </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="12">
-        <v>99.998944452800004</v>
-      </c>
-      <c r="D3" s="12">
-        <v>99.998944452808601</v>
-      </c>
-      <c r="E3" s="12">
-        <f t="shared" ref="E3:E21" si="0">D3-C3</f>
-        <v>8.5975671026972122E-12</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4">
-        <v>41346</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.99998944452808602</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I21" si="1">H3*100</f>
-        <v>99.998944452808601</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.185</v>
-      </c>
-      <c r="C4" s="16">
-        <v>99.981989173800002</v>
-      </c>
-      <c r="D4" s="12">
-        <v>99.981989173811201</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="H4" s="14"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15">
+        <v>41536</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99.750419354426</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="12">
+        <v>41536</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.99750419354425601</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>1.1198153515579179E-11</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4">
-        <v>41379</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.99981989173811203</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>99.981989173811201</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="C5" s="16">
-        <v>99.922337327500003</v>
-      </c>
-      <c r="D5" s="12">
-        <v>99.922337327524104</v>
-      </c>
-      <c r="E5" s="12">
+        <v>-3.9968028886505635E-15</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15">
+        <v>41627</v>
+      </c>
+      <c r="B6" s="3">
+        <v>99.574724240695005</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="12">
+        <v>41627</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.99574724240695101</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>2.4101609596982598E-11</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4">
-        <v>41438</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.99922337327524102</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>99.922337327524104</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.48549999999999999</v>
-      </c>
-      <c r="C6" s="16">
-        <v>99.751416853600006</v>
-      </c>
-      <c r="D6" s="12">
-        <v>99.751416853631696</v>
-      </c>
-      <c r="E6" s="12">
+        <v>9.9920072216264089E-16</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>41717</v>
+      </c>
+      <c r="B7" s="22">
+        <v>99.687818019233006</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25">
+        <v>41717</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.99687818019244301</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27">
         <f t="shared" si="0"/>
-        <v>3.1690206014900468E-11</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4">
-        <v>41530</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.99751416853631703</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>99.751416853631696</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.55640000000000001</v>
-      </c>
-      <c r="C7" s="16">
-        <v>99.575719982899997</v>
-      </c>
-      <c r="D7" s="12">
-        <v>99.575719982958802</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="0"/>
-        <v>5.8804516811505891E-11</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4">
-        <v>41621</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0.99575719982958799</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>99.575719982958802</v>
-      </c>
+        <v>1.1290968160437842E-13</v>
+      </c>
+      <c r="H7" s="14"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2602,33 +2538,25 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>37</v>
+      <c r="A8" s="15">
+        <v>42082</v>
       </c>
       <c r="B8" s="3">
-        <v>0.311</v>
-      </c>
-      <c r="C8" s="16">
-        <v>99.688814892400003</v>
-      </c>
+        <v>99.257355388015</v>
+      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="12">
-        <v>99.688814892440206</v>
+        <v>42082</v>
       </c>
       <c r="E8" s="12">
+        <v>0.99257355388012902</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="14">
         <f t="shared" si="0"/>
-        <v>4.0202507989306469E-11</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4">
-        <v>41711</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.99688814892440203</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>99.688814892440206</v>
-      </c>
+        <v>-2.0983215165415459E-14</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -2637,33 +2565,25 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>38</v>
+      <c r="A9" s="15">
+        <v>42450</v>
       </c>
       <c r="B9" s="3">
-        <v>0.372</v>
-      </c>
-      <c r="C9" s="16">
-        <v>99.254409104299995</v>
-      </c>
+        <v>98.539018735338999</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="12">
-        <v>99.258347549043606</v>
+        <v>42450</v>
       </c>
       <c r="E9" s="12">
+        <v>0.985390187353401</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
-        <v>3.9384447436106029E-3</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4">
-        <v>42076</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.99258347549043602</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>99.258347549043606</v>
-      </c>
+        <v>1.099120794378905E-14</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2672,33 +2592,25 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>39</v>
+      <c r="A10" s="15">
+        <v>42814</v>
       </c>
       <c r="B10" s="3">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="C10" s="16">
-        <v>98.541432291600003</v>
-      </c>
+        <v>97.311204308168001</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="12">
-        <v>98.541338006170605</v>
+        <v>42814</v>
       </c>
       <c r="E10" s="12">
+        <v>0.97311193749819802</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>-9.4285429398155429E-5</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4">
-        <v>42443</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.98541338006170598</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>98.541338006170605</v>
-      </c>
+        <v>-1.0558348195743861E-7</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -2707,33 +2619,25 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>40</v>
+      <c r="A11" s="15">
+        <v>43178</v>
       </c>
       <c r="B11" s="3">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="C11" s="16">
-        <v>97.314034454799994</v>
-      </c>
+        <v>95.511653660522995</v>
+      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="12">
-        <v>97.314000791116399</v>
+        <v>43178</v>
       </c>
       <c r="E11" s="12">
+        <v>0.95511631670198105</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="14">
         <f t="shared" si="0"/>
-        <v>-3.3663683595364091E-5</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4">
-        <v>42807</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.97314000791116395</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>97.314000791116399</v>
-      </c>
+        <v>-2.1990324894360924E-7</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -2742,33 +2646,25 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>41</v>
+      <c r="A12" s="15">
+        <v>43543</v>
       </c>
       <c r="B12" s="3">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="C12" s="16">
-        <v>95.512284811800001</v>
-      </c>
+        <v>93.198523659385003</v>
+      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="12">
-        <v>95.512595653876801</v>
+        <v>43543</v>
       </c>
       <c r="E12" s="12">
+        <v>0.93198501989188998</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="14">
         <f t="shared" si="0"/>
-        <v>3.1084207680009968E-4</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4">
-        <v>43172</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.95512595653876797</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>95.512595653876801</v>
-      </c>
+        <v>-2.1670196004297537E-7</v>
+      </c>
+      <c r="H12" s="7"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
@@ -2777,33 +2673,25 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>42</v>
+      <c r="A13" s="15">
+        <v>43909</v>
       </c>
       <c r="B13" s="3">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="C13" s="16">
-        <v>93.1986156225</v>
-      </c>
+        <v>90.535926466104996</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="12">
-        <v>93.1994043138574</v>
+        <v>43909</v>
       </c>
       <c r="E13" s="12">
+        <v>0.90535905210391499</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>7.8869135739978447E-4</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4">
-        <v>43537</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.93199404313857404</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>93.1994043138574</v>
-      </c>
+        <v>-2.1255713500423212E-7</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
@@ -2812,33 +2700,25 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>43</v>
+      <c r="A14" s="15">
+        <v>44277</v>
       </c>
       <c r="B14" s="3">
-        <v>1.399</v>
-      </c>
-      <c r="C14" s="16">
-        <v>90.535378502</v>
-      </c>
+        <v>87.640011654926994</v>
+      </c>
+      <c r="C14" s="16"/>
       <c r="D14" s="12">
-        <v>90.536708559872807</v>
+        <v>44274</v>
       </c>
       <c r="E14" s="12">
+        <v>0.87663130619954399</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>1.3300578728063783E-3</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4">
-        <v>43903</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.90536708559872803</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>90.536708559872807</v>
-      </c>
+        <v>2.3118965027402183E-4</v>
+      </c>
+      <c r="H14" s="7"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -2847,33 +2727,25 @@
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>44</v>
+      <c r="A15" s="15">
+        <v>44641</v>
       </c>
       <c r="B15" s="3">
-        <v>1.613</v>
-      </c>
-      <c r="C15" s="16">
-        <v>87.6542671622</v>
-      </c>
+        <v>84.712352659877993</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="12">
-        <v>87.655972946365495</v>
+        <v>44641</v>
       </c>
       <c r="E15" s="12">
+        <v>0.84712216286617203</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>1.705784165494606E-3</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4">
-        <v>44270</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.87655972946365501</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>87.655972946365495</v>
-      </c>
+        <v>-1.3637326079507517E-6</v>
+      </c>
+      <c r="H15" s="7"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2882,33 +2754,25 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>45</v>
+      <c r="A16" s="15">
+        <v>45005</v>
       </c>
       <c r="B16" s="3">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="C16" s="16">
-        <v>84.714893678699994</v>
-      </c>
+        <v>81.705167519043997</v>
+      </c>
+      <c r="C16" s="16"/>
       <c r="D16" s="12">
-        <v>84.716781845209297</v>
+        <v>45005</v>
       </c>
       <c r="E16" s="12">
+        <v>0.81704960421286399</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>1.8881665093033462E-3</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4">
-        <v>44634</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.84716781845209299</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>84.716781845209297</v>
-      </c>
+        <v>-2.0709775759852889E-6</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2917,33 +2781,25 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>46</v>
+      <c r="A17" s="15">
+        <v>46832</v>
       </c>
       <c r="B17" s="3">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="C17" s="16">
-        <v>81.707446031000003</v>
-      </c>
+        <v>67.265449607741999</v>
+      </c>
+      <c r="C17" s="16"/>
       <c r="D17" s="12">
-        <v>81.709627522519497</v>
+        <v>46832</v>
       </c>
       <c r="E17" s="12">
+        <v>0.67265100689836699</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>2.1814915194937612E-3</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4">
-        <v>44998</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.81709627522519501</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>81.709627522519497</v>
-      </c>
+        <v>-3.4891790530178213E-6</v>
+      </c>
+      <c r="H17" s="7"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2952,33 +2808,25 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>47</v>
+      <c r="A18" s="15">
+        <v>48659</v>
       </c>
       <c r="B18" s="3">
-        <v>2.5169999999999999</v>
-      </c>
-      <c r="C18" s="16">
-        <v>67.222813942800002</v>
-      </c>
+        <v>55.778982275236999</v>
+      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="12">
-        <v>67.242917614603897</v>
+        <v>48659</v>
       </c>
       <c r="E18" s="12">
+        <v>0.55778628037335198</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>2.010367180389494E-2</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4">
-        <v>46825</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.67242917614603903</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>67.242917614603897</v>
-      </c>
+        <v>-3.5423790180066916E-6</v>
+      </c>
+      <c r="H18" s="7"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2987,33 +2835,25 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>48</v>
+      <c r="A19" s="15">
+        <v>50486</v>
       </c>
       <c r="B19" s="3">
-        <v>2.7559999999999998</v>
-      </c>
-      <c r="C19" s="16">
-        <v>55.720053002900002</v>
-      </c>
+        <v>46.659891150097003</v>
+      </c>
+      <c r="C19" s="16"/>
       <c r="D19" s="12">
-        <v>55.734512405066504</v>
+        <v>50483</v>
       </c>
       <c r="E19" s="12">
+        <v>0.46673146770530699</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>1.4459402166501434E-2</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4">
-        <v>48652</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.55734512405066505</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>55.734512405066504</v>
-      </c>
+        <v>1.3255620433694215E-4</v>
+      </c>
+      <c r="H19" s="7"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3022,33 +2862,25 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>49</v>
+      <c r="A20" s="15">
+        <v>52309</v>
       </c>
       <c r="B20" s="3">
-        <v>2.871</v>
-      </c>
-      <c r="C20" s="16">
-        <v>46.6017097139</v>
-      </c>
+        <v>39.136363282002002</v>
+      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="12">
-        <v>46.604133439115195</v>
+        <v>52309</v>
       </c>
       <c r="E20" s="12">
+        <v>0.39135938265424802</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>2.4237252151948496E-3</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4">
-        <v>50479</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.46604133439115197</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>46.604133439115195</v>
-      </c>
+        <v>-4.250165771990666E-6</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -3057,33 +2889,13 @@
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="C21" s="16">
-        <v>39.0637069653</v>
-      </c>
-      <c r="D21" s="12">
-        <v>39.066271556672</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>2.5645913719998248E-3</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="4">
-        <v>52303</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.39066271556672</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>39.066271556672</v>
-      </c>
+      <c r="H21" s="7"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -3128,703 +2940,982 @@
       <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="12">
-        <f>0.00311*(184/360*C6/100+181/360*C8/100)</f>
-        <v>3.144377265871804E-3</v>
-      </c>
-      <c r="C26" s="12">
-        <f>0.00311*(184/360*D6/100+181/360*D8/100)</f>
-        <v>3.1443772658729359E-3</v>
-      </c>
-      <c r="E26">
-        <f>0.00311*(184/360*C6/100+181/360*C8/100)</f>
-        <v>3.144377265871804E-3</v>
-      </c>
-      <c r="F26">
-        <f>0.00311*(184/360*D6/100+181/360*D8/100)</f>
-        <v>3.1443772658729359E-3</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="12">
-        <f>B26+C8/100</f>
-        <v>1.0000325261898719</v>
-      </c>
-      <c r="C27" s="12">
-        <f>C26+D8/100</f>
-        <v>1.0000325261902749</v>
-      </c>
-      <c r="E27">
-        <f>B26+C8/100</f>
-        <v>1.0000325261898719</v>
-      </c>
-      <c r="F27">
-        <f>C26+D8/100</f>
-        <v>1.0000325261902749</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>-1000000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41352</v>
+      </c>
+      <c r="F27" s="4">
+        <v>41536</v>
+      </c>
+      <c r="G27" s="4">
+        <v>180</v>
+      </c>
+      <c r="H27" s="4">
+        <v>41536</v>
+      </c>
+      <c r="I27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K27" s="28">
+        <v>-3394.9999999997999</v>
+      </c>
+      <c r="L27" s="28">
+        <v>-3386.5267370826</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>-1000000</v>
+      </c>
+      <c r="E28" s="4">
+        <v>41536</v>
+      </c>
+      <c r="F28" s="4">
+        <v>41717</v>
+      </c>
+      <c r="G28" s="4">
+        <v>180</v>
+      </c>
+      <c r="H28" s="4">
+        <v>41717</v>
+      </c>
+      <c r="I28">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J28">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K28" s="28">
+        <v>-3394.9999999997999</v>
+      </c>
+      <c r="L28" s="28">
+        <v>-3384.4014217528002</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="12">
-        <v>99.998944452800004</v>
-      </c>
-      <c r="C29" s="6">
-        <f>B29/100</f>
-        <v>0.99998944452799998</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>-1000000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>41717</v>
+      </c>
+      <c r="F29" s="4">
+        <v>41901</v>
+      </c>
+      <c r="G29" s="4">
+        <v>180</v>
+      </c>
+      <c r="H29" s="4">
+        <v>41901</v>
+      </c>
+      <c r="I29">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J29">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K29" s="28">
+        <v>-3394.9999999997999</v>
+      </c>
+      <c r="L29" s="28">
+        <v>-3377.0263554967</v>
+      </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="16">
-        <v>99.922337327500003</v>
-      </c>
-      <c r="C30" s="6">
-        <f t="shared" ref="C30:C33" si="2">B30/100</f>
-        <v>0.99922337327499999</v>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D30" s="10">
-        <f>(C29/C30-1)/92*360</f>
-        <v>3.0000000006104852E-3</v>
-      </c>
-      <c r="E30">
-        <f>D30/100*92/360</f>
-        <v>7.6666666682267952E-6</v>
-      </c>
-      <c r="F30">
-        <f>C30*E30</f>
-        <v>7.6607125300005841E-6</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+        <v>-1000000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41901</v>
+      </c>
+      <c r="F30" s="4">
+        <v>42082</v>
+      </c>
+      <c r="G30" s="4">
+        <v>180</v>
+      </c>
+      <c r="H30" s="4">
+        <v>42082</v>
+      </c>
+      <c r="I30">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J30">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K30" s="28">
+        <v>-3394.9999999997999</v>
+      </c>
+      <c r="L30" s="28">
+        <v>-3369.7872154228999</v>
+      </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="16">
-        <v>99.751416853600006</v>
-      </c>
-      <c r="C31" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99751416853600006</v>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="13">
-        <f>(C30/C31-1)/92*360</f>
-        <v>6.7048596079312952E-3</v>
-      </c>
-      <c r="E31">
-        <f>D31/100*92/360</f>
-        <v>1.7134641220268867E-5</v>
-      </c>
-      <c r="F31">
-        <f>C31*E31</f>
-        <v>1.7092047389999173E-5</v>
-      </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+        <v>-1000000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>42082</v>
+      </c>
+      <c r="F31" s="4">
+        <v>42268</v>
+      </c>
+      <c r="G31" s="4">
+        <v>182</v>
+      </c>
+      <c r="H31" s="4">
+        <v>42268</v>
+      </c>
+      <c r="I31">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J31">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K31" s="28">
+        <v>-3432.7222222219998</v>
+      </c>
+      <c r="L31" s="28">
+        <v>-3394.7436458528</v>
+      </c>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="16">
-        <v>99.575719982899997</v>
-      </c>
-      <c r="C32" s="6">
-        <f t="shared" si="2"/>
-        <v>0.99575719982900002</v>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="13">
-        <f>(C31/C32-1)/91*360</f>
-        <v>6.9802612880728102E-3</v>
-      </c>
-      <c r="E32">
-        <f>D32/100*91/360</f>
-        <v>1.7644549367072933E-5</v>
-      </c>
-      <c r="F32">
-        <f>C32*E32</f>
-        <v>1.75696870700011E-5</v>
+        <v>-1000000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>42268</v>
+      </c>
+      <c r="F32" s="4">
+        <v>42450</v>
+      </c>
+      <c r="G32" s="4">
+        <v>180</v>
       </c>
       <c r="H32" s="13">
-        <f>SUM(F30:F33)</f>
-        <v>3.1443100070000426E-5</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+        <v>42450</v>
+      </c>
+      <c r="I32">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J32">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K32" s="28">
+        <v>-3394.9999999997999</v>
+      </c>
+      <c r="L32" s="28">
+        <v>-3345.3996860645998</v>
+      </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="16">
-        <v>99.684513452100006</v>
-      </c>
-      <c r="C33" s="6">
-        <f t="shared" si="2"/>
-        <v>0.9968451345210001</v>
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="13">
-        <f>(C32/C33-1)/90*360</f>
-        <v>-4.3655113691167813E-3</v>
-      </c>
-      <c r="E33">
-        <f>D33/100*90/360</f>
-        <v>-1.0913778422791952E-5</v>
-      </c>
-      <c r="F33">
-        <f>C33*E33</f>
-        <v>-1.0879346920000431E-5</v>
+        <v>-1000000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42450</v>
+      </c>
+      <c r="F33" s="4">
+        <v>42632</v>
+      </c>
+      <c r="G33" s="4">
+        <v>178</v>
       </c>
       <c r="H33" s="13">
-        <f>H32*100-B26</f>
-        <v>-6.7258871761562838E-8</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+        <v>42632</v>
+      </c>
+      <c r="I33">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J33">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K33" s="28">
+        <v>-3357.2777777776</v>
+      </c>
+      <c r="L33" s="28">
+        <v>-3287.5534019699999</v>
+      </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>-1000000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42632</v>
+      </c>
+      <c r="F34" s="4">
+        <v>42814</v>
+      </c>
+      <c r="G34" s="4">
+        <v>181</v>
+      </c>
+      <c r="H34" s="4">
+        <v>42814</v>
+      </c>
+      <c r="I34">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="K34" s="28">
+        <v>-3413.8611111108999</v>
+      </c>
+      <c r="L34" s="28">
+        <v>-3322.0693606302998</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="G35"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>1000000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>41352</v>
+      </c>
+      <c r="F35" s="4">
+        <v>41444</v>
+      </c>
+      <c r="G35">
+        <v>92</v>
+      </c>
+      <c r="H35" s="4">
+        <v>41444</v>
+      </c>
+      <c r="J35">
+        <v>0.3</v>
+      </c>
+      <c r="K35" s="28">
+        <v>766.66666666660001</v>
+      </c>
+      <c r="L35" s="28">
+        <v>766.06359224660002</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>1000000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>41444</v>
+      </c>
+      <c r="F36" s="4">
+        <v>41536</v>
+      </c>
+      <c r="G36">
+        <v>92</v>
+      </c>
+      <c r="H36" s="9">
+        <v>41536</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
+        <v>0.6704859608</v>
+      </c>
+      <c r="K36" s="28">
+        <v>1713.4641219488999</v>
+      </c>
+      <c r="L36" s="28">
+        <v>1709.1876471317</v>
+      </c>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>41346</v>
+      <c r="B37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="4">
-        <v>41530</v>
-      </c>
-      <c r="E37" s="7">
-        <v>180</v>
+        <v>1000000</v>
+      </c>
+      <c r="E37" s="4">
+        <v>41536</v>
       </c>
       <c r="F37" s="4">
-        <v>41530</v>
+        <v>41627</v>
       </c>
       <c r="G37">
-        <v>0.372</v>
+        <v>91</v>
       </c>
       <c r="H37" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="I37" s="9">
-        <v>-1860</v>
-      </c>
+        <v>41627</v>
+      </c>
+      <c r="I37" s="9"/>
       <c r="J37" s="9">
-        <v>-1855.38</v>
-      </c>
-      <c r="K37" s="11">
-        <f t="shared" ref="K37:K40" si="3">J37/I37</f>
-        <v>0.99751612903225817</v>
-      </c>
-      <c r="L37" s="9"/>
+        <v>0.69802612870000003</v>
+      </c>
+      <c r="K37" s="28">
+        <v>1764.454936436</v>
+      </c>
+      <c r="L37" s="28">
+        <v>1756.9511373073999</v>
+      </c>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>41530</v>
+        <v>59</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="4">
-        <v>41711</v>
-      </c>
-      <c r="E38" s="7">
-        <v>180</v>
+        <v>1000000</v>
+      </c>
+      <c r="E38" s="4">
+        <v>41627</v>
       </c>
       <c r="F38" s="4">
-        <v>41711</v>
+        <v>41717</v>
       </c>
       <c r="G38">
-        <v>0.372</v>
+        <v>90</v>
       </c>
       <c r="H38" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="I38" s="9">
-        <v>-1860</v>
-      </c>
+        <v>41717</v>
+      </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="9">
-        <v>-1854.21</v>
-      </c>
-      <c r="K38" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99688709677419352</v>
-      </c>
-      <c r="L38" s="9"/>
+        <v>-0.45379177030000001</v>
+      </c>
+      <c r="K38" s="28">
+        <v>-1134.4794257213</v>
+      </c>
+      <c r="L38" s="28">
+        <v>-1130.9377853787</v>
+      </c>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="C39" s="4">
-        <v>41711</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D39" s="4">
-        <v>41897</v>
-      </c>
-      <c r="E39" s="7">
-        <v>182</v>
+        <v>1000000</v>
+      </c>
+      <c r="E39" s="4">
+        <v>41717</v>
       </c>
       <c r="F39" s="4">
-        <v>41897</v>
+        <v>41809</v>
       </c>
       <c r="G39">
-        <v>0.372</v>
+        <v>92</v>
       </c>
       <c r="H39" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="I39" s="9">
-        <v>-1880.67</v>
-      </c>
+        <v>41809</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="9">
-        <v>-1870.97</v>
-      </c>
-      <c r="K39" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99484226366135475</v>
-      </c>
-      <c r="L39" s="9"/>
+        <v>0.4270505</v>
+      </c>
+      <c r="K39" s="28">
+        <v>1091.3512778664999</v>
+      </c>
+      <c r="L39" s="28">
+        <v>1086.7582408353001</v>
+      </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="7">
-        <v>-1000000</v>
-      </c>
-      <c r="C40" s="4">
-        <v>41897</v>
+        <v>59</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="4">
-        <v>42076</v>
-      </c>
-      <c r="E40" s="7">
-        <v>178</v>
+        <v>1000000</v>
+      </c>
+      <c r="E40" s="4">
+        <v>41809</v>
       </c>
       <c r="F40" s="4">
-        <v>42076</v>
+        <v>41901</v>
       </c>
       <c r="G40">
-        <v>0.372</v>
+        <v>92</v>
       </c>
       <c r="H40" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="I40" s="9">
-        <v>-1839.33</v>
-      </c>
+        <v>41901</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="9">
-        <v>-1825.69</v>
-      </c>
-      <c r="K40" s="11">
-        <f t="shared" si="3"/>
-        <v>0.9925842562237337</v>
-      </c>
-      <c r="L40" s="9"/>
+        <v>0.4270505</v>
+      </c>
+      <c r="K40" s="28">
+        <v>1091.3512778667</v>
+      </c>
+      <c r="L40" s="28">
+        <v>1085.5734988104</v>
+      </c>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="7">
+        <v>59</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4">
         <v>1000000</v>
       </c>
-      <c r="C41" s="4">
-        <v>41346</v>
-      </c>
-      <c r="D41" s="4">
-        <v>41438</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="E41" s="4">
+        <v>41901</v>
+      </c>
+      <c r="F41" s="4">
+        <v>41992</v>
+      </c>
+      <c r="G41">
+        <v>91</v>
+      </c>
+      <c r="H41" s="9">
+        <v>41992</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <v>0.427047968</v>
+      </c>
+      <c r="K41" s="28">
+        <v>1079.4823636049</v>
+      </c>
+      <c r="L41" s="28">
+        <v>1072.6095572792001</v>
+      </c>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E42" s="4">
+        <v>41992</v>
+      </c>
+      <c r="F42" s="4">
+        <v>42082</v>
+      </c>
+      <c r="G42">
+        <v>90</v>
+      </c>
+      <c r="H42" s="9">
+        <v>42082</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9">
+        <v>0.427045436</v>
+      </c>
+      <c r="K42" s="28">
+        <v>1067.6135900605</v>
+      </c>
+      <c r="L42" s="28">
+        <v>1059.6850152571001</v>
+      </c>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E43" s="4">
+        <v>42082</v>
+      </c>
+      <c r="F43" s="4">
+        <v>42174</v>
+      </c>
+      <c r="G43">
         <v>92</v>
       </c>
-      <c r="F41" s="4">
-        <v>41438</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="I41" s="9">
-        <v>766.67</v>
-      </c>
-      <c r="J41" s="9">
-        <v>766.07</v>
-      </c>
-      <c r="K41" s="11">
-        <f t="shared" ref="K41:K47" si="4">J41/I41</f>
-        <v>0.99921739470697968</v>
-      </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="H43" s="9">
+        <v>42174</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <v>0.71119821110000003</v>
+      </c>
+      <c r="K43" s="28">
+        <v>1817.5065394341</v>
+      </c>
+      <c r="L43" s="28">
+        <v>1800.7360754536001</v>
+      </c>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="4">
         <v>1000000</v>
       </c>
-      <c r="C42" s="4">
-        <v>41438</v>
-      </c>
-      <c r="D42" s="4">
-        <v>41530</v>
-      </c>
-      <c r="E42" s="7">
-        <v>92</v>
-      </c>
-      <c r="F42" s="4">
-        <v>41530</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" s="9">
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="I42" s="9">
-        <v>1713.46</v>
-      </c>
-      <c r="J42" s="9">
-        <v>1709.2</v>
-      </c>
-      <c r="K42" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99751380248152866</v>
-      </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="E44" s="4">
+        <v>42174</v>
+      </c>
+      <c r="F44" s="4">
+        <v>42268</v>
+      </c>
+      <c r="G44">
+        <v>94</v>
+      </c>
+      <c r="H44" s="9">
+        <v>42268</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9">
+        <v>0.7112122528</v>
+      </c>
+      <c r="K44" s="28">
+        <v>1857.0542157591999</v>
+      </c>
+      <c r="L44" s="28">
+        <v>1836.5083426039</v>
+      </c>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="4">
         <v>1000000</v>
       </c>
-      <c r="C43" s="4">
-        <v>41530</v>
-      </c>
-      <c r="D43" s="4">
-        <v>41621</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="E45" s="4">
+        <v>42268</v>
+      </c>
+      <c r="F45" s="4">
+        <v>42359</v>
+      </c>
+      <c r="G45">
         <v>91</v>
       </c>
-      <c r="F43" s="4">
-        <v>41621</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" s="9">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="I43" s="9">
-        <v>1764.45</v>
-      </c>
-      <c r="J43" s="9">
-        <v>1756.97</v>
-      </c>
-      <c r="K43" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99576071863753579</v>
-      </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="H45" s="9">
+        <v>42359</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9">
+        <v>0.7111911903</v>
+      </c>
+      <c r="K45" s="28">
+        <v>1797.7332866954</v>
+      </c>
+      <c r="L45" s="28">
+        <v>1774.6533685088</v>
+      </c>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="4">
         <v>1000000</v>
       </c>
-      <c r="C44" s="4">
-        <v>41621</v>
-      </c>
-      <c r="D44" s="4">
-        <v>41711</v>
-      </c>
-      <c r="E44" s="7">
-        <v>90</v>
-      </c>
-      <c r="F44" s="4">
-        <v>41711</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" s="9">
-        <v>-0.45379999999999998</v>
-      </c>
-      <c r="I44" s="9">
-        <v>-1134.48</v>
-      </c>
-      <c r="J44" s="9">
-        <v>-1130.95</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99688844228192652</v>
-      </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="E46" s="4">
+        <v>42359</v>
+      </c>
+      <c r="F46" s="4">
+        <v>42450</v>
+      </c>
+      <c r="G46">
+        <v>91</v>
+      </c>
+      <c r="H46" s="9">
+        <v>42450</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9">
+        <v>0.7111911903</v>
+      </c>
+      <c r="K46" s="28">
+        <v>1797.7332866959</v>
+      </c>
+      <c r="L46" s="28">
+        <v>1771.4687401886999</v>
+      </c>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="4">
         <v>1000000</v>
       </c>
-      <c r="C45" s="4">
-        <v>41711</v>
-      </c>
-      <c r="D45" s="4">
-        <v>41803</v>
-      </c>
-      <c r="E45" s="7">
-        <v>92</v>
-      </c>
-      <c r="F45" s="4">
-        <v>41803</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45" s="9">
-        <v>0.38179999999999997</v>
-      </c>
-      <c r="I45" s="9">
-        <v>975.67</v>
-      </c>
-      <c r="J45" s="9">
-        <v>971.69</v>
-      </c>
-      <c r="K45" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99592075189357065</v>
-      </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="E47" s="4">
+        <v>42450</v>
+      </c>
+      <c r="F47" s="4">
+        <v>42541</v>
+      </c>
+      <c r="G47">
+        <v>91</v>
+      </c>
+      <c r="H47" s="9">
+        <v>42541</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9">
+        <v>1.2420348993000001</v>
+      </c>
+      <c r="K47" s="28">
+        <v>3139.5882176847999</v>
+      </c>
+      <c r="L47" s="28">
+        <v>3084.0369827144</v>
+      </c>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="4">
         <v>1000000</v>
       </c>
-      <c r="C46" s="4">
-        <v>41803</v>
-      </c>
-      <c r="D46" s="4">
-        <v>41897</v>
-      </c>
-      <c r="E46" s="7">
-        <v>94</v>
-      </c>
-      <c r="F46" s="4">
-        <v>41897</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46" s="9">
-        <v>0.41260000000000002</v>
-      </c>
-      <c r="I46" s="9">
-        <v>1077.25</v>
-      </c>
-      <c r="J46" s="9">
-        <v>1071.7</v>
-      </c>
-      <c r="K46" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99484799257368306</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="E48" s="4">
+        <v>42541</v>
+      </c>
+      <c r="F48" s="4">
+        <v>42632</v>
+      </c>
+      <c r="G48">
+        <v>91</v>
+      </c>
+      <c r="H48" s="9">
+        <v>42632</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9">
+        <v>1.2420348993000001</v>
+      </c>
+      <c r="K48" s="28">
+        <v>3139.5882176847999</v>
+      </c>
+      <c r="L48" s="28">
+        <v>3074.3848466025001</v>
+      </c>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49">
         <v>1000000</v>
       </c>
-      <c r="C47" s="4">
-        <v>41897</v>
-      </c>
-      <c r="D47" s="4">
-        <v>41988</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="E49" s="4">
+        <v>42632</v>
+      </c>
+      <c r="F49" s="4">
+        <v>42723</v>
+      </c>
+      <c r="G49" s="4">
         <v>91</v>
       </c>
-      <c r="F47" s="4">
-        <v>41988</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47" s="9">
-        <v>0.44319999999999998</v>
-      </c>
-      <c r="I47" s="9">
-        <v>1120.24</v>
-      </c>
-      <c r="J47" s="9">
-        <v>1113.22</v>
-      </c>
-      <c r="K47" s="11">
-        <f t="shared" si="4"/>
-        <v>0.99373348568163966</v>
-      </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="C48" s="4">
-        <v>41988</v>
-      </c>
-      <c r="D48" s="4">
-        <v>42076</v>
-      </c>
-      <c r="E48" s="7">
-        <v>88</v>
-      </c>
-      <c r="F48" s="4">
-        <v>42076</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" s="9">
-        <v>0.4733</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1156.93</v>
-      </c>
-      <c r="J48" s="9">
-        <v>1148.3499999999999</v>
-      </c>
-      <c r="K48" s="11">
-        <f>J48/I48</f>
-        <v>0.99258382097447539</v>
-      </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="H49" s="4">
+        <v>42723</v>
+      </c>
+      <c r="J49">
+        <v>1.2420134965</v>
+      </c>
+      <c r="K49" s="28">
+        <v>3139.5341160993999</v>
+      </c>
+      <c r="L49" s="28">
+        <v>3064.7101066698001</v>
+      </c>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>1000000</v>
+      </c>
+      <c r="E50" s="4">
+        <v>42723</v>
+      </c>
+      <c r="F50" s="4">
+        <v>42814</v>
+      </c>
+      <c r="G50" s="4">
+        <v>91</v>
+      </c>
+      <c r="H50" s="4">
+        <v>42814</v>
+      </c>
+      <c r="J50">
+        <v>1.2420134965</v>
+      </c>
+      <c r="K50" s="28">
+        <v>3139.5341160991002</v>
+      </c>
+      <c r="L50" s="28">
+        <v>3055.1184580418999</v>
+      </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D51" s="4"/>
       <c r="G51" s="16"/>
       <c r="K51" s="9"/>
@@ -3834,7 +3925,7 @@
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
       <c r="G52" s="16"/>
       <c r="K52" s="9"/>
@@ -3844,7 +3935,7 @@
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D53" s="4"/>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -3853,7 +3944,7 @@
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D54" s="4"/>
       <c r="F54" s="11"/>
       <c r="G54" s="16"/>
@@ -3866,25 +3957,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -3896,126 +3989,126 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
-        <v>41347</v>
+        <v>41351</v>
       </c>
       <c r="B1" s="17">
-        <v>99.9995000025</v>
+        <v>99.998500022499996</v>
       </c>
       <c r="D1" s="4">
-        <v>41347</v>
+        <v>41351</v>
       </c>
       <c r="E1" s="18">
-        <v>99.9995000025</v>
+        <v>99.998500022499599</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="18">
         <f>E1-B1</f>
-        <v>0</v>
+        <v>-3.979039320256561E-13</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>41348</v>
+        <v>41352</v>
       </c>
       <c r="B2" s="17">
-        <v>99.998944452800004</v>
+        <v>99.997944478364005</v>
       </c>
       <c r="D2" s="4">
-        <v>41348</v>
+        <v>41352</v>
       </c>
       <c r="E2" s="18">
-        <v>99.998944452808601</v>
+        <v>99.997944478363692</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="18">
         <f t="shared" ref="G2:G20" si="0">E2-B2</f>
-        <v>8.5975671026972122E-12</v>
+        <v>-3.1263880373444408E-13</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>41379</v>
+        <v>41383</v>
       </c>
       <c r="B3" s="17">
-        <v>99.983016602800006</v>
+        <v>99.982016787633995</v>
       </c>
       <c r="D3" s="4">
-        <v>41379</v>
+        <v>41383</v>
       </c>
       <c r="E3" s="18">
-        <v>99.983016602802493</v>
+        <v>99.982016787633697</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18">
         <f t="shared" si="0"/>
-        <v>2.4868995751603507E-12</v>
+        <v>-2.9842794901924208E-13</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>41442</v>
+        <v>41444</v>
       </c>
       <c r="B4" s="17">
-        <v>99.920673258799994</v>
+        <v>99.921338119138994</v>
       </c>
       <c r="D4" s="4">
-        <v>41442</v>
+        <v>41444</v>
       </c>
       <c r="E4" s="18">
-        <v>99.920673258755897</v>
+        <v>99.921338119139008</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="18">
         <f t="shared" si="0"/>
-        <v>-4.4096282181271818E-11</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="B5" s="17">
-        <v>99.7500749429</v>
+        <v>99.750419354426</v>
       </c>
       <c r="D5" s="4">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="E5" s="18">
-        <v>99.750074942914495</v>
+        <v>99.750419354425603</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="18">
         <f t="shared" si="0"/>
-        <v>1.4495071809506044E-11</v>
+        <v>-3.979039320256561E-13</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>41624</v>
+        <v>41627</v>
       </c>
       <c r="B6" s="17">
-        <v>99.574187522000003</v>
+        <v>99.574724240695005</v>
       </c>
       <c r="D6" s="4">
-        <v>41624</v>
+        <v>41627</v>
       </c>
       <c r="E6" s="18">
-        <v>99.574187521956603</v>
+        <v>99.574724240695105</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="18">
         <f t="shared" si="0"/>
-        <v>-4.3399950300226919E-11</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="18"/>
@@ -4025,22 +4118,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="B7" s="21">
-        <v>99.686967177599996</v>
+        <v>99.687818019233006</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="20">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="E7" s="23">
-        <v>99.687096735281102</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18">
+        <v>99.687818019244304</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
-        <v>1.2955768110600729E-4</v>
+        <v>1.1297629498585593E-11</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4050,21 +4143,21 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="B8" s="17">
-        <v>99.257251486800001</v>
+        <v>99.257327075698001</v>
       </c>
       <c r="D8" s="4">
-        <v>42079</v>
+        <v>42082</v>
       </c>
       <c r="E8" s="18">
-        <v>99.257323629819311</v>
+        <v>99.257327075693595</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="18">
         <f t="shared" si="0"/>
-        <v>7.2143019309578449E-5</v>
+        <v>-4.4053649617126212E-12</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="18"/>
@@ -4074,21 +4167,21 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>42444</v>
+        <v>42450</v>
       </c>
       <c r="B9" s="17">
-        <v>98.542602045600006</v>
+        <v>98.538910072972996</v>
       </c>
       <c r="D9" s="4">
-        <v>42444</v>
+        <v>42450</v>
       </c>
       <c r="E9" s="18">
-        <v>98.542670369572406</v>
+        <v>98.538946696892211</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>6.8323972399753075E-5</v>
+        <v>3.6623919214662237E-5</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="18"/>
@@ -4098,21 +4191,21 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>42809</v>
+        <v>42814</v>
       </c>
       <c r="B10" s="17">
-        <v>97.313748211100005</v>
+        <v>97.311153095972998</v>
       </c>
       <c r="D10" s="4">
-        <v>42809</v>
+        <v>42814</v>
       </c>
       <c r="E10" s="18">
-        <v>97.314007281041199</v>
+        <v>97.311036016667501</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>2.5906994119395677E-4</v>
+        <v>-1.1707930549675893E-4</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="18"/>
@@ -4122,21 +4215,21 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>43174</v>
+        <v>43178</v>
       </c>
       <c r="B11" s="17">
-        <v>95.512007753999995</v>
+        <v>95.511396470467005</v>
       </c>
       <c r="D11" s="4">
-        <v>43174</v>
+        <v>43178</v>
       </c>
       <c r="E11" s="18">
-        <v>95.512604306264905</v>
+        <v>95.511365464279692</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>5.9655226490917812E-4</v>
+        <v>-3.1006187313664668E-5</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="18"/>
@@ -4146,21 +4239,21 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="B12" s="17">
-        <v>93.178143749100002</v>
+        <v>93.197744193350005</v>
       </c>
       <c r="D12" s="4">
-        <v>43539</v>
+        <v>43543</v>
       </c>
       <c r="E12" s="18">
-        <v>93.199415611469703</v>
+        <v>93.198123329393695</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18">
         <f t="shared" si="0"/>
-        <v>2.1271862369701466E-2</v>
+        <v>3.7913604369066434E-4</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="18"/>
@@ -4170,21 +4263,21 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="B13" s="17">
-        <v>90.532315713499997</v>
+        <v>90.534528842146997</v>
       </c>
       <c r="D13" s="4">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="E13" s="18">
-        <v>90.533214516849</v>
+        <v>90.535431775221099</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18">
         <f t="shared" si="0"/>
-        <v>8.9880334900271919E-4</v>
+        <v>9.0293307410149737E-4</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="18"/>
@@ -4194,21 +4287,21 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B14" s="17">
-        <v>87.662473852299996</v>
+        <v>87.636733441722001</v>
       </c>
       <c r="D14" s="4">
-        <v>44270</v>
+        <v>44274</v>
       </c>
       <c r="E14" s="18">
-        <v>87.663743844516191</v>
+        <v>87.662562649265197</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18">
         <f t="shared" si="0"/>
-        <v>1.2699922161942823E-3</v>
+        <v>2.5829207543196731E-2</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="18"/>
@@ -4218,21 +4311,21 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44635</v>
+        <v>44641</v>
       </c>
       <c r="B15" s="17">
-        <v>84.719324922699997</v>
+        <v>84.710201039764002</v>
       </c>
       <c r="D15" s="4">
-        <v>44635</v>
+        <v>44641</v>
       </c>
       <c r="E15" s="18">
-        <v>84.721079524396202</v>
+        <v>84.711560649851506</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18">
         <f t="shared" si="0"/>
-        <v>1.754601696205782E-3</v>
+        <v>1.3596100875048478E-3</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="18"/>
@@ -4242,21 +4335,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>45000</v>
+        <v>45005</v>
       </c>
       <c r="B16" s="17">
-        <v>81.707618222700006</v>
+        <v>81.702628527551994</v>
       </c>
       <c r="D16" s="4">
-        <v>45000</v>
+        <v>45005</v>
       </c>
       <c r="E16" s="18">
-        <v>81.709801766349401</v>
+        <v>81.704196551252096</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18">
         <f t="shared" si="0"/>
-        <v>2.1835436493944371E-3</v>
+        <v>1.5680237001021169E-3</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="18"/>
@@ -4264,23 +4357,23 @@
       <c r="K16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>46827</v>
+        <v>46832</v>
       </c>
       <c r="B17" s="17">
-        <v>67.223180685100004</v>
+        <v>67.217715676978003</v>
       </c>
       <c r="D17" s="4">
-        <v>46827</v>
+        <v>46832</v>
       </c>
       <c r="E17" s="18">
-        <v>67.243114964526796</v>
+        <v>67.219665169219695</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18">
         <f t="shared" si="0"/>
-        <v>1.9934279426792045E-2</v>
+        <v>1.9494922416924965E-3</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="18"/>
@@ -4288,404 +4381,662 @@
       <c r="K17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>48653</v>
+        <v>48659</v>
       </c>
       <c r="B18" s="17">
-        <v>55.725022196499999</v>
+        <v>55.715309635268</v>
       </c>
       <c r="D18" s="4">
-        <v>48653</v>
+        <v>48659</v>
       </c>
       <c r="E18" s="18">
-        <v>55.739033033306299</v>
+        <v>55.7363900161873</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="18">
         <f t="shared" si="0"/>
-        <v>1.4010836806299665E-2</v>
+        <v>2.1080380919300978E-2</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>50479</v>
+        <v>50486</v>
       </c>
       <c r="B19" s="17">
-        <v>46.6098948108</v>
+        <v>46.594494351233998</v>
       </c>
       <c r="D19" s="4">
-        <v>50479</v>
+        <v>50483</v>
       </c>
       <c r="E19" s="18">
-        <v>46.6119585164613</v>
+        <v>46.622473944613105</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="18">
         <f t="shared" si="0"/>
-        <v>2.063705661299764E-3</v>
+        <v>2.7979593379107826E-2</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>52306</v>
+        <v>52309</v>
       </c>
       <c r="B20" s="17">
-        <v>39.072969033900002</v>
+        <v>39.075084668740999</v>
       </c>
       <c r="D20" s="4">
-        <v>52306</v>
+        <v>52309</v>
       </c>
       <c r="E20" s="18">
-        <v>39.063576950501201</v>
+        <v>39.0764661060131</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="18">
         <f t="shared" si="0"/>
-        <v>-9.3920833988008212E-3</v>
+        <v>1.3814372721014934E-3</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="17"/>
       <c r="E21" s="4"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="12">
-        <f>0.00311*(181/360*B5/100+181/360*B7/100)</f>
-        <v>3.1184751494458514E-3</v>
-      </c>
-      <c r="E23" s="12">
-        <f>0.00311*(181/360*E5/100+181/360*E7/100)</f>
-        <v>3.1184771752603637E-3</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="12">
-        <f>(B2-B7)/100</f>
-        <v>3.119772752000074E-3</v>
-      </c>
-      <c r="E24" s="12">
-        <f>(E2-E7)/100</f>
-        <v>3.1184771752749895E-3</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="M24" s="12"/>
-      <c r="O24" s="18"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="J25" s="12">
-        <f>SUM(J28:J29)/B28</f>
-        <v>3.1184751500000002E-3</v>
-      </c>
-      <c r="M25" s="12"/>
-      <c r="O25" s="18"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="M26" s="12"/>
-      <c r="O26" s="18"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>-1000000</v>
+      </c>
+      <c r="C24" s="12">
+        <v>41352</v>
+      </c>
+      <c r="D24" s="4">
+        <v>41536</v>
+      </c>
+      <c r="E24">
+        <v>180</v>
+      </c>
+      <c r="F24" s="4">
+        <v>41536</v>
+      </c>
+      <c r="G24">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I24" s="24">
+        <v>-2444.9999999943002</v>
+      </c>
+      <c r="J24" s="24">
+        <v>-2438.8977532100998</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1000000</v>
+      </c>
+      <c r="C25" s="4">
+        <v>41536</v>
+      </c>
+      <c r="D25" s="4">
+        <v>41717</v>
+      </c>
+      <c r="E25">
+        <v>180</v>
+      </c>
+      <c r="F25" s="4">
+        <v>41717</v>
+      </c>
+      <c r="G25">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I25" s="24">
+        <v>-2444.9999999943002</v>
+      </c>
+      <c r="J25" s="24">
+        <v>-2437.3671505645998</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>-1000000</v>
+      </c>
+      <c r="C26" s="4">
+        <v>41717</v>
+      </c>
+      <c r="D26" s="4">
+        <v>41901</v>
+      </c>
+      <c r="E26">
+        <v>180</v>
+      </c>
+      <c r="F26" s="4">
+        <v>41901</v>
+      </c>
+      <c r="G26">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I26" s="24">
+        <v>-2444.9999999943002</v>
+      </c>
+      <c r="J26" s="24">
+        <v>-2432.4286616715999</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>-1000000</v>
+      </c>
+      <c r="C27" s="4">
+        <v>41901</v>
+      </c>
+      <c r="D27" s="4">
+        <v>42082</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
+      </c>
+      <c r="F27" s="4">
+        <v>42082</v>
+      </c>
+      <c r="G27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I27" s="24">
+        <v>-2444.9999999943002</v>
+      </c>
+      <c r="J27" s="24">
+        <v>-2426.8416469951999</v>
+      </c>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>-1000000</v>
       </c>
       <c r="C28" s="4">
-        <v>41348</v>
+        <v>42082</v>
       </c>
       <c r="D28" s="4">
-        <v>41533</v>
+        <v>42268</v>
       </c>
       <c r="E28">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F28" s="4">
-        <v>41533</v>
+        <v>42268</v>
       </c>
       <c r="G28">
-        <v>0.311</v>
-      </c>
-      <c r="H28">
-        <v>0.311</v>
-      </c>
-      <c r="I28">
-        <f>B28*E28/360*H28/100</f>
-        <v>-1563.6388888888887</v>
-      </c>
-      <c r="J28" s="17">
-        <v>-1559.7309640000001</v>
-      </c>
-      <c r="K28" s="17">
-        <f>J28/I28*100</f>
-        <v>99.750074974685134</v>
-      </c>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I28" s="24">
+        <v>-2472.1666666608999</v>
+      </c>
+      <c r="J28" s="24">
+        <v>-2445.5324901859999</v>
+      </c>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>-1000000</v>
       </c>
       <c r="C29" s="4">
-        <v>41533</v>
+        <v>42268</v>
       </c>
       <c r="D29" s="4">
-        <v>41715</v>
+        <v>42450</v>
       </c>
       <c r="E29">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F29" s="4">
-        <v>41715</v>
+        <v>42450</v>
       </c>
       <c r="G29">
-        <v>0.311</v>
-      </c>
-      <c r="H29">
-        <v>0.311</v>
-      </c>
-      <c r="I29">
-        <f>B29*E29/360*H29/100</f>
-        <v>-1563.6388888888887</v>
-      </c>
-      <c r="J29" s="17">
-        <v>-1558.7441859999999</v>
-      </c>
-      <c r="K29" s="17">
-        <f t="shared" ref="K29:K33" si="1">J29/I29*100</f>
-        <v>99.686967181254559</v>
-      </c>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I29" s="24">
+        <v>-2444.9999999943002</v>
+      </c>
+      <c r="J29" s="24">
+        <v>-2409.2763512786</v>
+      </c>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1000000</v>
       </c>
       <c r="C30" s="4">
-        <v>41348</v>
+        <v>41352</v>
       </c>
       <c r="D30" s="4">
-        <v>41442</v>
+        <v>41444</v>
       </c>
       <c r="E30">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4">
-        <v>41442</v>
-      </c>
-      <c r="H30">
+        <v>41444</v>
+      </c>
+      <c r="H30" s="17">
         <v>0.3</v>
       </c>
-      <c r="I30">
-        <v>783.33333330000005</v>
-      </c>
-      <c r="J30" s="17">
-        <v>782.71194049999997</v>
-      </c>
-      <c r="K30" s="17">
-        <f t="shared" si="1"/>
-        <v>99.920673259571075</v>
-      </c>
-      <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I30" s="24">
+        <v>766.66666666660001</v>
+      </c>
+      <c r="J30" s="24">
+        <v>766.06359224660002</v>
+      </c>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>1000000</v>
       </c>
       <c r="C31" s="4">
-        <v>41442</v>
+        <v>41444</v>
       </c>
       <c r="D31" s="4">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="E31">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31" s="4">
-        <v>41533</v>
-      </c>
-      <c r="H31">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="I31">
-        <v>1708.9566669999999</v>
-      </c>
-      <c r="J31" s="17">
-        <v>1704.6855559999999</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="1"/>
-        <v>99.750074938558981</v>
-      </c>
-      <c r="M31" s="18"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>41536</v>
+      </c>
+      <c r="H31" s="17">
+        <v>0.6704859608</v>
+      </c>
+      <c r="I31" s="24">
+        <v>1713.4641219488999</v>
+      </c>
+      <c r="J31" s="24">
+        <v>1709.1876471317</v>
+      </c>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>1000000</v>
       </c>
       <c r="C32" s="4">
-        <v>41533</v>
+        <v>41536</v>
       </c>
       <c r="D32" s="4">
-        <v>41624</v>
+        <v>41627</v>
       </c>
       <c r="E32">
         <v>91</v>
       </c>
       <c r="F32" s="4">
-        <v>41624</v>
-      </c>
-      <c r="H32">
-        <v>0.69879999999999998</v>
-      </c>
-      <c r="I32">
-        <v>1766.395743</v>
-      </c>
-      <c r="J32" s="17">
-        <v>1758.8742099999999</v>
-      </c>
-      <c r="K32" s="17">
-        <f t="shared" si="1"/>
-        <v>99.574187549431841</v>
-      </c>
-      <c r="M32" s="18"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>41627</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0.69802612870000003</v>
+      </c>
+      <c r="I32" s="24">
+        <v>1764.454936436</v>
+      </c>
+      <c r="J32" s="24">
+        <v>1756.9511373073999</v>
+      </c>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1000000</v>
       </c>
       <c r="C33" s="4">
-        <v>41624</v>
+        <v>41627</v>
       </c>
       <c r="D33" s="4">
-        <v>41715</v>
+        <v>41717</v>
       </c>
       <c r="E33">
+        <v>90</v>
+      </c>
+      <c r="F33" s="4">
+        <v>41717</v>
+      </c>
+      <c r="H33" s="17">
+        <v>-0.45379177030000001</v>
+      </c>
+      <c r="I33" s="24">
+        <v>-1134.4794257213</v>
+      </c>
+      <c r="J33" s="24">
+        <v>-1130.9377853787</v>
+      </c>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>1000000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>41717</v>
+      </c>
+      <c r="D34" s="4">
+        <v>41809</v>
+      </c>
+      <c r="E34">
+        <v>92</v>
+      </c>
+      <c r="F34" s="4">
+        <v>41809</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.38174720629999997</v>
+      </c>
+      <c r="I34" s="24">
+        <v>975.57619381769996</v>
+      </c>
+      <c r="J34" s="24">
+        <v>971.58276771349995</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>1000000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>41809</v>
+      </c>
+      <c r="D35" s="4">
+        <v>41901</v>
+      </c>
+      <c r="E35">
+        <v>92</v>
+      </c>
+      <c r="F35" s="4">
+        <v>41901</v>
+      </c>
+      <c r="H35">
+        <v>0.41230435199999999</v>
+      </c>
+      <c r="I35" s="24">
+        <v>1053.6666774114999</v>
+      </c>
+      <c r="J35" s="24">
+        <v>1048.2490903844</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>1000000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>41901</v>
+      </c>
+      <c r="D36" s="4">
+        <v>41992</v>
+      </c>
+      <c r="E36">
         <v>91</v>
       </c>
-      <c r="F33" s="4">
-        <v>41715</v>
-      </c>
-      <c r="H33">
-        <v>-0.4476</v>
-      </c>
-      <c r="I33">
-        <v>-1131.3380160260999</v>
-      </c>
-      <c r="J33" s="17">
-        <v>-1127.7965570389999</v>
-      </c>
-      <c r="K33" s="17">
-        <f t="shared" si="1"/>
-        <v>99.686967207241949</v>
-      </c>
-      <c r="M33" s="18"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="J34" s="12">
-        <f>SUM(J30:J33)/B33</f>
-        <v>3.1184751494609999E-3</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="M34" s="12"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="M35" s="12"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D36" s="24">
-        <f>(B2/B4-1)/E30*360</f>
-        <v>2.9999999979795832E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D37" s="24">
-        <f>(B4/B5-1)/E31*360</f>
-        <v>6.7658539295714307E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D38" s="24">
-        <f t="shared" ref="D38:D39" si="2">(B5/B6-1)/E32*360</f>
-        <v>6.9879392010287755E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D39" s="24">
-        <f>(B6/B7-1)/E33*360</f>
-        <v>-4.4756229177501279E-3</v>
+      <c r="F36" s="4">
+        <v>41992</v>
+      </c>
+      <c r="H36">
+        <v>0.44268803979999999</v>
+      </c>
+      <c r="I36" s="24">
+        <v>1119.0169895001</v>
+      </c>
+      <c r="J36" s="24">
+        <v>1112.0190257495999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>1000000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>41992</v>
+      </c>
+      <c r="D37" s="4">
+        <v>42082</v>
+      </c>
+      <c r="E37">
+        <v>90</v>
+      </c>
+      <c r="F37" s="4">
+        <v>42082</v>
+      </c>
+      <c r="H37">
+        <v>0.47273429020000002</v>
+      </c>
+      <c r="I37" s="24">
+        <v>1181.8357254473999</v>
+      </c>
+      <c r="J37" s="24">
+        <v>1173.0585515048001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>1000000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>42082</v>
+      </c>
+      <c r="D38" s="4">
+        <v>42174</v>
+      </c>
+      <c r="E38">
+        <v>92</v>
+      </c>
+      <c r="F38" s="4">
+        <v>42174</v>
+      </c>
+      <c r="H38">
+        <v>0.62483286869999999</v>
+      </c>
+      <c r="I38" s="24">
+        <v>1596.7951089777</v>
+      </c>
+      <c r="J38" s="24">
+        <v>1582.4093605195001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>1000000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>42174</v>
+      </c>
+      <c r="D39" s="4">
+        <v>42268</v>
+      </c>
+      <c r="E39">
+        <v>94</v>
+      </c>
+      <c r="F39" s="4">
+        <v>42268</v>
+      </c>
+      <c r="H39">
+        <v>0.68311727300000002</v>
+      </c>
+      <c r="I39" s="24">
+        <v>1783.6951017718</v>
+      </c>
+      <c r="J39" s="24">
+        <v>1764.4782541543</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>1000000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>42268</v>
+      </c>
+      <c r="D40" s="4">
+        <v>42359</v>
+      </c>
+      <c r="E40">
+        <v>91</v>
+      </c>
+      <c r="F40" s="4">
+        <v>42359</v>
+      </c>
+      <c r="H40">
+        <v>0.74103797950000005</v>
+      </c>
+      <c r="I40" s="24">
+        <v>1873.1793370995999</v>
+      </c>
+      <c r="J40" s="24">
+        <v>1849.5339119089001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>1000000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>42359</v>
+      </c>
+      <c r="D41" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E41">
+        <v>91</v>
+      </c>
+      <c r="F41" s="4">
+        <v>42450</v>
+      </c>
+      <c r="H41">
+        <v>0.79802186119999996</v>
+      </c>
+      <c r="I41" s="24">
+        <v>2017.2219270457999</v>
+      </c>
+      <c r="J41" s="24">
+        <v>1987.7485006638999</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +5065,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>6.5000000000000002E-2</v>
@@ -4742,7 +5093,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>100.078125</v>
@@ -4767,7 +5118,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>100.257813</v>
@@ -4784,7 +5135,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>102.375</v>
@@ -4801,7 +5152,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>101.75</v>
@@ -4818,7 +5169,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>110.296875</v>
@@ -4835,7 +5186,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>102.859375</v>
@@ -4852,7 +5203,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>116.203125</v>
@@ -4869,7 +5220,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B9">
         <v>102.9375</v>
@@ -4886,7 +5237,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B10">
         <v>102.578125</v>
@@ -4903,7 +5254,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>101.171875</v>
@@ -4941,45 +5292,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5011,10 +5362,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5046,10 +5397,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5081,10 +5432,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5101,10 +5452,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5136,45 +5487,45 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5206,10 +5557,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5241,10 +5592,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5276,10 +5627,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -5311,10 +5662,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -5346,10 +5697,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -5381,10 +5732,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -5416,10 +5767,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -5451,10 +5802,10 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5486,10 +5837,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -5521,10 +5872,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -5556,10 +5907,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -5591,10 +5942,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -5626,10 +5977,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -5646,10 +5997,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>1</v>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -208,20 +208,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
     <numFmt numFmtId="168" formatCode="0.00000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000"/>
     <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -759,7 +754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -770,10 +765,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -789,6 +782,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2358,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2375,7 +2369,9 @@
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2393,7 +2389,7 @@
         <v>0.99998500022499603</v>
       </c>
       <c r="F1" s="7"/>
-      <c r="G1" s="14">
+      <c r="G1" s="12">
         <f>E1-B1/100</f>
         <v>-3.8857805861880479E-15</v>
       </c>
@@ -2401,135 +2397,135 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>41352</v>
       </c>
       <c r="B2" s="3">
         <v>99.997944478364005</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="12">
+      <c r="C2" s="14"/>
+      <c r="D2" s="11">
         <v>41352</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>0.99997944478363698</v>
       </c>
       <c r="F2" s="7"/>
-      <c r="G2" s="14">
+      <c r="G2" s="12">
         <f t="shared" ref="G2:G20" si="0">E2-B2/100</f>
         <v>-3.1086244689504383E-15</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="12"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>41383</v>
       </c>
       <c r="B3" s="5">
         <v>99.982016787633995</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11">
         <v>41383</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.99982016787633698</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" s="14">
+      <c r="G3" s="12">
         <f t="shared" si="0"/>
         <v>-2.9976021664879227E-15</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="12"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>41444</v>
       </c>
       <c r="B4" s="3">
         <v>99.921338119138994</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="12">
+      <c r="C4" s="14"/>
+      <c r="D4" s="11">
         <v>41444</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.99921338119139003</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="14">
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="12"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>41536</v>
       </c>
       <c r="B5" s="3">
         <v>99.750419354426</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="12">
+      <c r="C5" s="14"/>
+      <c r="D5" s="11">
         <v>41536</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0.99750419354425601</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="14">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>-3.9968028886505635E-15</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="12"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>41627</v>
       </c>
       <c r="B6" s="3">
         <v>99.574724240695005</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="12">
+      <c r="C6" s="14"/>
+      <c r="D6" s="11">
         <v>41627</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>0.99574724240695101</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="12"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>41717</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>99.687818019233006</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
         <v>41717</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>0.99687818019244301</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27">
+      <c r="F7" s="24"/>
+      <c r="G7" s="25">
         <f t="shared" si="0"/>
         <v>1.1290968160437842E-13</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="12"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -2538,21 +2534,21 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>42082</v>
       </c>
       <c r="B8" s="3">
         <v>99.257355388015</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="12">
+      <c r="C8" s="14"/>
+      <c r="D8" s="11">
         <v>42082</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0.99257355388012902</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="14">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>-2.0983215165415459E-14</v>
       </c>
@@ -2565,21 +2561,21 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>42450</v>
       </c>
       <c r="B9" s="3">
         <v>98.539018735338999</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="12">
+      <c r="C9" s="14"/>
+      <c r="D9" s="11">
         <v>42450</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>0.985390187353401</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>1.099120794378905E-14</v>
       </c>
@@ -2592,21 +2588,21 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>42814</v>
       </c>
       <c r="B10" s="3">
         <v>97.311204308168001</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12">
+      <c r="C10" s="14"/>
+      <c r="D10" s="11">
         <v>42814</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.97311193749819802</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="14">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>-1.0558348195743861E-7</v>
       </c>
@@ -2619,21 +2615,21 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>43178</v>
       </c>
       <c r="B11" s="3">
         <v>95.511653660522995</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12">
+      <c r="C11" s="14"/>
+      <c r="D11" s="11">
         <v>43178</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>0.95511631670198105</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="14">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>-2.1990324894360924E-7</v>
       </c>
@@ -2646,21 +2642,21 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>43543</v>
       </c>
       <c r="B12" s="3">
         <v>93.198523659385003</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="12">
+      <c r="C12" s="14"/>
+      <c r="D12" s="11">
         <v>43543</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>0.93198501989188998</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>-2.1670196004297537E-7</v>
       </c>
@@ -2673,21 +2669,21 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>43909</v>
       </c>
       <c r="B13" s="3">
         <v>90.535926466104996</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="12">
+      <c r="C13" s="14"/>
+      <c r="D13" s="11">
         <v>43909</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>0.90535905210391499</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="14">
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>-2.1255713500423212E-7</v>
       </c>
@@ -2700,21 +2696,21 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>44277</v>
       </c>
       <c r="B14" s="3">
         <v>87.640011654926994</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="12">
+      <c r="C14" s="14"/>
+      <c r="D14" s="11">
         <v>44274</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.87663130619954399</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>2.3118965027402183E-4</v>
       </c>
@@ -2727,21 +2723,21 @@
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>44641</v>
       </c>
       <c r="B15" s="3">
         <v>84.712352659877993</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12">
+      <c r="C15" s="14"/>
+      <c r="D15" s="11">
         <v>44641</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>0.84712216286617203</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="14">
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>-1.3637326079507517E-6</v>
       </c>
@@ -2754,21 +2750,21 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>45005</v>
       </c>
       <c r="B16" s="3">
         <v>81.705167519043997</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="12">
+      <c r="C16" s="14"/>
+      <c r="D16" s="11">
         <v>45005</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>0.81704960421286399</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
         <v>-2.0709775759852889E-6</v>
       </c>
@@ -2781,21 +2777,21 @@
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>46832</v>
       </c>
       <c r="B17" s="3">
         <v>67.265449607741999</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="12">
+      <c r="C17" s="14"/>
+      <c r="D17" s="11">
         <v>46832</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>0.67265100689836699</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="14">
+      <c r="G17" s="12">
         <f t="shared" si="0"/>
         <v>-3.4891790530178213E-6</v>
       </c>
@@ -2808,21 +2804,21 @@
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>48659</v>
       </c>
       <c r="B18" s="3">
         <v>55.778982275236999</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="12">
+      <c r="C18" s="14"/>
+      <c r="D18" s="11">
         <v>48659</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>0.55778628037335198</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="14">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>-3.5423790180066916E-6</v>
       </c>
@@ -2835,21 +2831,21 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>50486</v>
       </c>
       <c r="B19" s="3">
         <v>46.659891150097003</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="12">
+      <c r="C19" s="14"/>
+      <c r="D19" s="11">
         <v>50483</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>0.46673146770530699</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>1.3255620433694215E-4</v>
       </c>
@@ -2862,21 +2858,21 @@
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>52309</v>
       </c>
       <c r="B20" s="3">
         <v>39.136363282002002</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="12">
+      <c r="C20" s="14"/>
+      <c r="D20" s="11">
         <v>52309</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>0.39135938265424802</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="G20" s="14">
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>-4.250165771990666E-6</v>
       </c>
@@ -2891,9 +2887,9 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="7"/>
       <c r="H21" s="7"/>
       <c r="K21" s="9"/>
@@ -2943,10 +2939,10 @@
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D26" t="s">
@@ -2985,10 +2981,10 @@
       <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D27">
@@ -3000,7 +2996,7 @@
       <c r="F27" s="4">
         <v>41536</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>180</v>
       </c>
       <c r="H27" s="4">
@@ -3012,13 +3008,16 @@
       <c r="J27">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="26">
         <v>-3394.9999999997999</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="26">
         <v>-3386.5267370826</v>
       </c>
-      <c r="M27" s="9"/>
+      <c r="M27" s="16">
+        <f>L27/K27</f>
+        <v>0.99750419354427089</v>
+      </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -3042,7 +3041,7 @@
       <c r="F28" s="4">
         <v>41717</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>180</v>
       </c>
       <c r="H28" s="4">
@@ -3054,13 +3053,16 @@
       <c r="J28">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="26">
         <v>-3394.9999999997999</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <v>-3384.4014217528002</v>
       </c>
-      <c r="M28" s="9"/>
+      <c r="M28" s="16">
+        <f t="shared" ref="M28:M50" si="1">L28/K28</f>
+        <v>0.99687818019234153</v>
+      </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
@@ -3069,7 +3071,7 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -3084,7 +3086,7 @@
       <c r="F29" s="4">
         <v>41901</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29">
         <v>180</v>
       </c>
       <c r="H29" s="4">
@@ -3096,13 +3098,16 @@
       <c r="J29">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="26">
         <v>-3394.9999999997999</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="26">
         <v>-3377.0263554967</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99470584845269483</v>
+      </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -3111,13 +3116,13 @@
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30">
         <v>-1000000</v>
       </c>
       <c r="E30" s="4">
@@ -3126,7 +3131,7 @@
       <c r="F30" s="4">
         <v>42082</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>180</v>
       </c>
       <c r="H30" s="4">
@@ -3138,13 +3143,16 @@
       <c r="J30">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="26">
         <v>-3394.9999999997999</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="26">
         <v>-3369.7872154228999</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99257355388014679</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -3153,13 +3161,13 @@
       <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31">
         <v>-1000000</v>
       </c>
       <c r="E31" s="4">
@@ -3168,7 +3176,7 @@
       <c r="F31" s="4">
         <v>42268</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31">
         <v>182</v>
       </c>
       <c r="H31" s="4">
@@ -3180,13 +3188,16 @@
       <c r="J31">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="26">
         <v>-3432.7222222219998</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="26">
         <v>-3394.7436458528</v>
       </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98893630946211075</v>
+      </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
@@ -3195,13 +3206,13 @@
       <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32">
         <v>-1000000</v>
       </c>
       <c r="E32" s="4">
@@ -3210,10 +3221,10 @@
       <c r="F32" s="4">
         <v>42450</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32">
         <v>180</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="4">
         <v>42450</v>
       </c>
       <c r="I32">
@@ -3222,13 +3233,16 @@
       <c r="J32">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="26">
         <v>-3394.9999999997999</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="26">
         <v>-3345.3996860645998</v>
       </c>
-      <c r="M32" s="9"/>
+      <c r="M32" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98539018735340111</v>
+      </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
@@ -3237,13 +3251,13 @@
       <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33">
         <v>-1000000</v>
       </c>
       <c r="E33" s="4">
@@ -3252,10 +3266,10 @@
       <c r="F33" s="4">
         <v>42632</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33">
         <v>178</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="4">
         <v>42632</v>
       </c>
       <c r="I33">
@@ -3264,13 +3278,16 @@
       <c r="J33">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="26">
         <v>-3357.2777777776</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="26">
         <v>-3287.5534019699999</v>
       </c>
-      <c r="M33" s="9"/>
+      <c r="M33" s="16">
+        <f t="shared" si="1"/>
+        <v>0.97923187164639225</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
@@ -3294,7 +3311,7 @@
       <c r="F34" s="4">
         <v>42814</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34">
         <v>181</v>
       </c>
       <c r="H34" s="4">
@@ -3306,13 +3323,16 @@
       <c r="J34" s="9">
         <v>0.67900000000000005</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="26">
         <v>-3413.8611111108999</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="26">
         <v>-3322.0693606302998</v>
       </c>
-      <c r="M34" s="9"/>
+      <c r="M34" s="16">
+        <f t="shared" si="1"/>
+        <v>0.97311204308170285</v>
+      </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
@@ -3345,13 +3365,16 @@
       <c r="J35">
         <v>0.3</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="26">
         <v>766.66666666660001</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="26">
         <v>766.06359224660002</v>
       </c>
-      <c r="M35" s="9"/>
+      <c r="M35" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99921338119130432</v>
+      </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -3378,20 +3401,23 @@
       <c r="G36">
         <v>92</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="4">
         <v>41536</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9">
         <v>0.6704859608</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K36" s="26">
         <v>1713.4641219488999</v>
       </c>
-      <c r="L36" s="28">
+      <c r="L36" s="26">
         <v>1709.1876471317</v>
       </c>
-      <c r="M36" s="9"/>
+      <c r="M36" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99750419354428277</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -3403,7 +3429,7 @@
       <c r="C37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37">
         <v>1000000</v>
       </c>
       <c r="E37" s="4">
@@ -3415,20 +3441,23 @@
       <c r="G37">
         <v>91</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="4">
         <v>41627</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9">
         <v>0.69802612870000003</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="26">
         <v>1764.454936436</v>
       </c>
-      <c r="L37" s="28">
+      <c r="L37" s="26">
         <v>1756.9511373073999</v>
       </c>
-      <c r="M37" s="9"/>
+      <c r="M37" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99574724240690615</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -3440,7 +3469,7 @@
       <c r="C38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <v>1000000</v>
       </c>
       <c r="E38" s="4">
@@ -3452,20 +3481,23 @@
       <c r="G38">
         <v>90</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="4">
         <v>41717</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9">
         <v>-0.45379177030000001</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="26">
         <v>-1134.4794257213</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="26">
         <v>-1130.9377853787</v>
       </c>
-      <c r="M38" s="9"/>
+      <c r="M38" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99687818019233954</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -3477,7 +3509,7 @@
       <c r="C39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39">
         <v>1000000</v>
       </c>
       <c r="E39" s="4">
@@ -3489,20 +3521,23 @@
       <c r="G39">
         <v>92</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="4">
         <v>41809</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9">
         <v>0.4270505</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K39" s="26">
         <v>1091.3512778664999</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="26">
         <v>1086.7582408353001</v>
       </c>
-      <c r="M39" s="9"/>
+      <c r="M39" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99579142195152892</v>
+      </c>
     </row>
     <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3514,7 +3549,7 @@
       <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40">
         <v>1000000</v>
       </c>
       <c r="E40" s="4">
@@ -3526,20 +3561,23 @@
       <c r="G40">
         <v>92</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="4">
         <v>41901</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9">
         <v>0.4270505</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="26">
         <v>1091.3512778667</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L40" s="26">
         <v>1085.5734988104</v>
       </c>
-      <c r="M40" s="9"/>
+      <c r="M40" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99470584845276033</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -3551,7 +3589,7 @@
       <c r="C41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>1000000</v>
       </c>
       <c r="E41" s="4">
@@ -3563,20 +3601,23 @@
       <c r="G41">
         <v>91</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="4">
         <v>41992</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9">
         <v>0.427047968</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="26">
         <v>1079.4823636049</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L41" s="26">
         <v>1072.6095572792001</v>
       </c>
-      <c r="M41" s="9"/>
+      <c r="M41" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99363323889540134</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -3588,7 +3629,7 @@
       <c r="C42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>1000000</v>
       </c>
       <c r="E42" s="4">
@@ -3600,20 +3641,23 @@
       <c r="G42">
         <v>90</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="4">
         <v>42082</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9">
         <v>0.427045436</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="26">
         <v>1067.6135900605</v>
       </c>
-      <c r="L42" s="28">
+      <c r="L42" s="26">
         <v>1059.6850152571001</v>
       </c>
-      <c r="M42" s="9"/>
+      <c r="M42" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99257355388015378</v>
+      </c>
     </row>
     <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -3625,7 +3669,7 @@
       <c r="C43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
         <v>1000000</v>
       </c>
       <c r="E43" s="4">
@@ -3637,20 +3681,23 @@
       <c r="G43">
         <v>92</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="4">
         <v>42174</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9">
         <v>0.71119821110000003</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="26">
         <v>1817.5065394341</v>
       </c>
-      <c r="L43" s="28">
+      <c r="L43" s="26">
         <v>1800.7360754536001</v>
       </c>
-      <c r="M43" s="9"/>
+      <c r="M43" s="16">
+        <f t="shared" si="1"/>
+        <v>0.99077281780470428</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -3662,7 +3709,7 @@
       <c r="C44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44">
         <v>1000000</v>
       </c>
       <c r="E44" s="4">
@@ -3674,20 +3721,23 @@
       <c r="G44">
         <v>94</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="4">
         <v>42268</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9">
         <v>0.7112122528</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="26">
         <v>1857.0542157591999</v>
       </c>
-      <c r="L44" s="28">
+      <c r="L44" s="26">
         <v>1836.5083426039</v>
       </c>
-      <c r="M44" s="9"/>
+      <c r="M44" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98893630946207978</v>
+      </c>
     </row>
     <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -3699,7 +3749,7 @@
       <c r="C45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
         <v>1000000</v>
       </c>
       <c r="E45" s="4">
@@ -3711,20 +3761,23 @@
       <c r="G45">
         <v>91</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="4">
         <v>42359</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9">
         <v>0.7111911903</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="26">
         <v>1797.7332866954</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L45" s="26">
         <v>1774.6533685088</v>
       </c>
-      <c r="M45" s="9"/>
+      <c r="M45" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98716165609358797</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3736,7 +3789,7 @@
       <c r="C46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46">
         <v>1000000</v>
       </c>
       <c r="E46" s="4">
@@ -3748,20 +3801,27 @@
       <c r="G46">
         <v>91</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="4">
         <v>42450</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9">
         <v>0.7111911903</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="26">
         <v>1797.7332866959</v>
       </c>
-      <c r="L46" s="28">
+      <c r="L46" s="26">
         <v>1771.4687401886999</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98539018735339079</v>
+      </c>
+      <c r="N46" s="11">
+        <f>LOG(M46)</f>
+        <v>-6.3917668018178917E-3</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -3773,7 +3833,7 @@
       <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47">
         <v>1000000</v>
       </c>
       <c r="E47" s="4">
@@ -3785,20 +3845,31 @@
       <c r="G47">
         <v>91</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="4">
         <v>42541</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9">
         <v>1.2420348993000001</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="26">
         <v>3139.5882176847999</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="26">
         <v>3084.0369827144</v>
       </c>
-      <c r="M47" s="9"/>
+      <c r="M47" s="16">
+        <f t="shared" si="1"/>
+        <v>0.98230620351500597</v>
+      </c>
+      <c r="N47" s="11">
+        <f t="shared" ref="N47:N50" si="2">LOG(M47)</f>
+        <v>-7.7531132637972512E-3</v>
+      </c>
+      <c r="O47" s="27">
+        <f t="shared" ref="O47:O49" si="3">(N47-N46)/G47</f>
+        <v>-1.4959851230542412E-5</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -3810,7 +3881,7 @@
       <c r="C48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48">
         <v>1000000</v>
       </c>
       <c r="E48" s="4">
@@ -3822,20 +3893,31 @@
       <c r="G48">
         <v>91</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="4">
         <v>42632</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9">
         <v>1.2420348993000001</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K48" s="26">
         <v>3139.5882176847999</v>
       </c>
-      <c r="L48" s="28">
+      <c r="L48" s="26">
         <v>3074.3848466025001</v>
       </c>
-      <c r="M48" s="9"/>
+      <c r="M48" s="16">
+        <f t="shared" si="1"/>
+        <v>0.97923187164640901</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="2"/>
+        <v>-9.1144597257756341E-3</v>
+      </c>
+      <c r="O48" s="27">
+        <f t="shared" si="3"/>
+        <v>-1.495985123053168E-5</v>
+      </c>
     </row>
     <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3856,7 +3938,7 @@
       <c r="F49" s="4">
         <v>42723</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49">
         <v>91</v>
       </c>
       <c r="H49" s="4">
@@ -3865,15 +3947,24 @@
       <c r="J49">
         <v>1.2420134965</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="26">
         <v>3139.5341160993999</v>
       </c>
-      <c r="L49" s="28">
+      <c r="L49" s="26">
         <v>3064.7101066698001</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
+      <c r="M49" s="16">
+        <f t="shared" si="1"/>
+        <v>0.9761671615396994</v>
+      </c>
+      <c r="N49" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.0475806187775568E-2</v>
+      </c>
+      <c r="O49" s="27">
+        <f t="shared" si="3"/>
+        <v>-1.4959851230768509E-5</v>
+      </c>
       <c r="P49" s="9"/>
     </row>
     <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -3895,7 +3986,7 @@
       <c r="F50" s="4">
         <v>42814</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50">
         <v>91</v>
       </c>
       <c r="H50" s="4">
@@ -3904,20 +3995,29 @@
       <c r="J50">
         <v>1.2420134965</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="26">
         <v>3139.5341160991002</v>
       </c>
-      <c r="L50" s="28">
+      <c r="L50" s="26">
         <v>3055.1184580418999</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
+      <c r="M50" s="16">
+        <f t="shared" si="1"/>
+        <v>0.97311204308170174</v>
+      </c>
+      <c r="N50" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.1837152649738036E-2</v>
+      </c>
+      <c r="O50" s="27">
+        <f>(N50-N49)/G50</f>
+        <v>-1.4959851230356788E-5</v>
+      </c>
       <c r="P50" s="9"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D51" s="4"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="14"/>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
@@ -3927,7 +4027,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D52" s="4"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="14"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
@@ -3946,8 +4046,8 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D54" s="4"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="16"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="14"/>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
@@ -3966,7 +4066,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3991,152 +4091,152 @@
       <c r="A1" s="4">
         <v>41351</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="15">
         <v>99.998500022499996</v>
       </c>
       <c r="D1" s="4">
         <v>41351</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="16">
         <v>99.998500022499599</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18">
+      <c r="F1" s="15"/>
+      <c r="G1" s="16">
         <f>E1-B1</f>
         <v>-3.979039320256561E-13</v>
       </c>
       <c r="H1" s="4"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41352</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="15">
         <v>99.997944478364005</v>
       </c>
       <c r="D2" s="4">
         <v>41352</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <v>99.997944478363692</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16">
         <f t="shared" ref="G2:G20" si="0">E2-B2</f>
         <v>-3.1263880373444408E-13</v>
       </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="18"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41383</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>99.982016787633995</v>
       </c>
       <c r="D3" s="4">
         <v>41383</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <v>99.982016787633697</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16">
         <f t="shared" si="0"/>
         <v>-2.9842794901924208E-13</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="18"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41444</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>99.921338119138994</v>
       </c>
       <c r="D4" s="4">
         <v>41444</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>99.921338119139008</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18">
+      <c r="F4" s="15"/>
+      <c r="G4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41536</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>99.750419354426</v>
       </c>
       <c r="D5" s="4">
         <v>41536</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>99.750419354425603</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>-3.979039320256561E-13</v>
       </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41627</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>99.574724240695005</v>
       </c>
       <c r="D6" s="4">
         <v>41627</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>99.574724240695105</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18">
+      <c r="F6" s="15"/>
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="18"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>41717</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>99.687818019233006</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="20">
+      <c r="C7" s="20"/>
+      <c r="D7" s="18">
         <v>41717</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="21">
         <v>99.687818019244304</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="23">
+      <c r="F7" s="19"/>
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>1.1297629498585593E-11</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="16"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="M7" s="4"/>
@@ -4145,22 +4245,22 @@
       <c r="A8" s="4">
         <v>42082</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>99.257327075698001</v>
       </c>
       <c r="D8" s="4">
         <v>42082</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>99.257327075693595</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>-4.4053649617126212E-12</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="18"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="M8" s="4"/>
@@ -4169,22 +4269,22 @@
       <c r="A9" s="4">
         <v>42450</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>98.538910072972996</v>
       </c>
       <c r="D9" s="4">
         <v>42450</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>98.538946696892211</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18">
+      <c r="F9" s="15"/>
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>3.6623919214662237E-5</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="M9" s="4"/>
@@ -4193,22 +4293,22 @@
       <c r="A10" s="4">
         <v>42814</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>97.311153095972998</v>
       </c>
       <c r="D10" s="4">
         <v>42814</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>97.311036016667501</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18">
+      <c r="F10" s="15"/>
+      <c r="G10" s="16">
         <f t="shared" si="0"/>
         <v>-1.1707930549675893E-4</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="18"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="M10" s="4"/>
@@ -4217,22 +4317,22 @@
       <c r="A11" s="4">
         <v>43178</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>95.511396470467005</v>
       </c>
       <c r="D11" s="4">
         <v>43178</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>95.511365464279692</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18">
+      <c r="F11" s="15"/>
+      <c r="G11" s="16">
         <f t="shared" si="0"/>
         <v>-3.1006187313664668E-5</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="M11" s="4"/>
@@ -4241,22 +4341,22 @@
       <c r="A12" s="4">
         <v>43543</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>93.197744193350005</v>
       </c>
       <c r="D12" s="4">
         <v>43543</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>93.198123329393695</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18">
+      <c r="F12" s="15"/>
+      <c r="G12" s="16">
         <f t="shared" si="0"/>
         <v>3.7913604369066434E-4</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="16"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="M12" s="4"/>
@@ -4265,22 +4365,22 @@
       <c r="A13" s="4">
         <v>43909</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>90.534528842146997</v>
       </c>
       <c r="D13" s="4">
         <v>43909</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>90.535431775221099</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18">
+      <c r="F13" s="15"/>
+      <c r="G13" s="16">
         <f t="shared" si="0"/>
         <v>9.0293307410149737E-4</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="M13" s="4"/>
@@ -4289,22 +4389,22 @@
       <c r="A14" s="4">
         <v>44277</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>87.636733441722001</v>
       </c>
       <c r="D14" s="4">
         <v>44274</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>87.662562649265197</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18">
+      <c r="F14" s="15"/>
+      <c r="G14" s="16">
         <f t="shared" si="0"/>
         <v>2.5829207543196731E-2</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="M14" s="4"/>
@@ -4313,22 +4413,22 @@
       <c r="A15" s="4">
         <v>44641</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>84.710201039764002</v>
       </c>
       <c r="D15" s="4">
         <v>44641</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>84.711560649851506</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18">
+      <c r="F15" s="15"/>
+      <c r="G15" s="16">
         <f t="shared" si="0"/>
         <v>1.3596100875048478E-3</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="M15" s="4"/>
@@ -4337,22 +4437,22 @@
       <c r="A16" s="4">
         <v>45005</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>81.702628527551994</v>
       </c>
       <c r="D16" s="4">
         <v>45005</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>81.704196551252096</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18">
+      <c r="F16" s="15"/>
+      <c r="G16" s="16">
         <f t="shared" si="0"/>
         <v>1.5680237001021169E-3</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" s="4"/>
@@ -4361,22 +4461,22 @@
       <c r="A17" s="4">
         <v>46832</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>67.217715676978003</v>
       </c>
       <c r="D17" s="4">
         <v>46832</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>67.219665169219695</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18">
+      <c r="F17" s="15"/>
+      <c r="G17" s="16">
         <f t="shared" si="0"/>
         <v>1.9494922416924965E-3</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="18"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="M17" s="4"/>
@@ -4385,79 +4485,79 @@
       <c r="A18" s="4">
         <v>48659</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>55.715309635268</v>
       </c>
       <c r="D18" s="4">
         <v>48659</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>55.7363900161873</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18">
+      <c r="F18" s="15"/>
+      <c r="G18" s="16">
         <f t="shared" si="0"/>
         <v>2.1080380919300978E-2</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>46.594494351233998</v>
       </c>
       <c r="D19" s="4">
         <v>50483</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>46.622473944613105</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18">
+      <c r="F19" s="15"/>
+      <c r="G19" s="16">
         <f t="shared" si="0"/>
         <v>2.7979593379107826E-2</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>52309</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>39.075084668740999</v>
       </c>
       <c r="D20" s="4">
         <v>52309</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>39.0764661060131</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18">
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
         <f t="shared" si="0"/>
         <v>1.3814372721014934E-3</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="18"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="17"/>
+      <c r="B21" s="15"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
@@ -4483,13 +4583,13 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B24">
         <v>-1000000</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="4">
         <v>41352</v>
       </c>
       <c r="D24" s="4">
@@ -4507,14 +4607,14 @@
       <c r="H24">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <v>-2438.8977532100998</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="M24" s="18"/>
+      <c r="K24" s="11"/>
+      <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4538,17 +4638,17 @@
       <c r="G25">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="22">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>-2437.3671505645998</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="M25" s="18"/>
+      <c r="K25" s="11"/>
+      <c r="M25" s="16"/>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -4575,14 +4675,14 @@
       <c r="H26">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="22">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>-2432.4286616715999</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="M26" s="18"/>
+      <c r="K26" s="11"/>
+      <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4609,13 +4709,13 @@
       <c r="H27">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="22">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <v>-2426.8416469951999</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4639,16 +4739,16 @@
       <c r="G28">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="22">
         <v>-2472.1666666608999</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="22">
         <v>-2445.5324901859999</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4672,16 +4772,16 @@
       <c r="G29">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="15">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="22">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="22">
         <v>-2409.2763512786</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -4702,16 +4802,16 @@
       <c r="F30" s="4">
         <v>41444</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="15">
         <v>0.3</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="22">
         <v>766.66666666660001</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="22">
         <v>766.06359224660002</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -4732,16 +4832,16 @@
       <c r="F31" s="4">
         <v>41536</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>0.6704859608</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="22">
         <v>1713.4641219488999</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="22">
         <v>1709.1876471317</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4762,16 +4862,16 @@
       <c r="F32" s="4">
         <v>41627</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="15">
         <v>0.69802612870000003</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="22">
         <v>1764.454936436</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="22">
         <v>1756.9511373073999</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4792,16 +4892,16 @@
       <c r="F33" s="4">
         <v>41717</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="15">
         <v>-0.45379177030000001</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="22">
         <v>-1134.4794257213</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="22">
         <v>-1130.9377853787</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4822,17 +4922,17 @@
       <c r="F34" s="4">
         <v>41809</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>0.38174720629999997</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="22">
         <v>975.57619381769996</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="22">
         <v>971.58276771349995</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="M34" s="18"/>
+      <c r="K34" s="11"/>
+      <c r="M34" s="16"/>
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -4856,14 +4956,14 @@
       <c r="H35">
         <v>0.41230435199999999</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="22">
         <v>1053.6666774114999</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="22">
         <v>1048.2490903844</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="M35" s="18"/>
+      <c r="K35" s="11"/>
+      <c r="M35" s="16"/>
     </row>
     <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -4887,10 +4987,10 @@
       <c r="H36">
         <v>0.44268803979999999</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="22">
         <v>1119.0169895001</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="22">
         <v>1112.0190257495999</v>
       </c>
     </row>
@@ -4916,10 +5016,10 @@
       <c r="H37">
         <v>0.47273429020000002</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="22">
         <v>1181.8357254473999</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="22">
         <v>1173.0585515048001</v>
       </c>
     </row>
@@ -4945,10 +5045,10 @@
       <c r="H38">
         <v>0.62483286869999999</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="22">
         <v>1596.7951089777</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="22">
         <v>1582.4093605195001</v>
       </c>
     </row>
@@ -4974,10 +5074,10 @@
       <c r="H39">
         <v>0.68311727300000002</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="22">
         <v>1783.6951017718</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="22">
         <v>1764.4782541543</v>
       </c>
     </row>
@@ -5003,10 +5103,10 @@
       <c r="H40">
         <v>0.74103797950000005</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="22">
         <v>1873.1793370995999</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="22">
         <v>1849.5339119089001</v>
       </c>
     </row>
@@ -5032,10 +5132,10 @@
       <c r="H41">
         <v>0.79802186119999996</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="22">
         <v>2017.2219270457999</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="22">
         <v>1987.7485006638999</v>
       </c>
     </row>
@@ -5086,7 +5186,7 @@
         <f>(E1-H1)/360</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="15">
         <f>100/(1+I1*C1/100)</f>
         <v>99.996208477095252</v>
       </c>
@@ -5107,7 +5207,7 @@
       <c r="F2">
         <v>99.816266974399994</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <f>100/F1-1</f>
         <v>4.291829390079549E-5</v>
       </c>
@@ -5270,10 +5370,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="18"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G15" s="19"/>
+      <c r="G15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="58">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -192,33 +192,27 @@
     <t>T 3 1/8 02/15/42</t>
   </si>
   <si>
-    <t>Pay/Rec</t>
-  </si>
-  <si>
-    <t>Pay</t>
-  </si>
-  <si>
-    <t>Receive</t>
-  </si>
-  <si>
     <t>18/03/2013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
-    <numFmt numFmtId="172" formatCode="0.000000000000"/>
-    <numFmt numFmtId="180" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="181" formatCode="0.00000000000000000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -754,35 +748,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,10 +877,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -901,7 +900,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -938,10 +937,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -961,7 +960,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1050,7 +1049,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1085,7 +1083,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1261,24 +1258,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1328,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1401,7 +1398,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1436,7 +1433,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1449,7 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>41619</v>
       </c>
       <c r="H6">
@@ -1471,7 +1468,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1487,7 +1484,7 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>41709</v>
       </c>
       <c r="H7">
@@ -1498,7 +1495,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1514,7 +1511,7 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>42074</v>
       </c>
       <c r="H8">
@@ -1525,7 +1522,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1538,7 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>42440</v>
       </c>
       <c r="H9">
@@ -1552,7 +1549,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1565,7 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>42807</v>
       </c>
       <c r="H10">
@@ -1579,7 +1576,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1595,7 +1592,7 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>43171</v>
       </c>
       <c r="H11">
@@ -1606,7 +1603,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1619,7 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>43535</v>
       </c>
       <c r="H12">
@@ -1633,7 +1630,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1646,7 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>43901</v>
       </c>
       <c r="H13">
@@ -1660,7 +1657,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1673,7 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>44266</v>
       </c>
       <c r="H14">
@@ -1687,7 +1684,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1700,7 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>44631</v>
       </c>
       <c r="H15">
@@ -1714,7 +1711,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1727,7 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>44998</v>
       </c>
       <c r="H16">
@@ -1741,7 +1738,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.4">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1757,7 +1754,7 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>46825</v>
       </c>
       <c r="H17">
@@ -1768,7 +1765,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1784,7 +1781,7 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>48649</v>
       </c>
       <c r="H18">
@@ -1795,7 +1792,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1811,7 +1808,7 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>50475</v>
       </c>
       <c r="H19">
@@ -1822,7 +1819,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1849,49 +1846,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -1901,20 +1898,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1937,7 +1934,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1952,7 +1949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1969,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2003,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2088,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2156,7 +2153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2207,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2224,7 +2221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2241,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2258,84 +2255,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2349,36 +2346,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.6640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="3">
+        <v>57</v>
+      </c>
+      <c r="B1" s="32">
         <v>99.998500022499996</v>
       </c>
       <c r="C1" s="3"/>
@@ -2388,1672 +2387,1694 @@
       <c r="E1">
         <v>0.99998500022499603</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="12">
+      <c r="F1" s="6"/>
+      <c r="G1" s="11">
         <f>E1-B1/100</f>
         <v>-3.8857805861880479E-15</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="12">
         <v>41352</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="32">
         <v>99.997944478364005</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="11">
+      <c r="C2" s="13"/>
+      <c r="D2" s="10">
         <v>41352</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>0.99997944478363698</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="12">
+      <c r="F2" s="6"/>
+      <c r="G2" s="11">
         <f t="shared" ref="G2:G20" si="0">E2-B2/100</f>
         <v>-3.1086244689504383E-15</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="12">
         <v>41383</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="32">
         <v>99.982016787633995</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>41383</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0.99982016787633698</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="12">
+      <c r="F3" s="6"/>
+      <c r="G3" s="11">
         <f t="shared" si="0"/>
         <v>-2.9976021664879227E-15</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="13">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="12">
         <v>41444</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="32">
         <v>99.921338119138994</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11">
+      <c r="C4" s="13"/>
+      <c r="D4" s="10">
         <v>41444</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0.99921338119139003</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="12">
+      <c r="F4" s="6"/>
+      <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="12">
         <v>41536</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="32">
         <v>99.750419354426</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11">
+      <c r="C5" s="13"/>
+      <c r="D5" s="10">
         <v>41536</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.99750419354425601</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12">
+      <c r="F5" s="6"/>
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>-3.9968028886505635E-15</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="12">
         <v>41627</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="32">
         <v>99.574724240695005</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11">
+      <c r="C6" s="13"/>
+      <c r="D6" s="10">
         <v>41627</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0.99574724240695101</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="12">
+      <c r="F6" s="6"/>
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>9.9920072216264089E-16</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="17">
         <v>41717</v>
       </c>
       <c r="B7" s="20">
         <v>99.687818019233006</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22">
         <v>41717</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>0.99687818019244301</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25">
+      <c r="F7" s="23"/>
+      <c r="G7" s="24">
         <f t="shared" si="0"/>
         <v>1.1290968160437842E-13</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="H7" s="11"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="12">
         <v>42082</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="32">
         <v>99.257355388015</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="11">
+      <c r="C8" s="13"/>
+      <c r="D8" s="10">
         <v>42082</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.99257355388012902</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="12">
+      <c r="F8" s="6"/>
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>-2.0983215165415459E-14</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="H8" s="6"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="12">
         <v>42450</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="32">
         <v>98.539018735338999</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="11">
+      <c r="C9" s="13"/>
+      <c r="D9" s="10">
         <v>42450</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0.985390187353401</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="12">
+      <c r="F9" s="6"/>
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>1.099120794378905E-14</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="H9" s="6"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="12">
         <v>42814</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="32">
         <v>97.311204308168001</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11">
+      <c r="C10" s="13"/>
+      <c r="D10" s="10">
         <v>42814</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.97311193749819802</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="12">
+      <c r="F10" s="6"/>
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>-1.0558348195743861E-7</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="H10" s="6"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="12">
         <v>43178</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="32">
         <v>95.511653660522995</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11">
+      <c r="C11" s="13"/>
+      <c r="D11" s="10">
         <v>43178</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.95511631670198105</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="12">
+      <c r="F11" s="6"/>
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>-2.1990324894360924E-7</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="H11" s="6"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="12">
         <v>43543</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="32">
         <v>93.198523659385003</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11">
+      <c r="C12" s="13"/>
+      <c r="D12" s="10">
         <v>43543</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0.93198501989188998</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="12">
+      <c r="F12" s="6"/>
+      <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>-2.1670196004297537E-7</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="H12" s="6"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="12">
         <v>43909</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="32">
         <v>90.535926466104996</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11">
+      <c r="C13" s="13"/>
+      <c r="D13" s="10">
         <v>43909</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0.90535905210391499</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="12">
+      <c r="F13" s="6"/>
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>-2.1255713500423212E-7</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="H13" s="6"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="12">
         <v>44277</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="32">
         <v>87.640011654926994</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="11">
+      <c r="C14" s="13"/>
+      <c r="D14" s="10">
         <v>44274</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0.87663130619954399</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="12">
+      <c r="F14" s="6"/>
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>2.3118965027402183E-4</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="H14" s="6"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="12">
         <v>44641</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="32">
         <v>84.712352659877993</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11">
+      <c r="C15" s="13"/>
+      <c r="D15" s="10">
         <v>44641</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0.84712216286617203</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="12">
+      <c r="F15" s="6"/>
+      <c r="G15" s="11">
         <f t="shared" si="0"/>
         <v>-1.3637326079507517E-6</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="H15" s="6"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="12">
         <v>45005</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="32">
         <v>81.705167519043997</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="11">
+      <c r="C16" s="13"/>
+      <c r="D16" s="10">
         <v>45005</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>0.81704960421286399</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="12">
+      <c r="F16" s="6"/>
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>-2.0709775759852889E-6</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="H16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="12">
         <v>46832</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="32">
         <v>67.265449607741999</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="11">
+      <c r="C17" s="13"/>
+      <c r="D17" s="10">
         <v>46832</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>0.67265100689836699</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="12">
+      <c r="F17" s="6"/>
+      <c r="G17" s="11">
         <f t="shared" si="0"/>
         <v>-3.4891790530178213E-6</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="H17" s="6"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="12">
         <v>48659</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="32">
         <v>55.778982275236999</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="11">
+      <c r="C18" s="13"/>
+      <c r="D18" s="10">
         <v>48659</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>0.55778628037335198</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="12">
+      <c r="F18" s="6"/>
+      <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>-3.5423790180066916E-6</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="H18" s="6"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="12">
         <v>50486</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="32">
         <v>46.659891150097003</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="11">
+      <c r="C19" s="13"/>
+      <c r="D19" s="10">
         <v>50483</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>0.46673146770530699</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="12">
+      <c r="F19" s="6"/>
+      <c r="G19" s="11">
         <f t="shared" si="0"/>
         <v>1.3255620433694215E-4</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="H19" s="6"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="12">
         <v>52309</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="32">
         <v>39.136363282002002</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11">
+      <c r="C20" s="13"/>
+      <c r="D20" s="10">
         <v>52309</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>0.39135938265424802</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="12">
+      <c r="F20" s="6"/>
+      <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>-4.250165771990666E-6</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="F23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="F22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="F23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="J23" s="14">
+        <f>SUM(J27:J34)</f>
+        <v>-26867.5078242727</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="F25" s="4"/>
+      <c r="G25"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="30"/>
+      <c r="O25"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>35</v>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" t="s">
         <v>42</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="I26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="30"/>
+      <c r="O26"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.4">
+      <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27">
+      <c r="B27">
         <v>-1000000</v>
       </c>
-      <c r="E27" s="4">
+      <c r="C27" s="4">
         <v>41352</v>
+      </c>
+      <c r="D27" s="4">
+        <v>41536</v>
+      </c>
+      <c r="E27">
+        <v>180</v>
       </c>
       <c r="F27" s="4">
         <v>41536</v>
       </c>
       <c r="G27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H27">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I27" s="31">
+        <f>G27*B27*E27/360/100</f>
+        <v>-3395</v>
+      </c>
+      <c r="J27" s="25">
+        <v>-3386.5267370826</v>
+      </c>
+      <c r="K27" s="26">
+        <f>J27/I27</f>
+        <v>0.99750419354421205</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" ref="L27:L45" si="1">LOG(K27)</f>
+        <v>-1.0852698474471043E-3</v>
+      </c>
+      <c r="M27" s="30"/>
+      <c r="O27"/>
+    </row>
+    <row r="28" spans="1:15" ht="14.4">
+      <c r="A28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>-1000000</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41536</v>
+      </c>
+      <c r="D28" s="4">
+        <v>41717</v>
+      </c>
+      <c r="E28">
         <v>180</v>
-      </c>
-      <c r="H27" s="4">
-        <v>41536</v>
-      </c>
-      <c r="I27">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J27">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K27" s="26">
-        <v>-3394.9999999997999</v>
-      </c>
-      <c r="L27" s="26">
-        <v>-3386.5267370826</v>
-      </c>
-      <c r="M27" s="16">
-        <f>L27/K27</f>
-        <v>0.99750419354427089</v>
-      </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28">
-        <v>-1000000</v>
-      </c>
-      <c r="E28" s="4">
-        <v>41536</v>
       </c>
       <c r="F28" s="4">
         <v>41717</v>
       </c>
       <c r="G28">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H28">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I28" s="31">
+        <f t="shared" ref="I28:I34" si="2">G28*B28*E28/360/100</f>
+        <v>-3395</v>
+      </c>
+      <c r="J28" s="25">
+        <v>-3384.4014217528002</v>
+      </c>
+      <c r="K28" s="26">
+        <f t="shared" ref="K28:K50" si="3">J28/I28</f>
+        <v>0.9968781801922828</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.3579097953826157E-3</v>
+      </c>
+      <c r="M28" s="30">
+        <f t="shared" ref="M28:M34" si="4">(L28-L27)/(F28-F27)</f>
+        <v>-1.5062980548923283E-6</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.4">
+      <c r="A29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>-1000000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41717</v>
+      </c>
+      <c r="D29" s="4">
+        <v>41901</v>
+      </c>
+      <c r="E29">
         <v>180</v>
-      </c>
-      <c r="H28" s="4">
-        <v>41717</v>
-      </c>
-      <c r="I28">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J28">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K28" s="26">
-        <v>-3394.9999999997999</v>
-      </c>
-      <c r="L28" s="26">
-        <v>-3384.4014217528002</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" ref="M28:M50" si="1">L28/K28</f>
-        <v>0.99687818019234153</v>
-      </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29">
-        <v>-1000000</v>
-      </c>
-      <c r="E29" s="4">
-        <v>41717</v>
       </c>
       <c r="F29" s="4">
         <v>41901</v>
       </c>
       <c r="G29">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H29">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="2"/>
+        <v>-3395</v>
+      </c>
+      <c r="J29" s="25">
+        <v>-3377.0263554967</v>
+      </c>
+      <c r="K29" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99470584845263621</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.3053285816064433E-3</v>
+      </c>
+      <c r="M29" s="30">
+        <f t="shared" si="4"/>
+        <v>-5.1490151425208018E-6</v>
+      </c>
+      <c r="N29" s="27"/>
+      <c r="O29"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.4">
+      <c r="A30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>-1000000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41901</v>
+      </c>
+      <c r="D30" s="4">
+        <v>42082</v>
+      </c>
+      <c r="E30">
         <v>180</v>
-      </c>
-      <c r="H29" s="4">
-        <v>41901</v>
-      </c>
-      <c r="I29">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J29">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K29" s="26">
-        <v>-3394.9999999997999</v>
-      </c>
-      <c r="L29" s="26">
-        <v>-3377.0263554967</v>
-      </c>
-      <c r="M29" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99470584845269483</v>
-      </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>-1000000</v>
-      </c>
-      <c r="E30" s="4">
-        <v>41901</v>
       </c>
       <c r="F30" s="4">
         <v>42082</v>
       </c>
       <c r="G30">
-        <v>180</v>
-      </c>
-      <c r="H30" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H30">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="2"/>
+        <v>-3395</v>
+      </c>
+      <c r="J30" s="25">
+        <v>-3369.7872154228999</v>
+      </c>
+      <c r="K30" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99257355388008828</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.2373003224074486E-3</v>
+      </c>
+      <c r="M30" s="30">
+        <f t="shared" si="4"/>
+        <v>-5.1490151425469913E-6</v>
+      </c>
+      <c r="N30" s="27"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.4">
+      <c r="A31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>-1000000</v>
+      </c>
+      <c r="C31" s="4">
         <v>42082</v>
       </c>
-      <c r="I30">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J30">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K30" s="26">
-        <v>-3394.9999999997999</v>
-      </c>
-      <c r="L30" s="26">
-        <v>-3369.7872154228999</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99257355388014679</v>
-      </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>-1000000</v>
-      </c>
-      <c r="E31" s="4">
-        <v>42082</v>
+      <c r="D31" s="4">
+        <v>42268</v>
+      </c>
+      <c r="E31">
+        <v>182</v>
       </c>
       <c r="F31" s="4">
         <v>42268</v>
       </c>
       <c r="G31">
-        <v>182</v>
-      </c>
-      <c r="H31" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H31">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="2"/>
+        <v>-3432.7222222222226</v>
+      </c>
+      <c r="J31" s="25">
+        <v>-3394.7436458528</v>
+      </c>
+      <c r="K31" s="26">
+        <f t="shared" si="3"/>
+        <v>0.98893630946204658</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="1"/>
+        <v>-4.8316774016805251E-3</v>
+      </c>
+      <c r="M31" s="30">
+        <f t="shared" si="4"/>
+        <v>-8.5719197810380459E-6</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31"/>
+    </row>
+    <row r="32" spans="1:15" ht="14.4">
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>-1000000</v>
+      </c>
+      <c r="C32" s="4">
         <v>42268</v>
       </c>
-      <c r="I31">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J31">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K31" s="26">
-        <v>-3432.7222222219998</v>
-      </c>
-      <c r="L31" s="26">
-        <v>-3394.7436458528</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98893630946211075</v>
-      </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32">
-        <v>-1000000</v>
-      </c>
-      <c r="E32" s="4">
-        <v>42268</v>
+      <c r="D32" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E32">
+        <v>180</v>
       </c>
       <c r="F32" s="4">
         <v>42450</v>
       </c>
       <c r="G32">
-        <v>180</v>
-      </c>
-      <c r="H32" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H32">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I32" s="31">
+        <f t="shared" si="2"/>
+        <v>-3395</v>
+      </c>
+      <c r="J32" s="25">
+        <v>-3345.3996860645998</v>
+      </c>
+      <c r="K32" s="26">
+        <f t="shared" si="3"/>
+        <v>0.98539018735334305</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="1"/>
+        <v>-6.3917668018389322E-3</v>
+      </c>
+      <c r="M32" s="30">
+        <f t="shared" si="4"/>
+        <v>-8.5719197810901486E-6</v>
+      </c>
+      <c r="N32" s="27"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.4">
+      <c r="A33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>-1000000</v>
+      </c>
+      <c r="C33" s="4">
         <v>42450</v>
       </c>
-      <c r="I32">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J32">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K32" s="26">
-        <v>-3394.9999999997999</v>
-      </c>
-      <c r="L32" s="26">
-        <v>-3345.3996860645998</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98539018735340111</v>
-      </c>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>-1000000</v>
-      </c>
-      <c r="E33" s="4">
-        <v>42450</v>
+      <c r="D33" s="4">
+        <v>42632</v>
+      </c>
+      <c r="E33">
+        <v>178</v>
       </c>
       <c r="F33" s="4">
         <v>42632</v>
       </c>
       <c r="G33">
-        <v>178</v>
-      </c>
-      <c r="H33" s="4">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H33">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I33" s="31">
+        <f t="shared" si="2"/>
+        <v>-3357.2777777777774</v>
+      </c>
+      <c r="J33" s="25">
+        <v>-3287.5534019699999</v>
+      </c>
+      <c r="K33" s="26">
+        <f t="shared" si="3"/>
+        <v>0.97923187164634051</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="1"/>
+        <v>-9.1144597258060144E-3</v>
+      </c>
+      <c r="M33" s="30">
+        <f t="shared" si="4"/>
+        <v>-1.4959851230588364E-5</v>
+      </c>
+      <c r="N33" s="27"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="1:15" ht="14.4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>-1000000</v>
+      </c>
+      <c r="C34" s="4">
         <v>42632</v>
       </c>
-      <c r="I33">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="J33">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="K33" s="26">
-        <v>-3357.2777777776</v>
-      </c>
-      <c r="L33" s="26">
-        <v>-3287.5534019699999</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="1"/>
-        <v>0.97923187164639225</v>
-      </c>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>-1000000</v>
-      </c>
-      <c r="E34" s="4">
-        <v>42632</v>
+      <c r="D34" s="4">
+        <v>42814</v>
+      </c>
+      <c r="E34">
+        <v>181</v>
       </c>
       <c r="F34" s="4">
         <v>42814</v>
       </c>
       <c r="G34">
-        <v>181</v>
-      </c>
-      <c r="H34" s="4">
-        <v>42814</v>
-      </c>
-      <c r="I34">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J34" s="9">
+      <c r="H34" s="8">
         <v>0.67900000000000005</v>
       </c>
+      <c r="I34" s="31">
+        <f t="shared" si="2"/>
+        <v>-3413.8611111111113</v>
+      </c>
+      <c r="J34" s="25">
+        <v>-3322.0693606302998</v>
+      </c>
       <c r="K34" s="26">
-        <v>-3413.8611111108999</v>
-      </c>
-      <c r="L34" s="26">
-        <v>-3322.0693606302998</v>
-      </c>
-      <c r="M34" s="16">
+        <f t="shared" si="3"/>
+        <v>0.97311204308164256</v>
+      </c>
+      <c r="L34" s="10">
         <f t="shared" si="1"/>
-        <v>0.97311204308170285</v>
-      </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+        <v>-1.1837152649764445E-2</v>
+      </c>
+      <c r="M34" s="30">
+        <f t="shared" si="4"/>
+        <v>-1.495985123054083E-5</v>
+      </c>
+      <c r="N34" s="27"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" ht="14.4">
       <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35">
+      <c r="B35">
         <v>1000000</v>
       </c>
-      <c r="E35" s="4">
+      <c r="C35" s="4">
         <v>41352</v>
+      </c>
+      <c r="D35" s="4">
+        <v>41444</v>
+      </c>
+      <c r="E35">
+        <v>92</v>
       </c>
       <c r="F35" s="4">
         <v>41444</v>
       </c>
       <c r="G35">
+        <f>(K35/B2*100)^(-365/E35)-1</f>
+        <v>3.0451283027357334E-3</v>
+      </c>
+      <c r="H35" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="I35" s="31">
+        <v>766.66666666660001</v>
+      </c>
+      <c r="J35" s="25">
+        <v>766.06359224660002</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99921338119130432</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.4175864249536518E-4</v>
+      </c>
+      <c r="M35" s="30"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" ht="14.4">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>1000000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>41444</v>
+      </c>
+      <c r="D36" s="4">
+        <v>41536</v>
+      </c>
+      <c r="E36">
         <v>92</v>
-      </c>
-      <c r="H35" s="4">
-        <v>41444</v>
-      </c>
-      <c r="J35">
-        <v>0.3</v>
-      </c>
-      <c r="K35" s="26">
-        <v>766.66666666660001</v>
-      </c>
-      <c r="L35" s="26">
-        <v>766.06359224660002</v>
-      </c>
-      <c r="M35" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99921338119130432</v>
-      </c>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>1000000</v>
-      </c>
-      <c r="E36" s="4">
-        <v>41444</v>
       </c>
       <c r="F36" s="4">
         <v>41536</v>
       </c>
       <c r="G36">
-        <v>92</v>
-      </c>
-      <c r="H36" s="4">
+        <f>(K36/K35)^(-365/E36)-1</f>
+        <v>6.8152843195379287E-3</v>
+      </c>
+      <c r="H36" s="14">
+        <v>0.6704859608</v>
+      </c>
+      <c r="I36" s="31">
+        <v>1713.4641219488999</v>
+      </c>
+      <c r="J36" s="25">
+        <v>1709.1876471317</v>
+      </c>
+      <c r="K36" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99750419354428277</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.0852698474163136E-3</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" ref="M36:M49" si="5">(L36-L35)/(F36-F35)</f>
+        <v>-8.081643531749439E-6</v>
+      </c>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.4">
+      <c r="A37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>1000000</v>
+      </c>
+      <c r="C37" s="4">
         <v>41536</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9">
-        <v>0.6704859608</v>
-      </c>
-      <c r="K36" s="26">
-        <v>1713.4641219488999</v>
-      </c>
-      <c r="L36" s="26">
-        <v>1709.1876471317</v>
-      </c>
-      <c r="M36" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99750419354428277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37">
-        <v>1000000</v>
-      </c>
-      <c r="E37" s="4">
-        <v>41536</v>
+      <c r="D37" s="4">
+        <v>41627</v>
+      </c>
+      <c r="E37">
+        <v>91</v>
       </c>
       <c r="F37" s="4">
         <v>41627</v>
       </c>
-      <c r="G37">
-        <v>91</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37"/>
+      <c r="H37" s="14">
+        <v>0.69802612870000003</v>
+      </c>
+      <c r="I37" s="31">
+        <v>1764.454936436</v>
+      </c>
+      <c r="J37" s="25">
+        <v>1756.9511373073999</v>
+      </c>
+      <c r="K37" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99574724240690615</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.8508876393196001E-3</v>
+      </c>
+      <c r="M37" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.4133823286075437E-6</v>
+      </c>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" ht="14.4">
+      <c r="A38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>1000000</v>
+      </c>
+      <c r="C38" s="4">
         <v>41627</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9">
-        <v>0.69802612870000003</v>
-      </c>
-      <c r="K37" s="26">
-        <v>1764.454936436</v>
-      </c>
-      <c r="L37" s="26">
-        <v>1756.9511373073999</v>
-      </c>
-      <c r="M37" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99574724240690615</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38">
-        <v>1000000</v>
-      </c>
-      <c r="E38" s="4">
-        <v>41627</v>
+      <c r="D38" s="4">
+        <v>41717</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
       </c>
       <c r="F38" s="4">
         <v>41717</v>
       </c>
-      <c r="G38">
-        <v>90</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38"/>
+      <c r="H38" s="14">
+        <v>-0.45379177030000001</v>
+      </c>
+      <c r="I38" s="31">
+        <v>-1134.4794257213</v>
+      </c>
+      <c r="J38" s="25">
+        <v>-1130.9377853787</v>
+      </c>
+      <c r="K38" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99687818019233954</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.3579097953579E-3</v>
+      </c>
+      <c r="M38" s="30">
+        <f t="shared" si="5"/>
+        <v>5.4775315995744463E-6</v>
+      </c>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.4">
+      <c r="A39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>1000000</v>
+      </c>
+      <c r="C39" s="4">
         <v>41717</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9">
-        <v>-0.45379177030000001</v>
-      </c>
-      <c r="K38" s="26">
-        <v>-1134.4794257213</v>
-      </c>
-      <c r="L38" s="26">
-        <v>-1130.9377853787</v>
-      </c>
-      <c r="M38" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99687818019233954</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>1000000</v>
-      </c>
-      <c r="E39" s="4">
-        <v>41717</v>
+      <c r="D39" s="4">
+        <v>41809</v>
+      </c>
+      <c r="E39">
+        <v>92</v>
       </c>
       <c r="F39" s="4">
         <v>41809</v>
       </c>
-      <c r="G39">
+      <c r="G39"/>
+      <c r="H39" s="14">
+        <v>0.4270505</v>
+      </c>
+      <c r="I39" s="31">
+        <v>1091.3512778664999</v>
+      </c>
+      <c r="J39" s="25">
+        <v>1086.7582408353001</v>
+      </c>
+      <c r="K39" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99579142195152892</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="1"/>
+        <v>-1.8316191884587725E-3</v>
+      </c>
+      <c r="M39" s="30">
+        <f t="shared" si="5"/>
+        <v>-5.1490151424007883E-6</v>
+      </c>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.4">
+      <c r="A40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>1000000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>41809</v>
+      </c>
+      <c r="D40" s="4">
+        <v>41901</v>
+      </c>
+      <c r="E40">
         <v>92</v>
-      </c>
-      <c r="H39" s="4">
-        <v>41809</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9">
-        <v>0.4270505</v>
-      </c>
-      <c r="K39" s="26">
-        <v>1091.3512778664999</v>
-      </c>
-      <c r="L39" s="26">
-        <v>1086.7582408353001</v>
-      </c>
-      <c r="M39" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99579142195152892</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40">
-        <v>1000000</v>
-      </c>
-      <c r="E40" s="4">
-        <v>41809</v>
       </c>
       <c r="F40" s="4">
         <v>41901</v>
       </c>
-      <c r="G40">
-        <v>92</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40"/>
+      <c r="H40" s="14">
+        <v>0.4270505</v>
+      </c>
+      <c r="I40" s="31">
+        <v>1091.3512778667</v>
+      </c>
+      <c r="J40" s="25">
+        <v>1085.5734988104</v>
+      </c>
+      <c r="K40" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99470584845276033</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.3053285815522505E-3</v>
+      </c>
+      <c r="M40" s="30">
+        <f t="shared" si="5"/>
+        <v>-5.1490151423204133E-6</v>
+      </c>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.4">
+      <c r="A41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>1000000</v>
+      </c>
+      <c r="C41" s="4">
         <v>41901</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9">
-        <v>0.4270505</v>
-      </c>
-      <c r="K40" s="26">
-        <v>1091.3512778667</v>
-      </c>
-      <c r="L40" s="26">
-        <v>1085.5734988104</v>
-      </c>
-      <c r="M40" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99470584845276033</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41">
-        <v>1000000</v>
-      </c>
-      <c r="E41" s="4">
-        <v>41901</v>
+      <c r="D41" s="4">
+        <v>41992</v>
+      </c>
+      <c r="E41">
+        <v>91</v>
       </c>
       <c r="F41" s="4">
         <v>41992</v>
       </c>
-      <c r="G41">
-        <v>91</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41"/>
+      <c r="H41" s="14">
+        <v>0.427047968</v>
+      </c>
+      <c r="I41" s="31">
+        <v>1079.4823636049</v>
+      </c>
+      <c r="J41" s="25">
+        <v>1072.6095572792001</v>
+      </c>
+      <c r="K41" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99363323889540134</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.7738889595563059E-3</v>
+      </c>
+      <c r="M41" s="30">
+        <f t="shared" si="5"/>
+        <v>-5.1490151429017075E-6</v>
+      </c>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.4">
+      <c r="A42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>1000000</v>
+      </c>
+      <c r="C42" s="4">
         <v>41992</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9">
-        <v>0.427047968</v>
-      </c>
-      <c r="K41" s="26">
-        <v>1079.4823636049</v>
-      </c>
-      <c r="L41" s="26">
-        <v>1072.6095572792001</v>
-      </c>
-      <c r="M41" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99363323889540134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42">
-        <v>1000000</v>
-      </c>
-      <c r="E42" s="4">
-        <v>41992</v>
+      <c r="D42" s="4">
+        <v>42082</v>
+      </c>
+      <c r="E42">
+        <v>90</v>
       </c>
       <c r="F42" s="4">
         <v>42082</v>
       </c>
-      <c r="G42">
-        <v>90</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42"/>
+      <c r="H42" s="14">
+        <v>0.427045436</v>
+      </c>
+      <c r="I42" s="31">
+        <v>1067.6135900605</v>
+      </c>
+      <c r="J42" s="25">
+        <v>1059.6850152571001</v>
+      </c>
+      <c r="K42" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99257355388015378</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.237300322378788E-3</v>
+      </c>
+      <c r="M42" s="30">
+        <f t="shared" si="5"/>
+        <v>-5.1490151424720229E-6</v>
+      </c>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.4">
+      <c r="A43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>1000000</v>
+      </c>
+      <c r="C43" s="4">
         <v>42082</v>
       </c>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9">
-        <v>0.427045436</v>
-      </c>
-      <c r="K42" s="26">
-        <v>1067.6135900605</v>
-      </c>
-      <c r="L42" s="26">
-        <v>1059.6850152571001</v>
-      </c>
-      <c r="M42" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99257355388015378</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43">
-        <v>1000000</v>
-      </c>
-      <c r="E43" s="4">
-        <v>42082</v>
+      <c r="D43" s="4">
+        <v>42174</v>
+      </c>
+      <c r="E43">
+        <v>92</v>
       </c>
       <c r="F43" s="4">
         <v>42174</v>
       </c>
-      <c r="G43">
-        <v>92</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43"/>
+      <c r="H43" s="14">
+        <v>0.71119821110000003</v>
+      </c>
+      <c r="I43" s="31">
+        <v>1817.5065394341</v>
+      </c>
+      <c r="J43" s="25">
+        <v>1800.7360754536001</v>
+      </c>
+      <c r="K43" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99077281780470428</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="1"/>
+        <v>-4.0259169422358111E-3</v>
+      </c>
+      <c r="M43" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.5719197810545986E-6</v>
+      </c>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.4">
+      <c r="A44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>1000000</v>
+      </c>
+      <c r="C44" s="4">
         <v>42174</v>
       </c>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9">
-        <v>0.71119821110000003</v>
-      </c>
-      <c r="K43" s="26">
-        <v>1817.5065394341</v>
-      </c>
-      <c r="L43" s="26">
-        <v>1800.7360754536001</v>
-      </c>
-      <c r="M43" s="16">
-        <f t="shared" si="1"/>
-        <v>0.99077281780470428</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44">
-        <v>1000000</v>
-      </c>
-      <c r="E44" s="4">
-        <v>42174</v>
+      <c r="D44" s="4">
+        <v>42268</v>
+      </c>
+      <c r="E44">
+        <v>94</v>
       </c>
       <c r="F44" s="4">
         <v>42268</v>
       </c>
-      <c r="G44">
-        <v>94</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44"/>
+      <c r="H44" s="14">
+        <v>0.7112122528</v>
+      </c>
+      <c r="I44" s="31">
+        <v>1857.0542157591999</v>
+      </c>
+      <c r="J44" s="25">
+        <v>1836.5083426039</v>
+      </c>
+      <c r="K44" s="26">
+        <f t="shared" si="3"/>
+        <v>0.98893630946207978</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="1"/>
+        <v>-4.8316774016659474E-3</v>
+      </c>
+      <c r="M44" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.5719197811716619E-6</v>
+      </c>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.4">
+      <c r="A45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>1000000</v>
+      </c>
+      <c r="C45" s="4">
         <v>42268</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9">
-        <v>0.7112122528</v>
-      </c>
-      <c r="K44" s="26">
-        <v>1857.0542157591999</v>
-      </c>
-      <c r="L44" s="26">
-        <v>1836.5083426039</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98893630946207978</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45">
-        <v>1000000</v>
-      </c>
-      <c r="E45" s="4">
-        <v>42268</v>
+      <c r="D45" s="4">
+        <v>42359</v>
+      </c>
+      <c r="E45">
+        <v>91</v>
       </c>
       <c r="F45" s="4">
         <v>42359</v>
       </c>
-      <c r="G45">
+      <c r="G45"/>
+      <c r="H45" s="14">
+        <v>0.7111911903</v>
+      </c>
+      <c r="I45" s="31">
+        <v>1797.7332866954</v>
+      </c>
+      <c r="J45" s="25">
+        <v>1774.6533685088</v>
+      </c>
+      <c r="K45" s="26">
+        <f t="shared" si="3"/>
+        <v>0.98716165609358797</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="1"/>
+        <v>-5.6117221017362145E-3</v>
+      </c>
+      <c r="M45" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.5719197809919453E-6</v>
+      </c>
+      <c r="O45"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.4">
+      <c r="A46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>1000000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>42359</v>
+      </c>
+      <c r="D46" s="4">
+        <v>42450</v>
+      </c>
+      <c r="E46">
         <v>91</v>
-      </c>
-      <c r="H45" s="4">
-        <v>42359</v>
-      </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9">
-        <v>0.7111911903</v>
-      </c>
-      <c r="K45" s="26">
-        <v>1797.7332866954</v>
-      </c>
-      <c r="L45" s="26">
-        <v>1774.6533685088</v>
-      </c>
-      <c r="M45" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98716165609358797</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <v>1000000</v>
-      </c>
-      <c r="E46" s="4">
-        <v>42359</v>
       </c>
       <c r="F46" s="4">
         <v>42450</v>
       </c>
-      <c r="G46">
+      <c r="G46"/>
+      <c r="H46" s="14">
+        <v>0.7111911903</v>
+      </c>
+      <c r="I46" s="31">
+        <v>1797.7332866959</v>
+      </c>
+      <c r="J46" s="25">
+        <v>1771.4687401886999</v>
+      </c>
+      <c r="K46" s="26">
+        <f t="shared" si="3"/>
+        <v>0.98539018735339079</v>
+      </c>
+      <c r="L46" s="10">
+        <f>LOG(K46)</f>
+        <v>-6.3917668018178917E-3</v>
+      </c>
+      <c r="M46" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.5719197811173315E-6</v>
+      </c>
+      <c r="O46"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.4">
+      <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>1000000</v>
+      </c>
+      <c r="C47" s="4">
+        <v>42450</v>
+      </c>
+      <c r="D47" s="4">
+        <v>42541</v>
+      </c>
+      <c r="E47">
         <v>91</v>
-      </c>
-      <c r="H46" s="4">
-        <v>42450</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9">
-        <v>0.7111911903</v>
-      </c>
-      <c r="K46" s="26">
-        <v>1797.7332866959</v>
-      </c>
-      <c r="L46" s="26">
-        <v>1771.4687401886999</v>
-      </c>
-      <c r="M46" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98539018735339079</v>
-      </c>
-      <c r="N46" s="11">
-        <f>LOG(M46)</f>
-        <v>-6.3917668018178917E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47">
-        <v>1000000</v>
-      </c>
-      <c r="E47" s="4">
-        <v>42450</v>
       </c>
       <c r="F47" s="4">
         <v>42541</v>
       </c>
-      <c r="G47">
+      <c r="G47"/>
+      <c r="H47" s="14">
+        <v>1.2420348993000001</v>
+      </c>
+      <c r="I47" s="31">
+        <v>3139.5882176847999</v>
+      </c>
+      <c r="J47" s="25">
+        <v>3084.0369827144</v>
+      </c>
+      <c r="K47" s="26">
+        <f t="shared" si="3"/>
+        <v>0.98230620351500597</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" ref="L47:L50" si="6">LOG(K47)</f>
+        <v>-7.7531132637972512E-3</v>
+      </c>
+      <c r="M47" s="30">
+        <f t="shared" si="5"/>
+        <v>-1.4959851230542412E-5</v>
+      </c>
+      <c r="O47"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.4">
+      <c r="A48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>1000000</v>
+      </c>
+      <c r="C48" s="4">
+        <v>42541</v>
+      </c>
+      <c r="D48" s="4">
+        <v>42632</v>
+      </c>
+      <c r="E48">
         <v>91</v>
-      </c>
-      <c r="H47" s="4">
-        <v>42541</v>
-      </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9">
-        <v>1.2420348993000001</v>
-      </c>
-      <c r="K47" s="26">
-        <v>3139.5882176847999</v>
-      </c>
-      <c r="L47" s="26">
-        <v>3084.0369827144</v>
-      </c>
-      <c r="M47" s="16">
-        <f t="shared" si="1"/>
-        <v>0.98230620351500597</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" ref="N47:N50" si="2">LOG(M47)</f>
-        <v>-7.7531132637972512E-3</v>
-      </c>
-      <c r="O47" s="27">
-        <f t="shared" ref="O47:O49" si="3">(N47-N46)/G47</f>
-        <v>-1.4959851230542412E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48">
-        <v>1000000</v>
-      </c>
-      <c r="E48" s="4">
-        <v>42541</v>
       </c>
       <c r="F48" s="4">
         <v>42632</v>
       </c>
-      <c r="G48">
+      <c r="G48"/>
+      <c r="H48" s="14">
+        <v>1.2420348993000001</v>
+      </c>
+      <c r="I48" s="31">
+        <v>3139.5882176847999</v>
+      </c>
+      <c r="J48" s="25">
+        <v>3074.3848466025001</v>
+      </c>
+      <c r="K48" s="26">
+        <f t="shared" si="3"/>
+        <v>0.97923187164640901</v>
+      </c>
+      <c r="L48" s="10">
+        <f>LOG(K48)</f>
+        <v>-9.1144597257756341E-3</v>
+      </c>
+      <c r="M48" s="30">
+        <f t="shared" si="5"/>
+        <v>-1.495985123053168E-5</v>
+      </c>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.4">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>1000000</v>
+      </c>
+      <c r="C49" s="4">
+        <v>42632</v>
+      </c>
+      <c r="D49" s="4">
+        <v>42723</v>
+      </c>
+      <c r="E49">
         <v>91</v>
-      </c>
-      <c r="H48" s="4">
-        <v>42632</v>
-      </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9">
-        <v>1.2420348993000001</v>
-      </c>
-      <c r="K48" s="26">
-        <v>3139.5882176847999</v>
-      </c>
-      <c r="L48" s="26">
-        <v>3074.3848466025001</v>
-      </c>
-      <c r="M48" s="16">
-        <f t="shared" si="1"/>
-        <v>0.97923187164640901</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="2"/>
-        <v>-9.1144597257756341E-3</v>
-      </c>
-      <c r="O48" s="27">
-        <f t="shared" si="3"/>
-        <v>-1.495985123053168E-5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49">
-        <v>1000000</v>
-      </c>
-      <c r="E49" s="4">
-        <v>42632</v>
       </c>
       <c r="F49" s="4">
         <v>42723</v>
       </c>
-      <c r="G49">
+      <c r="G49"/>
+      <c r="H49" s="14">
+        <v>1.2420134965</v>
+      </c>
+      <c r="I49" s="31">
+        <v>3139.5341160993999</v>
+      </c>
+      <c r="J49" s="25">
+        <v>3064.7101066698001</v>
+      </c>
+      <c r="K49" s="26">
+        <f t="shared" si="3"/>
+        <v>0.9761671615396994</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="6"/>
+        <v>-1.0475806187775568E-2</v>
+      </c>
+      <c r="M49" s="30">
+        <f t="shared" si="5"/>
+        <v>-1.4959851230768509E-5</v>
+      </c>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.4">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>1000000</v>
+      </c>
+      <c r="C50" s="4">
+        <v>42723</v>
+      </c>
+      <c r="D50" s="4">
+        <v>42814</v>
+      </c>
+      <c r="E50">
         <v>91</v>
-      </c>
-      <c r="H49" s="4">
-        <v>42723</v>
-      </c>
-      <c r="J49">
-        <v>1.2420134965</v>
-      </c>
-      <c r="K49" s="26">
-        <v>3139.5341160993999</v>
-      </c>
-      <c r="L49" s="26">
-        <v>3064.7101066698001</v>
-      </c>
-      <c r="M49" s="16">
-        <f t="shared" si="1"/>
-        <v>0.9761671615396994</v>
-      </c>
-      <c r="N49" s="11">
-        <f t="shared" si="2"/>
-        <v>-1.0475806187775568E-2</v>
-      </c>
-      <c r="O49" s="27">
-        <f t="shared" si="3"/>
-        <v>-1.4959851230768509E-5</v>
-      </c>
-      <c r="P49" s="9"/>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50">
-        <v>1000000</v>
-      </c>
-      <c r="E50" s="4">
-        <v>42723</v>
       </c>
       <c r="F50" s="4">
         <v>42814</v>
       </c>
-      <c r="G50">
-        <v>91</v>
-      </c>
-      <c r="H50" s="4">
-        <v>42814</v>
-      </c>
-      <c r="J50">
+      <c r="G50"/>
+      <c r="H50" s="14">
         <v>1.2420134965</v>
       </c>
+      <c r="I50" s="31">
+        <v>3139.5341160991002</v>
+      </c>
+      <c r="J50" s="25">
+        <v>3055.1184580418999</v>
+      </c>
       <c r="K50" s="26">
-        <v>3139.5341160991002</v>
-      </c>
-      <c r="L50" s="26">
-        <v>3055.1184580418999</v>
-      </c>
-      <c r="M50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.97311204308170174</v>
       </c>
-      <c r="N50" s="11">
-        <f t="shared" si="2"/>
+      <c r="L50" s="10">
+        <f t="shared" si="6"/>
         <v>-1.1837152649738036E-2</v>
       </c>
-      <c r="O50" s="27">
-        <f>(N50-N49)/G50</f>
+      <c r="M50" s="30">
+        <f>(L50-L49)/(F50-F49)</f>
         <v>-1.4959851230356788E-5</v>
       </c>
-      <c r="P50" s="9"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O50"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="D51" s="4"/>
-      <c r="G51" s="14"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G51"/>
+      <c r="J51" s="28">
+        <f>SUM(J35:J50)</f>
+        <v>26867.507824272601</v>
+      </c>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="D52" s="4"/>
-      <c r="G52" s="14"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G52"/>
+      <c r="J52" s="28">
+        <f>(B2-B10)/100*B50</f>
+        <v>26867.401701960036</v>
+      </c>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="D53" s="4"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G53"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="D54" s="4"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="14"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="7:7">
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="7:7">
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="7:7">
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="7:7">
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="7:7">
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="7:7">
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="7:7">
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="7:7">
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="7:7">
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="7:7">
+      <c r="G74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4062,502 +4083,500 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="4">
         <v>41351</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="14">
         <v>99.998500022499996</v>
       </c>
       <c r="D1" s="4">
         <v>41351</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="15">
         <v>99.998500022499599</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16">
+      <c r="F1" s="15">
         <f>E1-B1</f>
         <v>-3.979039320256561E-13</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>41352</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>99.997944478364005</v>
       </c>
       <c r="D2" s="4">
         <v>41352</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>99.997944478363692</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16">
-        <f t="shared" ref="G2:G20" si="0">E2-B2</f>
+      <c r="F2" s="15">
+        <f t="shared" ref="F2:F20" si="0">E2-B2</f>
         <v>-3.1263880373444408E-13</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2" s="4"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>41383</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>99.982016787633995</v>
       </c>
       <c r="D3" s="4">
         <v>41383</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>99.982016787633697</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
+      <c r="F3" s="15">
         <f t="shared" si="0"/>
         <v>-2.9842794901924208E-13</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>41444</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>99.921338119138994</v>
       </c>
       <c r="D4" s="4">
         <v>41444</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>99.921338119139008</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G4" s="4"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>41536</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>99.750419354426</v>
       </c>
       <c r="D5" s="4">
         <v>41536</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>99.750419354425603</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>-3.979039320256561E-13</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>41627</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>99.574724240695005</v>
       </c>
       <c r="D6" s="4">
         <v>41627</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>99.574724240695105</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="16"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="17">
         <v>41717</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>99.687818019233006</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="18">
+      <c r="C7" s="19"/>
+      <c r="D7" s="17">
         <v>41717</v>
       </c>
-      <c r="E7" s="21">
-        <v>99.687818019244304</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="21">
+      <c r="E7" s="20">
+        <v>99.687818019253911</v>
+      </c>
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
-        <v>1.1297629498585593E-11</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="16"/>
+        <v>2.0904167286062147E-11</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>42082</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>99.257327075698001</v>
       </c>
       <c r="D8" s="4">
         <v>42082</v>
       </c>
-      <c r="E8" s="16">
-        <v>99.257327075693595</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16">
+      <c r="E8" s="15">
+        <v>99.25732707570269</v>
+      </c>
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>-4.4053649617126212E-12</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="16"/>
+        <v>4.6895820560166612E-12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>42450</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>98.538910072972996</v>
       </c>
       <c r="D9" s="4">
         <v>42450</v>
       </c>
-      <c r="E9" s="16">
-        <v>98.538946696892211</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16">
+      <c r="E9" s="15">
+        <v>98.538910072963702</v>
+      </c>
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>3.6623919214662237E-5</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="16"/>
+        <v>-9.2938989837421104E-12</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>42814</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>97.311153095972998</v>
       </c>
       <c r="D10" s="4">
         <v>42814</v>
       </c>
-      <c r="E10" s="16">
-        <v>97.311036016667501</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16">
+      <c r="E10" s="15">
+        <v>97.310888394366899</v>
+      </c>
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>-1.1707930549675893E-4</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="16"/>
+        <v>-2.6470160609903814E-4</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>43178</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>95.511396470467005</v>
       </c>
       <c r="D11" s="4">
         <v>43178</v>
       </c>
-      <c r="E11" s="16">
-        <v>95.511365464279692</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16">
+      <c r="E11" s="15">
+        <v>95.510968645072708</v>
+      </c>
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>-3.1006187313664668E-5</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="16"/>
+        <v>-4.2782539429708777E-4</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>43543</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>93.197744193350005</v>
       </c>
       <c r="D12" s="4">
         <v>43543</v>
       </c>
-      <c r="E12" s="16">
-        <v>93.198123329393695</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16">
+      <c r="E12" s="15">
+        <v>93.197322736241588</v>
+      </c>
+      <c r="F12" s="15">
         <f t="shared" si="0"/>
-        <v>3.7913604369066434E-4</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="16"/>
+        <v>-4.2145710841623441E-4</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>43909</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>90.534528842146997</v>
       </c>
       <c r="D13" s="4">
         <v>43909</v>
       </c>
-      <c r="E13" s="16">
-        <v>90.535431775221099</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16">
+      <c r="E13" s="15">
+        <v>90.534115582557789</v>
+      </c>
+      <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>9.0293307410149737E-4</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="16"/>
+        <v>-4.1325958920879202E-4</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>87.636733441722001</v>
       </c>
       <c r="D14" s="4">
         <v>44274</v>
       </c>
-      <c r="E14" s="16">
-        <v>87.662562649265197</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16">
+      <c r="E14" s="15">
+        <v>87.660697976376497</v>
+      </c>
+      <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>2.5829207543196731E-2</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="16"/>
+        <v>2.3964534654496106E-2</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>44641</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>84.710201039764002</v>
       </c>
       <c r="D15" s="4">
         <v>44641</v>
       </c>
-      <c r="E15" s="16">
-        <v>84.711560649851506</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16">
+      <c r="E15" s="15">
+        <v>84.709176950620005</v>
+      </c>
+      <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>1.3596100875048478E-3</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="16"/>
+        <v>-1.0240891439963207E-3</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>45005</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>81.702628527551994</v>
       </c>
       <c r="D16" s="4">
         <v>45005</v>
       </c>
-      <c r="E16" s="16">
-        <v>81.704196551252096</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16">
+      <c r="E16" s="15">
+        <v>81.701356964540594</v>
+      </c>
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>1.5680237001021169E-3</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="16"/>
+        <v>-1.2715630114001897E-3</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>46832</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>67.217715676978003</v>
       </c>
       <c r="D17" s="4">
         <v>46832</v>
       </c>
-      <c r="E17" s="16">
-        <v>67.219665169219695</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16">
+      <c r="E17" s="15">
+        <v>67.216145088153496</v>
+      </c>
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>1.9494922416924965E-3</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="16"/>
+        <v>-1.570588824506558E-3</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>48659</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>55.715309635268</v>
       </c>
       <c r="D18" s="4">
         <v>48659</v>
       </c>
-      <c r="E18" s="16">
-        <v>55.7363900161873</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16">
+      <c r="E18" s="15">
+        <v>55.713869654170203</v>
+      </c>
+      <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>2.1080380919300978E-2</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.4399810977963057E-3</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>46.594494351233998</v>
       </c>
       <c r="D19" s="4">
         <v>50483</v>
       </c>
-      <c r="E19" s="16">
-        <v>46.622473944613105</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16">
+      <c r="E19" s="15">
+        <v>46.607272292597102</v>
+      </c>
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>2.7979593379107826E-2</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.2777941363104617E-2</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="4">
         <v>52309</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>39.075084668740999</v>
       </c>
       <c r="D20" s="4">
         <v>52309</v>
       </c>
-      <c r="E20" s="16">
-        <v>39.0764661060131</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16">
+      <c r="E20" s="15">
+        <v>39.073768442212895</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>1.3814372721014934E-3</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.3162265281039254E-3</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="F21" s="14"/>
+      <c r="L21" s="4">
+        <v>41348</v>
+      </c>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
@@ -4581,9 +4600,10 @@
       <c r="J23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.4">
+      <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B24">
@@ -4604,19 +4624,22 @@
       <c r="G24">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="14">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>-2438.8977532100998</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K24" s="15">
+        <f t="shared" ref="K24:K29" si="1">J24/I24</f>
+        <v>0.99750419354428854</v>
+      </c>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.4">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4638,19 +4661,22 @@
       <c r="G25">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="14">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>-2437.3671505645998</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99687818019234431</v>
+      </c>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.4">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4672,19 +4698,22 @@
       <c r="G26">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="14">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>-2432.4286616715999</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9948583483342619</v>
+      </c>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.4">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4706,18 +4735,22 @@
       <c r="G27">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="14">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>-2426.8416469951999</v>
       </c>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0.99257327075699686</v>
+      </c>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.4">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -4739,18 +4772,26 @@
       <c r="G28">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>-2472.1666666608999</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>-2445.5324901859999</v>
       </c>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98922638314233313</v>
+      </c>
+      <c r="L28" s="28">
+        <f>K28^(-365/(D28-$L$21))-1</f>
+        <v>4.3067545498658433E-3</v>
+      </c>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.4">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -4772,18 +4813,29 @@
       <c r="G29">
         <v>0.48899999999999999</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>0.48899999999999999</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>-2444.9999999943002</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>-2409.2763512786</v>
       </c>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0.98538910072974095</v>
+      </c>
+      <c r="L29" s="28">
+        <f t="shared" ref="L29:L41" si="2">K29^(-365/(D29-$L$21))-1</f>
+        <v>4.8869675609646279E-3</v>
+      </c>
+      <c r="M29" s="29">
+        <f>(L29-L28)/(F29-F28)</f>
+        <v>3.1879835774658497E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.4">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4802,18 +4854,30 @@
       <c r="F30" s="4">
         <v>41444</v>
       </c>
-      <c r="H30" s="15">
+      <c r="G30">
+        <f>(B2/100/K30)^(-360/E30)-1</f>
+        <v>-2.9943585268265016E-3</v>
+      </c>
+      <c r="H30" s="14">
         <v>0.3</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>766.66666666660001</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>766.06359224660002</v>
       </c>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K30" s="15">
+        <f>J30/I30</f>
+        <v>0.99921338119130432</v>
+      </c>
+      <c r="L30" s="28">
+        <f t="shared" si="2"/>
+        <v>2.9964475865080775E-3</v>
+      </c>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4832,18 +4896,26 @@
       <c r="F31" s="4">
         <v>41536</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>0.6704859608</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>1713.4641219488999</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>1709.1876471317</v>
       </c>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K31" s="15">
+        <f t="shared" ref="K31:K41" si="3">J31/I31</f>
+        <v>0.99750419354428277</v>
+      </c>
+      <c r="L31" s="28">
+        <f t="shared" si="2"/>
+        <v>4.8634268345200127E-3</v>
+      </c>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4862,18 +4934,26 @@
       <c r="F32" s="4">
         <v>41627</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>0.69802612870000003</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="21">
         <v>1764.454936436</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>1756.9511373073999</v>
       </c>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K32" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99574724240690615</v>
+      </c>
+      <c r="L32" s="28">
+        <f t="shared" si="2"/>
+        <v>5.5910795774840594E-3</v>
+      </c>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4892,18 +4972,26 @@
       <c r="F33" s="4">
         <v>41717</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>-0.45379177030000001</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="21">
         <v>-1134.4794257213</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <v>-1130.9377853787</v>
       </c>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K33" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99687818019233954</v>
+      </c>
+      <c r="L33" s="28">
+        <f t="shared" si="2"/>
+        <v>3.0975967229964763E-3</v>
+      </c>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.4">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -4922,19 +5010,26 @@
       <c r="F34" s="4">
         <v>41809</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="14">
         <v>0.38174720629999997</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="21">
         <v>975.57619381769996</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>971.58276771349995</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K34" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99590659742467413</v>
+      </c>
+      <c r="L34" s="28">
+        <f t="shared" si="2"/>
+        <v>3.2529110930847871E-3</v>
+      </c>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.4">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -4953,19 +5048,26 @@
       <c r="F35" s="4">
         <v>41901</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="14">
         <v>0.41230435199999999</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="21">
         <v>1053.6666774114999</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="21">
         <v>1048.2490903844</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K35" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99485834833421039</v>
+      </c>
+      <c r="L35" s="28">
+        <f t="shared" si="2"/>
+        <v>3.4082254632692432E-3</v>
+      </c>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.4">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -4984,17 +5086,26 @@
       <c r="F36" s="4">
         <v>41992</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="14">
         <v>0.44268803979999999</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="21">
         <v>1119.0169895001</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="21">
         <v>1112.0190257495999</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K36" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99374632930852436</v>
+      </c>
+      <c r="L36" s="28">
+        <f t="shared" si="2"/>
+        <v>3.5618516336801687E-3</v>
+      </c>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.4">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -5013,17 +5124,26 @@
       <c r="F37" s="4">
         <v>42082</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="14">
         <v>0.47273429020000002</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="21">
         <v>1181.8357254473999</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="21">
         <v>1173.0585515048001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K37" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99257327075700208</v>
+      </c>
+      <c r="L37" s="28">
+        <f t="shared" si="2"/>
+        <v>3.713789604465445E-3</v>
+      </c>
+      <c r="M37" s="29"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.4">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -5042,17 +5162,29 @@
       <c r="F38" s="4">
         <v>42174</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="14">
         <v>0.62483286869999999</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="21">
         <v>1596.7951089777</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="21">
         <v>1582.4093605195001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K38" s="15">
+        <f t="shared" si="3"/>
+        <v>0.99099086139648185</v>
+      </c>
+      <c r="L38" s="28">
+        <f t="shared" si="2"/>
+        <v>4.0070840935899632E-3</v>
+      </c>
+      <c r="M38" s="29">
+        <f>(L38-L37)/(F38-F37)</f>
+        <v>3.187983577440415E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.4">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5071,17 +5203,29 @@
       <c r="F39" s="4">
         <v>42268</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="14">
         <v>0.68311727300000002</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="21">
         <v>1783.6951017718</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="21">
         <v>1764.4782541543</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K39" s="15">
+        <f t="shared" si="3"/>
+        <v>0.98922638314226952</v>
+      </c>
+      <c r="L39" s="28">
+        <f t="shared" si="2"/>
+        <v>4.3067545498916004E-3</v>
+      </c>
+      <c r="M39" s="29">
+        <f t="shared" ref="M39:M41" si="4">(L39-L38)/(F39-F38)</f>
+        <v>3.1879835776769918E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.4">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5100,17 +5244,29 @@
       <c r="F40" s="4">
         <v>42359</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="14">
         <v>0.74103797950000005</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="21">
         <v>1873.1793370995999</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="21">
         <v>1849.5339119089001</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="K40" s="15">
+        <f t="shared" si="3"/>
+        <v>0.98737684923040414</v>
+      </c>
+      <c r="L40" s="28">
+        <f t="shared" si="2"/>
+        <v>4.5968610554194544E-3</v>
+      </c>
+      <c r="M40" s="29">
+        <f t="shared" si="4"/>
+        <v>3.1879835772291646E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.4">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -5129,41 +5285,60 @@
       <c r="F41" s="4">
         <v>42450</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="14">
         <v>0.79802186119999996</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="21">
         <v>2017.2219270457999</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="21">
         <v>1987.7485006638999</v>
       </c>
+      <c r="K41" s="15">
+        <f t="shared" si="3"/>
+        <v>0.98538910072970332</v>
+      </c>
+      <c r="L41" s="28">
+        <f t="shared" si="2"/>
+        <v>4.8869675609772845E-3</v>
+      </c>
+      <c r="M41" s="29">
+        <f t="shared" si="4"/>
+        <v>3.1879835775585715E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="J43" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5186,12 +5361,12 @@
         <f>(E1-H1)/360</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="14">
         <f>100/(1+I1*C1/100)</f>
         <v>99.996208477095252</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5207,7 +5382,7 @@
       <c r="F2">
         <v>99.816266974399994</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <f>100/F1-1</f>
         <v>4.291829390079549E-5</v>
       </c>
@@ -5216,7 +5391,7 @@
         <v>23.770132006594427</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -5233,7 +5408,7 @@
         <v>99.476483153100006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -5250,7 +5425,7 @@
         <v>99.307587073700006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -5267,7 +5442,7 @@
         <v>97.737546620800003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5284,7 +5459,7 @@
         <v>94.320020079299994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -5301,7 +5476,7 @@
         <v>93.975017447200003</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -5318,7 +5493,7 @@
         <v>91.791870144699999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -5335,7 +5510,7 @@
         <v>86.383208905000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -5352,7 +5527,7 @@
         <v>85.589676089299999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5369,11 +5544,11 @@
         <v>36.788102128600002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G15" s="17"/>
+    <row r="13" spans="1:10">
+      <c r="I13" s="15"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="G15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5381,16 +5556,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5425,7 +5600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -5460,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -5495,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5530,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -5550,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5585,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -5620,7 +5795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5655,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5690,7 +5865,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -5725,7 +5900,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5760,7 +5935,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -5795,7 +5970,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -5830,7 +6005,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5865,7 +6040,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5900,7 +6075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5935,7 +6110,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5970,7 +6145,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -6005,7 +6180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6040,7 +6215,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6075,7 +6250,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -6095,7 +6270,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>33</v>
       </c>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="03122013" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -192,30 +193,51 @@
     <t>T 3 1/8 02/15/42</t>
   </si>
   <si>
-    <t>18/03/2013</t>
+    <t>21/03/2013</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>My Fwd</t>
+  </si>
+  <si>
+    <t>Reset End Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="175" formatCode="0.00000000"/>
-    <numFmt numFmtId="176" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="181" formatCode="0.00000000000000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="13">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.00000"/>
+    <numFmt numFmtId="183" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -390,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +592,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -687,103 +715,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1"/>
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="44"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
@@ -836,7 +873,9 @@
     <cellStyle name="Normal 2" xfId="56"/>
     <cellStyle name="Normal 3" xfId="42"/>
     <cellStyle name="Normal_03042013" xfId="58"/>
+    <cellStyle name="Normal_03042013_1" xfId="60"/>
     <cellStyle name="Normal_03122013" xfId="57"/>
+    <cellStyle name="Normal_03122013_1" xfId="59"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="43"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -880,7 +919,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -900,7 +939,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -940,7 +979,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -960,7 +999,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1049,6 +1088,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1083,6 +1123,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1258,24 +1299,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1369,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1363,7 +1404,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1398,7 +1439,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1433,7 +1474,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1509,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1536,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1563,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1549,7 +1590,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1617,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1603,7 +1644,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +1671,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1657,7 +1698,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1725,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1711,7 +1752,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1779,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.4">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1765,7 +1806,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.4">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1792,7 +1833,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.4">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1819,7 +1860,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1846,49 +1887,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -1898,20 +1939,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1934,7 +1975,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1966,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +2024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2068,7 +2109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2102,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2119,7 +2160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2170,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2187,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2204,7 +2245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2221,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2238,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2255,84 +2296,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2346,542 +2387,813 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.6640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="32">
-        <v>99.998500022499996</v>
+        <v>99.9995000025</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4">
-        <v>41351</v>
+        <v>41354</v>
       </c>
       <c r="E1">
-        <v>0.99998500022499603</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="11">
+        <v>0.99999500002499997</v>
+      </c>
+      <c r="F1" s="11">
         <f>E1-B1/100</f>
-        <v>-3.8857805861880479E-15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G1" s="11"/>
       <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="I1" s="15">
+        <f>((B1/100)^(-360/(A1-$L$22))-1)*100</f>
+        <v>0.1801616464308653</v>
+      </c>
+      <c r="J1" s="15">
+        <v>0.18016164641900001</v>
+      </c>
+      <c r="K1" s="15">
+        <f>J1-I1</f>
+        <v>-1.1865286531076435E-11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>41352</v>
+        <v>41355</v>
       </c>
       <c r="B2" s="32">
-        <v>99.997944478364005</v>
+        <v>99.998944452808999</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="10">
-        <v>41352</v>
+      <c r="D2" s="4">
+        <v>41355</v>
       </c>
       <c r="E2" s="10">
-        <v>0.99997944478363698</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11">
-        <f t="shared" ref="G2:G20" si="0">E2-B2/100</f>
-        <v>-3.1086244689504383E-15</v>
-      </c>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.99998944452808602</v>
+      </c>
+      <c r="F2" s="11">
+        <f>E2-B2/100</f>
+        <v>-3.9968028886505635E-15</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="15">
+        <f t="shared" ref="I2:I20" si="0">((B2/100)^(-360/(A2-$L$22))-1)*100</f>
+        <v>0.19018011056304296</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0.190180110613</v>
+      </c>
+      <c r="K2" s="15">
+        <f t="shared" ref="K2:K20" si="1">J2-I2</f>
+        <v>4.9957038505965556E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>41383</v>
+        <v>41386</v>
       </c>
       <c r="B3" s="32">
-        <v>99.982016787633995</v>
+        <v>99.983016602801001</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="10">
-        <v>41383</v>
+      <c r="D3" s="4">
+        <v>41386</v>
       </c>
       <c r="E3" s="10">
-        <v>0.99982016787633698</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11">
+        <v>0.99983016602802499</v>
+      </c>
+      <c r="F3" s="11">
+        <f>E3-B3/100</f>
+        <v>1.4988010832439613E-14</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="15">
         <f t="shared" si="0"/>
-        <v>-2.9976021664879227E-15</v>
-      </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.18546092506472878</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0.18546092506299999</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" si="1"/>
+        <v>-1.7287837827950625E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>41444</v>
+        <v>41449</v>
       </c>
       <c r="B4" s="32">
-        <v>99.921338119138994</v>
+        <v>99.920673258755997</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="10">
-        <v>41444</v>
+      <c r="D4" s="4">
+        <v>41449</v>
       </c>
       <c r="E4" s="10">
-        <v>0.99921338119139003</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11">
+        <v>0.99920673258755899</v>
+      </c>
+      <c r="F4" s="11">
+        <f>E4-B4/100</f>
+        <v>-9.9920072216264089E-16</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.29803657935896233</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.29803657935900002</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="1"/>
+        <v>3.7692071686024065E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="B5" s="32">
-        <v>99.750419354426</v>
+        <v>99.750074942915006</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="10">
-        <v>41536</v>
+      <c r="D5" s="4">
+        <v>41540</v>
       </c>
       <c r="E5" s="10">
-        <v>0.99750419354425601</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11">
+        <v>0.99750074942914502</v>
+      </c>
+      <c r="F5" s="11">
+        <f>E5-B5/100</f>
+        <v>-4.9960036108132044E-15</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
+        <v>0.48290363406409131</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0.482903634064</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="1"/>
+        <v>-9.1315843775419125E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>41631</v>
+      </c>
+      <c r="B6" s="32">
+        <v>99.574187521957001</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="4">
+        <v>41631</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.99574187521956603</v>
+      </c>
+      <c r="F6" s="11">
+        <f>E6-B6/100</f>
         <v>-3.9968028886505635E-15</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="12">
-        <v>41627</v>
-      </c>
-      <c r="B6" s="32">
-        <v>99.574724240695005</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="10">
-        <v>41627</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.99574724240695101</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11">
+      <c r="G6" s="11"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
-        <v>9.9920072216264089E-16</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.55411876576572094</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.55411876576600005</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7911006839076435E-13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B7" s="20">
-        <v>99.687818019233006</v>
+        <v>99.687159106712997</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="D7" s="22">
-        <v>41717</v>
+      <c r="D7" s="4">
+        <v>41722</v>
       </c>
       <c r="E7" s="22">
-        <v>0.99687818019244301</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24">
+        <v>0.996871591067237</v>
+      </c>
+      <c r="F7" s="24">
+        <f>E7-B7/100</f>
+        <v>1.0702549957386509E-13</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
-        <v>1.1290968160437842E-13</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+        <v>0.30615674285037198</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.30615674285</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="1"/>
+        <v>-3.719802244006587E-13</v>
+      </c>
       <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
-        <v>42082</v>
+        <v>42086</v>
       </c>
       <c r="B8" s="32">
-        <v>99.257355388015</v>
+        <v>99.257387450549004</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="10">
-        <v>42082</v>
+      <c r="D8" s="4">
+        <v>42086</v>
       </c>
       <c r="E8" s="10">
-        <v>0.99257355388012902</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11">
+        <v>0.99257387450555601</v>
+      </c>
+      <c r="F8" s="11">
+        <f>E8-B8/100</f>
+        <v>6.5947247662734299E-14</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
-        <v>-2.0983215165415459E-14</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>0.36675290656256188</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.36675290656199999</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="1"/>
+        <v>-5.6188387276279173E-13</v>
+      </c>
       <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
-        <v>42450</v>
+        <v>42451</v>
       </c>
       <c r="B9" s="32">
-        <v>98.539018735338999</v>
+        <v>98.542737229975998</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="10">
-        <v>42450</v>
+      <c r="D9" s="4">
+        <v>42451</v>
       </c>
       <c r="E9" s="10">
-        <v>0.985390187353401</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11">
+        <v>0.98542737229979405</v>
+      </c>
+      <c r="F9" s="11">
+        <f>E9-B9/100</f>
+        <v>3.4083846855992306E-14</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
-        <v>1.099120794378905E-14</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+        <v>0.48246674409471169</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.48246674409500001</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8832491949515315E-13</v>
+      </c>
       <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
-        <v>42814</v>
+        <v>42816</v>
       </c>
       <c r="B10" s="32">
-        <v>97.311204308168001</v>
+        <v>97.314080718051002</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="10">
-        <v>42814</v>
+      <c r="D10" s="4">
+        <v>42816</v>
       </c>
       <c r="E10" s="10">
-        <v>0.97311193749819802</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11">
+        <v>0.973140807180499</v>
+      </c>
+      <c r="F10" s="11">
+        <f>E10-B10/100</f>
+        <v>-1.099120794378905E-14</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="15">
         <f t="shared" si="0"/>
-        <v>-1.0558348195743861E-7</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+        <v>0.67221080781492137</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0.67221080781499998</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="1"/>
+        <v>7.8603790143461083E-14</v>
+      </c>
       <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
-        <v>43178</v>
+        <v>43181</v>
       </c>
       <c r="B11" s="32">
-        <v>95.511653660522995</v>
+        <v>95.512698862055998</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="10">
-        <v>43178</v>
+      <c r="D11" s="4">
+        <v>43181</v>
       </c>
       <c r="E11" s="10">
-        <v>0.95511631670198105</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11">
+        <v>0.95512698862053202</v>
+      </c>
+      <c r="F11" s="11">
+        <f>E11-B11/100</f>
+        <v>-2.7977620220553945E-14</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>-2.1990324894360924E-7</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9082546950710757</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.90825469507099998</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>-7.5717210279435676E-14</v>
+      </c>
+      <c r="M11" s="14">
+        <f>EXP(N11)</f>
+        <v>0.99891382096727255</v>
+      </c>
+      <c r="N11" s="15">
+        <v>-1.0867693526737808E-3</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>43543</v>
+        <v>43549</v>
       </c>
       <c r="B12" s="32">
-        <v>93.198523659385003</v>
+        <v>93.180835750623004</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="10">
-        <v>43543</v>
+      <c r="D12" s="4">
+        <v>43549</v>
       </c>
       <c r="E12" s="10">
-        <v>0.93198501989188998</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11">
+        <v>0.93180835750631097</v>
+      </c>
+      <c r="F12" s="11">
+        <f>E12-B12/100</f>
+        <v>8.0935258495173912E-14</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
-        <v>-2.1670196004297537E-7</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.1645667634880841</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1.1645667634879999</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>-8.4154905266586866E-14</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" ref="M12:M13" si="2">EXP(N12)</f>
+        <v>0.99890540752274648</v>
+      </c>
+      <c r="N12" s="15">
+        <v>-1.0951919811139675E-3</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B13" s="32">
-        <v>90.535926466104996</v>
+        <v>90.533506989033</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="10">
-        <v>43909</v>
+      <c r="D13" s="4">
+        <v>43913</v>
       </c>
       <c r="E13" s="10">
-        <v>0.90535905210391499</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11">
+        <v>0.90533506989041201</v>
+      </c>
+      <c r="F13" s="11">
+        <f>E13-B13/100</f>
+        <v>8.2045481519799068E-14</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15">
         <f t="shared" si="0"/>
-        <v>-2.1255713500423212E-7</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.4083428961807698</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1.4083428961810001</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>2.3026025530725747E-13</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="2"/>
+        <v>0.99814848762696728</v>
+      </c>
+      <c r="N13" s="15">
+        <v>-1.8532285407307746E-3</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>44277</v>
       </c>
       <c r="B14" s="32">
-        <v>87.640011654926994</v>
+        <v>87.664176878120003</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="10">
-        <v>44274</v>
+      <c r="D14" s="4">
+        <v>44277</v>
       </c>
       <c r="E14" s="10">
-        <v>0.87663130619954399</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="11">
+        <v>0.87664176878117095</v>
+      </c>
+      <c r="F14" s="11">
+        <f>E14-B14/100</f>
+        <v>-2.9087843245179101E-14</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15">
         <f t="shared" si="0"/>
-        <v>2.3118965027402183E-4</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+        <v>1.6341546924774075</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1.6341546924770001</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>-4.0745185003743245E-13</v>
+      </c>
       <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B15" s="32">
-        <v>84.712352659877993</v>
+        <v>84.721644704526</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="10">
-        <v>44641</v>
+      <c r="D15" s="4">
+        <v>44642</v>
       </c>
       <c r="E15" s="10">
-        <v>0.84712216286617203</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="11">
+        <v>0.84721644704452703</v>
+      </c>
+      <c r="F15" s="11">
+        <f>E15-B15/100</f>
+        <v>-7.3296924085752835E-13</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="15">
         <f t="shared" si="0"/>
-        <v>-1.3637326079507517E-6</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+        <v>1.8313333146987576</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1.8313333146990001</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4247270857813419E-13</v>
+      </c>
       <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B16" s="32">
-        <v>81.705167519043997</v>
+        <v>81.710522283863995</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="10">
-        <v>45005</v>
+      <c r="D16" s="4">
+        <v>45007</v>
       </c>
       <c r="E16" s="10">
-        <v>0.81704960421286399</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11">
+        <v>0.81710522283870202</v>
+      </c>
+      <c r="F16" s="11">
+        <f>E16-B16/100</f>
+        <v>6.2061467076546251E-14</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="15">
         <f t="shared" si="0"/>
-        <v>-2.0709775759852889E-6</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+        <v>2.00995662688086</v>
+      </c>
+      <c r="J16" s="15">
+        <v>2.0099566268809999</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3988810110276972E-13</v>
+      </c>
       <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
-        <v>46832</v>
+        <v>46834</v>
       </c>
       <c r="B17" s="32">
-        <v>67.265449607741999</v>
+        <v>67.271302163683004</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="10">
-        <v>46832</v>
+      <c r="D17" s="4">
+        <v>46834</v>
       </c>
       <c r="E17" s="10">
-        <v>0.67265100689836699</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="11">
+        <v>0.67271302163688296</v>
+      </c>
+      <c r="F17" s="11">
+        <f>E17-B17/100</f>
+        <v>5.2957638274619967E-14</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="15">
         <f t="shared" si="0"/>
-        <v>-3.4891790530178213E-6</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.6380483205048932</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2.6380483205049998</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0658141036401503E-13</v>
+      </c>
+      <c r="M17" s="14">
+        <v>12.452500000000001</v>
+      </c>
+      <c r="N17" s="8">
+        <f>LN(M17)</f>
+        <v>2.5219214059653012</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
-        <v>48659</v>
+        <v>48660</v>
       </c>
       <c r="B18" s="32">
-        <v>55.778982275236999</v>
+        <v>55.788927788500999</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="10">
-        <v>48659</v>
+      <c r="D18" s="4">
+        <v>48660</v>
       </c>
       <c r="E18" s="10">
-        <v>0.55778628037335198</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="11">
+        <v>0.55788927788500697</v>
+      </c>
+      <c r="F18" s="11">
+        <f>E18-B18/100</f>
+        <v>-2.9976021664879227E-15</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>-3.5423790180066916E-6</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+        <v>2.9169786679693388</v>
+      </c>
+      <c r="J18" s="15">
+        <v>2.916978667969</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>-3.3884006711559778E-13</v>
+      </c>
+      <c r="M18" s="14">
+        <f>EXP(N17)</f>
+        <v>12.452499999999999</v>
+      </c>
       <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>50486</v>
       </c>
       <c r="B19" s="32">
-        <v>46.659891150097003</v>
+        <v>46.675015670161997</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="10">
-        <v>50483</v>
+      <c r="D19" s="4">
+        <v>50486</v>
       </c>
       <c r="E19" s="10">
-        <v>0.46673146770530699</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="11">
+        <v>0.46675015670160303</v>
+      </c>
+      <c r="F19" s="11">
+        <f>E19-B19/100</f>
+        <v>-1.6930901125533637E-14</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="15">
         <f t="shared" si="0"/>
-        <v>1.3255620433694215E-4</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+        <v>3.0490190113706017</v>
+      </c>
+      <c r="J19" s="15">
+        <v>3.0490190113710001</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9834802123550617E-13</v>
+      </c>
       <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
-        <v>52309</v>
+        <v>52313</v>
       </c>
       <c r="B20" s="32">
-        <v>39.136363282002002</v>
+        <v>39.134465575709001</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="10">
-        <v>52309</v>
+      <c r="D20" s="4">
+        <v>52313</v>
       </c>
       <c r="E20" s="10">
-        <v>0.39135938265424802</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="11">
+        <v>0.391344655757147</v>
+      </c>
+      <c r="F20" s="11">
+        <f>E20-B20/100</f>
+        <v>5.7009952314501788E-14</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="15">
         <f t="shared" si="0"/>
-        <v>-4.250165771990666E-6</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+        <v>3.1295410768646503</v>
+      </c>
+      <c r="J20" s="15">
+        <v>3.1295410768649998</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4949820815199928E-13</v>
+      </c>
       <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="13"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="J21" s="6"/>
       <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="L22" s="4">
+        <v>41353</v>
+      </c>
       <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="J23" s="14">
-        <f>SUM(J27:J34)</f>
-        <v>-26867.5078242727</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="6"/>
+      <c r="L23" s="14"/>
       <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H24" s="35">
+        <f>E2^(-360/(A2-$L$22))-1</f>
+        <v>1.9018011063514084E-3</v>
+      </c>
+      <c r="I24" s="36">
+        <f>(G29-A2)/360</f>
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="K24">
+        <f>J30*E30/360*B30/100</f>
+        <v>1710.8837756111111</v>
+      </c>
       <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="F25" s="4"/>
-      <c r="G25"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="30"/>
-      <c r="O25"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="10" t="s">
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="30"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
       <c r="B26" t="s">
@@ -2893,1188 +3205,1183 @@
       <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="L26" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="30"/>
-      <c r="O26"/>
-    </row>
-    <row r="27" spans="1:15" ht="14.4">
-      <c r="A27" s="10" t="s">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="30"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27">
         <v>-1000000</v>
       </c>
       <c r="C27" s="4">
-        <v>41352</v>
+        <v>41355</v>
       </c>
       <c r="D27" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="E27">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F27" s="4">
-        <v>41536</v>
-      </c>
-      <c r="G27">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H27">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I27" s="31">
-        <f>G27*B27*E27/360/100</f>
-        <v>-3395</v>
-      </c>
-      <c r="J27" s="25">
-        <v>-3386.5267370826</v>
-      </c>
-      <c r="K27" s="26">
-        <f>J27/I27</f>
-        <v>0.99750419354421205</v>
-      </c>
-      <c r="L27" s="10">
-        <f t="shared" ref="L27:L45" si="1">LOG(K27)</f>
-        <v>-1.0852698474471043E-3</v>
-      </c>
-      <c r="M27" s="30"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.4">
-      <c r="A28" s="5" t="s">
+        <v>41540</v>
+      </c>
+      <c r="G27" s="4">
+        <v>41540</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="9">
+        <v>0.311</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.311000000015</v>
+      </c>
+      <c r="K27" s="34">
+        <v>-1563.6388889655</v>
+      </c>
+      <c r="L27" s="34">
+        <v>-1559.7309635797001</v>
+      </c>
+      <c r="M27" s="26">
+        <f>L27/K27</f>
+        <v>0.99750074942918221</v>
+      </c>
+      <c r="N27" s="10">
+        <f>LN(M27)</f>
+        <v>-2.5023789109499248E-3</v>
+      </c>
+      <c r="O27" s="30"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28">
         <v>-1000000</v>
       </c>
       <c r="C28" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="D28" s="4">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="E28">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F28" s="4">
-        <v>41717</v>
-      </c>
-      <c r="G28">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H28">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I28" s="31">
-        <f t="shared" ref="I28:I34" si="2">G28*B28*E28/360/100</f>
-        <v>-3395</v>
-      </c>
-      <c r="J28" s="25">
-        <v>-3384.4014217528002</v>
-      </c>
-      <c r="K28" s="26">
-        <f t="shared" ref="K28:K50" si="3">J28/I28</f>
-        <v>0.9968781801922828</v>
-      </c>
-      <c r="L28" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.3579097953826157E-3</v>
-      </c>
-      <c r="M28" s="30">
-        <f t="shared" ref="M28:M34" si="4">(L28-L27)/(F28-F27)</f>
-        <v>-1.5062980548923283E-6</v>
-      </c>
-      <c r="N28" s="27"/>
-      <c r="O28"/>
-    </row>
-    <row r="29" spans="1:15" ht="14.4">
-      <c r="A29" s="10" t="s">
+        <v>41722</v>
+      </c>
+      <c r="G28" s="4">
+        <v>41722</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="9">
+        <v>0.311</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.311000000015</v>
+      </c>
+      <c r="K28" s="34">
+        <v>-1563.6388889655</v>
+      </c>
+      <c r="L28" s="34">
+        <v>-1558.7471870975</v>
+      </c>
+      <c r="M28" s="26">
+        <f t="shared" ref="M28:M33" si="3">L28/K28</f>
+        <v>0.99687159106714451</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" ref="N28:N30" si="4">LN(M28)</f>
+        <v>-3.1333126339399492E-3</v>
+      </c>
+      <c r="O28" s="30">
+        <f t="shared" ref="O28:O33" si="5">(N28-N27)/(F28-F27)</f>
+        <v>-3.4666688076374967E-6</v>
+      </c>
+      <c r="P28" s="27"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1000000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>41355</v>
+      </c>
+      <c r="D29" s="4">
+        <v>41449</v>
+      </c>
+      <c r="E29">
+        <v>94</v>
+      </c>
+      <c r="F29" s="4">
+        <v>41449</v>
+      </c>
+      <c r="G29" s="4">
+        <v>41449</v>
+      </c>
+      <c r="H29" s="9">
+        <f>M29^(-360/(D29-$L$22))-1</f>
+        <v>2.9803657940152828E-3</v>
+      </c>
+      <c r="I29" s="9">
+        <f>((1+H29)^((G29-$L$22)/360)/(1+$H$24)^(2/360)-1)/(G29-A2)*360*100</f>
+        <v>0.30000000004303889</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K29" s="34">
+        <v>783.33333333339999</v>
+      </c>
+      <c r="L29" s="34">
+        <v>782.71194052689998</v>
+      </c>
+      <c r="M29" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99920673258744686</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="4"/>
+        <v>-7.9358221564008427E-4</v>
+      </c>
+      <c r="O29" s="30">
+        <f t="shared" si="5"/>
+        <v>-8.5704410926734993E-6</v>
+      </c>
+      <c r="P29" s="27"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>41449</v>
+      </c>
+      <c r="D30" s="37">
+        <v>41540</v>
+      </c>
+      <c r="E30">
+        <v>91</v>
+      </c>
+      <c r="F30" s="39">
+        <v>41540</v>
+      </c>
+      <c r="G30" s="37">
+        <v>41541</v>
+      </c>
+      <c r="H30" s="38">
+        <f>M30^(-360/(D30-$L$22))-1</f>
+        <v>4.8290363406549019E-3</v>
+      </c>
+      <c r="I30" s="38">
+        <f>((1+H30)^((D30-$L$22)/360)/(1+H29)^((C30-$L$22)/360)-1)/(D30-C30)*360*100</f>
+        <v>0.67658539268105622</v>
+      </c>
+      <c r="J30" s="38">
+        <v>0.676833142</v>
+      </c>
+      <c r="K30" s="34">
+        <v>1710.8837753845</v>
+      </c>
+      <c r="L30" s="34">
+        <v>1706.6078481321999</v>
+      </c>
+      <c r="M30" s="26">
+        <f>L30/K30</f>
+        <v>0.9975007494291428</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="4"/>
+        <v>-2.5023789109894366E-3</v>
+      </c>
+      <c r="O30" s="30">
+        <f t="shared" si="5"/>
+        <v>-1.8777985663179697E-5</v>
+      </c>
+      <c r="P30" s="27"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="37">
+        <v>41541</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="38">
+        <f>M31^(-360/(D31-$L$22))-1</f>
+        <v>4.8406045591546931E-3</v>
+      </c>
+      <c r="I31" s="38">
+        <f>(M29/M31-1)/(D31-C30)*360*100</f>
+        <v>0.67683314186829235</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="26">
+        <f>EXP(N31)</f>
+        <v>0.99748140426805387</v>
+      </c>
+      <c r="N31" s="10">
+        <f>N30+(N32-N30)/(D32-D30)*1</f>
+        <v>-2.5217727296796381E-3</v>
+      </c>
+      <c r="O31" s="30"/>
+      <c r="P31" s="27"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1000000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>41540</v>
+      </c>
+      <c r="D32" s="4">
+        <v>41631</v>
+      </c>
+      <c r="E32">
+        <v>91</v>
+      </c>
+      <c r="F32" s="4">
+        <v>41631</v>
+      </c>
+      <c r="G32" s="4">
+        <v>41631</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" ref="H30:H33" si="6">M32^(-360/(D32-$L$22))-1</f>
+        <v>5.5411876576556551E-3</v>
+      </c>
+      <c r="I32" s="9">
+        <f>((1+H32)^((G32-$L$22)/360)/(1+H30)^((C32-$L$22)/360)-1)/(G32-C32)*360*100</f>
+        <v>0.69879392033038801</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.69879392033400001</v>
+      </c>
+      <c r="K32" s="34">
+        <v>1766.3957430676001</v>
+      </c>
+      <c r="L32" s="34">
+        <v>1758.874209582</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99574187521957125</v>
+      </c>
+      <c r="N32" s="10">
+        <f>LN(M32)</f>
+        <v>-4.2672164117977902E-3</v>
+      </c>
+      <c r="O32" s="30">
+        <f>(N32-N30)/(F32-F30)</f>
+        <v>-1.9393818690201687E-5</v>
+      </c>
+      <c r="P32" s="27"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1000000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>41631</v>
+      </c>
+      <c r="D33" s="4">
+        <v>41722</v>
+      </c>
+      <c r="E33">
+        <v>91</v>
+      </c>
+      <c r="F33" s="4">
+        <v>41722</v>
+      </c>
+      <c r="G33" s="4">
+        <v>41722</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="6"/>
+        <v>3.0615674285041639E-3</v>
+      </c>
+      <c r="I33" s="9">
+        <f>((1+H33)^((G33-$L$22)/360)/(1+H32)^((C33-$L$22)/360)-1)/(G33-C33)*360*100</f>
+        <v>-0.44832309304714835</v>
+      </c>
+      <c r="J33" s="9">
+        <v>-0.44832309304899998</v>
+      </c>
+      <c r="K33" s="34">
+        <v>-1133.2611518747001</v>
+      </c>
+      <c r="L33" s="34">
+        <v>-1129.7158475639001</v>
+      </c>
+      <c r="M33" s="26">
+        <f t="shared" si="3"/>
+        <v>0.99687159106712941</v>
+      </c>
+      <c r="N33" s="10">
+        <f>LN(M33)</f>
+        <v>-3.1333126339550955E-3</v>
+      </c>
+      <c r="O33" s="30">
+        <f t="shared" si="5"/>
+        <v>1.2460481075194447E-5</v>
+      </c>
+      <c r="P33" s="27"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="30"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="30"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B36">
         <v>-1000000</v>
       </c>
-      <c r="C29" s="4">
-        <v>41717</v>
-      </c>
-      <c r="D29" s="4">
-        <v>41901</v>
-      </c>
-      <c r="E29">
-        <v>180</v>
-      </c>
-      <c r="F29" s="4">
-        <v>41901</v>
-      </c>
-      <c r="G29">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H29">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I29" s="31">
-        <f t="shared" si="2"/>
-        <v>-3395</v>
-      </c>
-      <c r="J29" s="25">
-        <v>-3377.0263554967</v>
-      </c>
-      <c r="K29" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99470584845263621</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="1"/>
-        <v>-2.3053285816064433E-3</v>
-      </c>
-      <c r="M29" s="30">
-        <f t="shared" si="4"/>
-        <v>-5.1490151425208018E-6</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29"/>
-    </row>
-    <row r="30" spans="1:15" ht="14.4">
-      <c r="A30" s="13" t="s">
+      <c r="C36" s="4">
+        <v>41355</v>
+      </c>
+      <c r="D36" s="4">
+        <v>41540</v>
+      </c>
+      <c r="E36">
+        <v>181</v>
+      </c>
+      <c r="F36" s="4">
+        <v>41540</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="K36" s="34">
+        <v>-1870.3333333334001</v>
+      </c>
+      <c r="L36" s="34">
+        <v>-1865.6589016824</v>
+      </c>
+      <c r="M36" s="26">
+        <f>L36/K36</f>
+        <v>0.99750074942915701</v>
+      </c>
+      <c r="N36" s="10">
+        <f>LN(M36)</f>
+        <v>-2.5023789109751902E-3</v>
+      </c>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B37">
         <v>-1000000</v>
       </c>
-      <c r="C30" s="4">
-        <v>41901</v>
-      </c>
-      <c r="D30" s="4">
-        <v>42082</v>
-      </c>
-      <c r="E30">
-        <v>180</v>
-      </c>
-      <c r="F30" s="4">
-        <v>42082</v>
-      </c>
-      <c r="G30">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H30">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I30" s="31">
-        <f t="shared" si="2"/>
-        <v>-3395</v>
-      </c>
-      <c r="J30" s="25">
-        <v>-3369.7872154228999</v>
-      </c>
-      <c r="K30" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99257355388008828</v>
-      </c>
-      <c r="L30" s="10">
-        <f t="shared" si="1"/>
-        <v>-3.2373003224074486E-3</v>
-      </c>
-      <c r="M30" s="30">
-        <f t="shared" si="4"/>
-        <v>-5.1490151425469913E-6</v>
-      </c>
-      <c r="N30" s="27"/>
-      <c r="O30"/>
-    </row>
-    <row r="31" spans="1:15" ht="14.4">
-      <c r="A31" s="13" t="s">
+      <c r="C37" s="4">
+        <v>41540</v>
+      </c>
+      <c r="D37" s="4">
+        <v>41722</v>
+      </c>
+      <c r="E37">
+        <v>181</v>
+      </c>
+      <c r="F37" s="4">
+        <v>41722</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="K37" s="34">
+        <v>-1870.3333333334001</v>
+      </c>
+      <c r="L37" s="34">
+        <v>-1864.4821658259</v>
+      </c>
+      <c r="M37" s="26">
+        <f t="shared" ref="M37:M47" si="7">L37/K37</f>
+        <v>0.99687159106710044</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" ref="N37:N47" si="8">LN(M37)</f>
+        <v>-3.1333126339841634E-3</v>
+      </c>
+      <c r="O37" s="30">
+        <f t="shared" ref="O37:O46" si="9">(N37-N36)/(F37-F36)</f>
+        <v>-3.466668807741611E-6</v>
+      </c>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B31">
+      <c r="B38">
         <v>-1000000</v>
       </c>
-      <c r="C31" s="4">
-        <v>42082</v>
-      </c>
-      <c r="D31" s="4">
-        <v>42268</v>
-      </c>
-      <c r="E31">
-        <v>182</v>
-      </c>
-      <c r="F31" s="4">
-        <v>42268</v>
-      </c>
-      <c r="G31">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H31">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I31" s="31">
-        <f t="shared" si="2"/>
-        <v>-3432.7222222222226</v>
-      </c>
-      <c r="J31" s="25">
-        <v>-3394.7436458528</v>
-      </c>
-      <c r="K31" s="26">
-        <f t="shared" si="3"/>
-        <v>0.98893630946204658</v>
-      </c>
-      <c r="L31" s="10">
-        <f t="shared" si="1"/>
-        <v>-4.8316774016805251E-3</v>
-      </c>
-      <c r="M31" s="30">
-        <f t="shared" si="4"/>
-        <v>-8.5719197810380459E-6</v>
-      </c>
-      <c r="N31" s="27"/>
-      <c r="O31"/>
-    </row>
-    <row r="32" spans="1:15" ht="14.4">
-      <c r="A32" s="13" t="s">
+      <c r="C38" s="4">
+        <v>41722</v>
+      </c>
+      <c r="D38" s="4">
+        <v>41904</v>
+      </c>
+      <c r="E38">
+        <v>178</v>
+      </c>
+      <c r="F38" s="4">
+        <v>41904</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="K38" s="34">
+        <v>-1839.3333333334001</v>
+      </c>
+      <c r="L38" s="34">
+        <v>-1829.6224106584</v>
+      </c>
+      <c r="M38" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99472041173885484</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.2935745368197793E-3</v>
+      </c>
+      <c r="O38" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.1869570894701185E-5</v>
+      </c>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
+      <c r="B39">
         <v>-1000000</v>
       </c>
-      <c r="C32" s="4">
-        <v>42268</v>
-      </c>
-      <c r="D32" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E32">
-        <v>180</v>
-      </c>
-      <c r="F32" s="4">
-        <v>42450</v>
-      </c>
-      <c r="G32">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H32">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I32" s="31">
-        <f t="shared" si="2"/>
-        <v>-3395</v>
-      </c>
-      <c r="J32" s="25">
-        <v>-3345.3996860645998</v>
-      </c>
-      <c r="K32" s="26">
-        <f t="shared" si="3"/>
-        <v>0.98539018735334305</v>
-      </c>
-      <c r="L32" s="10">
-        <f t="shared" si="1"/>
-        <v>-6.3917668018389322E-3</v>
-      </c>
-      <c r="M32" s="30">
-        <f t="shared" si="4"/>
-        <v>-8.5719197810901486E-6</v>
-      </c>
-      <c r="N32" s="27"/>
-      <c r="O32"/>
-    </row>
-    <row r="33" spans="1:15" ht="14.4">
-      <c r="A33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>-1000000</v>
-      </c>
-      <c r="C33" s="4">
-        <v>42450</v>
-      </c>
-      <c r="D33" s="4">
-        <v>42632</v>
-      </c>
-      <c r="E33">
-        <v>178</v>
-      </c>
-      <c r="F33" s="4">
-        <v>42632</v>
-      </c>
-      <c r="G33">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H33">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I33" s="31">
-        <f t="shared" si="2"/>
-        <v>-3357.2777777777774</v>
-      </c>
-      <c r="J33" s="25">
-        <v>-3287.5534019699999</v>
-      </c>
-      <c r="K33" s="26">
-        <f t="shared" si="3"/>
-        <v>0.97923187164634051</v>
-      </c>
-      <c r="L33" s="10">
-        <f t="shared" si="1"/>
-        <v>-9.1144597258060144E-3</v>
-      </c>
-      <c r="M33" s="30">
-        <f t="shared" si="4"/>
-        <v>-1.4959851230588364E-5</v>
-      </c>
-      <c r="N33" s="27"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" ht="14.4">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>-1000000</v>
-      </c>
-      <c r="C34" s="4">
-        <v>42632</v>
-      </c>
-      <c r="D34" s="4">
-        <v>42814</v>
-      </c>
-      <c r="E34">
+      <c r="C39" s="4">
+        <v>41904</v>
+      </c>
+      <c r="D39" s="4">
+        <v>42086</v>
+      </c>
+      <c r="E39">
         <v>181</v>
       </c>
-      <c r="F34" s="4">
-        <v>42814</v>
-      </c>
-      <c r="G34">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="I34" s="31">
-        <f t="shared" si="2"/>
-        <v>-3413.8611111111113</v>
-      </c>
-      <c r="J34" s="25">
-        <v>-3322.0693606302998</v>
-      </c>
-      <c r="K34" s="26">
-        <f t="shared" si="3"/>
-        <v>0.97311204308164256</v>
-      </c>
-      <c r="L34" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.1837152649764445E-2</v>
-      </c>
-      <c r="M34" s="30">
-        <f t="shared" si="4"/>
-        <v>-1.495985123054083E-5</v>
-      </c>
-      <c r="N34" s="27"/>
-      <c r="O34"/>
-    </row>
-    <row r="35" spans="1:15" ht="14.4">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>1000000</v>
-      </c>
-      <c r="C35" s="4">
-        <v>41352</v>
-      </c>
-      <c r="D35" s="4">
-        <v>41444</v>
-      </c>
-      <c r="E35">
-        <v>92</v>
-      </c>
-      <c r="F35" s="4">
-        <v>41444</v>
-      </c>
-      <c r="G35">
-        <f>(K35/B2*100)^(-365/E35)-1</f>
-        <v>3.0451283027357334E-3</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="I35" s="31">
-        <v>766.66666666660001</v>
-      </c>
-      <c r="J35" s="25">
-        <v>766.06359224660002</v>
-      </c>
-      <c r="K35" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99921338119130432</v>
-      </c>
-      <c r="L35" s="10">
-        <f t="shared" si="1"/>
-        <v>-3.4175864249536518E-4</v>
-      </c>
-      <c r="M35" s="30"/>
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" ht="14.4">
-      <c r="A36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>1000000</v>
-      </c>
-      <c r="C36" s="4">
-        <v>41444</v>
-      </c>
-      <c r="D36" s="4">
-        <v>41536</v>
-      </c>
-      <c r="E36">
-        <v>92</v>
-      </c>
-      <c r="F36" s="4">
-        <v>41536</v>
-      </c>
-      <c r="G36">
-        <f>(K36/K35)^(-365/E36)-1</f>
-        <v>6.8152843195379287E-3</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0.6704859608</v>
-      </c>
-      <c r="I36" s="31">
-        <v>1713.4641219488999</v>
-      </c>
-      <c r="J36" s="25">
-        <v>1709.1876471317</v>
-      </c>
-      <c r="K36" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99750419354428277</v>
-      </c>
-      <c r="L36" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.0852698474163136E-3</v>
-      </c>
-      <c r="M36" s="30">
-        <f t="shared" ref="M36:M49" si="5">(L36-L35)/(F36-F35)</f>
-        <v>-8.081643531749439E-6</v>
-      </c>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15" ht="14.4">
-      <c r="A37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>1000000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>41536</v>
-      </c>
-      <c r="D37" s="4">
-        <v>41627</v>
-      </c>
-      <c r="E37">
-        <v>91</v>
-      </c>
-      <c r="F37" s="4">
-        <v>41627</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" s="14">
-        <v>0.69802612870000003</v>
-      </c>
-      <c r="I37" s="31">
-        <v>1764.454936436</v>
-      </c>
-      <c r="J37" s="25">
-        <v>1756.9511373073999</v>
-      </c>
-      <c r="K37" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99574724240690615</v>
-      </c>
-      <c r="L37" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.8508876393196001E-3</v>
-      </c>
-      <c r="M37" s="30">
-        <f t="shared" si="5"/>
-        <v>-8.4133823286075437E-6</v>
-      </c>
-      <c r="O37"/>
-    </row>
-    <row r="38" spans="1:15" ht="14.4">
-      <c r="A38" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>1000000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>41627</v>
-      </c>
-      <c r="D38" s="4">
-        <v>41717</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="F38" s="4">
-        <v>41717</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" s="14">
-        <v>-0.45379177030000001</v>
-      </c>
-      <c r="I38" s="31">
-        <v>-1134.4794257213</v>
-      </c>
-      <c r="J38" s="25">
-        <v>-1130.9377853787</v>
-      </c>
-      <c r="K38" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99687818019233954</v>
-      </c>
-      <c r="L38" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.3579097953579E-3</v>
-      </c>
-      <c r="M38" s="30">
-        <f t="shared" si="5"/>
-        <v>5.4775315995744463E-6</v>
-      </c>
-      <c r="O38"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.4">
-      <c r="A39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39">
-        <v>1000000</v>
-      </c>
-      <c r="C39" s="4">
-        <v>41717</v>
-      </c>
-      <c r="D39" s="4">
-        <v>41809</v>
-      </c>
-      <c r="E39">
-        <v>92</v>
-      </c>
-      <c r="F39" s="4">
-        <v>41809</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" s="14">
-        <v>0.4270505</v>
-      </c>
-      <c r="I39" s="31">
-        <v>1091.3512778664999</v>
-      </c>
-      <c r="J39" s="25">
-        <v>1086.7582408353001</v>
-      </c>
-      <c r="K39" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99579142195152892</v>
-      </c>
-      <c r="L39" s="10">
-        <f t="shared" si="1"/>
-        <v>-1.8316191884587725E-3</v>
-      </c>
-      <c r="M39" s="30">
-        <f t="shared" si="5"/>
-        <v>-5.1490151424007883E-6</v>
-      </c>
-      <c r="O39"/>
-    </row>
-    <row r="40" spans="1:15" ht="14.4">
-      <c r="A40" s="6" t="s">
+      <c r="F39" s="39">
+        <v>42086</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.372</v>
+      </c>
+      <c r="K39" s="34">
+        <v>-1870.3333333334001</v>
+      </c>
+      <c r="L39" s="34">
+        <v>-1856.4440032835</v>
+      </c>
+      <c r="M39" s="26">
+        <f t="shared" si="7"/>
+        <v>0.9925738745054894</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.4538364396485269E-3</v>
+      </c>
+      <c r="O39" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.1869570894663448E-5</v>
+      </c>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>31</v>
       </c>
       <c r="B40">
         <v>1000000</v>
       </c>
       <c r="C40" s="4">
-        <v>41809</v>
+        <v>41355</v>
       </c>
       <c r="D40" s="4">
-        <v>41901</v>
+        <v>41449</v>
       </c>
       <c r="E40">
-        <v>92</v>
-      </c>
-      <c r="F40" s="4">
-        <v>41901</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" s="14">
-        <v>0.4270505</v>
-      </c>
-      <c r="I40" s="31">
-        <v>1091.3512778667</v>
-      </c>
-      <c r="J40" s="25">
-        <v>1085.5734988104</v>
-      </c>
-      <c r="K40" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99470584845276033</v>
-      </c>
-      <c r="L40" s="10">
-        <f t="shared" si="1"/>
-        <v>-2.3053285815522505E-3</v>
-      </c>
-      <c r="M40" s="30">
-        <f t="shared" si="5"/>
-        <v>-5.1490151423204133E-6</v>
-      </c>
-      <c r="O40"/>
-    </row>
-    <row r="41" spans="1:15" ht="14.4">
-      <c r="A41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="39">
+        <v>41449</v>
+      </c>
+      <c r="G40" s="4">
+        <v>41449</v>
+      </c>
+      <c r="H40" s="9">
+        <f>M40^(-360/(D40-$L$22))-1</f>
+        <v>2.9803657940152828E-3</v>
+      </c>
+      <c r="I40" s="9">
+        <f>((1+H40)^((D40-$L$22)/360)/(1+$H$24)^(2/360)-1)/(D40-A2)*360*100</f>
+        <v>0.30000000004303889</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="K40" s="34">
+        <v>783.33333333339999</v>
+      </c>
+      <c r="L40" s="34">
+        <v>782.71194052689998</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99920673258744686</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.9358221564008427E-4</v>
+      </c>
+      <c r="O40" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.0455658122462234E-5</v>
+      </c>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>31</v>
       </c>
       <c r="B41">
         <v>1000000</v>
       </c>
       <c r="C41" s="4">
-        <v>41901</v>
-      </c>
-      <c r="D41" s="4">
-        <v>41992</v>
+        <v>41449</v>
+      </c>
+      <c r="D41" s="37">
+        <v>41540</v>
       </c>
       <c r="E41">
         <v>91</v>
       </c>
-      <c r="F41" s="4">
-        <v>41992</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" s="14">
-        <v>0.427047968</v>
-      </c>
-      <c r="I41" s="31">
-        <v>1079.4823636049</v>
-      </c>
-      <c r="J41" s="25">
-        <v>1072.6095572792001</v>
-      </c>
-      <c r="K41" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99363323889540134</v>
-      </c>
-      <c r="L41" s="10">
-        <f t="shared" si="1"/>
-        <v>-2.7738889595563059E-3</v>
-      </c>
-      <c r="M41" s="30">
-        <f t="shared" si="5"/>
-        <v>-5.1490151429017075E-6</v>
-      </c>
-      <c r="O41"/>
-    </row>
-    <row r="42" spans="1:15" ht="14.4">
-      <c r="A42" s="6" t="s">
+      <c r="F41" s="39">
+        <v>41540</v>
+      </c>
+      <c r="G41" s="37">
+        <v>41541</v>
+      </c>
+      <c r="H41" s="38">
+        <f t="shared" ref="H41:H47" si="10">M41^(-360/(D41-$L$22))-1</f>
+        <v>4.8290363406549019E-3</v>
+      </c>
+      <c r="I41" s="38">
+        <f>((1+H41)^((D41-$L$22)/360)/(1+H40)^((C41-$L$22)/360)-1)/(D41-C41)*360*100</f>
+        <v>0.67658539268105622</v>
+      </c>
+      <c r="J41" s="38">
+        <v>0.676833142</v>
+      </c>
+      <c r="K41" s="34">
+        <v>1710.8837753845</v>
+      </c>
+      <c r="L41" s="34">
+        <v>1706.6078481321999</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" si="7"/>
+        <v>0.9975007494291428</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="8"/>
+        <v>-2.5023789109894366E-3</v>
+      </c>
+      <c r="O41" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.8777985663179697E-5</v>
+      </c>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>31</v>
       </c>
       <c r="B42">
         <v>1000000</v>
       </c>
       <c r="C42" s="4">
-        <v>41992</v>
+        <v>41540</v>
       </c>
       <c r="D42" s="4">
-        <v>42082</v>
+        <v>41631</v>
       </c>
       <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="F42" s="4">
-        <v>42082</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" s="14">
-        <v>0.427045436</v>
-      </c>
-      <c r="I42" s="31">
-        <v>1067.6135900605</v>
-      </c>
-      <c r="J42" s="25">
-        <v>1059.6850152571001</v>
-      </c>
-      <c r="K42" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99257355388015378</v>
-      </c>
-      <c r="L42" s="10">
-        <f t="shared" si="1"/>
-        <v>-3.237300322378788E-3</v>
-      </c>
-      <c r="M42" s="30">
-        <f t="shared" si="5"/>
-        <v>-5.1490151424720229E-6</v>
-      </c>
-      <c r="O42"/>
-    </row>
-    <row r="43" spans="1:15" ht="14.4">
-      <c r="A43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="39">
+        <v>41631</v>
+      </c>
+      <c r="G42" s="4">
+        <v>41631</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="10"/>
+        <v>5.5411876576556551E-3</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" ref="I42:I47" si="11">((1+H42)^((G42-$L$22)/360)/(1+H41)^((C42-$L$22)/360)-1)/(G42-C42)*360*100</f>
+        <v>0.69879392033038801</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.69879391999999996</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1766.3957430676001</v>
+      </c>
+      <c r="L42" s="34">
+        <v>1758.874209582</v>
+      </c>
+      <c r="M42" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99574187521957125</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.2672164117977902E-3</v>
+      </c>
+      <c r="O42" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.9393818690201687E-5</v>
+      </c>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>31</v>
       </c>
       <c r="B43">
         <v>1000000</v>
       </c>
       <c r="C43" s="4">
-        <v>42082</v>
+        <v>41631</v>
       </c>
       <c r="D43" s="4">
-        <v>42174</v>
+        <v>41722</v>
       </c>
       <c r="E43">
-        <v>92</v>
-      </c>
-      <c r="F43" s="4">
-        <v>42174</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" s="14">
-        <v>0.71119821110000003</v>
-      </c>
-      <c r="I43" s="31">
-        <v>1817.5065394341</v>
-      </c>
-      <c r="J43" s="25">
-        <v>1800.7360754536001</v>
-      </c>
-      <c r="K43" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99077281780470428</v>
-      </c>
-      <c r="L43" s="10">
-        <f t="shared" si="1"/>
-        <v>-4.0259169422358111E-3</v>
-      </c>
-      <c r="M43" s="30">
-        <f t="shared" si="5"/>
-        <v>-8.5719197810545986E-6</v>
-      </c>
-      <c r="O43"/>
-    </row>
-    <row r="44" spans="1:15" ht="14.4">
-      <c r="A44" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="39">
+        <v>41722</v>
+      </c>
+      <c r="G43" s="4">
+        <v>41722</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="10"/>
+        <v>3.0615674285041639E-3</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="11"/>
+        <v>-0.44832309304714835</v>
+      </c>
+      <c r="J43" s="9">
+        <v>-0.44832309300000001</v>
+      </c>
+      <c r="K43" s="34">
+        <v>-1133.2611518747001</v>
+      </c>
+      <c r="L43" s="34">
+        <v>-1129.7158475639001</v>
+      </c>
+      <c r="M43" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99687159106712941</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="8"/>
+        <v>-3.1333126339550955E-3</v>
+      </c>
+      <c r="O43" s="30">
+        <f t="shared" si="9"/>
+        <v>1.2460481075194447E-5</v>
+      </c>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
       <c r="B44">
         <v>1000000</v>
       </c>
       <c r="C44" s="4">
-        <v>42174</v>
-      </c>
-      <c r="D44" s="4">
-        <v>42268</v>
+        <v>41722</v>
+      </c>
+      <c r="D44" s="37">
+        <v>41813</v>
       </c>
       <c r="E44">
-        <v>94</v>
-      </c>
-      <c r="F44" s="4">
-        <v>42268</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" s="14">
-        <v>0.7112122528</v>
-      </c>
-      <c r="I44" s="31">
-        <v>1857.0542157591999</v>
-      </c>
-      <c r="J44" s="25">
-        <v>1836.5083426039</v>
-      </c>
-      <c r="K44" s="26">
-        <f t="shared" si="3"/>
-        <v>0.98893630946207978</v>
-      </c>
-      <c r="L44" s="10">
-        <f t="shared" si="1"/>
-        <v>-4.8316774016659474E-3</v>
-      </c>
-      <c r="M44" s="30">
-        <f t="shared" si="5"/>
-        <v>-8.5719197811716619E-6</v>
-      </c>
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="1:15" ht="14.4">
-      <c r="A45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="39">
+        <v>41813</v>
+      </c>
+      <c r="G44" s="37">
+        <v>41814</v>
+      </c>
+      <c r="H44" s="38">
+        <f t="shared" si="10"/>
+        <v>3.3029202484875508E-3</v>
+      </c>
+      <c r="I44" s="38">
+        <f t="shared" si="11"/>
+        <v>0.42647638847765035</v>
+      </c>
+      <c r="J44" s="38">
+        <v>0.427537946</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1080.7209179322999</v>
+      </c>
+      <c r="L44" s="34">
+        <v>1076.1769409308999</v>
+      </c>
+      <c r="M44" s="26">
+        <f t="shared" si="7"/>
+        <v>0.9957954205142121</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="8"/>
+        <v>-4.2134435853802676E-3</v>
+      </c>
+      <c r="O44" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.1869570894782111E-5</v>
+      </c>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>31</v>
       </c>
       <c r="B45">
         <v>1000000</v>
       </c>
       <c r="C45" s="4">
-        <v>42268</v>
-      </c>
-      <c r="D45" s="4">
-        <v>42359</v>
+        <v>41813</v>
+      </c>
+      <c r="D45" s="37">
+        <v>41904</v>
       </c>
       <c r="E45">
         <v>91</v>
       </c>
-      <c r="F45" s="4">
-        <v>42359</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45" s="14">
-        <v>0.7111911903</v>
-      </c>
-      <c r="I45" s="31">
-        <v>1797.7332866954</v>
-      </c>
-      <c r="J45" s="25">
-        <v>1774.6533685088</v>
-      </c>
-      <c r="K45" s="26">
-        <f t="shared" si="3"/>
-        <v>0.98716165609358797</v>
-      </c>
-      <c r="L45" s="10">
-        <f t="shared" si="1"/>
-        <v>-5.6117221017362145E-3</v>
-      </c>
-      <c r="M45" s="30">
-        <f t="shared" si="5"/>
-        <v>-8.5719197809919453E-6</v>
-      </c>
-      <c r="O45"/>
-    </row>
-    <row r="46" spans="1:15" ht="14.4">
-      <c r="A46" s="6" t="s">
+      <c r="F45" s="39">
+        <v>41904</v>
+      </c>
+      <c r="G45" s="37">
+        <v>41905</v>
+      </c>
+      <c r="H45" s="38">
+        <f t="shared" si="10"/>
+        <v>3.4645846406553549E-3</v>
+      </c>
+      <c r="I45" s="38">
+        <f t="shared" si="11"/>
+        <v>0.42665170896742838</v>
+      </c>
+      <c r="J45" s="38">
+        <v>0.427537946</v>
+      </c>
+      <c r="K45" s="34">
+        <v>1080.7209179325</v>
+      </c>
+      <c r="L45" s="34">
+        <v>1075.0151564606001</v>
+      </c>
+      <c r="M45" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99472041173884607</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="8"/>
+        <v>-5.2935745368285969E-3</v>
+      </c>
+      <c r="O45" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.1869570895036587E-5</v>
+      </c>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>31</v>
       </c>
       <c r="B46">
         <v>1000000</v>
       </c>
       <c r="C46" s="4">
-        <v>42359</v>
+        <v>41904</v>
       </c>
       <c r="D46" s="4">
-        <v>42450</v>
+        <v>41995</v>
       </c>
       <c r="E46">
         <v>91</v>
       </c>
-      <c r="F46" s="4">
-        <v>42450</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46" s="14">
-        <v>0.7111911903</v>
-      </c>
-      <c r="I46" s="31">
-        <v>1797.7332866959</v>
-      </c>
-      <c r="J46" s="25">
-        <v>1771.4687401886999</v>
-      </c>
-      <c r="K46" s="26">
-        <f t="shared" si="3"/>
-        <v>0.98539018735339079</v>
-      </c>
-      <c r="L46" s="10">
-        <f>LOG(K46)</f>
-        <v>-6.3917668018178917E-3</v>
-      </c>
-      <c r="M46" s="30">
-        <f t="shared" si="5"/>
-        <v>-8.5719197811173315E-6</v>
-      </c>
-      <c r="O46"/>
-    </row>
-    <row r="47" spans="1:15" ht="14.4">
-      <c r="A47" s="6" t="s">
+      <c r="F46" s="39">
+        <v>41995</v>
+      </c>
+      <c r="G46" s="4">
+        <v>41995</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="10"/>
+        <v>3.5804349590771167E-3</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="11"/>
+        <v>0.42753540773843424</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.42753540800000001</v>
+      </c>
+      <c r="K46" s="34">
+        <v>1080.7145029434</v>
+      </c>
+      <c r="L46" s="34">
+        <v>1073.8482519602001</v>
+      </c>
+      <c r="M46" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99364656348693459</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="8"/>
+        <v>-6.3737054882018014E-3</v>
+      </c>
+      <c r="O46" s="30">
+        <f t="shared" si="9"/>
+        <v>-1.1869570894211038E-5</v>
+      </c>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>31</v>
       </c>
       <c r="B47">
         <v>1000000</v>
       </c>
       <c r="C47" s="4">
-        <v>42450</v>
+        <v>41995</v>
       </c>
       <c r="D47" s="4">
-        <v>42541</v>
+        <v>42086</v>
       </c>
       <c r="E47">
         <v>91</v>
       </c>
       <c r="F47" s="4">
-        <v>42541</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47" s="14">
-        <v>1.2420348993000001</v>
-      </c>
-      <c r="I47" s="31">
-        <v>3139.5882176847999</v>
-      </c>
-      <c r="J47" s="25">
-        <v>3084.0369827144</v>
-      </c>
-      <c r="K47" s="26">
-        <f t="shared" si="3"/>
-        <v>0.98230620351500597</v>
-      </c>
-      <c r="L47" s="10">
-        <f t="shared" ref="L47:L50" si="6">LOG(K47)</f>
-        <v>-7.7531132637972512E-3</v>
-      </c>
-      <c r="M47" s="30">
-        <f t="shared" si="5"/>
-        <v>-1.4959851230542412E-5</v>
-      </c>
-      <c r="O47"/>
-    </row>
-    <row r="48" spans="1:15" ht="14.4">
-      <c r="A48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48">
-        <v>1000000</v>
-      </c>
-      <c r="C48" s="4">
-        <v>42541</v>
-      </c>
-      <c r="D48" s="4">
-        <v>42632</v>
-      </c>
-      <c r="E48">
-        <v>91</v>
-      </c>
-      <c r="F48" s="4">
-        <v>42632</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" s="14">
-        <v>1.2420348993000001</v>
-      </c>
-      <c r="I48" s="31">
-        <v>3139.5882176847999</v>
-      </c>
-      <c r="J48" s="25">
-        <v>3074.3848466025001</v>
-      </c>
-      <c r="K48" s="26">
-        <f t="shared" si="3"/>
-        <v>0.97923187164640901</v>
-      </c>
-      <c r="L48" s="10">
-        <f>LOG(K48)</f>
-        <v>-9.1144597257756341E-3</v>
-      </c>
-      <c r="M48" s="30">
-        <f t="shared" si="5"/>
-        <v>-1.495985123053168E-5</v>
-      </c>
-      <c r="O48"/>
-    </row>
-    <row r="49" spans="1:15" ht="14.4">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49">
-        <v>1000000</v>
-      </c>
-      <c r="C49" s="4">
-        <v>42632</v>
-      </c>
-      <c r="D49" s="4">
-        <v>42723</v>
-      </c>
-      <c r="E49">
-        <v>91</v>
-      </c>
-      <c r="F49" s="4">
-        <v>42723</v>
-      </c>
-      <c r="G49"/>
-      <c r="H49" s="14">
-        <v>1.2420134965</v>
-      </c>
-      <c r="I49" s="31">
-        <v>3139.5341160993999</v>
-      </c>
-      <c r="J49" s="25">
-        <v>3064.7101066698001</v>
-      </c>
-      <c r="K49" s="26">
-        <f t="shared" si="3"/>
-        <v>0.9761671615396994</v>
-      </c>
-      <c r="L49" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.0475806187775568E-2</v>
-      </c>
-      <c r="M49" s="30">
-        <f t="shared" si="5"/>
-        <v>-1.4959851230768509E-5</v>
-      </c>
-      <c r="O49"/>
-    </row>
-    <row r="50" spans="1:15" ht="14.4">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50">
-        <v>1000000</v>
-      </c>
-      <c r="C50" s="4">
-        <v>42723</v>
-      </c>
-      <c r="D50" s="4">
-        <v>42814</v>
-      </c>
-      <c r="E50">
-        <v>91</v>
-      </c>
-      <c r="F50" s="4">
-        <v>42814</v>
-      </c>
-      <c r="G50"/>
-      <c r="H50" s="14">
-        <v>1.2420134965</v>
-      </c>
-      <c r="I50" s="31">
-        <v>3139.5341160991002</v>
-      </c>
-      <c r="J50" s="25">
-        <v>3055.1184580418999</v>
-      </c>
-      <c r="K50" s="26">
-        <f t="shared" si="3"/>
-        <v>0.97311204308170174</v>
-      </c>
-      <c r="L50" s="10">
-        <f t="shared" si="6"/>
-        <v>-1.1837152649738036E-2</v>
-      </c>
-      <c r="M50" s="30">
-        <f>(L50-L49)/(F50-F49)</f>
-        <v>-1.4959851230356788E-5</v>
-      </c>
-      <c r="O50"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="D51" s="4"/>
-      <c r="G51"/>
-      <c r="J51" s="28">
-        <f>SUM(J35:J50)</f>
-        <v>26867.507824272601</v>
-      </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="D52" s="4"/>
-      <c r="G52"/>
-      <c r="J52" s="28">
-        <f>(B2-B10)/100*B50</f>
-        <v>26867.401701960036</v>
-      </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-    </row>
-    <row r="53" spans="1:15">
+        <v>42086</v>
+      </c>
+      <c r="G47" s="4">
+        <v>42086</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="10"/>
+        <v>3.6675290656265069E-3</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="11"/>
+        <v>0.4275354077678612</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.42753540800000001</v>
+      </c>
+      <c r="K47" s="34">
+        <v>1080.7145029439</v>
+      </c>
+      <c r="L47" s="34">
+        <v>1072.6889814213</v>
+      </c>
+      <c r="M47" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99257387450548851</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="8"/>
+        <v>-7.4538364396494212E-3</v>
+      </c>
+      <c r="O47" s="30">
+        <f t="shared" ref="O47" si="12">(N47-N46)/(F47-F46)</f>
+        <v>-1.1869570895028789E-5</v>
+      </c>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D48" s="4"/>
+      <c r="I48"/>
+      <c r="L48" s="28"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+      <c r="I49"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I52"/>
+      <c r="K52" s="14"/>
+      <c r="M52"/>
+      <c r="O52" s="30"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="G53"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53"/>
+      <c r="K53" s="14"/>
+      <c r="M53"/>
+      <c r="O53" s="30"/>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="F54" s="9"/>
-      <c r="G54"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="G55"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="G56"/>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="G57"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="G58"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="G59"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="G60"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="G61"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="G62"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="G63"/>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="G64"/>
-    </row>
-    <row r="65" spans="7:7">
-      <c r="G65"/>
-    </row>
-    <row r="66" spans="7:7">
-      <c r="G66"/>
-    </row>
-    <row r="67" spans="7:7">
-      <c r="G67"/>
-    </row>
-    <row r="68" spans="7:7">
-      <c r="G68"/>
-    </row>
-    <row r="69" spans="7:7">
-      <c r="G69"/>
-    </row>
-    <row r="70" spans="7:7">
-      <c r="G70"/>
-    </row>
-    <row r="71" spans="7:7">
-      <c r="G71"/>
-    </row>
-    <row r="72" spans="7:7">
-      <c r="G72"/>
-    </row>
-    <row r="73" spans="7:7">
-      <c r="G73"/>
-    </row>
-    <row r="74" spans="7:7">
-      <c r="G74"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54"/>
+      <c r="K54" s="14"/>
+      <c r="M54"/>
+      <c r="O54" s="30"/>
+      <c r="Q54"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55"/>
+      <c r="K55" s="14"/>
+      <c r="M55"/>
+      <c r="O55" s="30"/>
+      <c r="Q55"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56"/>
+      <c r="K56" s="14"/>
+      <c r="M56"/>
+      <c r="O56" s="30"/>
+      <c r="Q56"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57"/>
+      <c r="K57" s="14"/>
+      <c r="M57"/>
+      <c r="O57" s="30"/>
+      <c r="Q57"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58"/>
+      <c r="K58" s="14"/>
+      <c r="M58"/>
+      <c r="O58" s="30"/>
+      <c r="Q58"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4083,152 +4390,151 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
-        <v>41351</v>
+        <v>41354</v>
       </c>
       <c r="B1" s="14">
-        <v>99.998500022499996</v>
+        <v>99.9995000025</v>
       </c>
       <c r="D1" s="4">
-        <v>41351</v>
+        <v>41354</v>
       </c>
       <c r="E1" s="15">
-        <v>99.998500022499599</v>
+        <v>0.99999500002499997</v>
       </c>
       <c r="F1" s="15">
-        <f>E1-B1</f>
-        <v>-3.979039320256561E-13</v>
+        <f>E1-B1/100</f>
+        <v>0</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>41352</v>
+        <v>41355</v>
       </c>
       <c r="B2" s="14">
-        <v>99.997944478364005</v>
+        <v>99.998944452808999</v>
       </c>
       <c r="D2" s="4">
-        <v>41352</v>
+        <v>41355</v>
       </c>
       <c r="E2" s="15">
-        <v>99.997944478363692</v>
+        <v>0.99998944452808602</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F20" si="0">E2-B2</f>
-        <v>-3.1263880373444408E-13</v>
+        <f t="shared" ref="F2:F20" si="0">E2-B2/100</f>
+        <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>41383</v>
+        <v>41386</v>
       </c>
       <c r="B3" s="14">
-        <v>99.982016787633995</v>
+        <v>99.983016602801001</v>
       </c>
       <c r="D3" s="4">
-        <v>41383</v>
+        <v>41386</v>
       </c>
       <c r="E3" s="15">
-        <v>99.982016787633697</v>
+        <v>0.99983016602802499</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>-2.9842794901924208E-13</v>
+        <v>1.4988010832439613E-14</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>41444</v>
+        <v>41449</v>
       </c>
       <c r="B4" s="14">
-        <v>99.921338119138994</v>
+        <v>99.920673258755997</v>
       </c>
       <c r="D4" s="4">
-        <v>41444</v>
+        <v>41449</v>
       </c>
       <c r="E4" s="15">
-        <v>99.921338119139008</v>
+        <v>0.99920673258755899</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-9.9920072216264089E-16</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="B5" s="14">
-        <v>99.750419354426</v>
+        <v>99.750074942915006</v>
       </c>
       <c r="D5" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="E5" s="15">
-        <v>99.750419354425603</v>
+        <v>0.99750074942914502</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
-        <v>-3.979039320256561E-13</v>
+        <v>-4.9960036108132044E-15</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>41627</v>
+        <v>41631</v>
       </c>
       <c r="B6" s="14">
-        <v>99.574724240695005</v>
+        <v>99.574187521957001</v>
       </c>
       <c r="D6" s="4">
-        <v>41627</v>
+        <v>41631</v>
       </c>
       <c r="E6" s="15">
-        <v>99.574724240695105</v>
+        <v>0.99574187521956603</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="15"/>
@@ -4236,23 +4542,23 @@
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="B7" s="18">
-        <v>99.687818019233006</v>
+        <v>99.686967177626997</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="17">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="E7" s="20">
-        <v>99.687818019253911</v>
-      </c>
-      <c r="F7" s="20">
+        <v>0.99686967177646002</v>
+      </c>
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>2.0904167286062147E-11</v>
+        <v>1.900701818158268E-13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="15"/>
@@ -4260,22 +4566,22 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>42082</v>
+        <v>42086</v>
       </c>
       <c r="B8" s="14">
-        <v>99.257327075698001</v>
+        <v>99.257251486841994</v>
       </c>
       <c r="D8" s="4">
-        <v>42082</v>
+        <v>42086</v>
       </c>
       <c r="E8" s="15">
-        <v>99.25732707570269</v>
+        <v>0.99257251486847198</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>4.6895820560166612E-12</v>
+        <v>5.2069459854919842E-14</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="15"/>
@@ -4283,22 +4589,22 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>42450</v>
+        <v>42451</v>
       </c>
       <c r="B9" s="14">
-        <v>98.538910072972996</v>
+        <v>98.542602045609996</v>
       </c>
       <c r="D9" s="4">
-        <v>42450</v>
+        <v>42451</v>
       </c>
       <c r="E9" s="15">
-        <v>98.538910072963702</v>
+        <v>0.98542602045609995</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>-9.2938989837421104E-12</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="15"/>
@@ -4306,22 +4612,22 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>42814</v>
+        <v>42816</v>
       </c>
       <c r="B10" s="14">
-        <v>97.311153095972998</v>
+        <v>97.313748211122004</v>
       </c>
       <c r="D10" s="4">
-        <v>42814</v>
+        <v>42816</v>
       </c>
       <c r="E10" s="15">
-        <v>97.310888394366899</v>
+        <v>0.97313748211130802</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>-2.6470160609903814E-4</v>
+        <v>8.7929663550312398E-14</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="15"/>
@@ -4329,22 +4635,22 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>43178</v>
+        <v>43181</v>
       </c>
       <c r="B11" s="14">
-        <v>95.511396470467005</v>
+        <v>95.512007753980001</v>
       </c>
       <c r="D11" s="4">
-        <v>43178</v>
+        <v>43181</v>
       </c>
       <c r="E11" s="15">
-        <v>95.510968645072708</v>
+        <v>0.95512007753974404</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>-4.2782539429708777E-4</v>
+        <v>-5.595524044110789E-14</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="15"/>
@@ -4352,22 +4658,22 @@
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>43543</v>
+        <v>43549</v>
       </c>
       <c r="B12" s="14">
-        <v>93.197744193350005</v>
+        <v>93.178143749049994</v>
       </c>
       <c r="D12" s="4">
-        <v>43543</v>
+        <v>43549</v>
       </c>
       <c r="E12" s="15">
-        <v>93.197322736241588</v>
+        <v>0.93178143749054099</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="0"/>
-        <v>-4.2145710841623441E-4</v>
+        <v>4.1078251911130792E-14</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="15"/>
@@ -4375,22 +4681,22 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="B13" s="14">
-        <v>90.534528842146997</v>
+        <v>90.532315713458004</v>
       </c>
       <c r="D13" s="4">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="E13" s="15">
-        <v>90.534115582557789</v>
+        <v>0.90532315713464395</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="0"/>
-        <v>-4.1325958920879202E-4</v>
+        <v>6.3948846218409017E-14</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="15"/>
@@ -4398,22 +4704,22 @@
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
       <c r="B14" s="14">
-        <v>87.636733441722001</v>
+        <v>87.662473852261996</v>
       </c>
       <c r="D14" s="4">
-        <v>44274</v>
+        <v>44277</v>
       </c>
       <c r="E14" s="15">
-        <v>87.660697976376497</v>
+        <v>0.87662473852255896</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>2.3964534654496106E-2</v>
+        <v>-6.106226635438361E-14</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="15"/>
@@ -4421,22 +4727,22 @@
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B15" s="14">
-        <v>84.710201039764002</v>
+        <v>84.719324922656</v>
       </c>
       <c r="D15" s="4">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="E15" s="15">
-        <v>84.709176950620005</v>
+        <v>0.84719324922592398</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>-1.0240891439963207E-3</v>
+        <v>-6.3604677080775218E-13</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="15"/>
@@ -4444,22 +4750,22 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B16" s="14">
-        <v>81.702628527551994</v>
+        <v>81.707618222658994</v>
       </c>
       <c r="D16" s="4">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="E16" s="15">
-        <v>81.701356964540594</v>
+        <v>0.81707618222662304</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>-1.2715630114001897E-3</v>
+        <v>3.3084646133829665E-14</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="15"/>
@@ -4467,22 +4773,22 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>46832</v>
+        <v>46834</v>
       </c>
       <c r="B17" s="14">
-        <v>67.217715676978003</v>
+        <v>67.223180685086007</v>
       </c>
       <c r="D17" s="4">
-        <v>46832</v>
+        <v>46834</v>
       </c>
       <c r="E17" s="15">
-        <v>67.216145088153496</v>
+        <v>0.67223180685088102</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
-        <v>-1.570588824506558E-3</v>
+        <v>2.0983215165415459E-14</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="15"/>
@@ -4490,93 +4796,97 @@
       <c r="J17" s="4"/>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>48659</v>
+        <v>48660</v>
       </c>
       <c r="B18" s="14">
-        <v>55.715309635268</v>
+        <v>55.725022196459001</v>
       </c>
       <c r="D18" s="4">
-        <v>48659</v>
+        <v>48660</v>
       </c>
       <c r="E18" s="15">
-        <v>55.713869654170203</v>
+        <v>0.55725022196460405</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="0"/>
-        <v>-1.4399810977963057E-3</v>
+        <v>1.3988810110276972E-14</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
       <c r="B19" s="14">
-        <v>46.594494351233998</v>
+        <v>46.609894810813003</v>
       </c>
       <c r="D19" s="4">
-        <v>50483</v>
+        <v>50486</v>
       </c>
       <c r="E19" s="15">
-        <v>46.607272292597102</v>
+        <v>0.46609894810816799</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>1.2777941363104617E-2</v>
+        <v>3.7969627442180354E-14</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>52309</v>
+        <v>52313</v>
       </c>
       <c r="B20" s="14">
-        <v>39.075084668740999</v>
+        <v>39.072969033905999</v>
       </c>
       <c r="D20" s="4">
-        <v>52309</v>
+        <v>52313</v>
       </c>
       <c r="E20" s="15">
-        <v>39.073768442212895</v>
+        <v>0.39072969033902599</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>-1.3162265281039254E-3</v>
+        <v>-3.397282455352979E-14</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="14"/>
       <c r="E21" s="4"/>
       <c r="F21" s="14"/>
+      <c r="J21">
+        <f>SUM(J24:J25)</f>
+        <v>-3118.4751495988003</v>
+      </c>
       <c r="L21" s="4">
-        <v>41348</v>
+        <v>41353</v>
       </c>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
@@ -4585,13 +4895,13 @@
       <c r="E23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="27" t="s">
         <v>42</v>
       </c>
       <c r="I23" t="s">
@@ -4602,44 +4912,48 @@
       </c>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
       <c r="B24">
         <v>-1000000</v>
       </c>
       <c r="C24" s="4">
-        <v>41352</v>
+        <v>41355</v>
       </c>
       <c r="D24" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="E24">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F24" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="G24">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="H24" s="14">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I24" s="21">
-        <v>-2444.9999999943002</v>
-      </c>
-      <c r="J24" s="21">
-        <v>-2438.8977532100998</v>
+        <v>0.311</v>
+      </c>
+      <c r="H24">
+        <v>0.311</v>
+      </c>
+      <c r="I24" s="33">
+        <v>-1563.6388889653001</v>
+      </c>
+      <c r="J24" s="33">
+        <v>-1559.7309635793999</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" ref="K24:K29" si="1">J24/I24</f>
-        <v>0.99750419354428854</v>
+        <v>0.99750074942911782</v>
+      </c>
+      <c r="L24" s="28">
+        <f t="shared" ref="L24:L27" si="2">K24^(-365/(D24-$L$21))-1</f>
+        <v>4.8962702206791775E-3</v>
       </c>
       <c r="M24" s="29"/>
     </row>
-    <row r="25" spans="1:13" ht="14.4">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4647,671 +4961,379 @@
         <v>-1000000</v>
       </c>
       <c r="C25" s="4">
-        <v>41536</v>
+        <v>41540</v>
       </c>
       <c r="D25" s="4">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="E25">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F25" s="4">
-        <v>41717</v>
+        <v>41722</v>
       </c>
       <c r="G25">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="H25" s="14">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I25" s="21">
-        <v>-2444.9999999943002</v>
-      </c>
-      <c r="J25" s="21">
-        <v>-2437.3671505645998</v>
+        <v>0.311</v>
+      </c>
+      <c r="H25">
+        <v>0.311</v>
+      </c>
+      <c r="I25" s="33">
+        <v>-1563.6388889653001</v>
+      </c>
+      <c r="J25" s="33">
+        <v>-1558.7441860194001</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>0.99687818019234431</v>
-      </c>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" ht="14.4">
+        <v>0.99686967177623798</v>
+      </c>
+      <c r="L25" s="28">
+        <f t="shared" si="2"/>
+        <v>3.1060654865080473E-3</v>
+      </c>
+      <c r="M25" s="29">
+        <f t="shared" ref="M25:M28" si="3">(L25-L24)/(F25-F24)</f>
+        <v>-9.8362897481930225E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="C26" s="4">
-        <v>41717</v>
+        <v>41355</v>
       </c>
       <c r="D26" s="4">
-        <v>41901</v>
+        <v>41449</v>
       </c>
       <c r="E26">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="F26" s="4">
-        <v>41901</v>
-      </c>
-      <c r="G26">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="H26" s="14">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I26" s="21">
-        <v>-2444.9999999943002</v>
-      </c>
-      <c r="J26" s="21">
-        <v>-2432.4286616715999</v>
+        <v>41449</v>
+      </c>
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+      <c r="I26" s="33">
+        <v>783.33333333339999</v>
+      </c>
+      <c r="J26" s="33">
+        <v>782.71194052689998</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="1"/>
-        <v>0.9948583483342619</v>
-      </c>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" ht="14.4">
+        <v>0.99920673258744686</v>
+      </c>
+      <c r="L26" s="28">
+        <f t="shared" si="2"/>
+        <v>3.021822243513661E-3</v>
+      </c>
+      <c r="M26" s="29">
+        <f t="shared" si="3"/>
+        <v>3.0858330767174446E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="C27" s="4">
-        <v>41901</v>
+        <v>41449</v>
       </c>
       <c r="D27" s="4">
-        <v>42082</v>
+        <v>41540</v>
       </c>
       <c r="E27">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F27" s="4">
-        <v>42082</v>
-      </c>
-      <c r="G27">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="H27" s="14">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I27" s="21">
-        <v>-2444.9999999943002</v>
-      </c>
-      <c r="J27" s="21">
-        <v>-2426.8416469951999</v>
+        <v>41540</v>
+      </c>
+      <c r="H27">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="I27" s="33">
+        <v>1708.9566671196999</v>
+      </c>
+      <c r="J27" s="33">
+        <v>1704.6855561939001</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="1"/>
-        <v>0.99257327075699686</v>
-      </c>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.4">
+        <v>0.99750074942918332</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" si="2"/>
+        <v>4.8962702205503916E-3</v>
+      </c>
+      <c r="M27" s="29">
+        <f t="shared" si="3"/>
+        <v>2.0598329417986051E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="C28" s="4">
-        <v>42082</v>
+        <v>41540</v>
       </c>
       <c r="D28" s="4">
-        <v>42268</v>
+        <v>41631</v>
       </c>
       <c r="E28">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4">
-        <v>42268</v>
-      </c>
-      <c r="G28">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="H28" s="14">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I28" s="21">
-        <v>-2472.1666666608999</v>
-      </c>
-      <c r="J28" s="21">
-        <v>-2445.5324901859999</v>
+        <v>41631</v>
+      </c>
+      <c r="H28">
+        <v>0.69879999999999998</v>
+      </c>
+      <c r="I28" s="33">
+        <v>1766.3957430676001</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1758.874209582</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="1"/>
-        <v>0.98922638314233313</v>
+        <v>0.99574187521957125</v>
       </c>
       <c r="L28" s="28">
         <f>K28^(-365/(D28-$L$21))-1</f>
-        <v>4.3067545498658433E-3</v>
-      </c>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" ht="14.4">
+        <v>5.6183643936540406E-3</v>
+      </c>
+      <c r="M28" s="29">
+        <f t="shared" si="3"/>
+        <v>7.9351008033368024E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="C29" s="4">
-        <v>42268</v>
+        <v>41631</v>
       </c>
       <c r="D29" s="4">
-        <v>42450</v>
+        <v>41722</v>
       </c>
       <c r="E29">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="F29" s="4">
-        <v>42450</v>
-      </c>
-      <c r="G29">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="H29" s="14">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I29" s="21">
-        <v>-2444.9999999943002</v>
-      </c>
-      <c r="J29" s="21">
-        <v>-2409.2763512786</v>
+        <v>41722</v>
+      </c>
+      <c r="H29">
+        <v>-0.4476</v>
+      </c>
+      <c r="I29" s="33">
+        <v>-1131.3380160260999</v>
+      </c>
+      <c r="J29" s="33">
+        <v>-1127.7965567039</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="1"/>
-        <v>0.98538910072974095</v>
+        <v>0.99686967177622166</v>
       </c>
       <c r="L29" s="28">
-        <f t="shared" ref="L29:L41" si="2">K29^(-365/(D29-$L$21))-1</f>
-        <v>4.8869675609646279E-3</v>
+        <f t="shared" ref="L29" si="4">K29^(-365/(D29-$L$21))-1</f>
+        <v>3.1060654865242565E-3</v>
       </c>
       <c r="M29" s="29">
         <f>(L29-L28)/(F29-F28)</f>
-        <v>3.1879835774658497E-6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.4">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>1000000</v>
-      </c>
-      <c r="C30" s="4">
-        <v>41352</v>
-      </c>
-      <c r="D30" s="4">
-        <v>41444</v>
-      </c>
-      <c r="E30">
-        <v>92</v>
-      </c>
-      <c r="F30" s="4">
-        <v>41444</v>
-      </c>
-      <c r="G30">
-        <f>(B2/100/K30)^(-360/E30)-1</f>
-        <v>-2.9943585268265016E-3</v>
-      </c>
-      <c r="H30" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="I30" s="21">
-        <v>766.66666666660001</v>
-      </c>
+        <v>-2.7607680298129497E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="21"/>
       <c r="J30" s="21">
-        <v>766.06359224660002</v>
-      </c>
-      <c r="K30" s="15">
-        <f>J30/I30</f>
-        <v>0.99921338119130432</v>
-      </c>
-      <c r="L30" s="28">
-        <f t="shared" si="2"/>
-        <v>2.9964475865080775E-3</v>
-      </c>
+        <f>SUM(J26:J29)</f>
+        <v>3118.4751495989003</v>
+      </c>
+      <c r="K30" s="15"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="29"/>
     </row>
-    <row r="31" spans="1:13" ht="14.4">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>1000000</v>
-      </c>
-      <c r="C31" s="4">
-        <v>41444</v>
-      </c>
-      <c r="D31" s="4">
-        <v>41536</v>
-      </c>
-      <c r="E31">
-        <v>92</v>
-      </c>
-      <c r="F31" s="4">
-        <v>41536</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0.6704859608</v>
-      </c>
-      <c r="I31" s="21">
-        <v>1713.4641219488999</v>
-      </c>
-      <c r="J31" s="21">
-        <v>1709.1876471317</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" ref="K31:K41" si="3">J31/I31</f>
-        <v>0.99750419354428277</v>
-      </c>
-      <c r="L31" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8634268345200127E-3</v>
-      </c>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="29"/>
     </row>
-    <row r="32" spans="1:13" ht="14.4">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1000000</v>
-      </c>
-      <c r="C32" s="4">
-        <v>41536</v>
-      </c>
-      <c r="D32" s="4">
-        <v>41627</v>
-      </c>
-      <c r="E32">
-        <v>91</v>
-      </c>
-      <c r="F32" s="4">
-        <v>41627</v>
-      </c>
-      <c r="H32" s="14">
-        <v>0.69802612870000003</v>
-      </c>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="21">
-        <v>1764.454936436</v>
-      </c>
-      <c r="J32" s="21">
-        <v>1756.9511373073999</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99574724240690615</v>
-      </c>
-      <c r="L32" s="28">
-        <f t="shared" si="2"/>
-        <v>5.5910795774840594E-3</v>
-      </c>
+        <f>(B2/100-B7/100)*B28</f>
+        <v>3119.7727518200713</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="29"/>
     </row>
-    <row r="33" spans="1:13" ht="14.4">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1000000</v>
-      </c>
-      <c r="C33" s="4">
-        <v>41627</v>
-      </c>
-      <c r="D33" s="4">
-        <v>41717</v>
-      </c>
-      <c r="E33">
-        <v>90</v>
-      </c>
-      <c r="F33" s="4">
-        <v>41717</v>
-      </c>
-      <c r="H33" s="14">
-        <v>-0.45379177030000001</v>
-      </c>
-      <c r="I33" s="21">
-        <v>-1134.4794257213</v>
-      </c>
-      <c r="J33" s="21">
-        <v>-1130.9377853787</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99687818019233954</v>
-      </c>
-      <c r="L33" s="28">
-        <f t="shared" si="2"/>
-        <v>3.0975967229964763E-3</v>
-      </c>
+    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:13" ht="14.4">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>1000000</v>
-      </c>
-      <c r="C34" s="4">
-        <v>41717</v>
-      </c>
-      <c r="D34" s="4">
-        <v>41809</v>
-      </c>
-      <c r="E34">
-        <v>92</v>
-      </c>
-      <c r="F34" s="4">
-        <v>41809</v>
-      </c>
-      <c r="H34" s="14">
-        <v>0.38174720629999997</v>
-      </c>
-      <c r="I34" s="21">
-        <v>975.57619381769996</v>
-      </c>
-      <c r="J34" s="21">
-        <v>971.58276771349995</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99590659742467413</v>
-      </c>
-      <c r="L34" s="28">
-        <f t="shared" si="2"/>
-        <v>3.2529110930847871E-3</v>
-      </c>
+    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="29"/>
     </row>
-    <row r="35" spans="1:13" ht="14.4">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>1000000</v>
-      </c>
-      <c r="C35" s="4">
-        <v>41809</v>
-      </c>
-      <c r="D35" s="4">
-        <v>41901</v>
-      </c>
-      <c r="E35">
-        <v>92</v>
-      </c>
-      <c r="F35" s="4">
-        <v>41901</v>
-      </c>
-      <c r="H35" s="14">
-        <v>0.41230435199999999</v>
-      </c>
-      <c r="I35" s="21">
-        <v>1053.6666774114999</v>
-      </c>
-      <c r="J35" s="21">
-        <v>1048.2490903844</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99485834833421039</v>
-      </c>
-      <c r="L35" s="28">
-        <f t="shared" si="2"/>
-        <v>3.4082254632692432E-3</v>
-      </c>
+    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="29"/>
     </row>
-    <row r="36" spans="1:13" ht="14.4">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>1000000</v>
-      </c>
-      <c r="C36" s="4">
-        <v>41901</v>
-      </c>
-      <c r="D36" s="4">
-        <v>41992</v>
-      </c>
-      <c r="E36">
-        <v>91</v>
-      </c>
-      <c r="F36" s="4">
-        <v>41992</v>
-      </c>
-      <c r="H36" s="14">
-        <v>0.44268803979999999</v>
-      </c>
-      <c r="I36" s="21">
-        <v>1119.0169895001</v>
-      </c>
-      <c r="J36" s="21">
-        <v>1112.0190257495999</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99374632930852436</v>
-      </c>
-      <c r="L36" s="28">
-        <f t="shared" si="2"/>
-        <v>3.5618516336801687E-3</v>
-      </c>
+    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="29"/>
     </row>
-    <row r="37" spans="1:13" ht="14.4">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>1000000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>41992</v>
-      </c>
-      <c r="D37" s="4">
-        <v>42082</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="F37" s="4">
-        <v>42082</v>
-      </c>
-      <c r="H37" s="14">
-        <v>0.47273429020000002</v>
-      </c>
-      <c r="I37" s="21">
-        <v>1181.8357254473999</v>
-      </c>
-      <c r="J37" s="21">
-        <v>1173.0585515048001</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99257327075700208</v>
-      </c>
-      <c r="L37" s="28">
-        <f t="shared" si="2"/>
-        <v>3.713789604465445E-3</v>
-      </c>
+    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="28"/>
       <c r="M37" s="29"/>
     </row>
-    <row r="38" spans="1:13" ht="14.4">
-      <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>1000000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>42082</v>
-      </c>
-      <c r="D38" s="4">
-        <v>42174</v>
-      </c>
-      <c r="E38">
-        <v>92</v>
-      </c>
-      <c r="F38" s="4">
-        <v>42174</v>
-      </c>
-      <c r="H38" s="14">
-        <v>0.62483286869999999</v>
-      </c>
-      <c r="I38" s="21">
-        <v>1596.7951089777</v>
-      </c>
-      <c r="J38" s="21">
-        <v>1582.4093605195001</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="3"/>
-        <v>0.99099086139648185</v>
-      </c>
-      <c r="L38" s="28">
-        <f t="shared" si="2"/>
-        <v>4.0070840935899632E-3</v>
-      </c>
-      <c r="M38" s="29">
-        <f>(L38-L37)/(F38-F37)</f>
-        <v>3.187983577440415E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39">
-        <v>1000000</v>
-      </c>
-      <c r="C39" s="4">
-        <v>42174</v>
-      </c>
-      <c r="D39" s="4">
-        <v>42268</v>
-      </c>
-      <c r="E39">
-        <v>94</v>
-      </c>
-      <c r="F39" s="4">
-        <v>42268</v>
-      </c>
-      <c r="H39" s="14">
-        <v>0.68311727300000002</v>
-      </c>
-      <c r="I39" s="21">
-        <v>1783.6951017718</v>
-      </c>
-      <c r="J39" s="21">
-        <v>1764.4782541543</v>
-      </c>
-      <c r="K39" s="15">
-        <f t="shared" si="3"/>
-        <v>0.98922638314226952</v>
-      </c>
-      <c r="L39" s="28">
-        <f t="shared" si="2"/>
-        <v>4.3067545498916004E-3</v>
-      </c>
-      <c r="M39" s="29">
-        <f t="shared" ref="M39:M41" si="4">(L39-L38)/(F39-F38)</f>
-        <v>3.1879835776769918E-6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.4">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40">
-        <v>1000000</v>
-      </c>
-      <c r="C40" s="4">
-        <v>42268</v>
-      </c>
-      <c r="D40" s="4">
-        <v>42359</v>
-      </c>
-      <c r="E40">
-        <v>91</v>
-      </c>
-      <c r="F40" s="4">
-        <v>42359</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0.74103797950000005</v>
-      </c>
-      <c r="I40" s="21">
-        <v>1873.1793370995999</v>
-      </c>
-      <c r="J40" s="21">
-        <v>1849.5339119089001</v>
-      </c>
-      <c r="K40" s="15">
-        <f t="shared" si="3"/>
-        <v>0.98737684923040414</v>
-      </c>
-      <c r="L40" s="28">
-        <f t="shared" si="2"/>
-        <v>4.5968610554194544E-3</v>
-      </c>
-      <c r="M40" s="29">
-        <f t="shared" si="4"/>
-        <v>3.1879835772291646E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.4">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>1000000</v>
-      </c>
-      <c r="C41" s="4">
-        <v>42359</v>
-      </c>
-      <c r="D41" s="4">
-        <v>42450</v>
-      </c>
-      <c r="E41">
-        <v>91</v>
-      </c>
-      <c r="F41" s="4">
-        <v>42450</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0.79802186119999996</v>
-      </c>
-      <c r="I41" s="21">
-        <v>2017.2219270457999</v>
-      </c>
-      <c r="J41" s="21">
-        <v>1987.7485006638999</v>
-      </c>
-      <c r="K41" s="15">
-        <f t="shared" si="3"/>
-        <v>0.98538910072970332</v>
-      </c>
-      <c r="L41" s="28">
-        <f t="shared" si="2"/>
-        <v>4.8869675609772845E-3</v>
-      </c>
-      <c r="M41" s="29">
-        <f t="shared" si="4"/>
-        <v>3.1879835775585715E-6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="J42" s="27"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="J43" s="27"/>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5320,25 +5342,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -5366,7 +5388,7 @@
         <v>99.996208477095252</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5391,7 +5413,7 @@
         <v>23.770132006594427</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -5408,7 +5430,7 @@
         <v>99.476483153100006</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -5425,7 +5447,7 @@
         <v>99.307587073700006</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -5442,7 +5464,7 @@
         <v>97.737546620800003</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -5459,7 +5481,7 @@
         <v>94.320020079299994</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -5476,7 +5498,7 @@
         <v>93.975017447200003</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -5493,7 +5515,7 @@
         <v>91.791870144699999</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -5510,7 +5532,7 @@
         <v>86.383208905000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -5527,7 +5549,7 @@
         <v>85.589676089299999</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -5544,10 +5566,10 @@
         <v>36.788102128600002</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I13" s="15"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="16"/>
     </row>
   </sheetData>
@@ -5556,16 +5578,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5600,7 +5622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -5635,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -5670,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5705,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -5725,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5760,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -5795,7 +5817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5830,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -5865,7 +5887,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -5900,7 +5922,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5935,7 +5957,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -5970,7 +5992,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -6005,7 +6027,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6040,7 +6062,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6075,7 +6097,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6110,7 +6132,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -6145,7 +6167,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -6180,7 +6202,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -6215,7 +6237,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6250,7 +6272,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -6270,7 +6292,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6308,4 +6330,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
     <sheet name="03122013" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Bond" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -193,19 +192,70 @@
     <t>T 3 1/8 02/15/42</t>
   </si>
   <si>
-    <t>21/03/2013</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>My Fwd</t>
-  </si>
-  <si>
-    <t>Reset End Day</t>
+    <t>USD/DEP/1D</t>
+  </si>
+  <si>
+    <t>USD/DEP/TN</t>
+  </si>
+  <si>
+    <t>USD/DEP/1M</t>
+  </si>
+  <si>
+    <t>EDM3 PIT Comdty</t>
+  </si>
+  <si>
+    <t>USD/DEP/3M</t>
+  </si>
+  <si>
+    <t>EDU3 PIT Comdty</t>
+  </si>
+  <si>
+    <t>EDZ3 PIT Comdty</t>
+  </si>
+  <si>
+    <t>EDH4 PIT Comdty</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/1Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/2Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/3Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/4Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/5Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/6Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/7Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/8Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/9Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/10Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/15Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/20Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/25Y</t>
+  </si>
+  <si>
+    <t>USD/IRS/F-LI/30Y</t>
   </si>
 </sst>
 </file>
@@ -219,25 +269,18 @@
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.000000000000000"/>
     <numFmt numFmtId="171" formatCode="0.00000000"/>
     <numFmt numFmtId="172" formatCode="0.0000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="174" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.00000"/>
-    <numFmt numFmtId="183" formatCode="0.0000000"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.0000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -412,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,12 +635,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -715,112 +752,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="59" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="59">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="44"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
@@ -872,10 +899,8 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="56"/>
     <cellStyle name="Normal 3" xfId="42"/>
-    <cellStyle name="Normal_03042013" xfId="58"/>
-    <cellStyle name="Normal_03042013_1" xfId="60"/>
     <cellStyle name="Normal_03122013" xfId="57"/>
-    <cellStyle name="Normal_03122013_1" xfId="59"/>
+    <cellStyle name="Normal_03122013_1" xfId="58"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="43"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -2388,2000 +2413,1144 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="32">
-        <v>99.9995000025</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4">
-        <v>41354</v>
-      </c>
-      <c r="E1">
+      <c r="B1" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="C1" s="4">
+        <v>41355</v>
+      </c>
+      <c r="D1" s="24">
         <v>0.99999500002499997</v>
       </c>
-      <c r="F1" s="11">
-        <f>E1-B1/100</f>
-        <v>0</v>
+      <c r="E1" s="10">
+        <f>LN(D1)</f>
+        <v>-4.9999874999473539E-6</v>
       </c>
       <c r="G1" s="11"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="15">
-        <f>((B1/100)^(-360/(A1-$L$22))-1)*100</f>
-        <v>0.1801616464308653</v>
-      </c>
-      <c r="J1" s="15">
-        <v>0.18016164641900001</v>
-      </c>
-      <c r="K1" s="15">
-        <f>J1-I1</f>
-        <v>-1.1865286531076435E-11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>41355</v>
-      </c>
-      <c r="B2" s="32">
-        <v>99.998944452808999</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="4">
-        <v>41355</v>
+      <c r="H1" s="29"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41358</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0.99997833371944</v>
       </c>
       <c r="E2" s="10">
-        <v>0.99998944452808602</v>
-      </c>
-      <c r="F2" s="11">
-        <f>E2-B2/100</f>
-        <v>-3.9968028886505635E-15</v>
-      </c>
+        <f t="shared" ref="E2:E24" si="0">LN(D2)</f>
+        <v>-2.1666515277242379E-5</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="15">
-        <f t="shared" ref="I2:I20" si="0">((B2/100)^(-360/(A2-$L$22))-1)*100</f>
-        <v>0.19018011056304296</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0.190180110613</v>
-      </c>
-      <c r="K2" s="15">
-        <f t="shared" ref="K2:K20" si="1">J2-I2</f>
-        <v>4.9957038505965556E-11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>41386</v>
-      </c>
-      <c r="B3" s="32">
-        <v>99.983016602801001</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4">
-        <v>41386</v>
+      <c r="H2" s="11"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0.185</v>
+      </c>
+      <c r="C3" s="4">
+        <v>41389</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.99981905698904006</v>
       </c>
       <c r="E3" s="10">
-        <v>0.99983016602802499</v>
-      </c>
-      <c r="F3" s="11">
-        <f>E3-B3/100</f>
-        <v>1.4988010832439613E-14</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>-1.809593831215337E-4</v>
+      </c>
+      <c r="F3" s="10"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="15">
+      <c r="H3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="28"/>
+      <c r="C4" s="4">
+        <v>41444</v>
+      </c>
+      <c r="D4" s="13">
+        <f>EXP(E4)</f>
+        <v>0.99927193851509222</v>
+      </c>
+      <c r="E4" s="10">
+        <f>E3+(E5-E3)/(C5-C3)*(C4-C3)</f>
+        <v>-7.2832665038304696E-4</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="28">
+        <v>99.7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41450</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.99921227097835996</v>
+      </c>
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>0.18546092506472878</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0.18546092506299999</v>
-      </c>
-      <c r="K3" s="15">
-        <f t="shared" si="1"/>
-        <v>-1.7287837827950625E-12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>41449</v>
-      </c>
-      <c r="B4" s="32">
-        <v>99.920673258755997</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="4">
-        <v>41449</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.99920673258755899</v>
-      </c>
-      <c r="F4" s="11">
-        <f>E4-B4/100</f>
-        <v>-9.9920072216264089E-16</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="15">
+        <v>-7.8803944317521206E-4</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="28"/>
+      <c r="C6" s="4">
+        <v>41535</v>
+      </c>
+      <c r="D6" s="24">
+        <f>1/(1+0.003*(C6-C4)/360)*D4</f>
+        <v>0.99851473151036341</v>
+      </c>
+      <c r="E6" s="10">
+        <f>LN(D6)</f>
+        <v>-1.4863725942763902E-3</v>
+      </c>
+      <c r="F6" s="10">
+        <f>E5+(E7-E5)/(C7-C5)*(C6-C5)</f>
+        <v>-1.4864440566162874E-3</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41536</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.99850645586733999</v>
+      </c>
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>0.29803657935896233</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0.29803657935900002</v>
-      </c>
-      <c r="K4" s="15">
-        <f t="shared" si="1"/>
-        <v>3.7692071686024065E-14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>41540</v>
-      </c>
-      <c r="B5" s="32">
-        <v>99.750074942915006</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="4">
-        <v>41540</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.99750074942914502</v>
-      </c>
-      <c r="F5" s="11">
-        <f>E5-B5/100</f>
-        <v>-4.9960036108132044E-15</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="15">
+        <v>-1.4946605814803E-3</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="28">
+        <v>99.685000000000002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41626</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.99772037290702997</v>
+      </c>
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>0.48290363406409131</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0.482903634064</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="1"/>
-        <v>-9.1315843775419125E-14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>41631</v>
-      </c>
-      <c r="B6" s="32">
-        <v>99.574187521957001</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="4">
-        <v>41631</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.99574187521956603</v>
-      </c>
-      <c r="F6" s="11">
-        <f>E6-B6/100</f>
-        <v>-3.9968028886505635E-15</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="15">
+        <v>-2.2822293984210832E-3</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="28">
+        <v>99.665000000000006</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41716</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.99688587730780998</v>
+      </c>
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>0.55411876576572094</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0.55411876576600005</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="1"/>
-        <v>2.7911006839076435E-13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>41722</v>
-      </c>
-      <c r="B7" s="20">
-        <v>99.687159106712997</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="4">
-        <v>41722</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.996871591067237</v>
-      </c>
-      <c r="F7" s="24">
-        <f>E7-B7/100</f>
-        <v>1.0702549957386509E-13</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.30615674285037198</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0.30615674285</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="1"/>
-        <v>-3.719802244006587E-13</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>42086</v>
-      </c>
-      <c r="B8" s="32">
-        <v>99.257387450549004</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="4">
-        <v>42086</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.99257387450555601</v>
-      </c>
-      <c r="F8" s="11">
-        <f>E8-B8/100</f>
-        <v>6.5947247662734299E-14</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.36675290656256188</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0.36675290656199999</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="1"/>
-        <v>-5.6188387276279173E-13</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>42451</v>
-      </c>
-      <c r="B9" s="32">
-        <v>98.542737229975998</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="4">
-        <v>42451</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.98542737229979405</v>
-      </c>
-      <c r="F9" s="11">
-        <f>E9-B9/100</f>
-        <v>3.4083846855992306E-14</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.48246674409471169</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0.48246674409500001</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="1"/>
-        <v>2.8832491949515315E-13</v>
-      </c>
-      <c r="N9" s="8"/>
+        <v>-3.1189816625030362E-3</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>42816</v>
-      </c>
-      <c r="B10" s="32">
-        <v>97.314080718051002</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="4">
-        <v>42816</v>
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="28">
+        <v>99.635000000000005</v>
+      </c>
+      <c r="C10" s="4">
+        <v>41725</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.99685768593545998</v>
       </c>
       <c r="E10" s="10">
-        <v>0.973140807180499</v>
-      </c>
-      <c r="F10" s="11">
-        <f>E10-B10/100</f>
-        <v>-1.099120794378905E-14</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="15">
         <f t="shared" si="0"/>
-        <v>0.67221080781492137</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0.67221080781499998</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="1"/>
-        <v>7.8603790143461083E-14</v>
-      </c>
-      <c r="N10" s="8"/>
+        <v>-3.1472615003634422E-3</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>43181</v>
-      </c>
-      <c r="B11" s="32">
-        <v>95.512698862055998</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="4">
-        <v>43181</v>
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.311</v>
+      </c>
+      <c r="C11" s="4">
+        <v>41809</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.99595471336318997</v>
       </c>
       <c r="E11" s="10">
-        <v>0.95512698862053202</v>
-      </c>
-      <c r="F11" s="11">
-        <f>E11-B11/100</f>
-        <v>-2.7977620220553945E-14</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15">
         <f t="shared" si="0"/>
-        <v>0.9082546950710757</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0.90825469507099998</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="1"/>
-        <v>-7.5717210279435676E-14</v>
-      </c>
-      <c r="M11" s="14">
-        <f>EXP(N11)</f>
-        <v>0.99891382096727255</v>
-      </c>
-      <c r="N11" s="15">
-        <v>-1.0867693526737808E-3</v>
-      </c>
-      <c r="O11" s="8"/>
+        <v>-4.0534909421163371E-3</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>43549</v>
-      </c>
-      <c r="B12" s="32">
-        <v>93.180835750623004</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="4">
-        <v>43549</v>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0.372</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42093</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.99249822765895002</v>
       </c>
       <c r="E12" s="10">
-        <v>0.93180835750631097</v>
-      </c>
-      <c r="F12" s="11">
-        <f>E12-B12/100</f>
-        <v>8.0935258495173912E-14</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="15">
         <f t="shared" si="0"/>
-        <v>1.1645667634880841</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1.1645667634879999</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="1"/>
-        <v>-8.4154905266586866E-14</v>
-      </c>
-      <c r="M12" s="14">
-        <f t="shared" ref="M12:M13" si="2">EXP(N12)</f>
-        <v>0.99890540752274648</v>
-      </c>
-      <c r="N12" s="15">
-        <v>-1.0951919811139675E-3</v>
-      </c>
-      <c r="O12" s="8"/>
+        <v>-7.5300521564413978E-3</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>43913</v>
-      </c>
-      <c r="B13" s="32">
-        <v>90.533506989033</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="4">
-        <v>43913</v>
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="28">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42458</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.98532349357428994</v>
       </c>
       <c r="E13" s="10">
-        <v>0.90533506989041201</v>
-      </c>
-      <c r="F13" s="11">
-        <f>E13-B13/100</f>
-        <v>8.2045481519799068E-14</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15">
         <f t="shared" si="0"/>
-        <v>1.4083428961807698</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1.4083428961810001</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="1"/>
-        <v>2.3026025530725747E-13</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="2"/>
-        <v>0.99814848762696728</v>
-      </c>
-      <c r="N13" s="15">
-        <v>-1.8532285407307746E-3</v>
-      </c>
-      <c r="O13" s="8"/>
+        <v>-1.4785271855674039E-2</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="O13" s="13"/>
       <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>44277</v>
-      </c>
-      <c r="B14" s="32">
-        <v>87.664176878120003</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4">
-        <v>44277</v>
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="28">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42822</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.97310097855354005</v>
       </c>
       <c r="E14" s="10">
-        <v>0.87664176878117095</v>
-      </c>
-      <c r="F14" s="11">
-        <f>E14-B14/100</f>
-        <v>-2.9087843245179101E-14</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="15">
         <f t="shared" si="0"/>
-        <v>1.6341546924774075</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1.6341546924770001</v>
-      </c>
-      <c r="K14" s="15">
-        <f t="shared" si="1"/>
-        <v>-4.0745185003743245E-13</v>
-      </c>
-      <c r="N14" s="8"/>
+        <v>-2.7267421550403757E-2</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>44642</v>
-      </c>
-      <c r="B15" s="32">
-        <v>84.721644704526</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="4">
-        <v>44642</v>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="28">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="C15" s="4">
+        <v>43186</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.95508245167517003</v>
       </c>
       <c r="E15" s="10">
-        <v>0.84721644704452703</v>
-      </c>
-      <c r="F15" s="11">
-        <f>E15-B15/100</f>
-        <v>-7.3296924085752835E-13</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="15">
         <f t="shared" si="0"/>
-        <v>1.8313333146987576</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1.8313333146990001</v>
-      </c>
-      <c r="K15" s="15">
-        <f t="shared" si="1"/>
-        <v>2.4247270857813419E-13</v>
-      </c>
-      <c r="N15" s="8"/>
+        <v>-4.5957605395577861E-2</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>45007</v>
-      </c>
-      <c r="B16" s="32">
-        <v>81.710522283863995</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4">
-        <v>45007</v>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43551</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.93189711575223999</v>
       </c>
       <c r="E16" s="10">
-        <v>0.81710522283870202</v>
-      </c>
-      <c r="F16" s="11">
-        <f>E16-B16/100</f>
-        <v>6.2061467076546251E-14</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="15">
         <f t="shared" si="0"/>
-        <v>2.00995662688086</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2.0099566268809999</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="1"/>
-        <v>1.3988810110276972E-13</v>
-      </c>
-      <c r="N16" s="8"/>
+        <v>-7.0532861213838144E-2</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
-        <v>46834</v>
-      </c>
-      <c r="B17" s="32">
-        <v>67.271302163683004</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="4">
-        <v>46834</v>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1.399</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43917</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.90525129039711993</v>
       </c>
       <c r="E17" s="10">
-        <v>0.67271302163688296</v>
-      </c>
-      <c r="F17" s="11">
-        <f>E17-B17/100</f>
-        <v>5.2957638274619967E-14</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15">
         <f t="shared" si="0"/>
-        <v>2.6380483205048932</v>
-      </c>
-      <c r="J17" s="15">
-        <v>2.6380483205049998</v>
-      </c>
-      <c r="K17" s="15">
-        <f t="shared" si="1"/>
-        <v>1.0658141036401503E-13</v>
-      </c>
-      <c r="M17" s="14">
-        <v>12.452500000000001</v>
-      </c>
-      <c r="N17" s="8">
-        <f>LN(M17)</f>
-        <v>2.5219214059653012</v>
-      </c>
+        <v>-9.9542704878004554E-2</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
-        <v>48660</v>
-      </c>
-      <c r="B18" s="32">
-        <v>55.788927788500999</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="4">
-        <v>48660</v>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1.613</v>
+      </c>
+      <c r="C18" s="4">
+        <v>44284</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.87635594850394993</v>
       </c>
       <c r="E18" s="10">
-        <v>0.55788927788500697</v>
-      </c>
-      <c r="F18" s="11">
-        <f>E18-B18/100</f>
-        <v>-2.9976021664879227E-15</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="15">
         <f t="shared" si="0"/>
-        <v>2.9169786679693388</v>
-      </c>
-      <c r="J18" s="15">
-        <v>2.916978667969</v>
-      </c>
-      <c r="K18" s="15">
-        <f t="shared" si="1"/>
-        <v>-3.3884006711559778E-13</v>
-      </c>
-      <c r="M18" s="14">
-        <f>EXP(N17)</f>
-        <v>12.452499999999999</v>
-      </c>
-      <c r="N18" s="8"/>
+        <v>-0.13198293666839353</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>50486</v>
-      </c>
-      <c r="B19" s="32">
-        <v>46.675015670161997</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="4">
-        <v>50486</v>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>44649</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.84692240086555004</v>
       </c>
       <c r="E19" s="10">
-        <v>0.46675015670160303</v>
-      </c>
-      <c r="F19" s="11">
-        <f>E19-B19/100</f>
-        <v>-1.6930901125533637E-14</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="15">
         <f t="shared" si="0"/>
-        <v>3.0490190113706017</v>
-      </c>
-      <c r="J19" s="15">
-        <v>3.0490190113710001</v>
-      </c>
-      <c r="K19" s="15">
-        <f t="shared" si="1"/>
-        <v>3.9834802123550617E-13</v>
-      </c>
-      <c r="N19" s="8"/>
+        <v>-0.16614620497866089</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>52313</v>
-      </c>
-      <c r="B20" s="32">
-        <v>39.134465575709001</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="4">
-        <v>52313</v>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45013</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.81695771461052002</v>
       </c>
       <c r="E20" s="10">
-        <v>0.391344655757147</v>
-      </c>
-      <c r="F20" s="11">
-        <f>E20-B20/100</f>
-        <v>5.7009952314501788E-14</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="15">
         <f t="shared" si="0"/>
-        <v>3.1295410768646503</v>
-      </c>
-      <c r="J20" s="15">
-        <v>3.1295410768649998</v>
-      </c>
-      <c r="K20" s="15">
-        <f t="shared" si="1"/>
-        <v>3.4949820815199928E-13</v>
-      </c>
-      <c r="N20" s="8"/>
+        <v>-0.20216794236423713</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="28">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>46841</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.67248563979015008</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.3967745212060273</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="H21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="N21" s="8"/>
+      <c r="I21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="28">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="C22" s="4">
+        <v>48667</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.55766336271168004</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.58399979128644841</v>
+      </c>
       <c r="H22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="L22" s="4">
-        <v>41353</v>
-      </c>
-      <c r="N22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="4"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="28">
+        <v>2.871</v>
+      </c>
+      <c r="C23" s="4">
+        <v>50493</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0.46657095377140001</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.76234517214387121</v>
+      </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="6"/>
-      <c r="L23" s="14"/>
-      <c r="N23" s="8"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="6"/>
+      <c r="M23" s="12"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H24" s="35">
-        <f>E2^(-360/(A2-$L$22))-1</f>
-        <v>1.9018011063514084E-3</v>
-      </c>
-      <c r="I24" s="36">
-        <f>(G29-A2)/360</f>
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="K24">
-        <f>J30*E30/360*B30/100</f>
-        <v>1710.8837756111111</v>
-      </c>
-      <c r="N24" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="28">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="C24" s="4">
+        <v>52320</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0.39119039237483</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>-0.93856090049210494</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="30"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="30"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>-1000000</v>
-      </c>
-      <c r="C27" s="4">
-        <v>41355</v>
-      </c>
-      <c r="D27" s="4">
-        <v>41540</v>
-      </c>
-      <c r="E27">
-        <v>181</v>
-      </c>
-      <c r="F27" s="4">
-        <v>41540</v>
-      </c>
-      <c r="G27" s="4">
-        <v>41540</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="9">
-        <v>0.311</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.311000000015</v>
-      </c>
-      <c r="K27" s="34">
-        <v>-1563.6388889655</v>
-      </c>
-      <c r="L27" s="34">
-        <v>-1559.7309635797001</v>
-      </c>
-      <c r="M27" s="26">
-        <f>L27/K27</f>
-        <v>0.99750074942918221</v>
-      </c>
-      <c r="N27" s="10">
-        <f>LN(M27)</f>
-        <v>-2.5023789109499248E-3</v>
-      </c>
-      <c r="O27" s="30"/>
-      <c r="Q27"/>
-    </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>-1000000</v>
-      </c>
-      <c r="C28" s="4">
-        <v>41540</v>
-      </c>
-      <c r="D28" s="4">
-        <v>41722</v>
-      </c>
-      <c r="E28">
-        <v>181</v>
-      </c>
-      <c r="F28" s="4">
-        <v>41722</v>
-      </c>
-      <c r="G28" s="4">
-        <v>41722</v>
-      </c>
-      <c r="H28" s="35"/>
-      <c r="I28" s="9">
-        <v>0.311</v>
-      </c>
-      <c r="J28" s="9">
-        <v>0.311000000015</v>
-      </c>
-      <c r="K28" s="34">
-        <v>-1563.6388889655</v>
-      </c>
-      <c r="L28" s="34">
-        <v>-1558.7471870975</v>
-      </c>
-      <c r="M28" s="26">
-        <f t="shared" ref="M28:M33" si="3">L28/K28</f>
-        <v>0.99687159106714451</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" ref="N28:N30" si="4">LN(M28)</f>
-        <v>-3.1333126339399492E-3</v>
-      </c>
-      <c r="O28" s="30">
-        <f t="shared" ref="O28:O33" si="5">(N28-N27)/(F28-F27)</f>
-        <v>-3.4666688076374967E-6</v>
-      </c>
-      <c r="P28" s="27"/>
-      <c r="Q28"/>
-    </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>1000000</v>
-      </c>
-      <c r="C29" s="4">
-        <v>41355</v>
-      </c>
-      <c r="D29" s="4">
-        <v>41449</v>
-      </c>
-      <c r="E29">
-        <v>94</v>
-      </c>
-      <c r="F29" s="4">
-        <v>41449</v>
-      </c>
-      <c r="G29" s="4">
-        <v>41449</v>
-      </c>
-      <c r="H29" s="9">
-        <f>M29^(-360/(D29-$L$22))-1</f>
-        <v>2.9803657940152828E-3</v>
-      </c>
-      <c r="I29" s="9">
-        <f>((1+H29)^((G29-$L$22)/360)/(1+$H$24)^(2/360)-1)/(G29-A2)*360*100</f>
-        <v>0.30000000004303889</v>
-      </c>
-      <c r="J29" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K29" s="34">
-        <v>783.33333333339999</v>
-      </c>
-      <c r="L29" s="34">
-        <v>782.71194052689998</v>
-      </c>
-      <c r="M29" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99920673258744686</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>-7.9358221564008427E-4</v>
-      </c>
-      <c r="O29" s="30">
-        <f t="shared" si="5"/>
-        <v>-8.5704410926734993E-6</v>
-      </c>
-      <c r="P29" s="27"/>
-      <c r="Q29"/>
-    </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>1000000</v>
-      </c>
-      <c r="C30" s="4">
-        <v>41449</v>
-      </c>
-      <c r="D30" s="37">
-        <v>41540</v>
-      </c>
-      <c r="E30">
-        <v>91</v>
-      </c>
-      <c r="F30" s="39">
-        <v>41540</v>
-      </c>
-      <c r="G30" s="37">
-        <v>41541</v>
-      </c>
-      <c r="H30" s="38">
-        <f>M30^(-360/(D30-$L$22))-1</f>
-        <v>4.8290363406549019E-3</v>
-      </c>
-      <c r="I30" s="38">
-        <f>((1+H30)^((D30-$L$22)/360)/(1+H29)^((C30-$L$22)/360)-1)/(D30-C30)*360*100</f>
-        <v>0.67658539268105622</v>
-      </c>
-      <c r="J30" s="38">
-        <v>0.676833142</v>
-      </c>
-      <c r="K30" s="34">
-        <v>1710.8837753845</v>
-      </c>
-      <c r="L30" s="34">
-        <v>1706.6078481321999</v>
-      </c>
-      <c r="M30" s="26">
-        <f>L30/K30</f>
-        <v>0.9975007494291428</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="4"/>
-        <v>-2.5023789109894366E-3</v>
-      </c>
-      <c r="O30" s="30">
-        <f t="shared" si="5"/>
-        <v>-1.8777985663179697E-5</v>
-      </c>
-      <c r="P30" s="27"/>
-      <c r="Q30"/>
-    </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="37">
-        <v>41541</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38">
-        <f>M31^(-360/(D31-$L$22))-1</f>
-        <v>4.8406045591546931E-3</v>
-      </c>
-      <c r="I31" s="38">
-        <f>(M29/M31-1)/(D31-C30)*360*100</f>
-        <v>0.67683314186829235</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="26">
-        <f>EXP(N31)</f>
-        <v>0.99748140426805387</v>
-      </c>
-      <c r="N31" s="10">
-        <f>N30+(N32-N30)/(D32-D30)*1</f>
-        <v>-2.5217727296796381E-3</v>
-      </c>
-      <c r="O31" s="30"/>
-      <c r="P31" s="27"/>
-      <c r="Q31"/>
-    </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>1000000</v>
-      </c>
-      <c r="C32" s="4">
-        <v>41540</v>
-      </c>
-      <c r="D32" s="4">
-        <v>41631</v>
-      </c>
-      <c r="E32">
-        <v>91</v>
-      </c>
-      <c r="F32" s="4">
-        <v>41631</v>
-      </c>
-      <c r="G32" s="4">
-        <v>41631</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" ref="H30:H33" si="6">M32^(-360/(D32-$L$22))-1</f>
-        <v>5.5411876576556551E-3</v>
-      </c>
-      <c r="I32" s="9">
-        <f>((1+H32)^((G32-$L$22)/360)/(1+H30)^((C32-$L$22)/360)-1)/(G32-C32)*360*100</f>
-        <v>0.69879392033038801</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0.69879392033400001</v>
-      </c>
-      <c r="K32" s="34">
-        <v>1766.3957430676001</v>
-      </c>
-      <c r="L32" s="34">
-        <v>1758.874209582</v>
-      </c>
-      <c r="M32" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99574187521957125</v>
-      </c>
-      <c r="N32" s="10">
-        <f>LN(M32)</f>
-        <v>-4.2672164117977902E-3</v>
-      </c>
-      <c r="O32" s="30">
-        <f>(N32-N30)/(F32-F30)</f>
-        <v>-1.9393818690201687E-5</v>
-      </c>
-      <c r="P32" s="27"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1000000</v>
-      </c>
-      <c r="C33" s="4">
-        <v>41631</v>
-      </c>
-      <c r="D33" s="4">
-        <v>41722</v>
-      </c>
-      <c r="E33">
-        <v>91</v>
-      </c>
-      <c r="F33" s="4">
-        <v>41722</v>
-      </c>
-      <c r="G33" s="4">
-        <v>41722</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="6"/>
-        <v>3.0615674285041639E-3</v>
-      </c>
-      <c r="I33" s="9">
-        <f>((1+H33)^((G33-$L$22)/360)/(1+H32)^((C33-$L$22)/360)-1)/(G33-C33)*360*100</f>
-        <v>-0.44832309304714835</v>
-      </c>
-      <c r="J33" s="9">
-        <v>-0.44832309304899998</v>
-      </c>
-      <c r="K33" s="34">
-        <v>-1133.2611518747001</v>
-      </c>
-      <c r="L33" s="34">
-        <v>-1129.7158475639001</v>
-      </c>
-      <c r="M33" s="26">
-        <f t="shared" si="3"/>
-        <v>0.99687159106712941</v>
-      </c>
-      <c r="N33" s="10">
-        <f>LN(M33)</f>
-        <v>-3.1333126339550955E-3</v>
-      </c>
-      <c r="O33" s="30">
-        <f t="shared" si="5"/>
-        <v>1.2460481075194447E-5</v>
-      </c>
-      <c r="P33" s="27"/>
-      <c r="Q33"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q25" s="23"/>
+      <c r="R25"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R26"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R27"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q28" s="20"/>
+      <c r="R28"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="30"/>
-      <c r="Q34"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="M35" s="30"/>
-      <c r="Q35"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>-1000000</v>
-      </c>
-      <c r="C36" s="4">
-        <v>41355</v>
-      </c>
-      <c r="D36" s="4">
-        <v>41540</v>
-      </c>
-      <c r="E36">
-        <v>181</v>
-      </c>
-      <c r="F36" s="4">
-        <v>41540</v>
-      </c>
+      <c r="I34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="K36" s="34">
-        <v>-1870.3333333334001</v>
-      </c>
-      <c r="L36" s="34">
-        <v>-1865.6589016824</v>
-      </c>
-      <c r="M36" s="26">
-        <f>L36/K36</f>
-        <v>0.99750074942915701</v>
-      </c>
-      <c r="N36" s="10">
-        <f>LN(M36)</f>
-        <v>-2.5023789109751902E-3</v>
-      </c>
-      <c r="Q36"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
-        <v>-1000000</v>
-      </c>
-      <c r="C37" s="4">
-        <v>41540</v>
-      </c>
-      <c r="D37" s="4">
-        <v>41722</v>
-      </c>
-      <c r="E37">
-        <v>181</v>
-      </c>
-      <c r="F37" s="4">
-        <v>41722</v>
-      </c>
+      <c r="I36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="K37" s="34">
-        <v>-1870.3333333334001</v>
-      </c>
-      <c r="L37" s="34">
-        <v>-1864.4821658259</v>
-      </c>
-      <c r="M37" s="26">
-        <f t="shared" ref="M37:M47" si="7">L37/K37</f>
-        <v>0.99687159106710044</v>
-      </c>
-      <c r="N37" s="10">
-        <f t="shared" ref="N37:N47" si="8">LN(M37)</f>
-        <v>-3.1333126339841634E-3</v>
-      </c>
-      <c r="O37" s="30">
-        <f t="shared" ref="O37:O46" si="9">(N37-N36)/(F37-F36)</f>
-        <v>-3.466668807741611E-6</v>
-      </c>
-      <c r="Q37"/>
-    </row>
-    <row r="38" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38">
-        <v>-1000000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>41722</v>
-      </c>
-      <c r="D38" s="4">
-        <v>41904</v>
-      </c>
-      <c r="E38">
-        <v>178</v>
-      </c>
-      <c r="F38" s="4">
-        <v>41904</v>
-      </c>
+      <c r="I37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="K38" s="34">
-        <v>-1839.3333333334001</v>
-      </c>
-      <c r="L38" s="34">
-        <v>-1829.6224106584</v>
-      </c>
-      <c r="M38" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99472041173885484</v>
-      </c>
-      <c r="N38" s="10">
-        <f t="shared" si="8"/>
-        <v>-5.2935745368197793E-3</v>
-      </c>
-      <c r="O38" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.1869570894701185E-5</v>
-      </c>
-      <c r="Q38"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>-1000000</v>
-      </c>
-      <c r="C39" s="4">
-        <v>41904</v>
-      </c>
-      <c r="D39" s="4">
-        <v>42086</v>
-      </c>
-      <c r="E39">
-        <v>181</v>
-      </c>
-      <c r="F39" s="39">
-        <v>42086</v>
-      </c>
+      <c r="I38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="J39" s="9">
-        <v>0.372</v>
-      </c>
-      <c r="K39" s="34">
-        <v>-1870.3333333334001</v>
-      </c>
-      <c r="L39" s="34">
-        <v>-1856.4440032835</v>
-      </c>
-      <c r="M39" s="26">
-        <f t="shared" si="7"/>
-        <v>0.9925738745054894</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="8"/>
-        <v>-7.4538364396485269E-3</v>
-      </c>
-      <c r="O39" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.1869570894663448E-5</v>
-      </c>
-      <c r="Q39"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40">
-        <v>1000000</v>
-      </c>
-      <c r="C40" s="4">
-        <v>41355</v>
-      </c>
-      <c r="D40" s="4">
-        <v>41449</v>
-      </c>
-      <c r="E40">
-        <v>94</v>
-      </c>
-      <c r="F40" s="39">
-        <v>41449</v>
-      </c>
-      <c r="G40" s="4">
-        <v>41449</v>
-      </c>
-      <c r="H40" s="9">
-        <f>M40^(-360/(D40-$L$22))-1</f>
-        <v>2.9803657940152828E-3</v>
-      </c>
-      <c r="I40" s="9">
-        <f>((1+H40)^((D40-$L$22)/360)/(1+$H$24)^(2/360)-1)/(D40-A2)*360*100</f>
-        <v>0.30000000004303889</v>
-      </c>
-      <c r="J40" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="K40" s="34">
-        <v>783.33333333339999</v>
-      </c>
-      <c r="L40" s="34">
-        <v>782.71194052689998</v>
-      </c>
-      <c r="M40" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99920673258744686</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="8"/>
-        <v>-7.9358221564008427E-4</v>
-      </c>
-      <c r="O40" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.0455658122462234E-5</v>
-      </c>
-      <c r="Q40"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>1000000</v>
-      </c>
-      <c r="C41" s="4">
-        <v>41449</v>
-      </c>
-      <c r="D41" s="37">
-        <v>41540</v>
-      </c>
-      <c r="E41">
-        <v>91</v>
-      </c>
-      <c r="F41" s="39">
-        <v>41540</v>
-      </c>
-      <c r="G41" s="37">
-        <v>41541</v>
-      </c>
-      <c r="H41" s="38">
-        <f t="shared" ref="H41:H47" si="10">M41^(-360/(D41-$L$22))-1</f>
-        <v>4.8290363406549019E-3</v>
-      </c>
-      <c r="I41" s="38">
-        <f>((1+H41)^((D41-$L$22)/360)/(1+H40)^((C41-$L$22)/360)-1)/(D41-C41)*360*100</f>
-        <v>0.67658539268105622</v>
-      </c>
-      <c r="J41" s="38">
-        <v>0.676833142</v>
-      </c>
-      <c r="K41" s="34">
-        <v>1710.8837753845</v>
-      </c>
-      <c r="L41" s="34">
-        <v>1706.6078481321999</v>
-      </c>
-      <c r="M41" s="26">
-        <f t="shared" si="7"/>
-        <v>0.9975007494291428</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="8"/>
-        <v>-2.5023789109894366E-3</v>
-      </c>
-      <c r="O41" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.8777985663179697E-5</v>
-      </c>
-      <c r="Q41"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42">
-        <v>1000000</v>
-      </c>
-      <c r="C42" s="4">
-        <v>41540</v>
-      </c>
-      <c r="D42" s="4">
-        <v>41631</v>
-      </c>
-      <c r="E42">
-        <v>91</v>
-      </c>
-      <c r="F42" s="39">
-        <v>41631</v>
-      </c>
-      <c r="G42" s="4">
-        <v>41631</v>
-      </c>
-      <c r="H42" s="9">
-        <f t="shared" si="10"/>
-        <v>5.5411876576556551E-3</v>
-      </c>
-      <c r="I42" s="9">
-        <f t="shared" ref="I42:I47" si="11">((1+H42)^((G42-$L$22)/360)/(1+H41)^((C42-$L$22)/360)-1)/(G42-C42)*360*100</f>
-        <v>0.69879392033038801</v>
-      </c>
-      <c r="J42" s="9">
-        <v>0.69879391999999996</v>
-      </c>
-      <c r="K42" s="34">
-        <v>1766.3957430676001</v>
-      </c>
-      <c r="L42" s="34">
-        <v>1758.874209582</v>
-      </c>
-      <c r="M42" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99574187521957125</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="8"/>
-        <v>-4.2672164117977902E-3</v>
-      </c>
-      <c r="O42" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.9393818690201687E-5</v>
-      </c>
-      <c r="Q42"/>
-    </row>
-    <row r="43" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43">
-        <v>1000000</v>
-      </c>
-      <c r="C43" s="4">
-        <v>41631</v>
-      </c>
-      <c r="D43" s="4">
-        <v>41722</v>
-      </c>
-      <c r="E43">
-        <v>91</v>
-      </c>
-      <c r="F43" s="39">
-        <v>41722</v>
-      </c>
-      <c r="G43" s="4">
-        <v>41722</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="10"/>
-        <v>3.0615674285041639E-3</v>
-      </c>
-      <c r="I43" s="9">
-        <f t="shared" si="11"/>
-        <v>-0.44832309304714835</v>
-      </c>
-      <c r="J43" s="9">
-        <v>-0.44832309300000001</v>
-      </c>
-      <c r="K43" s="34">
-        <v>-1133.2611518747001</v>
-      </c>
-      <c r="L43" s="34">
-        <v>-1129.7158475639001</v>
-      </c>
-      <c r="M43" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99687159106712941</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="8"/>
-        <v>-3.1333126339550955E-3</v>
-      </c>
-      <c r="O43" s="30">
-        <f t="shared" si="9"/>
-        <v>1.2460481075194447E-5</v>
-      </c>
-      <c r="Q43"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44">
-        <v>1000000</v>
-      </c>
-      <c r="C44" s="4">
-        <v>41722</v>
-      </c>
-      <c r="D44" s="37">
-        <v>41813</v>
-      </c>
-      <c r="E44">
-        <v>91</v>
-      </c>
-      <c r="F44" s="39">
-        <v>41813</v>
-      </c>
-      <c r="G44" s="37">
-        <v>41814</v>
-      </c>
-      <c r="H44" s="38">
-        <f t="shared" si="10"/>
-        <v>3.3029202484875508E-3</v>
-      </c>
-      <c r="I44" s="38">
-        <f t="shared" si="11"/>
-        <v>0.42647638847765035</v>
-      </c>
-      <c r="J44" s="38">
-        <v>0.427537946</v>
-      </c>
-      <c r="K44" s="34">
-        <v>1080.7209179322999</v>
-      </c>
-      <c r="L44" s="34">
-        <v>1076.1769409308999</v>
-      </c>
-      <c r="M44" s="26">
-        <f t="shared" si="7"/>
-        <v>0.9957954205142121</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="8"/>
-        <v>-4.2134435853802676E-3</v>
-      </c>
-      <c r="O44" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.1869570894782111E-5</v>
-      </c>
-      <c r="Q44"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45">
-        <v>1000000</v>
-      </c>
-      <c r="C45" s="4">
-        <v>41813</v>
-      </c>
-      <c r="D45" s="37">
-        <v>41904</v>
-      </c>
-      <c r="E45">
-        <v>91</v>
-      </c>
-      <c r="F45" s="39">
-        <v>41904</v>
-      </c>
-      <c r="G45" s="37">
-        <v>41905</v>
-      </c>
-      <c r="H45" s="38">
-        <f t="shared" si="10"/>
-        <v>3.4645846406553549E-3</v>
-      </c>
-      <c r="I45" s="38">
-        <f t="shared" si="11"/>
-        <v>0.42665170896742838</v>
-      </c>
-      <c r="J45" s="38">
-        <v>0.427537946</v>
-      </c>
-      <c r="K45" s="34">
-        <v>1080.7209179325</v>
-      </c>
-      <c r="L45" s="34">
-        <v>1075.0151564606001</v>
-      </c>
-      <c r="M45" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99472041173884607</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="8"/>
-        <v>-5.2935745368285969E-3</v>
-      </c>
-      <c r="O45" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.1869570895036587E-5</v>
-      </c>
-      <c r="Q45"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46">
-        <v>1000000</v>
-      </c>
-      <c r="C46" s="4">
-        <v>41904</v>
-      </c>
-      <c r="D46" s="4">
-        <v>41995</v>
-      </c>
-      <c r="E46">
-        <v>91</v>
-      </c>
-      <c r="F46" s="39">
-        <v>41995</v>
-      </c>
-      <c r="G46" s="4">
-        <v>41995</v>
-      </c>
-      <c r="H46" s="9">
-        <f t="shared" si="10"/>
-        <v>3.5804349590771167E-3</v>
-      </c>
-      <c r="I46" s="9">
-        <f t="shared" si="11"/>
-        <v>0.42753540773843424</v>
-      </c>
-      <c r="J46" s="9">
-        <v>0.42753540800000001</v>
-      </c>
-      <c r="K46" s="34">
-        <v>1080.7145029434</v>
-      </c>
-      <c r="L46" s="34">
-        <v>1073.8482519602001</v>
-      </c>
-      <c r="M46" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99364656348693459</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="8"/>
-        <v>-6.3737054882018014E-3</v>
-      </c>
-      <c r="O46" s="30">
-        <f t="shared" si="9"/>
-        <v>-1.1869570894211038E-5</v>
-      </c>
-      <c r="Q46"/>
-    </row>
-    <row r="47" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47">
-        <v>1000000</v>
-      </c>
-      <c r="C47" s="4">
-        <v>41995</v>
-      </c>
-      <c r="D47" s="4">
-        <v>42086</v>
-      </c>
-      <c r="E47">
-        <v>91</v>
-      </c>
-      <c r="F47" s="4">
-        <v>42086</v>
-      </c>
-      <c r="G47" s="4">
-        <v>42086</v>
-      </c>
-      <c r="H47" s="9">
-        <f t="shared" si="10"/>
-        <v>3.6675290656265069E-3</v>
-      </c>
-      <c r="I47" s="9">
-        <f t="shared" si="11"/>
-        <v>0.4275354077678612</v>
-      </c>
-      <c r="J47" s="9">
-        <v>0.42753540800000001</v>
-      </c>
-      <c r="K47" s="34">
-        <v>1080.7145029439</v>
-      </c>
-      <c r="L47" s="34">
-        <v>1072.6889814213</v>
-      </c>
-      <c r="M47" s="26">
-        <f t="shared" si="7"/>
-        <v>0.99257387450548851</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="8"/>
-        <v>-7.4538364396494212E-3</v>
-      </c>
-      <c r="O47" s="30">
-        <f t="shared" ref="O47" si="12">(N47-N46)/(F47-F46)</f>
-        <v>-1.1869570895028789E-5</v>
-      </c>
-      <c r="Q47"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D48" s="4"/>
-      <c r="I48"/>
-      <c r="L48" s="28"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D49" s="4"/>
-      <c r="I49"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D50" s="4"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I52"/>
-      <c r="K52" s="14"/>
-      <c r="M52"/>
-      <c r="O52" s="30"/>
-      <c r="Q52"/>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53"/>
-      <c r="K53" s="14"/>
-      <c r="M53"/>
-      <c r="O53" s="30"/>
-      <c r="Q53"/>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54"/>
-      <c r="K54" s="14"/>
-      <c r="M54"/>
-      <c r="O54" s="30"/>
-      <c r="Q54"/>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55"/>
-      <c r="K55" s="14"/>
-      <c r="M55"/>
-      <c r="O55" s="30"/>
-      <c r="Q55"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55"/>
+      <c r="L55" s="12"/>
+      <c r="N55"/>
+      <c r="P55" s="23"/>
+      <c r="R55"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56"/>
-      <c r="K56" s="14"/>
-      <c r="M56"/>
-      <c r="O56" s="30"/>
-      <c r="Q56"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56"/>
+      <c r="L56" s="12"/>
+      <c r="N56"/>
+      <c r="P56" s="23"/>
+      <c r="R56"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57"/>
-      <c r="K57" s="14"/>
-      <c r="M57"/>
-      <c r="O57" s="30"/>
-      <c r="Q57"/>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57"/>
+      <c r="L57" s="12"/>
+      <c r="N57"/>
+      <c r="P57" s="23"/>
+      <c r="R57"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58"/>
-      <c r="K58" s="14"/>
-      <c r="M58"/>
-      <c r="O58" s="30"/>
-      <c r="Q58"/>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I60"/>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I61"/>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="I64"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70"/>
+      <c r="I58" s="4"/>
+      <c r="J58"/>
+      <c r="L58" s="12"/>
+      <c r="N58"/>
+      <c r="P58" s="23"/>
+      <c r="R58"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4393,7 +3562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -4418,151 +3587,151 @@
       <c r="A1" s="4">
         <v>41354</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="12">
         <v>99.9995000025</v>
       </c>
       <c r="D1" s="4">
         <v>41354</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="13">
         <v>0.99999500002499997</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="13">
         <f>E1-B1/100</f>
         <v>0</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>99.998944452808999</v>
       </c>
       <c r="D2" s="4">
         <v>41355</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>0.99998944452808602</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <f t="shared" ref="F2:F20" si="0">E2-B2/100</f>
         <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>99.983016602801001</v>
       </c>
       <c r="D3" s="4">
         <v>41386</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>0.99983016602802499</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <f t="shared" si="0"/>
         <v>1.4988010832439613E-14</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>99.920673258755997</v>
       </c>
       <c r="D4" s="4">
         <v>41449</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>0.99920673258755899</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>-9.9920072216264089E-16</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>99.750074942915006</v>
       </c>
       <c r="D5" s="4">
         <v>41540</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>0.99750074942914502</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>-4.9960036108132044E-15</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>99.574187521957001</v>
       </c>
       <c r="D6" s="4">
         <v>41631</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <v>0.99574187521956603</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>41722</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>99.686967177626997</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17">
+      <c r="C7" s="17"/>
+      <c r="D7" s="15">
         <v>41722</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>0.99686967177646002</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>1.900701818158268E-13</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -4570,22 +3739,22 @@
       <c r="A8" s="4">
         <v>42086</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>99.257251486841994</v>
       </c>
       <c r="D8" s="4">
         <v>42086</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>0.99257251486847198</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>5.2069459854919842E-14</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -4593,22 +3762,22 @@
       <c r="A9" s="4">
         <v>42451</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="12">
         <v>98.542602045609996</v>
       </c>
       <c r="D9" s="4">
         <v>42451</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>0.98542602045609995</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -4616,22 +3785,22 @@
       <c r="A10" s="4">
         <v>42816</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="12">
         <v>97.313748211122004</v>
       </c>
       <c r="D10" s="4">
         <v>42816</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>0.97313748211130802</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>8.7929663550312398E-14</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -4639,22 +3808,22 @@
       <c r="A11" s="4">
         <v>43181</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>95.512007753980001</v>
       </c>
       <c r="D11" s="4">
         <v>43181</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>0.95512007753974404</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>-5.595524044110789E-14</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -4662,22 +3831,22 @@
       <c r="A12" s="4">
         <v>43549</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="12">
         <v>93.178143749049994</v>
       </c>
       <c r="D12" s="4">
         <v>43549</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>0.93178143749054099</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>4.1078251911130792E-14</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -4685,22 +3854,22 @@
       <c r="A13" s="4">
         <v>43913</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="12">
         <v>90.532315713458004</v>
       </c>
       <c r="D13" s="4">
         <v>43913</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>0.90532315713464395</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>6.3948846218409017E-14</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -4708,22 +3877,22 @@
       <c r="A14" s="4">
         <v>44277</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>87.662473852261996</v>
       </c>
       <c r="D14" s="4">
         <v>44277</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>0.87662473852255896</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>-6.106226635438361E-14</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -4731,22 +3900,22 @@
       <c r="A15" s="4">
         <v>44642</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="12">
         <v>84.719324922656</v>
       </c>
       <c r="D15" s="4">
         <v>44642</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>0.84719324922592398</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>-6.3604677080775218E-13</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -4754,22 +3923,22 @@
       <c r="A16" s="4">
         <v>45007</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>81.707618222658994</v>
       </c>
       <c r="D16" s="4">
         <v>45007</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>0.81707618222662304</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <f t="shared" si="0"/>
         <v>3.3084646133829665E-14</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -4777,96 +3946,96 @@
       <c r="A17" s="4">
         <v>46834</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>67.223180685086007</v>
       </c>
       <c r="D17" s="4">
         <v>46834</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>0.67223180685088102</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f t="shared" si="0"/>
         <v>2.0983215165415459E-14</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="4"/>
-      <c r="L17" s="29"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="12">
         <v>55.725022196459001</v>
       </c>
       <c r="D18" s="4">
         <v>48660</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <v>0.55725022196460405</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f t="shared" si="0"/>
         <v>1.3988810110276972E-14</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="L18" s="29"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <v>46.609894810813003</v>
       </c>
       <c r="D19" s="4">
         <v>50486</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>0.46609894810816799</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <f t="shared" si="0"/>
         <v>3.7969627442180354E-14</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="L19" s="29"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>39.072969033905999</v>
       </c>
       <c r="D20" s="4">
         <v>52313</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <v>0.39072969033902599</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>-3.397282455352979E-14</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="L20" s="29"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="12"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="12"/>
       <c r="J21">
         <f>SUM(J24:J25)</f>
         <v>-3118.4751495988003</v>
@@ -4874,10 +4043,10 @@
       <c r="L21" s="4">
         <v>41353</v>
       </c>
-      <c r="M21" s="29"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M22" s="29"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4901,7 +4070,7 @@
       <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I23" t="s">
@@ -4910,7 +4079,7 @@
       <c r="J23" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="29"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4937,21 +4106,21 @@
       <c r="H24">
         <v>0.311</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="25">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="25">
         <v>-1559.7309635793999</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="13">
         <f t="shared" ref="K24:K29" si="1">J24/I24</f>
         <v>0.99750074942911782</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="21">
         <f t="shared" ref="L24:L27" si="2">K24^(-365/(D24-$L$21))-1</f>
         <v>4.8962702206791775E-3</v>
       </c>
-      <c r="M24" s="29"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4978,21 +4147,21 @@
       <c r="H25">
         <v>0.311</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="25">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J25" s="33">
+      <c r="J25" s="25">
         <v>-1558.7441860194001</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="13">
         <f t="shared" si="1"/>
         <v>0.99686967177623798</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="21">
         <f t="shared" si="2"/>
         <v>3.1060654865080473E-3</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="22">
         <f t="shared" ref="M25:M28" si="3">(L25-L24)/(F25-F24)</f>
         <v>-9.8362897481930225E-6</v>
       </c>
@@ -5019,21 +4188,21 @@
       <c r="H26">
         <v>0.3</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="25">
         <v>783.33333333339999</v>
       </c>
-      <c r="J26" s="33">
+      <c r="J26" s="25">
         <v>782.71194052689998</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="13">
         <f t="shared" si="1"/>
         <v>0.99920673258744686</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="21">
         <f t="shared" si="2"/>
         <v>3.021822243513661E-3</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="22">
         <f t="shared" si="3"/>
         <v>3.0858330767174446E-7</v>
       </c>
@@ -5060,21 +4229,21 @@
       <c r="H27">
         <v>0.67610000000000003</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="25">
         <v>1708.9566671196999</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="25">
         <v>1704.6855561939001</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="13">
         <f t="shared" si="1"/>
         <v>0.99750074942918332</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="21">
         <f t="shared" si="2"/>
         <v>4.8962702205503916E-3</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="22">
         <f t="shared" si="3"/>
         <v>2.0598329417986051E-5</v>
       </c>
@@ -5101,21 +4270,21 @@
       <c r="H28">
         <v>0.69879999999999998</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="25">
         <v>1766.3957430676001</v>
       </c>
-      <c r="J28" s="33">
+      <c r="J28" s="25">
         <v>1758.874209582</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="13">
         <f t="shared" si="1"/>
         <v>0.99574187521957125</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="21">
         <f>K28^(-365/(D28-$L$21))-1</f>
         <v>5.6183643936540406E-3</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="22">
         <f t="shared" si="3"/>
         <v>7.9351008033368024E-6</v>
       </c>
@@ -5142,21 +4311,21 @@
       <c r="H29">
         <v>-0.4476</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="25">
         <v>-1131.3380160260999</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="25">
         <v>-1127.7965567039</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="13">
         <f t="shared" si="1"/>
         <v>0.99686967177622166</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="21">
         <f t="shared" ref="L29" si="4">K29^(-365/(D29-$L$21))-1</f>
         <v>3.1060654865242565E-3</v>
       </c>
-      <c r="M29" s="29">
+      <c r="M29" s="22">
         <f>(L29-L28)/(F29-F28)</f>
         <v>-2.7607680298129497E-5</v>
       </c>
@@ -5165,145 +4334,145 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21">
+      <c r="H30" s="12"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19">
         <f>SUM(J26:J29)</f>
         <v>3118.4751495989003</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="29"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="21">
+      <c r="H32" s="12"/>
+      <c r="I32" s="19">
         <f>(B2/100-B7/100)*B28</f>
         <v>3119.7727518200713</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="29"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="29"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="29"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="29"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="29"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="29"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="29"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="29"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
     </row>
     <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="29"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J42" s="27"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H43" s="27"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
@@ -5383,7 +4552,7 @@
         <f>(E1-H1)/360</f>
         <v>5.8333333333333334E-2</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="12">
         <f>100/(1+I1*C1/100)</f>
         <v>99.996208477095252</v>
       </c>
@@ -5567,10 +4736,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="15"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G15" s="16"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6330,18 +5499,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -256,6 +256,27 @@
   </si>
   <si>
     <t>USD/IRS/F-LI/30Y</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>EDM3 Comdty</t>
+  </si>
+  <si>
+    <t>EDU3 Comdty</t>
+  </si>
+  <si>
+    <t>EDZ3 Comdty</t>
+  </si>
+  <si>
+    <t>EDH4 Comdty</t>
   </si>
 </sst>
 </file>
@@ -269,18 +290,25 @@
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000000000"/>
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="0.0000000"/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -752,126 +780,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="44"/>
+    <cellStyle name="20% - Accent1 3" xfId="61"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="46"/>
+    <cellStyle name="20% - Accent2 3" xfId="63"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="48"/>
+    <cellStyle name="20% - Accent3 3" xfId="65"/>
     <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="50"/>
+    <cellStyle name="20% - Accent4 3" xfId="67"/>
     <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="52"/>
+    <cellStyle name="20% - Accent5 3" xfId="69"/>
     <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="54"/>
+    <cellStyle name="20% - Accent6 3" xfId="71"/>
     <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="45"/>
+    <cellStyle name="40% - Accent1 3" xfId="62"/>
     <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="47"/>
+    <cellStyle name="40% - Accent2 3" xfId="64"/>
     <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="49"/>
+    <cellStyle name="40% - Accent3 3" xfId="66"/>
     <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="51"/>
+    <cellStyle name="40% - Accent4 3" xfId="68"/>
     <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="53"/>
+    <cellStyle name="40% - Accent5 3" xfId="70"/>
     <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="55"/>
+    <cellStyle name="40% - Accent6 3" xfId="72"/>
     <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -899,10 +957,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="56"/>
     <cellStyle name="Normal 3" xfId="42"/>
+    <cellStyle name="Normal 4" xfId="59"/>
     <cellStyle name="Normal_03122013" xfId="57"/>
     <cellStyle name="Normal_03122013_1" xfId="58"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="43"/>
+    <cellStyle name="Note 3" xfId="60"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
@@ -2416,7 +2476,7 @@
   <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2426,7 +2486,7 @@
     <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="13" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
@@ -2529,12 +2589,10 @@
         <v>-7.2832665038304696E-4</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2551,33 +2609,30 @@
         <f t="shared" si="0"/>
         <v>-7.8803944317521206E-4</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="30"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
       <c r="C6" s="4">
         <v>41535</v>
       </c>
       <c r="D6" s="24">
-        <f>1/(1+0.003*(C6-C4)/360)*D4</f>
-        <v>0.99851473151036341</v>
+        <f>EXP(E6)</f>
+        <v>0.99851466015416679</v>
       </c>
       <c r="E6" s="10">
-        <f>LN(D6)</f>
-        <v>-1.4863725942763902E-3</v>
+        <f>E5+(E7-E5)/(C7-C5)*(C6-C5)</f>
+        <v>-1.4864440566162874E-3</v>
       </c>
       <c r="F6" s="10">
         <f>E5+(E7-E5)/(C7-C5)*(C6-C5)</f>
         <v>-1.4864440566162874E-3</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2595,11 +2650,10 @@
         <v>-1.4946605814803E-3</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2616,11 +2670,11 @@
         <f t="shared" si="0"/>
         <v>-2.2822293984210832E-3</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="F8" s="10">
+        <f>1/(1+(1-B8/100)*(C8-C6)/360)*D6</f>
+        <v>0.99772022542467231</v>
+      </c>
+      <c r="K8" s="30"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -2640,8 +2694,14 @@
         <f t="shared" si="0"/>
         <v>-3.1189816625030362E-3</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="F9" s="10">
+        <f>1/(1+(1-B9/100)*(C9-C8)/360)*D8</f>
+        <v>0.9968854813164274</v>
+      </c>
+      <c r="G9" s="13">
+        <f>1/((1+(1-B9/100))^((C9-C8)/360))*D8</f>
+        <v>0.99688652722924942</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -3079,8 +3139,16 @@
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="K30" s="4"/>
@@ -3092,11 +3160,21 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="31">
+        <v>41442</v>
+      </c>
+      <c r="F31" s="32">
+        <v>41444</v>
+      </c>
+      <c r="G31" s="4">
+        <v>41536</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="K31" s="4"/>
@@ -3108,11 +3186,21 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="D32" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="31">
+        <v>41533</v>
+      </c>
+      <c r="F32" s="32">
+        <v>41535</v>
+      </c>
+      <c r="G32" s="4">
+        <v>41626</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="K32" s="4"/>
@@ -3124,11 +3212,21 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="D33" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="31">
+        <v>41624</v>
+      </c>
+      <c r="F33" s="32">
+        <v>41626</v>
+      </c>
+      <c r="G33" s="4">
+        <v>41716</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="K33" s="4"/>
@@ -3140,11 +3238,21 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="D34" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="31">
+        <v>41715</v>
+      </c>
+      <c r="F34" s="32">
+        <v>41717</v>
+      </c>
+      <c r="G34" s="4">
+        <v>41809</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="K34" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -11,15 +11,15 @@
     <sheet name="EUR" sheetId="2" r:id="rId2"/>
     <sheet name="03042013" sheetId="3" r:id="rId3"/>
     <sheet name="03122013" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
-    <sheet name="Bond" sheetId="5" r:id="rId6"/>
+    <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
+    <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -204,9 +204,6 @@
     <t>EDM3 PIT Comdty</t>
   </si>
   <si>
-    <t>USD/DEP/3M</t>
-  </si>
-  <si>
     <t>EDU3 PIT Comdty</t>
   </si>
   <si>
@@ -216,48 +213,6 @@
     <t>EDH4 PIT Comdty</t>
   </si>
   <si>
-    <t>USD/IRS/F-LI/1Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/2Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/3Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/4Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/5Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/6Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/7Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/8Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/9Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/10Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/15Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/20Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/25Y</t>
-  </si>
-  <si>
-    <t>USD/IRS/F-LI/30Y</t>
-  </si>
-  <si>
     <t>Fix</t>
   </si>
   <si>
@@ -277,15 +232,20 @@
   </si>
   <si>
     <t>EDH4 Comdty</t>
+  </si>
+  <si>
+    <t>BBG</t>
+  </si>
+  <si>
+    <t>Convexity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.0000000000"/>
@@ -855,7 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -865,7 +825,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -892,6 +851,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2473,19 +2434,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
@@ -2494,11 +2455,11 @@
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2506,649 +2467,478 @@
       <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="28">
+      <c r="B1" s="27">
         <v>0.18</v>
       </c>
-      <c r="C1" s="4">
-        <v>41355</v>
-      </c>
-      <c r="D1" s="24">
+      <c r="D1" s="33">
+        <v>41359</v>
+      </c>
+      <c r="E1" s="9">
         <v>0.99999500002499997</v>
       </c>
-      <c r="E1" s="10">
-        <f>LN(D1)</f>
+      <c r="F1" s="9">
+        <f>LN(E1)</f>
         <v>-4.9999874999473539E-6</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>0.2</v>
       </c>
-      <c r="C2" s="4">
-        <v>41358</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.99997833371944</v>
-      </c>
-      <c r="E2" s="10">
-        <f t="shared" ref="E2:E24" si="0">LN(D2)</f>
-        <v>-2.1666515277242379E-5</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="D2" s="33">
+        <v>41360</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.99998944452799998</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" ref="F2:F8" si="0">LN(E2)</f>
+        <v>-1.0555527709404426E-5</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>0.185</v>
       </c>
-      <c r="C3" s="4">
-        <v>41389</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0.99981905698904006</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="4">
+        <v>41393</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.99981989173800001</v>
+      </c>
+      <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>-1.809593831215337E-4</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
-      <c r="C4" s="4">
+        <v>-1.8012448344078264E-4</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="D4" s="31">
         <v>41444</v>
       </c>
-      <c r="D4" s="13">
-        <f>EXP(E4)</f>
-        <v>0.99927193851509222</v>
-      </c>
-      <c r="E4" s="10">
-        <f>E3+(E5-E3)/(C5-C3)*(C4-C3)</f>
-        <v>-7.2832665038304696E-4</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <f>EXP(F4)</f>
+        <v>0.99939524192552431</v>
+      </c>
+      <c r="F4" s="9">
+        <f>F3+(F5-F3)/(D5-D3)*(D4-D3)</f>
+        <v>-6.049410144000158E-4</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>99.7</v>
       </c>
-      <c r="C5" s="4">
-        <v>41450</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.99921227097835996</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="4">
+        <v>41536</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.99862966305300005</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>-7.8803944317521206E-4</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="13"/>
+        <v>-1.3712767173068678E-3</v>
+      </c>
+      <c r="G5" s="20">
+        <f>(E4/E5-1)/(D5-D4)*360</f>
+        <v>2.999854225305615E-3</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1.4577457E-5</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="4">
-        <v>41535</v>
-      </c>
-      <c r="D6" s="24">
-        <f>EXP(E6)</f>
-        <v>0.99851466015416679</v>
-      </c>
-      <c r="E6" s="10">
-        <f>E5+(E7-E5)/(C7-C5)*(C6-C5)</f>
-        <v>-1.4864440566162874E-3</v>
-      </c>
-      <c r="F6" s="10">
-        <f>E5+(E7-E5)/(C7-C5)*(C6-C5)</f>
-        <v>-1.4864440566162874E-3</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="13"/>
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="27">
+        <v>99.685000000000002</v>
+      </c>
+      <c r="D6" s="33">
+        <v>41626</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.99784358873800005</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.1587396646967961E-3</v>
+      </c>
+      <c r="H6" s="20">
+        <v>5.5617898000000003E-5</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>41536</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0.99850645586733999</v>
-      </c>
-      <c r="E7" s="10">
+        <v>62</v>
+      </c>
+      <c r="B7" s="27">
+        <v>99.665000000000006</v>
+      </c>
+      <c r="D7" s="33">
+        <v>41716</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.997008977613</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
-        <v>-1.4946605814803E-3</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="13"/>
+        <v>-2.9955044339594868E-3</v>
+      </c>
+      <c r="G7">
+        <f>(E6/E7-1)/(D7-D6)*360</f>
+        <v>3.3484598182784704E-3</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1.5401828999999999E-4</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="28">
-        <v>99.685000000000002</v>
-      </c>
-      <c r="C8" s="4">
-        <v>41626</v>
-      </c>
-      <c r="D8" s="24">
-        <v>0.99772037290702997</v>
-      </c>
-      <c r="E8" s="10">
+        <v>63</v>
+      </c>
+      <c r="B8" s="27">
+        <v>99.635000000000005</v>
+      </c>
+      <c r="D8" s="33">
+        <v>41725</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.99688652554599999</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>-2.2822293984210832E-3</v>
-      </c>
-      <c r="F8" s="10">
-        <f>1/(1+(1-B8/100)*(C8-C6)/360)*D6</f>
-        <v>0.99772022542467231</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="28">
-        <v>99.665000000000006</v>
-      </c>
-      <c r="C9" s="4">
-        <v>41716</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.99688587730780998</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>-3.1189816625030362E-3</v>
-      </c>
-      <c r="F9" s="10">
-        <f>1/(1+(1-B9/100)*(C9-C8)/360)*D8</f>
-        <v>0.9968854813164274</v>
-      </c>
-      <c r="G9" s="13">
-        <f>1/((1+(1-B9/100))^((C9-C8)/360))*D8</f>
-        <v>0.99688652722924942</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+        <v>-3.1183313995250882E-3</v>
+      </c>
+      <c r="H8" s="20">
+        <v>3.6911292000000001E-4</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="F9" s="9"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="28">
-        <v>99.635000000000005</v>
-      </c>
-      <c r="C10" s="4">
-        <v>41725</v>
-      </c>
-      <c r="D10" s="24">
-        <v>0.99685768593545998</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>-3.1472615003634422E-3</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="H10" s="11"/>
+      <c r="B10" s="27"/>
+      <c r="D10" s="23"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0.311</v>
-      </c>
-      <c r="C11" s="4">
-        <v>41809</v>
-      </c>
-      <c r="D11" s="24">
-        <v>0.99595471336318997</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>-4.0534909421163371E-3</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="H11" s="11"/>
+      <c r="B11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="28">
-        <v>0.372</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42093</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.99249822765895002</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>-7.5300521564413978E-3</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="B12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="C13" s="4">
-        <v>42458</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.98532349357428994</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>-1.4785271855674039E-2</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="H13" s="11"/>
+      <c r="B13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="O13" s="12"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="28">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="C14" s="4">
-        <v>42822</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.97310097855354005</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>-2.7267421550403757E-2</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="B14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="O14" s="8"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="C15" s="4">
-        <v>43186</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.95508245167517003</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>-4.5957605395577861E-2</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="B15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="28">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="C16" s="4">
-        <v>43551</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.93189711575223999</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>-7.0532861213838144E-2</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="B16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="23"/>
+      <c r="F17" s="9"/>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="28">
-        <v>1.399</v>
-      </c>
-      <c r="C17" s="4">
-        <v>43917</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.90525129039711993</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>-9.9542704878004554E-2</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="L17" s="12"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="28">
-        <v>1.613</v>
-      </c>
-      <c r="C18" s="4">
-        <v>44284</v>
-      </c>
-      <c r="D18" s="24">
-        <v>0.87635594850394993</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.13198293666839353</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="23"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="30">
+        <v>41442</v>
+      </c>
+      <c r="I18" s="31">
+        <v>41444</v>
+      </c>
+      <c r="J18" s="4">
+        <v>41536</v>
+      </c>
+      <c r="K18" s="34">
+        <v>41535</v>
+      </c>
+      <c r="L18" s="12"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="28">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="C19" s="4">
-        <v>44649</v>
-      </c>
-      <c r="D19" s="24">
-        <v>0.84692240086555004</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.16614620497866089</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="23"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="30">
+        <v>41533</v>
+      </c>
+      <c r="I19" s="31">
+        <v>41535</v>
+      </c>
+      <c r="J19" s="4">
+        <v>41626</v>
+      </c>
+      <c r="K19" s="34">
+        <v>41626</v>
+      </c>
+      <c r="L19" s="12"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="28">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="C20" s="4">
-        <v>45013</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.81695771461052002</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.20216794236423713</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="23"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="30">
+        <v>41624</v>
+      </c>
+      <c r="I20" s="31">
+        <v>41626</v>
+      </c>
+      <c r="J20" s="4">
+        <v>41716</v>
+      </c>
+      <c r="K20" s="34">
+        <v>41717</v>
+      </c>
+      <c r="L20" s="12"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="28">
-        <v>2.5169999999999999</v>
-      </c>
-      <c r="C21" s="4">
-        <v>46841</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.67248563979015008</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.3967745212060273</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="K21" s="6"/>
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="30">
+        <v>41715</v>
+      </c>
+      <c r="I21" s="31">
+        <v>41717</v>
+      </c>
+      <c r="J21" s="4">
+        <v>41809</v>
+      </c>
+      <c r="K21" s="34">
+        <v>41808</v>
+      </c>
+      <c r="L21" s="12"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="28">
-        <v>2.7559999999999998</v>
-      </c>
-      <c r="C22" s="4">
-        <v>48667</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0.55766336271168004</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.58399979128644841</v>
-      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="23"/>
+      <c r="F22" s="9"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="M22" s="4"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="28">
-        <v>2.871</v>
-      </c>
-      <c r="C23" s="4">
-        <v>50493</v>
-      </c>
-      <c r="D23" s="13">
-        <v>0.46657095377140001</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.76234517214387121</v>
-      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="23"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="27"/>
       <c r="K23" s="6"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="4"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="28">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="C24" s="4">
-        <v>52320</v>
-      </c>
-      <c r="D24" s="13">
-        <v>0.39119039237483</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>-0.93856090049210494</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="23"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="6"/>
+      <c r="M24" s="11"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q25" s="23"/>
-      <c r="R25"/>
+      <c r="B25" s="27"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q26" s="22"/>
       <c r="R26"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R27"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q28" s="20"/>
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="19"/>
+      <c r="R29"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="D30"/>
-      <c r="E30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>81</v>
-      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="K30" s="4"/>
@@ -3160,21 +2950,9 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="D31" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="31">
-        <v>41442</v>
-      </c>
-      <c r="F31" s="32">
-        <v>41444</v>
-      </c>
-      <c r="G31" s="4">
-        <v>41536</v>
-      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="K31" s="4"/>
@@ -3186,21 +2964,9 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="D32" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="31">
-        <v>41533</v>
-      </c>
-      <c r="F32" s="32">
-        <v>41535</v>
-      </c>
-      <c r="G32" s="4">
-        <v>41626</v>
-      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="K32" s="4"/>
@@ -3212,21 +2978,9 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="D33" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="31">
-        <v>41624</v>
-      </c>
-      <c r="F33" s="32">
-        <v>41626</v>
-      </c>
-      <c r="G33" s="4">
-        <v>41716</v>
-      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="K33" s="4"/>
@@ -3238,21 +2992,9 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="D34" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="31">
-        <v>41715</v>
-      </c>
-      <c r="F34" s="32">
-        <v>41717</v>
-      </c>
-      <c r="G34" s="4">
-        <v>41809</v>
-      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="K34" s="4"/>
@@ -3267,8 +3009,6 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="K35" s="4"/>
@@ -3585,23 +3325,29 @@
       <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55"/>
-      <c r="L55" s="12"/>
-      <c r="N55"/>
-      <c r="P55" s="23"/>
-      <c r="R55"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56"/>
-      <c r="L56" s="12"/>
+      <c r="L56" s="11"/>
       <c r="N56"/>
-      <c r="P56" s="23"/>
+      <c r="P56" s="22"/>
       <c r="R56"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
@@ -3609,9 +3355,9 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57"/>
-      <c r="L57" s="12"/>
+      <c r="L57" s="11"/>
       <c r="N57"/>
-      <c r="P57" s="23"/>
+      <c r="P57" s="22"/>
       <c r="R57"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
@@ -3619,13 +3365,20 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58"/>
-      <c r="L58" s="12"/>
+      <c r="L58" s="11"/>
       <c r="N58"/>
-      <c r="P58" s="23"/>
+      <c r="P58" s="22"/>
       <c r="R58"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59"/>
+      <c r="L59" s="11"/>
+      <c r="N59"/>
+      <c r="P59" s="22"/>
+      <c r="R59"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J60"/>
@@ -3659,6 +3412,9 @@
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70"/>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3695,151 +3451,151 @@
       <c r="A1" s="4">
         <v>41354</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>99.9995000025</v>
       </c>
       <c r="D1" s="4">
         <v>41354</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.99999500002499997</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <f>E1-B1/100</f>
         <v>0</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>99.998944452808999</v>
       </c>
       <c r="D2" s="4">
         <v>41355</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0.99998944452808602</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <f t="shared" ref="F2:F20" si="0">E2-B2/100</f>
         <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>99.983016602801001</v>
       </c>
       <c r="D3" s="4">
         <v>41386</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.99983016602802499</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f t="shared" si="0"/>
         <v>1.4988010832439613E-14</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>99.920673258755997</v>
       </c>
       <c r="D4" s="4">
         <v>41449</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.99920673258755899</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f t="shared" si="0"/>
         <v>-9.9920072216264089E-16</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>99.750074942915006</v>
       </c>
       <c r="D5" s="4">
         <v>41540</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.99750074942914502</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>-4.9960036108132044E-15</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>99.574187521957001</v>
       </c>
       <c r="D6" s="4">
         <v>41631</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.99574187521956603</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>41722</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>99.686967177626997</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15">
+      <c r="C7" s="16"/>
+      <c r="D7" s="14">
         <v>41722</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>0.99686967177646002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>1.900701818158268E-13</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -3847,22 +3603,22 @@
       <c r="A8" s="4">
         <v>42086</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>99.257251486841994</v>
       </c>
       <c r="D8" s="4">
         <v>42086</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.99257251486847198</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <f t="shared" si="0"/>
         <v>5.2069459854919842E-14</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -3870,22 +3626,22 @@
       <c r="A9" s="4">
         <v>42451</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>98.542602045609996</v>
       </c>
       <c r="D9" s="4">
         <v>42451</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.98542602045609995</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -3893,22 +3649,22 @@
       <c r="A10" s="4">
         <v>42816</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>97.313748211122004</v>
       </c>
       <c r="D10" s="4">
         <v>42816</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.97313748211130802</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>8.7929663550312398E-14</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -3916,22 +3672,22 @@
       <c r="A11" s="4">
         <v>43181</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>95.512007753980001</v>
       </c>
       <c r="D11" s="4">
         <v>43181</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0.95512007753974404</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>-5.595524044110789E-14</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -3939,22 +3695,22 @@
       <c r="A12" s="4">
         <v>43549</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>93.178143749049994</v>
       </c>
       <c r="D12" s="4">
         <v>43549</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0.93178143749054099</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>4.1078251911130792E-14</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -3962,22 +3718,22 @@
       <c r="A13" s="4">
         <v>43913</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>90.532315713458004</v>
       </c>
       <c r="D13" s="4">
         <v>43913</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0.90532315713464395</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>6.3948846218409017E-14</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -3985,22 +3741,22 @@
       <c r="A14" s="4">
         <v>44277</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>87.662473852261996</v>
       </c>
       <c r="D14" s="4">
         <v>44277</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.87662473852255896</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>-6.106226635438361E-14</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -4008,22 +3764,22 @@
       <c r="A15" s="4">
         <v>44642</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>84.719324922656</v>
       </c>
       <c r="D15" s="4">
         <v>44642</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0.84719324922592398</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>-6.3604677080775218E-13</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -4031,22 +3787,22 @@
       <c r="A16" s="4">
         <v>45007</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>81.707618222658994</v>
       </c>
       <c r="D16" s="4">
         <v>45007</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0.81707618222662304</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>3.3084646133829665E-14</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -4054,96 +3810,96 @@
       <c r="A17" s="4">
         <v>46834</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>67.223180685086007</v>
       </c>
       <c r="D17" s="4">
         <v>46834</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.67223180685088102</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="0"/>
         <v>2.0983215165415459E-14</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="4"/>
-      <c r="L17" s="22"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>55.725022196459001</v>
       </c>
       <c r="D18" s="4">
         <v>48660</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0.55725022196460405</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>1.3988810110276972E-14</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="L18" s="22"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>46.609894810813003</v>
       </c>
       <c r="D19" s="4">
         <v>50486</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.46609894810816799</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>3.7969627442180354E-14</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="L19" s="22"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>39.072969033905999</v>
       </c>
       <c r="D20" s="4">
         <v>52313</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0.39072969033902599</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f t="shared" si="0"/>
         <v>-3.397282455352979E-14</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="L20" s="22"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="11"/>
       <c r="J21">
         <f>SUM(J24:J25)</f>
         <v>-3118.4751495988003</v>
@@ -4151,10 +3907,10 @@
       <c r="L21" s="4">
         <v>41353</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M22" s="22"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4178,7 +3934,7 @@
       <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="19" t="s">
         <v>42</v>
       </c>
       <c r="I23" t="s">
@@ -4187,7 +3943,7 @@
       <c r="J23" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4214,21 +3970,21 @@
       <c r="H24">
         <v>0.311</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <v>-1559.7309635793999</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="12">
         <f t="shared" ref="K24:K29" si="1">J24/I24</f>
         <v>0.99750074942911782</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="20">
         <f t="shared" ref="L24:L27" si="2">K24^(-365/(D24-$L$21))-1</f>
         <v>4.8962702206791775E-3</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4255,21 +4011,21 @@
       <c r="H25">
         <v>0.311</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <v>-1558.7441860194001</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="12">
         <f t="shared" si="1"/>
         <v>0.99686967177623798</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="20">
         <f t="shared" si="2"/>
         <v>3.1060654865080473E-3</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="21">
         <f t="shared" ref="M25:M28" si="3">(L25-L24)/(F25-F24)</f>
         <v>-9.8362897481930225E-6</v>
       </c>
@@ -4296,21 +4052,21 @@
       <c r="H26">
         <v>0.3</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <v>783.33333333339999</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <v>782.71194052689998</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="12">
         <f t="shared" si="1"/>
         <v>0.99920673258744686</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="20">
         <f t="shared" si="2"/>
         <v>3.021822243513661E-3</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="21">
         <f t="shared" si="3"/>
         <v>3.0858330767174446E-7</v>
       </c>
@@ -4337,21 +4093,21 @@
       <c r="H27">
         <v>0.67610000000000003</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <v>1708.9566671196999</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="24">
         <v>1704.6855561939001</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="12">
         <f t="shared" si="1"/>
         <v>0.99750074942918332</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <f t="shared" si="2"/>
         <v>4.8962702205503916E-3</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="21">
         <f t="shared" si="3"/>
         <v>2.0598329417986051E-5</v>
       </c>
@@ -4378,21 +4134,21 @@
       <c r="H28">
         <v>0.69879999999999998</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <v>1766.3957430676001</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="24">
         <v>1758.874209582</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="12">
         <f t="shared" si="1"/>
         <v>0.99574187521957125</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="20">
         <f>K28^(-365/(D28-$L$21))-1</f>
         <v>5.6183643936540406E-3</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="21">
         <f t="shared" si="3"/>
         <v>7.9351008033368024E-6</v>
       </c>
@@ -4419,21 +4175,21 @@
       <c r="H29">
         <v>-0.4476</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>-1131.3380160260999</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="24">
         <v>-1127.7965567039</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="12">
         <f t="shared" si="1"/>
         <v>0.99686967177622166</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <f t="shared" ref="L29" si="4">K29^(-365/(D29-$L$21))-1</f>
         <v>3.1060654865242565E-3</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="21">
         <f>(L29-L28)/(F29-F28)</f>
         <v>-2.7607680298129497E-5</v>
       </c>
@@ -4442,145 +4198,145 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19">
+      <c r="H30" s="11"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18">
         <f>SUM(J26:J29)</f>
         <v>3118.4751495989003</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="19">
+      <c r="H32" s="11"/>
+      <c r="I32" s="18">
         <f>(B2/100-B7/100)*B28</f>
         <v>3119.7727518200713</v>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
     </row>
     <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="22"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
     </row>
     <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="21"/>
     </row>
     <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="22"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
     </row>
     <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="21"/>
     </row>
     <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="22"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
     </row>
     <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="22"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="21"/>
     </row>
     <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="22"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
     </row>
     <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="22"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J42" s="20"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H43" s="20"/>
+      <c r="H43" s="19"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
@@ -4620,21 +4376,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:I19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -4650,19 +4408,18 @@
       <c r="E1" s="4">
         <v>41368</v>
       </c>
-      <c r="F1">
-        <v>99.995708354800001</v>
+      <c r="F1" s="11">
+        <v>99.998374999999996</v>
       </c>
       <c r="H1" s="4">
-        <v>41347</v>
-      </c>
-      <c r="I1">
-        <f>(E1-H1)/360</f>
-        <v>5.8333333333333334E-2</v>
-      </c>
-      <c r="J1" s="12">
-        <f>100/(1+I1*C1/100)</f>
-        <v>99.996208477095252</v>
+        <v>41368</v>
+      </c>
+      <c r="I1" s="20">
+        <v>0.99998374999999995</v>
+      </c>
+      <c r="J1" s="11">
+        <f>F1/100-I1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4678,16 +4435,18 @@
       <c r="E2" s="4">
         <v>41729</v>
       </c>
-      <c r="F2">
-        <v>99.816266974399994</v>
-      </c>
-      <c r="H2" s="9">
-        <f>100/F1-1</f>
-        <v>4.291829390079549E-5</v>
-      </c>
-      <c r="I2">
-        <f>H2/(C1/100)*360</f>
-        <v>23.770132006594427</v>
+      <c r="F2" s="11">
+        <v>99.825020604543994</v>
+      </c>
+      <c r="H2" s="4">
+        <v>41729</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0.99825020604541104</v>
+      </c>
+      <c r="J2" s="11">
+        <f t="shared" ref="J2:J11" si="0">F2/100-I2</f>
+        <v>2.886579864025407E-14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -4703,8 +4462,18 @@
       <c r="E3" s="4">
         <v>42109</v>
       </c>
-      <c r="F3">
-        <v>99.476483153100006</v>
+      <c r="F3" s="11">
+        <v>99.489366040422993</v>
+      </c>
+      <c r="H3" s="4">
+        <v>42109</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0.99489366040428695</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>-5.7065463465733046E-14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4720,8 +4489,18 @@
       <c r="E4" s="4">
         <v>42247</v>
       </c>
-      <c r="F4">
-        <v>99.307587073700006</v>
+      <c r="F4" s="11">
+        <v>99.348751843350996</v>
+      </c>
+      <c r="H4" s="4">
+        <v>42247</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.99348751843346295</v>
+      </c>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.6962433941644122E-14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -4737,8 +4516,18 @@
       <c r="E5" s="4">
         <v>42825</v>
       </c>
-      <c r="F5">
-        <v>97.737546620800003</v>
+      <c r="F5" s="11">
+        <v>97.771415341388007</v>
+      </c>
+      <c r="H5" s="4">
+        <v>42825</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0.97771415341381895</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="0"/>
+        <v>6.106226635438361E-14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -4754,8 +4543,18 @@
       <c r="E6" s="4">
         <v>43511</v>
       </c>
-      <c r="F6">
-        <v>94.320020079299994</v>
+      <c r="F6" s="11">
+        <v>94.415583194966004</v>
+      </c>
+      <c r="H6" s="4">
+        <v>43511</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.94415528633351498</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4561614504233802E-7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -4771,8 +4570,18 @@
       <c r="E7" s="4">
         <v>43556</v>
       </c>
-      <c r="F7">
-        <v>93.975017447200003</v>
+      <c r="F7" s="11">
+        <v>94.027098746248996</v>
+      </c>
+      <c r="H7" s="4">
+        <v>43556</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0.94027099406788395</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
+        <v>-6.6053940095400776E-9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -4788,8 +4597,18 @@
       <c r="E8" s="4">
         <v>43879</v>
       </c>
-      <c r="F8">
-        <v>91.791870144699999</v>
+      <c r="F8" s="11">
+        <v>91.914726149455007</v>
+      </c>
+      <c r="H8" s="4">
+        <v>43878</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.91914704922342205</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.1227112800836778E-7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -4805,8 +4624,18 @@
       <c r="E9" s="4">
         <v>44515</v>
       </c>
-      <c r="F9">
-        <v>86.383208905000004</v>
+      <c r="F9" s="11">
+        <v>86.452914276943005</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44515</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.86453115435045602</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="0"/>
+        <v>-2.0115810259735412E-6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -4822,8 +4651,18 @@
       <c r="E10" s="4">
         <v>44607</v>
       </c>
-      <c r="F10">
-        <v>85.589676089299999</v>
+      <c r="F10" s="11">
+        <v>85.658166731351997</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44607</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.856581769586783</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>-1.0227326308065443E-7</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -4839,15 +4678,515 @@
       <c r="E11" s="4">
         <v>51914</v>
       </c>
-      <c r="F11">
-        <v>36.788102128600002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="13"/>
+      <c r="F11" s="11">
+        <v>38.318232624048001</v>
+      </c>
+      <c r="H11" s="4">
+        <v>51914</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.38317725511353501</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="0"/>
+        <v>5.0711269449776886E-6</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G15" s="14"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>41001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>41182</v>
+      </c>
+      <c r="F17">
+        <v>181</v>
+      </c>
+      <c r="G17" s="4">
+        <v>41183</v>
+      </c>
+      <c r="H17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="4"/>
+      <c r="G18" s="4">
+        <v>41358</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <f>LN(I18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>41182</v>
+      </c>
+      <c r="E19" s="4">
+        <v>41364</v>
+      </c>
+      <c r="F19">
+        <v>182</v>
+      </c>
+      <c r="G19" s="4">
+        <v>41365</v>
+      </c>
+      <c r="H19">
+        <v>0.25</v>
+      </c>
+      <c r="I19" s="20">
+        <f>EXP(J19)</f>
+        <v>0.99998862497227325</v>
+      </c>
+      <c r="J19" s="12">
+        <f>J18+(J20-J18)/(G20-G18)*(G19-G18)</f>
+        <v>-1.1375092422911913E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4">
+        <v>41368</v>
+      </c>
+      <c r="I20" s="20">
+        <f>F1/100</f>
+        <v>0.99998374999999995</v>
+      </c>
+      <c r="J20" s="12">
+        <f>LN(I20)</f>
+        <v>-1.6250132032731304E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>41364</v>
+      </c>
+      <c r="E21" s="4">
+        <v>41547</v>
+      </c>
+      <c r="F21">
+        <v>183</v>
+      </c>
+      <c r="G21" s="4">
+        <v>41547</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="20">
+        <f>EXP(J21)</f>
+        <v>0.99912380516010701</v>
+      </c>
+      <c r="J21" s="12">
+        <f>J20+(J22-J20)/(G22-G20)*(G21-G20)</f>
+        <v>-8.7657892296254876E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41547</v>
+      </c>
+      <c r="E22" s="4">
+        <v>41729</v>
+      </c>
+      <c r="F22">
+        <v>182</v>
+      </c>
+      <c r="G22" s="4">
+        <v>41729</v>
+      </c>
+      <c r="H22">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="20">
+        <f>F2/100</f>
+        <v>0.9982502060454399</v>
+      </c>
+      <c r="J22" s="12">
+        <f>LN(I22)</f>
+        <v>-1.751326632176106E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4">
+        <v>41729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>(H19/200)*I19+(H21/200)*I21+(H22/200+1)*I22</f>
+        <v>1.0019969093406622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="4">
+        <v>41368</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1</v>
+      </c>
+      <c r="J29" s="12">
+        <f>LN(I29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>41333</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41517</v>
+      </c>
+      <c r="F30">
+        <v>184</v>
+      </c>
+      <c r="G30" s="4">
+        <v>41520</v>
+      </c>
+      <c r="H30">
+        <v>1.25</v>
+      </c>
+      <c r="I30" s="20">
+        <f>EXP(J30)</f>
+        <v>0.99926287112583889</v>
+      </c>
+      <c r="J30" s="12">
+        <f>J29+(J32-J29)/(G32-G29)*(G30-G29)</f>
+        <v>-7.3740068723204474E-4</v>
+      </c>
+      <c r="K30">
+        <f>(H30/200)*I30</f>
+        <v>6.2453929445364931E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>41517</v>
+      </c>
+      <c r="E31" s="4">
+        <v>41698</v>
+      </c>
+      <c r="F31">
+        <v>181</v>
+      </c>
+      <c r="G31" s="4">
+        <v>41698</v>
+      </c>
+      <c r="H31">
+        <v>1.25</v>
+      </c>
+      <c r="I31" s="20">
+        <f>EXP(J31)</f>
+        <v>0.99840034511142717</v>
+      </c>
+      <c r="J31" s="12">
+        <f>J29+(J32-J29)/(G32-G29)*(G31-G29)</f>
+        <v>-1.6009357025432549E-3</v>
+      </c>
+      <c r="K31">
+        <f>(H31/200)*I31</f>
+        <v>6.24000215694642E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="4">
+        <v>41729</v>
+      </c>
+      <c r="I32" s="20">
+        <f>F2/100</f>
+        <v>0.9982502060454399</v>
+      </c>
+      <c r="J32" s="12">
+        <f>LN(I32)</f>
+        <v>-1.751326632176106E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>41698</v>
+      </c>
+      <c r="E33" s="4">
+        <v>41882</v>
+      </c>
+      <c r="F33">
+        <v>184</v>
+      </c>
+      <c r="G33" s="4">
+        <v>41884</v>
+      </c>
+      <c r="H33">
+        <v>1.25</v>
+      </c>
+      <c r="I33" s="20">
+        <f>EXP(J33)</f>
+        <v>0.99687972341104225</v>
+      </c>
+      <c r="J33" s="12">
+        <f>J32+(J35-J32)/(G35-G32)*(G33-G32)</f>
+        <v>-3.1251548021795266E-3</v>
+      </c>
+      <c r="K33">
+        <f>(H33/200)*I33</f>
+        <v>6.2304982713190142E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>41882</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42063</v>
+      </c>
+      <c r="F34">
+        <v>181</v>
+      </c>
+      <c r="G34" s="4">
+        <v>42065</v>
+      </c>
+      <c r="H34">
+        <v>1.25</v>
+      </c>
+      <c r="I34" s="20">
+        <f>EXP(J34)</f>
+        <v>0.99528173458292024</v>
+      </c>
+      <c r="J34" s="12">
+        <f>J32+(J35-J32)/(G35-G32)*(G34-G32)</f>
+        <v>-4.7294315684415847E-3</v>
+      </c>
+      <c r="K34">
+        <f>(H34/200)*I34</f>
+        <v>6.2205108411432517E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4">
+        <v>42109</v>
+      </c>
+      <c r="I35" s="20">
+        <f>F3/100</f>
+        <v>0.99489366040422988</v>
+      </c>
+      <c r="J35" s="12">
+        <f>LN(I35)</f>
+        <v>-5.1194215005715884E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>42063</v>
+      </c>
+      <c r="E36" s="4">
+        <v>42247</v>
+      </c>
+      <c r="F36">
+        <v>184</v>
+      </c>
+      <c r="G36" s="4">
+        <v>42247</v>
+      </c>
+      <c r="H36">
+        <v>1.25</v>
+      </c>
+      <c r="I36" s="20">
+        <f>F4/100</f>
+        <v>0.99348751843350991</v>
+      </c>
+      <c r="J36" s="12">
+        <f>LN(I36)</f>
+        <v>-6.5337802966521537E-3</v>
+      </c>
+      <c r="K36">
+        <f>(1+H36/200)*I36</f>
+        <v>0.99969681542371946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>42247</v>
+      </c>
+      <c r="I37" s="20">
+        <f>F4/100</f>
+        <v>0.99348751843350991</v>
+      </c>
+      <c r="J37" s="12">
+        <f>LN(I37)</f>
+        <v>-6.5337802966521537E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I39" s="20">
+        <v>1.024633152</v>
+      </c>
+      <c r="K39" s="9">
+        <f>SUM(K30:K36)</f>
+        <v>1.0246332196376646</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,753 +5195,185 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>41001</v>
-      </c>
-      <c r="E2" s="4">
-        <v>41182</v>
-      </c>
-      <c r="F2">
-        <v>181</v>
-      </c>
-      <c r="G2" s="4">
-        <v>41183</v>
-      </c>
-      <c r="H2">
-        <v>0.25</v>
-      </c>
-      <c r="I2">
-        <v>0.25</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>41182</v>
-      </c>
-      <c r="E3" s="4">
-        <v>41364</v>
-      </c>
-      <c r="F3">
-        <v>182</v>
-      </c>
-      <c r="G3" s="4">
-        <v>41365</v>
-      </c>
-      <c r="H3">
-        <v>0.25</v>
-      </c>
-      <c r="I3">
-        <v>0.25</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>41364</v>
-      </c>
-      <c r="E4" s="4">
-        <v>41547</v>
-      </c>
-      <c r="F4">
-        <v>183</v>
-      </c>
-      <c r="G4" s="4">
-        <v>41547</v>
-      </c>
-      <c r="H4">
-        <v>0.25</v>
-      </c>
-      <c r="I4">
-        <v>0.25</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>41368</v>
+      </c>
+      <c r="B1">
+        <v>99.998374999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>41729</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>41547</v>
-      </c>
-      <c r="E6" s="4">
-        <v>41729</v>
-      </c>
-      <c r="F6">
-        <v>182</v>
-      </c>
-      <c r="G6" s="4">
-        <v>41729</v>
-      </c>
-      <c r="H6">
-        <v>0.25</v>
-      </c>
-      <c r="I6">
-        <v>0.25</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>41001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>41182</v>
-      </c>
-      <c r="F9">
-        <v>181</v>
-      </c>
-      <c r="G9" s="4">
-        <v>41183</v>
-      </c>
-      <c r="H9">
-        <v>1.5</v>
-      </c>
-      <c r="I9">
-        <v>1.5</v>
-      </c>
-      <c r="J9">
-        <v>0.01</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>41182</v>
-      </c>
-      <c r="E10" s="4">
-        <v>41364</v>
-      </c>
-      <c r="F10">
-        <v>182</v>
-      </c>
-      <c r="G10" s="4">
-        <v>41365</v>
-      </c>
-      <c r="H10">
-        <v>1.5</v>
-      </c>
-      <c r="I10">
-        <v>1.5</v>
-      </c>
-      <c r="J10">
-        <v>0.01</v>
-      </c>
-      <c r="K10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>41364</v>
-      </c>
-      <c r="E11" s="4">
-        <v>41547</v>
-      </c>
-      <c r="F11">
-        <v>183</v>
-      </c>
-      <c r="G11" s="4">
-        <v>41547</v>
-      </c>
-      <c r="H11">
-        <v>1.5</v>
-      </c>
-      <c r="I11">
-        <v>1.5</v>
-      </c>
-      <c r="J11">
-        <v>0.01</v>
-      </c>
-      <c r="K11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>41547</v>
-      </c>
-      <c r="E12" s="4">
-        <v>41729</v>
-      </c>
-      <c r="F12">
-        <v>182</v>
-      </c>
-      <c r="G12" s="4">
-        <v>41729</v>
-      </c>
-      <c r="H12">
-        <v>1.5</v>
-      </c>
-      <c r="I12">
-        <v>1.5</v>
-      </c>
-      <c r="J12">
-        <v>0.01</v>
-      </c>
-      <c r="K12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>41729</v>
-      </c>
-      <c r="E13" s="4">
-        <v>41912</v>
-      </c>
-      <c r="F13">
-        <v>183</v>
-      </c>
-      <c r="G13" s="4">
-        <v>41912</v>
-      </c>
-      <c r="H13">
-        <v>1.5</v>
-      </c>
-      <c r="I13">
-        <v>1.5</v>
-      </c>
-      <c r="J13">
-        <v>0.01</v>
-      </c>
-      <c r="K13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>41912</v>
-      </c>
-      <c r="E14" s="4">
-        <v>42094</v>
-      </c>
-      <c r="F14">
-        <v>182</v>
-      </c>
-      <c r="G14" s="4">
-        <v>42094</v>
-      </c>
-      <c r="H14">
-        <v>1.5</v>
-      </c>
-      <c r="I14">
-        <v>1.5</v>
-      </c>
-      <c r="J14">
-        <v>0.01</v>
-      </c>
-      <c r="K14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>42094</v>
-      </c>
-      <c r="E15" s="4">
-        <v>42277</v>
-      </c>
-      <c r="F15">
-        <v>183</v>
-      </c>
-      <c r="G15" s="4">
-        <v>42277</v>
-      </c>
-      <c r="H15">
-        <v>1.5</v>
-      </c>
-      <c r="I15">
-        <v>1.5</v>
-      </c>
-      <c r="J15">
-        <v>0.01</v>
-      </c>
-      <c r="K15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>42277</v>
-      </c>
-      <c r="E16" s="4">
-        <v>42460</v>
-      </c>
-      <c r="F16">
-        <v>183</v>
-      </c>
-      <c r="G16" s="4">
-        <v>42460</v>
-      </c>
-      <c r="H16">
-        <v>1.5</v>
-      </c>
-      <c r="I16">
-        <v>1.5</v>
-      </c>
-      <c r="J16">
-        <v>0.01</v>
-      </c>
-      <c r="K16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>42460</v>
-      </c>
-      <c r="E17" s="4">
-        <v>42643</v>
-      </c>
-      <c r="F17">
-        <v>183</v>
-      </c>
-      <c r="G17" s="4">
-        <v>42643</v>
-      </c>
-      <c r="H17">
-        <v>1.5</v>
-      </c>
-      <c r="I17">
-        <v>1.5</v>
-      </c>
-      <c r="J17">
-        <v>0.01</v>
-      </c>
-      <c r="K17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>42643</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="B2">
+        <v>99.824985753454996</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>42109</v>
+      </c>
+      <c r="B3">
+        <v>99.489265444675993</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>42247</v>
+      </c>
+      <c r="B4">
+        <v>99.348360117770994</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>42825</v>
       </c>
-      <c r="F18">
-        <v>182</v>
-      </c>
-      <c r="G18" s="4">
-        <v>42825</v>
-      </c>
-      <c r="H18">
-        <v>1.5</v>
-      </c>
-      <c r="I18">
-        <v>1.5</v>
-      </c>
-      <c r="J18">
-        <v>0.01</v>
-      </c>
-      <c r="K18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42825</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43008</v>
-      </c>
-      <c r="F19">
-        <v>183</v>
-      </c>
-      <c r="G19" s="4">
-        <v>43010</v>
-      </c>
-      <c r="H19">
-        <v>1.5</v>
-      </c>
-      <c r="I19">
-        <v>1.5</v>
-      </c>
-      <c r="J19">
-        <v>0.01</v>
-      </c>
-      <c r="K19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>43008</v>
-      </c>
-      <c r="E20" s="4">
-        <v>43190</v>
-      </c>
-      <c r="F20">
-        <v>182</v>
-      </c>
-      <c r="G20" s="4">
-        <v>43192</v>
-      </c>
-      <c r="H20">
-        <v>1.5</v>
-      </c>
-      <c r="I20">
-        <v>1.5</v>
-      </c>
-      <c r="J20">
-        <v>0.01</v>
-      </c>
-      <c r="K20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>43190</v>
-      </c>
-      <c r="E21" s="4">
-        <v>43373</v>
-      </c>
-      <c r="F21">
-        <v>183</v>
-      </c>
-      <c r="G21" s="4">
-        <v>43374</v>
-      </c>
-      <c r="H21">
-        <v>1.5</v>
-      </c>
-      <c r="I21">
-        <v>1.5</v>
-      </c>
-      <c r="J21">
-        <v>0.01</v>
-      </c>
-      <c r="K21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="B5">
+        <v>97.770046541485002</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>43511</v>
+      </c>
+      <c r="B6">
+        <v>94.405641014679006</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>43556</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>43373</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43555</v>
-      </c>
-      <c r="F23">
-        <v>182</v>
-      </c>
-      <c r="G23" s="4">
-        <v>43556</v>
-      </c>
-      <c r="H23">
-        <v>1.5</v>
-      </c>
-      <c r="I23">
-        <v>1.5</v>
-      </c>
-      <c r="J23">
-        <v>0.01</v>
-      </c>
-      <c r="K23">
-        <v>0.01</v>
-      </c>
+      <c r="B7">
+        <v>94.021836329826996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>43879</v>
+      </c>
+      <c r="B8">
+        <v>91.901302399230005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>44515</v>
+      </c>
+      <c r="B9">
+        <v>86.441355730628004</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>44607</v>
+      </c>
+      <c r="B10">
+        <v>85.647191930922006</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>51914</v>
+      </c>
+      <c r="B11">
+        <v>36.839706253590002</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -238,27 +238,60 @@
   </si>
   <si>
     <t>Convexity</t>
+  </si>
+  <si>
+    <t>04/04/2013,0.99998375</t>
+  </si>
+  <si>
+    <t>31/03/2014,0.998250206045411</t>
+  </si>
+  <si>
+    <t>15/04/2015,0.994893660404287</t>
+  </si>
+  <si>
+    <t>31/08/2015,0.993487518433463</t>
+  </si>
+  <si>
+    <t>31/03/2017,0.977714153413819</t>
+  </si>
+  <si>
+    <t>15/02/2019,0.944155831949598</t>
+  </si>
+  <si>
+    <t>01/04/2019,0.940270987462475</t>
+  </si>
+  <si>
+    <t>18/02/2020,0.919147261494601</t>
+  </si>
+  <si>
+    <t>15/11/2021,0.864529142769414</t>
+  </si>
+  <si>
+    <t>15/02/2022,0.856581667313548</t>
+  </si>
+  <si>
+    <t>18/02/2042,0.383170230770597</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000"/>
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -825,26 +858,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
     <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
@@ -965,7 +998,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -985,7 +1018,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1025,7 +1058,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1045,7 +1078,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1134,7 +1167,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1169,7 +1201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1345,24 +1376,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1415,7 +1446,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1450,7 +1481,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1516,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1520,7 +1551,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1555,7 +1586,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1582,7 +1613,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1609,7 +1640,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1636,7 +1667,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1663,7 +1694,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1690,7 +1721,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1717,7 +1748,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1744,7 +1775,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +1802,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1829,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1825,7 +1856,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.4">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1852,7 +1883,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1879,7 +1910,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1906,7 +1937,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1933,49 +1964,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -1985,20 +2016,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2052,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2036,7 +2067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2070,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2104,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2121,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2138,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2155,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2189,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2240,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2257,7 +2288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2274,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2308,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2325,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2342,84 +2373,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2433,37 +2464,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2487,7 +2518,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2511,7 +2542,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2534,7 +2565,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.4">
       <c r="B4" s="27"/>
       <c r="D4" s="31">
         <v>41444</v>
@@ -2555,7 +2586,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2613,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="14.4">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2605,7 +2636,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="14.4">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2632,7 +2663,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14.4">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2655,14 +2686,14 @@
       <c r="K8" s="29"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14.4">
       <c r="B9" s="27"/>
       <c r="D9" s="23"/>
       <c r="F9" s="9"/>
       <c r="K9" s="29"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10" s="27"/>
       <c r="D10" s="23"/>
       <c r="F10" s="9"/>
@@ -2675,7 +2706,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11" s="27"/>
       <c r="D11" s="23"/>
       <c r="F11" s="9"/>
@@ -2688,7 +2719,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="27"/>
       <c r="D12" s="23"/>
       <c r="F12" s="9"/>
@@ -2701,7 +2732,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="27"/>
       <c r="D13" s="23"/>
       <c r="F13" s="9"/>
@@ -2714,7 +2745,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14" s="27"/>
       <c r="D14" s="23"/>
       <c r="F14" s="9"/>
@@ -2727,7 +2758,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15" s="27"/>
       <c r="D15" s="23"/>
       <c r="F15" s="9"/>
@@ -2740,7 +2771,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16" s="27"/>
       <c r="D16" s="23"/>
       <c r="F16" s="9"/>
@@ -2753,7 +2784,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="B17" s="27"/>
       <c r="C17" s="9"/>
       <c r="D17" s="23"/>
@@ -2775,7 +2806,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="14.4">
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
       <c r="D18" s="23"/>
@@ -2800,7 +2831,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="14.4">
       <c r="B19" s="27"/>
       <c r="C19" s="9"/>
       <c r="D19" s="23"/>
@@ -2825,7 +2856,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="14.4">
       <c r="B20" s="27"/>
       <c r="C20" s="9"/>
       <c r="D20" s="23"/>
@@ -2850,7 +2881,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="14.4">
       <c r="B21" s="27"/>
       <c r="C21" s="9"/>
       <c r="D21" s="23"/>
@@ -2875,7 +2906,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="B22" s="27"/>
       <c r="C22" s="9"/>
       <c r="D22" s="23"/>
@@ -2887,7 +2918,7 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="B23" s="27"/>
       <c r="C23" s="9"/>
       <c r="D23" s="23"/>
@@ -2899,7 +2930,7 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="B24" s="27"/>
       <c r="C24" s="9"/>
       <c r="D24" s="23"/>
@@ -2912,7 +2943,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="B25" s="27"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
@@ -2920,21 +2951,21 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="Q26" s="22"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="Q29" s="19"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="F30" s="4"/>
@@ -2950,7 +2981,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="H31" s="4"/>
@@ -2964,7 +2995,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="H32" s="4"/>
@@ -2978,7 +3009,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="H33" s="4"/>
@@ -2992,7 +3023,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="H34" s="4"/>
@@ -3006,7 +3037,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="H35" s="4"/>
@@ -3020,7 +3051,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="F36" s="4"/>
@@ -3036,7 +3067,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="F37" s="4"/>
@@ -3052,7 +3083,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="F38" s="4"/>
@@ -3068,7 +3099,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="F39" s="4"/>
@@ -3084,7 +3115,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="F40" s="4"/>
@@ -3100,7 +3131,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="F41" s="4"/>
@@ -3116,7 +3147,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="F42" s="4"/>
@@ -3132,7 +3163,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="F43" s="4"/>
@@ -3148,7 +3179,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="F44" s="4"/>
@@ -3164,7 +3195,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="F45" s="4"/>
@@ -3180,7 +3211,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="F46" s="4"/>
@@ -3196,7 +3227,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="F47" s="4"/>
@@ -3212,7 +3243,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="F48" s="4"/>
@@ -3228,7 +3259,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="F49" s="4"/>
@@ -3244,7 +3275,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="F50" s="4"/>
@@ -3260,7 +3291,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="F51" s="4"/>
@@ -3276,7 +3307,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="F52" s="4"/>
@@ -3292,7 +3323,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="F53" s="4"/>
@@ -3308,7 +3339,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="F54" s="4"/>
@@ -3324,7 +3355,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="F55" s="4"/>
@@ -3340,7 +3371,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -3350,7 +3381,7 @@
       <c r="P56" s="22"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3360,7 +3391,7 @@
       <c r="P57" s="22"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3370,7 +3401,7 @@
       <c r="P58" s="22"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3380,40 +3411,40 @@
       <c r="P59" s="22"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10">
       <c r="J71"/>
     </row>
   </sheetData>
@@ -3423,31 +3454,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="4">
         <v>41354</v>
       </c>
@@ -3468,7 +3499,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
@@ -3489,7 +3520,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
@@ -3510,7 +3541,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
@@ -3531,7 +3562,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
@@ -3552,7 +3583,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
@@ -3575,7 +3606,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="14">
         <v>41722</v>
       </c>
@@ -3599,7 +3630,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>42086</v>
       </c>
@@ -3622,7 +3653,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>42451</v>
       </c>
@@ -3645,7 +3676,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>42816</v>
       </c>
@@ -3668,7 +3699,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>43181</v>
       </c>
@@ -3691,7 +3722,7 @@
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>43549</v>
       </c>
@@ -3714,7 +3745,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -3737,7 +3768,7 @@
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
@@ -3760,7 +3791,7 @@
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>44642</v>
       </c>
@@ -3783,7 +3814,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>45007</v>
       </c>
@@ -3806,7 +3837,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>46834</v>
       </c>
@@ -3829,7 +3860,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
@@ -3851,7 +3882,7 @@
       <c r="I18" s="12"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
@@ -3873,7 +3904,7 @@
       <c r="I19" s="12"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
@@ -3895,7 +3926,7 @@
       <c r="I20" s="12"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="E21" s="4"/>
@@ -3909,10 +3940,10 @@
       </c>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3945,7 +3976,7 @@
       </c>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.4">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3986,7 +4017,7 @@
       </c>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="14.4">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4030,7 +4061,7 @@
         <v>-9.8362897481930225E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="14.4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4071,7 +4102,7 @@
         <v>3.0858330767174446E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4112,7 +4143,7 @@
         <v>2.0598329417986051E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4153,7 +4184,7 @@
         <v>7.9351008033368024E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4194,7 +4225,7 @@
         <v>-2.7607680298129497E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="14.4">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -4208,7 +4239,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="14.4">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
@@ -4219,7 +4250,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="14.4">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
@@ -4233,7 +4264,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" ht="14.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
@@ -4244,7 +4275,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" ht="14.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
@@ -4255,7 +4286,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" ht="14.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
@@ -4266,7 +4297,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" ht="14.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
@@ -4277,7 +4308,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" ht="14.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
@@ -4288,7 +4319,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" ht="14.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
@@ -4299,7 +4330,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" ht="14.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
@@ -4310,7 +4341,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" ht="14.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
@@ -4321,7 +4352,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" ht="14.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
@@ -4332,38 +4363,38 @@
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13">
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13">
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:13">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -4375,27 +4406,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="20" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4405,8 +4436,8 @@
       <c r="C1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E1" s="4">
-        <v>41368</v>
+      <c r="E1" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F1" s="11">
         <v>99.998374999999996</v>
@@ -4422,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4432,8 +4463,8 @@
       <c r="C2">
         <v>100.078125</v>
       </c>
-      <c r="E2" s="4">
-        <v>41729</v>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F2" s="11">
         <v>99.825020604543994</v>
@@ -4449,7 +4480,7 @@
         <v>2.886579864025407E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4459,8 +4490,8 @@
       <c r="C3">
         <v>100.257813</v>
       </c>
-      <c r="E3" s="4">
-        <v>42109</v>
+      <c r="E3" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="F3" s="11">
         <v>99.489366040422993</v>
@@ -4476,7 +4507,7 @@
         <v>-5.7065463465733046E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -4486,8 +4517,8 @@
       <c r="C4">
         <v>102.375</v>
       </c>
-      <c r="E4" s="4">
-        <v>42247</v>
+      <c r="E4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F4" s="11">
         <v>99.348751843350996</v>
@@ -4503,7 +4534,7 @@
         <v>4.6962433941644122E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4513,8 +4544,8 @@
       <c r="C5">
         <v>101.75</v>
       </c>
-      <c r="E5" s="4">
-        <v>42825</v>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="F5" s="11">
         <v>97.771415341388007</v>
@@ -4530,7 +4561,7 @@
         <v>6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4540,8 +4571,8 @@
       <c r="C6">
         <v>110.296875</v>
       </c>
-      <c r="E6" s="4">
-        <v>43511</v>
+      <c r="E6" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="11">
         <v>94.415583194966004</v>
@@ -4550,14 +4581,14 @@
         <v>43511</v>
       </c>
       <c r="I6" s="20">
-        <v>0.94415528633351498</v>
+        <v>0.94415583194959796</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>5.4561614504233802E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.2061467076546251E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4567,8 +4598,8 @@
       <c r="C7">
         <v>102.859375</v>
       </c>
-      <c r="E7" s="4">
-        <v>43556</v>
+      <c r="E7" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="F7" s="11">
         <v>94.027098746248996</v>
@@ -4577,14 +4608,14 @@
         <v>43556</v>
       </c>
       <c r="I7" s="20">
-        <v>0.94027099406788395</v>
+        <v>0.94027098746247495</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>-6.6053940095400776E-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.4988010832439613E-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -4594,24 +4625,24 @@
       <c r="C8">
         <v>116.203125</v>
       </c>
-      <c r="E8" s="4">
-        <v>43879</v>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="F8" s="11">
         <v>91.914726149455007</v>
       </c>
       <c r="H8" s="4">
-        <v>43878</v>
+        <v>43879</v>
       </c>
       <c r="I8" s="20">
-        <v>0.91914704922342205</v>
+        <v>0.91914726149460102</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>2.1227112800836778E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-5.0959236830294685E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -4621,8 +4652,8 @@
       <c r="C9">
         <v>102.9375</v>
       </c>
-      <c r="E9" s="4">
-        <v>44515</v>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="F9" s="11">
         <v>86.452914276943005</v>
@@ -4631,14 +4662,14 @@
         <v>44515</v>
       </c>
       <c r="I9" s="20">
-        <v>0.86453115435045602</v>
+        <v>0.86452914276941395</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>-2.0115810259735412E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.609823385706477E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4648,8 +4679,8 @@
       <c r="C10">
         <v>102.578125</v>
       </c>
-      <c r="E10" s="4">
-        <v>44607</v>
+      <c r="E10" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="F10" s="11">
         <v>85.658166731351997</v>
@@ -4658,14 +4689,14 @@
         <v>44607</v>
       </c>
       <c r="I10" s="20">
-        <v>0.856581769586783</v>
+        <v>0.85658166731354801</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>-1.0227326308065443E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-2.808864252301646E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -4675,8 +4706,8 @@
       <c r="C11">
         <v>101.171875</v>
       </c>
-      <c r="E11" s="4">
-        <v>51914</v>
+      <c r="E11" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="F11" s="11">
         <v>38.318232624048001</v>
@@ -4685,17 +4716,17 @@
         <v>51914</v>
       </c>
       <c r="I11" s="20">
-        <v>0.38317725511353501</v>
+        <v>0.38318232624800103</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>5.0711269449776886E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-7.5210393468694292E-12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4721,7 +4752,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4747,7 +4778,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="D18" s="4"/>
       <c r="G18" s="4">
         <v>41358</v>
@@ -4760,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4794,7 +4825,7 @@
         <v>-1.1375092422911913E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4">
@@ -4809,7 +4840,7 @@
         <v>-1.6250132032731304E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4843,7 +4874,7 @@
         <v>-8.7657892296254876E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4877,7 +4908,7 @@
         <v>-1.751326632176106E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4893,13 +4924,13 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="H25">
         <f>(H19/200)*I19+(H21/200)*I21+(H22/200+1)*I22</f>
         <v>1.0019969093406622</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4925,7 +4956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="G29" s="4">
         <v>41368</v>
       </c>
@@ -4937,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4975,7 +5006,7 @@
         <v>6.2453929445364931E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5013,7 +5044,7 @@
         <v>6.24000215694642E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4">
@@ -5028,7 +5059,7 @@
         <v>-1.751326632176106E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -5066,7 +5097,7 @@
         <v>6.2304982713190142E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5104,7 +5135,7 @@
         <v>6.2205108411432517E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4">
@@ -5119,7 +5150,7 @@
         <v>-5.1194215005715884E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -5157,7 +5188,7 @@
         <v>0.99969681542371946</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5179,7 +5210,7 @@
         <v>-6.5337802966521537E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="I39" s="20">
         <v>1.024633152</v>
       </c>
@@ -5194,183 +5225,273 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
       <c r="B1">
         <v>99.998374999999996</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D1" s="4">
+        <v>41368</v>
+      </c>
+      <c r="E1">
+        <v>0.99998374999999995</v>
+      </c>
+      <c r="G1" s="12">
+        <f>E1-B1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
       <c r="B2">
         <v>99.824985753454996</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="4">
+        <v>41729</v>
+      </c>
+      <c r="E2">
+        <v>0.99824985350138995</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G11" si="0">E2-B2/100</f>
+        <v>-4.0331600281717783E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
       <c r="B3">
         <v>99.489265444675993</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D3" s="4">
+        <v>42109</v>
+      </c>
+      <c r="E3">
+        <v>0.99489265446203101</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5271117703719028E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
       <c r="B4">
         <v>99.348360117770994</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D4" s="4">
+        <v>42247</v>
+      </c>
+      <c r="E4">
+        <v>0.99348360122966095</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>5.1950999058192338E-11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
       <c r="B5">
         <v>97.770046541485002</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="4">
+        <v>42825</v>
+      </c>
+      <c r="E5">
+        <v>0.977700449451817</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.5963033006549665E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
       <c r="B6">
         <v>94.405641014679006</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="4">
+        <v>43511</v>
+      </c>
+      <c r="E6">
+        <v>0.94405641099926096</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>8.5247087167061864E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
       <c r="B7">
         <v>94.021836329826996</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="4">
+        <v>43556</v>
+      </c>
+      <c r="E7">
+        <v>0.94021833971930502</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.3578964891690646E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
       <c r="B8">
         <v>91.901302399230005</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="4">
+        <v>43879</v>
+      </c>
+      <c r="E8">
+        <v>0.91901302534209595</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3497959416852723E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
       <c r="B9">
         <v>86.441355730628004</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="4">
+        <v>44515</v>
+      </c>
+      <c r="E9">
+        <v>0.86441355816718302</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>8.609030155426467E-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
       <c r="B10">
         <v>85.647191930922006</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="4">
+        <v>44607</v>
+      </c>
+      <c r="E10">
+        <v>0.85647192001402495</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>7.0480488112423245E-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
       <c r="B11">
         <v>36.839706253590002</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="4">
+        <v>51914</v>
+      </c>
+      <c r="E11">
+        <v>0.368397063148933</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>6.1303295773029731E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
@@ -291,7 +291,7 @@
     <numFmt numFmtId="174" formatCode="0.0000000"/>
     <numFmt numFmtId="175" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -998,7 +998,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1018,7 +1018,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1058,7 +1058,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1078,7 +1078,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1167,6 +1167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1201,6 +1202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1376,24 +1378,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1518,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1694,7 +1696,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.4">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.4">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.4">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1964,49 +1966,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -2016,20 +2018,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2373,84 +2375,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2464,37 +2466,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2518,7 +2520,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2542,7 +2544,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2565,7 +2567,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="14.4">
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="27"/>
       <c r="D4" s="31">
         <v>41444</v>
@@ -2586,7 +2588,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2613,7 +2615,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="14.4">
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2636,7 +2638,7 @@
       <c r="K6" s="29"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.4">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2663,7 +2665,7 @@
       <c r="K7" s="29"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="14.4">
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2686,14 +2688,14 @@
       <c r="K8" s="29"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="14.4">
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="D9" s="23"/>
       <c r="F9" s="9"/>
       <c r="K9" s="29"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="D10" s="23"/>
       <c r="F10" s="9"/>
@@ -2706,7 +2708,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="D11" s="23"/>
       <c r="F11" s="9"/>
@@ -2719,7 +2721,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="27"/>
       <c r="D12" s="23"/>
       <c r="F12" s="9"/>
@@ -2732,7 +2734,7 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="D13" s="23"/>
       <c r="F13" s="9"/>
@@ -2745,7 +2747,7 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="D14" s="23"/>
       <c r="F14" s="9"/>
@@ -2758,7 +2760,7 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="D15" s="23"/>
       <c r="F15" s="9"/>
@@ -2771,7 +2773,7 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="D16" s="23"/>
       <c r="F16" s="9"/>
@@ -2784,7 +2786,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="9"/>
       <c r="D17" s="23"/>
@@ -2806,7 +2808,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="14.4">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="9"/>
       <c r="D18" s="23"/>
@@ -2831,7 +2833,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="14.4">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="9"/>
       <c r="D19" s="23"/>
@@ -2856,7 +2858,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="9"/>
       <c r="D20" s="23"/>
@@ -2881,7 +2883,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="9"/>
       <c r="D21" s="23"/>
@@ -2906,7 +2908,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="9"/>
       <c r="D22" s="23"/>
@@ -2918,7 +2920,7 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="9"/>
       <c r="D23" s="23"/>
@@ -2930,7 +2932,7 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="9"/>
       <c r="D24" s="23"/>
@@ -2943,7 +2945,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
@@ -2951,21 +2953,21 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q26" s="22"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="Q29" s="19"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="F30" s="4"/>
@@ -2981,7 +2983,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="H31" s="4"/>
@@ -2995,7 +2997,7 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="H32" s="4"/>
@@ -3009,7 +3011,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="H33" s="4"/>
@@ -3023,7 +3025,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="H34" s="4"/>
@@ -3037,7 +3039,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="H35" s="4"/>
@@ -3051,7 +3053,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="F36" s="4"/>
@@ -3067,7 +3069,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="F37" s="4"/>
@@ -3083,7 +3085,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="F38" s="4"/>
@@ -3099,7 +3101,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="F39" s="4"/>
@@ -3115,7 +3117,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="F40" s="4"/>
@@ -3131,7 +3133,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="F41" s="4"/>
@@ -3147,7 +3149,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="F42" s="4"/>
@@ -3163,7 +3165,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="F43" s="4"/>
@@ -3179,7 +3181,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="F44" s="4"/>
@@ -3195,7 +3197,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="F45" s="4"/>
@@ -3211,7 +3213,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="F46" s="4"/>
@@ -3227,7 +3229,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="F47" s="4"/>
@@ -3243,7 +3245,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="F48" s="4"/>
@@ -3259,7 +3261,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="F49" s="4"/>
@@ -3275,7 +3277,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="F50" s="4"/>
@@ -3291,7 +3293,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="F51" s="4"/>
@@ -3307,7 +3309,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="F52" s="4"/>
@@ -3323,7 +3325,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="F53" s="4"/>
@@ -3339,7 +3341,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="F54" s="4"/>
@@ -3355,7 +3357,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="F55" s="4"/>
@@ -3371,7 +3373,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -3381,7 +3383,7 @@
       <c r="P56" s="22"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3391,7 +3393,7 @@
       <c r="P57" s="22"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3401,7 +3403,7 @@
       <c r="P58" s="22"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3411,40 +3413,40 @@
       <c r="P59" s="22"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71"/>
     </row>
   </sheetData>
@@ -3454,31 +3456,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>41354</v>
       </c>
@@ -3499,7 +3501,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
@@ -3520,7 +3522,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
@@ -3541,7 +3543,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
@@ -3562,7 +3564,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
@@ -3583,7 +3585,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
@@ -3606,7 +3608,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>41722</v>
       </c>
@@ -3630,7 +3632,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>42086</v>
       </c>
@@ -3653,7 +3655,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>42451</v>
       </c>
@@ -3676,7 +3678,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>42816</v>
       </c>
@@ -3699,7 +3701,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43181</v>
       </c>
@@ -3722,7 +3724,7 @@
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43549</v>
       </c>
@@ -3745,7 +3747,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -3768,7 +3770,7 @@
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
@@ -3791,7 +3793,7 @@
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44642</v>
       </c>
@@ -3814,7 +3816,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45007</v>
       </c>
@@ -3837,7 +3839,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>46834</v>
       </c>
@@ -3860,7 +3862,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
@@ -3882,7 +3884,7 @@
       <c r="I18" s="12"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
@@ -3904,7 +3906,7 @@
       <c r="I19" s="12"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
@@ -3926,7 +3928,7 @@
       <c r="I20" s="12"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="E21" s="4"/>
@@ -3940,10 +3942,10 @@
       </c>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3976,7 +3978,7 @@
       </c>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -4017,7 +4019,7 @@
       </c>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" ht="14.4">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>-9.8362897481930225E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.4">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4102,7 +4104,7 @@
         <v>3.0858330767174446E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.4">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>2.0598329417986051E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14.4">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>7.9351008033368024E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.4">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4225,7 +4227,7 @@
         <v>-2.7607680298129497E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14.4">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -4239,7 +4241,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="14.4">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
@@ -4250,7 +4252,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="14.4">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
@@ -4264,7 +4266,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:13" ht="14.4">
+    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
@@ -4275,7 +4277,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:13" ht="14.4">
+    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
@@ -4286,7 +4288,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:13" ht="14.4">
+    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
@@ -4297,7 +4299,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:13" ht="14.4">
+    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
@@ -4308,7 +4310,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="3:13" ht="14.4">
+    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
@@ -4319,7 +4321,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="3:13" ht="14.4">
+    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
@@ -4330,7 +4332,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="3:13" ht="14.4">
+    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
@@ -4341,7 +4343,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="3:13" ht="14.4">
+    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
@@ -4352,7 +4354,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="3:13" ht="14.4">
+    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
@@ -4363,38 +4365,38 @@
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="3:13">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -4406,27 +4408,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4480,7 +4482,7 @@
         <v>2.886579864025407E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>-5.7065463465733046E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>4.6962433941644122E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>6.2061467076546251E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>1.4988010832439613E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>-5.0959236830294685E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>1.609823385706477E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4696,7 +4698,7 @@
         <v>-2.808864252301646E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -4723,10 +4725,10 @@
         <v>-7.5210393468694292E-12</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4778,7 +4780,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="G18" s="4">
         <v>41358</v>
@@ -4791,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>-1.1375092422911913E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4">
@@ -4840,7 +4842,7 @@
         <v>-1.6250132032731304E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>-8.7657892296254876E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>-1.751326632176106E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4924,13 +4926,13 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H25">
         <f>(H19/200)*I19+(H21/200)*I21+(H22/200+1)*I22</f>
         <v>1.0019969093406622</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4956,7 +4958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G29" s="4">
         <v>41368</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5006,7 +5008,7 @@
         <v>6.2453929445364931E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5044,7 +5046,7 @@
         <v>6.24000215694642E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4">
@@ -5059,7 +5061,7 @@
         <v>-1.751326632176106E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>6.2304982713190142E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>6.2205108411432517E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4">
@@ -5150,7 +5152,7 @@
         <v>-5.1194215005715884E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -5188,7 +5190,7 @@
         <v>0.99969681542371946</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>-6.5337802966521537E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I39" s="20">
         <v>1.024633152</v>
       </c>
@@ -5225,22 +5227,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
@@ -5276,7 +5278,7 @@
         <v>-4.0331600281717783E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>1.5271117703719028E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>5.1950999058192338E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
@@ -5330,7 +5332,7 @@
         <v>-1.5963033006549665E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>8.5247087167061864E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -5366,7 +5368,7 @@
         <v>-2.3578964891690646E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>1.3497959416852723E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>8.609030155426467E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
@@ -5420,7 +5422,7 @@
         <v>7.0480488112423245E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
@@ -5438,60 +5440,60 @@
         <v>6.1303295773029731E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
@@ -291,7 +291,7 @@
     <numFmt numFmtId="174" formatCode="0.0000000"/>
     <numFmt numFmtId="175" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -998,7 +998,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1018,7 +1018,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1058,7 +1058,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1078,7 +1078,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1167,7 +1167,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1202,7 +1201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1378,24 +1376,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1613,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1642,7 +1640,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1694,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1723,7 +1721,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1777,7 +1775,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1804,7 +1802,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1856,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.4">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1883,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1939,7 +1937,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1966,49 +1964,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -2018,20 +2016,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2086,7 +2084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2137,7 +2135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2154,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2188,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2205,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2222,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2239,7 +2237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2256,7 +2254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2273,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2307,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2358,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2375,84 +2373,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2466,37 +2464,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -2520,7 +2518,7 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2534,7 +2532,7 @@
         <v>0.99998944452799998</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F8" si="0">LN(E2)</f>
+        <f t="shared" ref="F2:F9" si="0">LN(E2)</f>
         <v>-1.0555527709404426E-5</v>
       </c>
       <c r="G2" s="10"/>
@@ -2544,7 +2542,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2567,7 +2565,7 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="14.4">
       <c r="B4" s="27"/>
       <c r="D4" s="31">
         <v>41444</v>
@@ -2577,7 +2575,7 @@
         <v>0.99939524192552431</v>
       </c>
       <c r="F4" s="9">
-        <f>F3+(F5-F3)/(D5-D3)*(D4-D3)</f>
+        <f>F3+(F6-F3)/(D6-D3)*(D4-D3)</f>
         <v>-6.049410144000158E-4</v>
       </c>
       <c r="G4" s="10"/>
@@ -2588,131 +2586,161 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="27">
-        <v>99.7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>41536</v>
+    <row r="5" spans="1:17">
+      <c r="B5" s="27"/>
+      <c r="D5" s="33">
+        <v>41535</v>
       </c>
       <c r="E5" s="9">
-        <v>0.99862966305300005</v>
+        <f>EXP(F5)</f>
+        <v>0.99863798140900117</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.3712767173068678E-3</v>
-      </c>
-      <c r="G5" s="20">
-        <f>(E4/E5-1)/(D5-D4)*360</f>
-        <v>2.999854225305615E-3</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1.4577457E-5</v>
-      </c>
+        <f>F4+(F6-F4)/(D6-D4)*(D5-D4)</f>
+        <v>-1.3629469814057066E-3</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="27">
+        <v>99.7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41536</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.99862966305300005</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.3712767173068678E-3</v>
+      </c>
+      <c r="G6" s="20">
+        <f>(E4/E6-1)/(D6-D4)*360</f>
+        <v>2.999854225305615E-3</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1.4577457E-5</v>
+      </c>
+      <c r="I6" s="20">
+        <f>G6+H6/100</f>
+        <v>2.9999999998756152E-3</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.4">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B7" s="27">
         <v>99.685000000000002</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D7" s="33">
         <v>41626</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>0.99784358873800005</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>-2.1587396646967961E-3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="G7" s="20">
+        <f>(E5/E7-1)/(D7-D5)*360</f>
+        <v>3.1494438209641999E-3</v>
+      </c>
+      <c r="H7" s="20">
         <v>5.5617898000000003E-5</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="27">
-        <v>99.665000000000006</v>
-      </c>
-      <c r="D7" s="33">
-        <v>41716</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.997008977613</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.9955044339594868E-3</v>
-      </c>
-      <c r="G7">
-        <f>(E6/E7-1)/(D7-D6)*360</f>
-        <v>3.3484598182784704E-3</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1.5401828999999999E-4</v>
+      <c r="I7" s="20">
+        <f t="shared" ref="I7:I9" si="1">G7+H7/100</f>
+        <v>3.1499999999442E-3</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="14.4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="27">
-        <v>99.635000000000005</v>
+        <v>99.665000000000006</v>
       </c>
       <c r="D8" s="33">
-        <v>41725</v>
+        <v>41716</v>
       </c>
       <c r="E8" s="9">
-        <v>0.99688652554599999</v>
+        <v>0.997008977613</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>-3.1183313995250882E-3</v>
+        <v>-2.9955044339594868E-3</v>
+      </c>
+      <c r="G8" s="20">
+        <f>(E7/E8-1)/(D8-D7)*360</f>
+        <v>3.3484598182784704E-3</v>
       </c>
       <c r="H8" s="20">
-        <v>3.6911292000000001E-4</v>
+        <v>1.5401828999999999E-4</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="1"/>
+        <v>3.3500000011784702E-3</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
-      <c r="D9" s="23"/>
-      <c r="F9" s="9"/>
+    <row r="9" spans="1:17" ht="14.4">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="27">
+        <v>99.635000000000005</v>
+      </c>
+      <c r="D9" s="33">
+        <v>41725</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.99688652554599999</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.1183313995250882E-3</v>
+      </c>
+      <c r="G9" s="20">
+        <f>(E8/E9-1)/(D9-D8)*360</f>
+        <v>4.9133803642487095E-3</v>
+      </c>
+      <c r="H9" s="20">
+        <v>3.6911292000000001E-4</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="1"/>
+        <v>4.9170714934487093E-3</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="14.4">
       <c r="B10" s="27"/>
       <c r="D10" s="23"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="12"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:17">
       <c r="B11" s="27"/>
       <c r="D11" s="23"/>
       <c r="F11" s="9"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="12"/>
       <c r="I11" s="6"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -2721,7 +2749,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12" s="27"/>
       <c r="D12" s="23"/>
       <c r="F12" s="9"/>
@@ -2730,11 +2758,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13" s="27"/>
       <c r="D13" s="23"/>
       <c r="F13" s="9"/>
@@ -2747,8 +2775,13 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:17">
+      <c r="B14" s="27">
+        <v>41359</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.99999500002499997</v>
+      </c>
       <c r="D14" s="23"/>
       <c r="F14" s="9"/>
       <c r="H14" s="10"/>
@@ -2760,8 +2793,13 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:17">
+      <c r="B15" s="4">
+        <v>41360</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.99998944452808602</v>
+      </c>
       <c r="D15" s="23"/>
       <c r="F15" s="9"/>
       <c r="H15" s="10"/>
@@ -2769,12 +2807,17 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:17">
+      <c r="B16" s="4">
+        <v>41393</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.99981989173811203</v>
+      </c>
       <c r="D16" s="23"/>
       <c r="F16" s="9"/>
       <c r="H16" s="10"/>
@@ -2786,206 +2829,288 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="27"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="23"/>
+    <row r="17" spans="1:18">
+      <c r="B17" s="4">
+        <v>41536</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.99862966305307499</v>
+      </c>
+      <c r="D17" s="23">
+        <f>C17-E6</f>
+        <v>7.4940054162198066E-14</v>
+      </c>
       <c r="F17" s="9"/>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="23"/>
+    <row r="18" spans="1:18">
+      <c r="B18" s="4">
+        <v>41626</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.99784358873811196</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" ref="D18:D20" si="2">C18-E7</f>
+        <v>1.1191048088221578E-13</v>
+      </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="30">
-        <v>41442</v>
-      </c>
-      <c r="I18" s="31">
-        <v>41444</v>
-      </c>
-      <c r="J18" s="4">
-        <v>41536</v>
-      </c>
-      <c r="K18" s="34">
-        <v>41535</v>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="L18" s="12"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="23"/>
+    <row r="19" spans="1:18" ht="14.4">
+      <c r="B19" s="4">
+        <v>41716</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.99700897761341001</v>
+      </c>
+      <c r="D19" s="23">
+        <f t="shared" si="2"/>
+        <v>4.1000536299407031E-13</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="30">
-        <v>41533</v>
+        <v>41442</v>
       </c>
       <c r="I19" s="31">
+        <v>41444</v>
+      </c>
+      <c r="J19" s="4">
+        <v>41536</v>
+      </c>
+      <c r="K19" s="34">
         <v>41535</v>
-      </c>
-      <c r="J19" s="4">
-        <v>41626</v>
-      </c>
-      <c r="K19" s="34">
-        <v>41626</v>
       </c>
       <c r="L19" s="12"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="23"/>
+    <row r="20" spans="1:18" ht="14.4">
+      <c r="B20" s="4">
+        <v>41809</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.99607071098363098</v>
+      </c>
+      <c r="D20" s="23">
+        <f>C20-E9</f>
+        <v>-8.1581456236901051E-4</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="30">
-        <v>41624</v>
+        <v>41533</v>
       </c>
       <c r="I20" s="31">
+        <v>41535</v>
+      </c>
+      <c r="J20" s="4">
         <v>41626</v>
       </c>
-      <c r="J20" s="4">
-        <v>41716</v>
-      </c>
       <c r="K20" s="34">
-        <v>41717</v>
+        <v>41626</v>
       </c>
       <c r="L20" s="12"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="9"/>
+    <row r="21" spans="1:18" ht="14.4">
+      <c r="B21" s="4">
+        <v>42093</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.99254410846862395</v>
+      </c>
       <c r="D21" s="23"/>
       <c r="F21" s="9"/>
       <c r="G21" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="30">
-        <v>41715</v>
+        <v>41624</v>
       </c>
       <c r="I21" s="31">
+        <v>41626</v>
+      </c>
+      <c r="J21" s="4">
+        <v>41716</v>
+      </c>
+      <c r="K21" s="34">
         <v>41717</v>
-      </c>
-      <c r="J21" s="4">
-        <v>41809</v>
-      </c>
-      <c r="K21" s="34">
-        <v>41808</v>
       </c>
       <c r="L21" s="12"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="27"/>
-      <c r="C22" s="9"/>
+    <row r="22" spans="1:18" ht="14.4">
+      <c r="B22" s="4">
+        <v>42457</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.98541052895686099</v>
+      </c>
       <c r="D22" s="23"/>
       <c r="F22" s="9"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="G22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="30">
+        <v>41715</v>
+      </c>
+      <c r="I22" s="31">
+        <v>41717</v>
+      </c>
+      <c r="J22" s="4">
+        <v>41809</v>
+      </c>
+      <c r="K22" s="34">
+        <v>41808</v>
+      </c>
+      <c r="L22" s="12"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="27"/>
-      <c r="C23" s="9"/>
+    <row r="23" spans="1:18">
+      <c r="B23" s="4">
+        <v>42821</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.973136176527302</v>
+      </c>
       <c r="D23" s="23"/>
+      <c r="F23" s="9"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="M23" s="4"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="27"/>
-      <c r="C24" s="9"/>
+    <row r="24" spans="1:18">
+      <c r="B24" s="4">
+        <v>43186</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.95512100804052502</v>
+      </c>
       <c r="D24" s="23"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="26"/>
       <c r="K24" s="6"/>
-      <c r="M24" s="11"/>
+      <c r="M24" s="4"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="I25" s="25"/>
+    <row r="25" spans="1:18">
+      <c r="B25" s="4">
+        <v>43551</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.931988197364501</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="26"/>
+      <c r="K25" s="6"/>
+      <c r="M25" s="11"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q26" s="22"/>
-      <c r="R26"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
+      <c r="B26" s="4">
+        <v>43917</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.90536079025138905</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="4">
+        <v>44284</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.87655381509875696</v>
+      </c>
+      <c r="Q27" s="22"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
+      <c r="B28" s="4">
+        <v>44648</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.84716308160657705</v>
+      </c>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="Q29" s="19"/>
+    <row r="29" spans="1:18">
+      <c r="B29" s="4">
+        <v>45012</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.81709278304601596</v>
+      </c>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
+      <c r="B30" s="4">
+        <v>46839</v>
+      </c>
+      <c r="C30" s="9">
+        <v>0.67269946657100999</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4">
+        <v>48666</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.557832062398815</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="K31" s="4"/>
@@ -2997,9 +3122,14 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4">
+        <v>50493</v>
+      </c>
+      <c r="C32" s="9">
+        <v>0.46666156461425501</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="K32" s="4"/>
@@ -3011,9 +3141,14 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4">
+        <v>52320</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.39124868286407499</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="K33" s="4"/>
@@ -3025,9 +3160,10 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
+      <c r="C34" s="9"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="K34" s="4"/>
@@ -3039,9 +3175,10 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
+      <c r="C35" s="9"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="K35" s="4"/>
@@ -3053,11 +3190,10 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="C36" s="9"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="K36" s="4"/>
@@ -3069,9 +3205,10 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
+      <c r="C37" s="9"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -3085,7 +3222,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="F38" s="4"/>
@@ -3101,7 +3238,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="F39" s="4"/>
@@ -3117,7 +3254,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="F40" s="4"/>
@@ -3133,7 +3270,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="F41" s="4"/>
@@ -3149,7 +3286,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="F42" s="4"/>
@@ -3165,7 +3302,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="F43" s="4"/>
@@ -3181,7 +3318,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="F44" s="4"/>
@@ -3197,7 +3334,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="F45" s="4"/>
@@ -3213,7 +3350,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="F46" s="4"/>
@@ -3229,7 +3366,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="F47" s="4"/>
@@ -3245,7 +3382,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="F48" s="4"/>
@@ -3261,7 +3398,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="F49" s="4"/>
@@ -3277,7 +3414,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="F50" s="4"/>
@@ -3293,7 +3430,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="F51" s="4"/>
@@ -3309,7 +3446,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="F52" s="4"/>
@@ -3325,7 +3462,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="F53" s="4"/>
@@ -3341,7 +3478,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="F54" s="4"/>
@@ -3357,7 +3494,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="F55" s="4"/>
@@ -3373,17 +3510,23 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56"/>
-      <c r="L56" s="11"/>
-      <c r="N56"/>
-      <c r="P56" s="22"/>
-      <c r="R56"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:18">
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3393,7 +3536,7 @@
       <c r="P57" s="22"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3403,7 +3546,7 @@
       <c r="P58" s="22"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3413,41 +3556,51 @@
       <c r="P59" s="22"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
       <c r="J60"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L60" s="11"/>
+      <c r="N60"/>
+      <c r="P60" s="22"/>
+      <c r="R60"/>
+    </row>
+    <row r="61" spans="1:18">
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10">
       <c r="J71"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3456,31 +3609,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="4">
         <v>41354</v>
       </c>
@@ -3501,7 +3654,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
@@ -3522,7 +3675,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
@@ -3543,7 +3696,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
@@ -3564,7 +3717,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
@@ -3585,7 +3738,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
@@ -3608,7 +3761,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="14">
         <v>41722</v>
       </c>
@@ -3632,7 +3785,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>42086</v>
       </c>
@@ -3655,7 +3808,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>42451</v>
       </c>
@@ -3678,7 +3831,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>42816</v>
       </c>
@@ -3701,7 +3854,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>43181</v>
       </c>
@@ -3724,7 +3877,7 @@
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>43549</v>
       </c>
@@ -3747,7 +3900,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -3770,7 +3923,7 @@
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
@@ -3793,7 +3946,7 @@
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>44642</v>
       </c>
@@ -3816,7 +3969,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>45007</v>
       </c>
@@ -3839,7 +3992,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>46834</v>
       </c>
@@ -3862,7 +4015,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
@@ -3884,7 +4037,7 @@
       <c r="I18" s="12"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
@@ -3906,7 +4059,7 @@
       <c r="I19" s="12"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
@@ -3928,7 +4081,7 @@
       <c r="I20" s="12"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="E21" s="4"/>
@@ -3942,10 +4095,10 @@
       </c>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3978,7 +4131,7 @@
       </c>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.4">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -4019,7 +4172,7 @@
       </c>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="14.4">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4063,7 +4216,7 @@
         <v>-9.8362897481930225E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="14.4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4104,7 +4257,7 @@
         <v>3.0858330767174446E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4145,7 +4298,7 @@
         <v>2.0598329417986051E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4186,7 +4339,7 @@
         <v>7.9351008033368024E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4227,7 +4380,7 @@
         <v>-2.7607680298129497E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="14.4">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -4241,7 +4394,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="14.4">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
@@ -4252,7 +4405,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="14.4">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
@@ -4266,7 +4419,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" ht="14.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
@@ -4277,7 +4430,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" ht="14.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
@@ -4288,7 +4441,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" ht="14.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
@@ -4299,7 +4452,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" ht="14.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
@@ -4310,7 +4463,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" ht="14.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
@@ -4321,7 +4474,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" ht="14.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
@@ -4332,7 +4485,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" ht="14.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
@@ -4343,7 +4496,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" ht="14.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
@@ -4354,7 +4507,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" ht="14.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
@@ -4365,38 +4518,38 @@
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13">
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13">
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:13">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -4408,27 +4561,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="20" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4455,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4482,7 +4635,7 @@
         <v>2.886579864025407E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4509,7 +4662,7 @@
         <v>-5.7065463465733046E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -4536,7 +4689,7 @@
         <v>4.6962433941644122E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -4563,7 +4716,7 @@
         <v>6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -4590,7 +4743,7 @@
         <v>6.2061467076546251E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -4617,7 +4770,7 @@
         <v>1.4988010832439613E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -4644,7 +4797,7 @@
         <v>-5.0959236830294685E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -4671,7 +4824,7 @@
         <v>1.609823385706477E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -4698,7 +4851,7 @@
         <v>-2.808864252301646E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -4725,10 +4878,10 @@
         <v>-7.5210393468694292E-12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4754,7 +4907,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -4780,7 +4933,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="D18" s="4"/>
       <c r="G18" s="4">
         <v>41358</v>
@@ -4793,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -4827,7 +4980,7 @@
         <v>-1.1375092422911913E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4">
@@ -4842,7 +4995,7 @@
         <v>-1.6250132032731304E-5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4876,7 +5029,7 @@
         <v>-8.7657892296254876E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4910,7 +5063,7 @@
         <v>-1.751326632176106E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4926,13 +5079,13 @@
         <v>41729</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="H25">
         <f>(H19/200)*I19+(H21/200)*I21+(H22/200+1)*I22</f>
         <v>1.0019969093406622</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4958,7 +5111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="G29" s="4">
         <v>41368</v>
       </c>
@@ -4970,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5008,7 +5161,7 @@
         <v>6.2453929445364931E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -5046,7 +5199,7 @@
         <v>6.24000215694642E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" s="4">
@@ -5061,7 +5214,7 @@
         <v>-1.751326632176106E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -5099,7 +5252,7 @@
         <v>6.2304982713190142E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5137,7 +5290,7 @@
         <v>6.2205108411432517E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4">
@@ -5152,7 +5305,7 @@
         <v>-5.1194215005715884E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -5190,7 +5343,7 @@
         <v>0.99969681542371946</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5212,7 +5365,7 @@
         <v>-6.5337802966521537E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="I39" s="20">
         <v>1.024633152</v>
       </c>
@@ -5227,22 +5380,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
@@ -5260,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
@@ -5278,7 +5431,7 @@
         <v>-4.0331600281717783E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
@@ -5296,7 +5449,7 @@
         <v>1.5271117703719028E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
@@ -5314,7 +5467,7 @@
         <v>5.1950999058192338E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
@@ -5332,7 +5485,7 @@
         <v>-1.5963033006549665E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
@@ -5350,7 +5503,7 @@
         <v>8.5247087167061864E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -5368,7 +5521,7 @@
         <v>-2.3578964891690646E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -5386,7 +5539,7 @@
         <v>1.3497959416852723E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
@@ -5404,7 +5557,7 @@
         <v>8.609030155426467E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
@@ -5422,7 +5575,7 @@
         <v>7.0480488112423245E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
@@ -5440,60 +5593,60 @@
         <v>6.1303295773029731E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -117,18 +117,12 @@
     <t>Float Rate</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
     <t>Fixed Rate</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Curr</t>
-  </si>
-  <si>
     <t>Nominal</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Present Value</t>
   </si>
   <si>
-    <t>Fixed Amount</t>
-  </si>
-  <si>
     <t>B 04/04/13</t>
   </si>
   <si>
@@ -192,27 +183,6 @@
     <t>T 3 1/8 02/15/42</t>
   </si>
   <si>
-    <t>USD/DEP/1D</t>
-  </si>
-  <si>
-    <t>USD/DEP/TN</t>
-  </si>
-  <si>
-    <t>USD/DEP/1M</t>
-  </si>
-  <si>
-    <t>EDM3 PIT Comdty</t>
-  </si>
-  <si>
-    <t>EDU3 PIT Comdty</t>
-  </si>
-  <si>
-    <t>EDZ3 PIT Comdty</t>
-  </si>
-  <si>
-    <t>EDH4 PIT Comdty</t>
-  </si>
-  <si>
     <t>Fix</t>
   </si>
   <si>
@@ -235,9 +205,6 @@
   </si>
   <si>
     <t>BBG</t>
-  </si>
-  <si>
-    <t>Convexity</t>
   </si>
   <si>
     <t>04/04/2013,0.99998375</t>
@@ -276,8 +243,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
@@ -290,8 +257,10 @@
     <numFmt numFmtId="173" formatCode="0.00000"/>
     <numFmt numFmtId="174" formatCode="0.0000000"/>
     <numFmt numFmtId="175" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -848,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -872,7 +841,6 @@
     <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
     <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -886,6 +854,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -998,7 +969,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1018,7 +989,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1058,7 +1029,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1078,7 +1049,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1167,6 +1138,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1201,6 +1173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1376,24 +1349,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1395,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1419,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1454,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1489,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1524,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.4">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +1559,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1613,7 +1586,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1613,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1667,7 +1640,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1694,7 +1667,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1721,7 +1694,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1748,7 +1721,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.4">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1748,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.4">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1775,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.4">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1802,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.4">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1829,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.4">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1856,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.4">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1910,7 +1883,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.4">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1910,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1964,49 +1937,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -2016,20 +1989,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2025,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2084,7 +2057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2118,7 +2091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2135,7 +2108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2152,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2220,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2271,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2288,7 +2261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2322,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2339,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2356,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2373,84 +2346,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2464,76 +2437,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="27">
-        <v>0.18</v>
-      </c>
-      <c r="D1" s="33">
-        <v>41359</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4">
+        <v>41361</v>
+      </c>
+      <c r="B1" s="34">
+        <v>99.9995000025</v>
+      </c>
+      <c r="D1" s="32">
+        <v>41361</v>
       </c>
       <c r="E1" s="9">
         <v>0.99999500002499997</v>
       </c>
       <c r="F1" s="9">
-        <f>LN(E1)</f>
-        <v>-4.9999874999473539E-6</v>
+        <f>E1-B1/100</f>
+        <v>0</v>
       </c>
       <c r="G1" s="10"/>
-      <c r="H1" s="28"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="6"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="33">
-        <v>41360</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>41362</v>
+      </c>
+      <c r="B2" s="34">
+        <v>99.998944452808999</v>
+      </c>
+      <c r="D2" s="32">
+        <v>41362</v>
       </c>
       <c r="E2" s="9">
-        <v>0.99998944452799998</v>
+        <v>0.99998944452808602</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F9" si="0">LN(E2)</f>
-        <v>-1.0555527709404426E-5</v>
+        <f t="shared" ref="F2:F42" si="0">E2-B2/100</f>
+        <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -2542,22 +2515,22 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="27">
-        <v>0.185</v>
-      </c>
-      <c r="D3" s="4">
-        <v>41393</v>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>41394</v>
+      </c>
+      <c r="B3" s="34">
+        <v>99.982502885665994</v>
+      </c>
+      <c r="D3" s="32">
+        <v>41394</v>
       </c>
       <c r="E3" s="9">
-        <v>0.99981989173800001</v>
+        <v>0.99982502885667401</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="0"/>
-        <v>-1.8012448344078264E-4</v>
+        <v>1.4099832412739488E-14</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="12"/>
@@ -2565,39 +2538,45 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:17" ht="14.4">
-      <c r="B4" s="27"/>
-      <c r="D4" s="31">
-        <v>41444</v>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>41453</v>
+      </c>
+      <c r="B4" s="34">
+        <v>99.923169382693999</v>
+      </c>
+      <c r="D4" s="32">
+        <v>41453</v>
       </c>
       <c r="E4" s="9">
-        <f>EXP(F4)</f>
-        <v>0.99939524192552431</v>
+        <v>0.999231693826933</v>
       </c>
       <c r="F4" s="9">
-        <f>F3+(F6-F3)/(D6-D3)*(D4-D3)</f>
-        <v>-6.049410144000158E-4</v>
+        <f t="shared" si="0"/>
+        <v>-6.9944050551384862E-15</v>
       </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="H4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="27"/>
-      <c r="D5" s="33">
-        <v>41535</v>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>41536</v>
+      </c>
+      <c r="B5" s="34">
+        <v>99.855665584131998</v>
+      </c>
+      <c r="D5" s="32">
+        <v>41536</v>
       </c>
       <c r="E5" s="9">
-        <f>EXP(F5)</f>
-        <v>0.99863798140900117</v>
+        <v>0.99855665592972997</v>
       </c>
       <c r="F5" s="9">
-        <f>F4+(F6-F4)/(D6-D4)*(D5-D4)</f>
-        <v>-1.3629469814057066E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.8409946030765241E-11</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="12"/>
@@ -2605,203 +2584,288 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="27">
-        <v>99.7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>41536</v>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>41626</v>
+      </c>
+      <c r="B6" s="34">
+        <v>99.777044862875002</v>
+      </c>
+      <c r="D6" s="32">
+        <v>41626</v>
       </c>
       <c r="E6" s="9">
-        <v>0.99862966305300005</v>
+        <v>0.99777044868654696</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>-1.3712767173068678E-3</v>
-      </c>
-      <c r="G6" s="20">
-        <f>(E4/E6-1)/(D6-D4)*360</f>
-        <v>2.999854225305615E-3</v>
-      </c>
-      <c r="H6" s="20">
-        <v>1.4577457E-5</v>
-      </c>
-      <c r="I6" s="20">
-        <f>G6+H6/100</f>
-        <v>2.9999999998756152E-3</v>
-      </c>
+        <v>5.7796989416658562E-11</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:17" ht="14.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>41716</v>
+      </c>
+      <c r="B7" s="34">
+        <v>99.693589212589004</v>
+      </c>
+      <c r="D7" s="32">
+        <v>41716</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.99693589218462797</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.8737903430028382E-11</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>41809</v>
+      </c>
+      <c r="B8" s="34">
+        <v>99.599768127081006</v>
+      </c>
+      <c r="D8" s="32">
+        <v>41809</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.99599768132963995</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>5.8829940918769807E-11</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="9"/>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>42093</v>
+      </c>
+      <c r="B9" s="34">
+        <v>99.258349933671994</v>
+      </c>
+      <c r="D9" s="32">
+        <v>42093</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.99257151572824398</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1983608475985008E-5</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="9"/>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>42458</v>
+      </c>
+      <c r="B10" s="34">
+        <v>98.543639935358001</v>
+      </c>
+      <c r="D10" s="32">
+        <v>42458</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.98542448349227596</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1915861304001574E-5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="27">
-        <v>99.685000000000002</v>
-      </c>
-      <c r="D7" s="33">
-        <v>41626</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.99784358873800005</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.1587396646967961E-3</v>
-      </c>
-      <c r="G7" s="20">
-        <f>(E5/E7-1)/(D7-D5)*360</f>
-        <v>3.1494438209641999E-3</v>
-      </c>
-      <c r="H7" s="20">
-        <v>5.5617898000000003E-5</v>
-      </c>
-      <c r="I7" s="20">
-        <f t="shared" ref="I7:I9" si="1">G7+H7/100</f>
-        <v>3.1499999999442E-3</v>
-      </c>
-      <c r="K7" s="29"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" ht="14.4">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="27">
-        <v>99.665000000000006</v>
-      </c>
-      <c r="D8" s="33">
-        <v>41716</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.997008977613</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.9955044339594868E-3</v>
-      </c>
-      <c r="G8" s="20">
-        <f>(E7/E8-1)/(D8-D7)*360</f>
-        <v>3.3484598182784704E-3</v>
-      </c>
-      <c r="H8" s="20">
-        <v>1.5401828999999999E-4</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" si="1"/>
-        <v>3.3500000011784702E-3</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" ht="14.4">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="27">
-        <v>99.635000000000005</v>
-      </c>
-      <c r="D9" s="33">
-        <v>41725</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.99688652554599999</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.1183313995250882E-3</v>
-      </c>
-      <c r="G9" s="20">
-        <f>(E8/E9-1)/(D9-D8)*360</f>
-        <v>4.9133803642487095E-3</v>
-      </c>
-      <c r="H9" s="20">
-        <v>3.6911292000000001E-4</v>
-      </c>
-      <c r="I9" s="20">
-        <f t="shared" si="1"/>
-        <v>4.9170714934487093E-3</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" ht="14.4">
-      <c r="B10" s="27"/>
-      <c r="D10" s="23"/>
-      <c r="F10" s="9"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" s="27"/>
-      <c r="D11" s="23"/>
-      <c r="F11" s="9"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>42823</v>
+      </c>
+      <c r="B11" s="34">
+        <v>97.314886243214005</v>
+      </c>
+      <c r="D11" s="32">
+        <v>42823</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.97313706500603603</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1797426104021014E-5</v>
+      </c>
       <c r="G11" s="12"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="H11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="29">
+        <v>41442</v>
+      </c>
+      <c r="J11" s="30">
+        <v>41444</v>
+      </c>
+      <c r="K11" s="4">
+        <v>41536</v>
+      </c>
+      <c r="L11" s="33">
+        <v>41535</v>
+      </c>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17">
-      <c r="B12" s="27"/>
-      <c r="D12" s="23"/>
-      <c r="F12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43188</v>
+      </c>
+      <c r="B12" s="34">
+        <v>95.513383177809999</v>
+      </c>
+      <c r="D12" s="32">
+        <v>43188</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.95512221545407605</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1616324023910884E-5</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="29">
+        <v>41533</v>
+      </c>
+      <c r="J12" s="30">
+        <v>41535</v>
+      </c>
+      <c r="K12" s="4">
+        <v>41626</v>
+      </c>
+      <c r="L12" s="33">
+        <v>41626</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="27"/>
-      <c r="D13" s="23"/>
-      <c r="F13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43553</v>
+      </c>
+      <c r="B13" s="34">
+        <v>93.200051846400996</v>
+      </c>
+      <c r="D13" s="32">
+        <v>43553</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.931989143471458</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1374992551993479E-5</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="29">
+        <v>41624</v>
+      </c>
+      <c r="J13" s="30">
+        <v>41626</v>
+      </c>
+      <c r="K13" s="4">
+        <v>41716</v>
+      </c>
+      <c r="L13" s="33">
+        <v>41717</v>
+      </c>
       <c r="O13" s="12"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17">
-      <c r="B14" s="27">
-        <v>41359</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.99999500002499997</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="F14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B14" s="34">
+        <v>90.533806771865997</v>
+      </c>
+      <c r="D14" s="32">
+        <v>43920</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.90532697960418096</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1088114479029798E-5</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="29">
+        <v>41715</v>
+      </c>
+      <c r="J14" s="30">
+        <v>41717</v>
+      </c>
+      <c r="K14" s="4">
+        <v>41809</v>
+      </c>
+      <c r="L14" s="33">
+        <v>41808</v>
+      </c>
       <c r="O14" s="12"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="4">
-        <v>41360</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.99998944452808602</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="F15" s="9"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B15" s="34">
+        <v>87.664366623982005</v>
+      </c>
+      <c r="D15" s="32">
+        <v>44284</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.876632894271831</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.0771967989042786E-5</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="6"/>
       <c r="J15" s="12"/>
@@ -2811,15 +2875,24 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="4">
-        <v>41393</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.99981989173811203</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="F16" s="9"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>44649</v>
+      </c>
+      <c r="B16" s="34">
+        <v>84.721740304942003</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="32">
+        <v>44649</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.84720696185358402</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.044119583604175E-5</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="6"/>
       <c r="J16" s="12"/>
@@ -2829,18 +2902,24 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:18">
-      <c r="B17" s="4">
-        <v>41536</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.99862966305307499</v>
-      </c>
-      <c r="D17" s="23">
-        <f>C17-E6</f>
-        <v>7.4940054162198066E-14</v>
-      </c>
-      <c r="F17" s="9"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>45014</v>
+      </c>
+      <c r="B17" s="34">
+        <v>81.710535030868996</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="32">
+        <v>45014</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.81709525232871305</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.0097979976864124E-5</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="6"/>
       <c r="J17" s="12"/>
@@ -2850,166 +2929,124 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:18">
-      <c r="B18" s="4">
-        <v>41626</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.99784358873811196</v>
-      </c>
-      <c r="D18" s="23">
-        <f t="shared" ref="D18:D20" si="2">C18-E7</f>
-        <v>1.1191048088221578E-13</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="H18" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>71</v>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>46841</v>
+      </c>
+      <c r="B18" s="34">
+        <v>67.271074647776004</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="32">
+        <v>46841</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.67270234203986001</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.4044379000669522E-6</v>
       </c>
       <c r="L18" s="12"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:18" ht="14.4">
-      <c r="B19" s="4">
-        <v>41716</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.99700897761341001</v>
-      </c>
-      <c r="D19" s="23">
-        <f t="shared" si="2"/>
-        <v>4.1000536299407031E-13</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="30">
-        <v>41442</v>
-      </c>
-      <c r="I19" s="31">
-        <v>41444</v>
-      </c>
-      <c r="J19" s="4">
-        <v>41536</v>
-      </c>
-      <c r="K19" s="34">
-        <v>41535</v>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>48667</v>
+      </c>
+      <c r="B19" s="34">
+        <v>55.788483838201003</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="32">
+        <v>48667</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.55787782637010697</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>-7.012011903118065E-6</v>
       </c>
       <c r="L19" s="12"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:18" ht="14.4">
-      <c r="B20" s="4">
-        <v>41809</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.99607071098363098</v>
-      </c>
-      <c r="D20" s="23">
-        <f>C20-E9</f>
-        <v>-8.1581456236901051E-4</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="30">
-        <v>41533</v>
-      </c>
-      <c r="I20" s="31">
-        <v>41535</v>
-      </c>
-      <c r="J20" s="4">
-        <v>41626</v>
-      </c>
-      <c r="K20" s="34">
-        <v>41626</v>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>50493</v>
+      </c>
+      <c r="B20" s="34">
+        <v>46.670882077182</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="32">
+        <v>50493</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.46673981994928299</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>3.0999177462964767E-5</v>
       </c>
       <c r="L20" s="12"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:18" ht="14.4">
-      <c r="B21" s="4">
-        <v>42093</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.99254410846862395</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="30">
-        <v>41624</v>
-      </c>
-      <c r="I21" s="31">
-        <v>41626</v>
-      </c>
-      <c r="J21" s="4">
-        <v>41716</v>
-      </c>
-      <c r="K21" s="34">
-        <v>41717</v>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>52320</v>
+      </c>
+      <c r="B21" s="26">
+        <v>39.130708086548999</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="32">
+        <v>52320</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.39133483360279497</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7752737304986841E-5</v>
       </c>
       <c r="L21" s="12"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:18" ht="14.4">
-      <c r="B22" s="4">
-        <v>42457</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.98541052895686099</v>
-      </c>
-      <c r="D22" s="23"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="30">
-        <v>41715</v>
-      </c>
-      <c r="I22" s="31">
-        <v>41717</v>
-      </c>
-      <c r="J22" s="4">
-        <v>41809</v>
-      </c>
-      <c r="K22" s="34">
-        <v>41808</v>
-      </c>
       <c r="L22" s="12"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:18">
-      <c r="B23" s="4">
-        <v>42821</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.973136176527302</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="F23" s="9"/>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>41361</v>
+      </c>
+      <c r="B23" s="26">
+        <v>99.9995000025</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="32">
+        <v>41361</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.99999500002499997</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="K23" s="6"/>
@@ -3017,14 +3054,24 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:18">
-      <c r="B24" s="4">
-        <v>43186</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0.95512100804052502</v>
-      </c>
-      <c r="D24" s="23"/>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>41362</v>
+      </c>
+      <c r="B24" s="26">
+        <v>99.998944452808999</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="32">
+        <v>41362</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.99998944452808602</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.9968028886505635E-15</v>
+      </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="K24" s="6"/>
@@ -3033,85 +3080,157 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:18">
-      <c r="B25" s="4">
-        <v>43551</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0.931988197364501</v>
-      </c>
-      <c r="D25" s="23"/>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>41394</v>
+      </c>
+      <c r="B25" s="26">
+        <v>99.982502885665994</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="32">
+        <v>41394</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.99982502885667401</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4099832412739488E-14</v>
+      </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="26"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="6"/>
       <c r="M25" s="11"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:18">
-      <c r="B26" s="4">
-        <v>43917</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0.90536079025138905</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>41453</v>
+      </c>
+      <c r="B26" s="26">
+        <v>99.923169382693999</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="32">
+        <v>41453</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.999231693826933</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>-6.9944050551384862E-15</v>
+      </c>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:18">
-      <c r="B27" s="4">
-        <v>44284</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.87655381509875696</v>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>41547</v>
+      </c>
+      <c r="B27" s="26">
+        <v>99.750074942915006</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="32">
+        <v>41547</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.99750074942914502</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.9960036108132044E-15</v>
       </c>
       <c r="Q27" s="22"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18">
-      <c r="B28" s="4">
-        <v>44648</v>
-      </c>
-      <c r="C28" s="9">
-        <v>0.84716308160657705</v>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>41639</v>
+      </c>
+      <c r="B28" s="26">
+        <v>99.572655108123001</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="32">
+        <v>41639</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.99572655108122499</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.9960036108132044E-15</v>
       </c>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18">
-      <c r="B29" s="4">
-        <v>45012</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0.81709278304601596</v>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>41729</v>
+      </c>
+      <c r="B29" s="26">
+        <v>99.693270795589996</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="32">
+        <v>41729</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.99689615138226295</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.6556573636992162E-5</v>
       </c>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18">
-      <c r="B30" s="4">
-        <v>46839</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0.67269946657100999</v>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>42093</v>
+      </c>
+      <c r="B30" s="26">
+        <v>99.262617406588006</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="32">
+        <v>42093</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.99260164085570601</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4533210174038089E-5</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4">
-        <v>48666</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0.557832062398815</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>42458</v>
+      </c>
+      <c r="B31" s="26">
+        <v>98.547932558414004</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="32">
+        <v>42458</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.98545496495407103</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4360630069053535E-5</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -3122,15 +3241,24 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4">
-        <v>50493</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.46666156461425501</v>
-      </c>
-      <c r="H32" s="4"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>42823</v>
+      </c>
+      <c r="B32" s="26">
+        <v>97.319216192867003</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="32">
+        <v>42823</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.97316809843524399</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.4063493426096372E-5</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3141,15 +3269,24 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4">
-        <v>52320</v>
-      </c>
-      <c r="C33" s="9">
-        <v>0.39124868286407499</v>
-      </c>
-      <c r="H33" s="4"/>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>43188</v>
+      </c>
+      <c r="B33" s="26">
+        <v>95.517745364424997</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="32">
+        <v>43188</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.95515382742795296</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.3626216297034652E-5</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -3160,10 +3297,24 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>43553</v>
+      </c>
+      <c r="B34" s="26">
+        <v>93.204428979731006</v>
+      </c>
       <c r="C34" s="9"/>
+      <c r="D34" s="32">
+        <v>43553</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.93183570102577296</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.0858877153706601E-4</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="K34" s="4"/>
@@ -3175,10 +3326,24 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>43920</v>
+      </c>
+      <c r="B35" s="26">
+        <v>90.538174821889996</v>
+      </c>
       <c r="C35" s="9"/>
+      <c r="D35" s="32">
+        <v>43920</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.90525203445709801</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2971376180193062E-4</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="K35" s="4"/>
@@ -3190,10 +3355,24 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B36" s="26">
+        <v>87.668702580323</v>
+      </c>
       <c r="C36" s="9"/>
+      <c r="D36" s="32">
+        <v>44284</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.87656028431309496</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2674149013502944E-4</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="K36" s="4"/>
@@ -3205,11 +3384,24 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>44649</v>
+      </c>
+      <c r="B37" s="26">
+        <v>84.726023569510005</v>
+      </c>
       <c r="C37" s="9"/>
-      <c r="F37" s="4"/>
+      <c r="D37" s="32">
+        <v>44649</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.84713675411518097</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2348157991903808E-4</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -3222,10 +3414,23 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="F38" s="4"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>45014</v>
+      </c>
+      <c r="B38" s="26">
+        <v>81.714750109516999</v>
+      </c>
+      <c r="D38" s="32">
+        <v>45014</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0.81702750818415604</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.1999291101394416E-4</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -3238,10 +3443,23 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="F39" s="4"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>46841</v>
+      </c>
+      <c r="B39" s="26">
+        <v>67.274818875164996</v>
+      </c>
+      <c r="D39" s="32">
+        <v>46841</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.67287564660825905</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2745785660905895E-4</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -3254,10 +3472,23 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="F40" s="4"/>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>48667</v>
+      </c>
+      <c r="B40" s="26">
+        <v>55.791715956033002</v>
+      </c>
+      <c r="D40" s="32">
+        <v>48667</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.55797243237454697</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5272814216911215E-5</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -3270,10 +3501,23 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="F41" s="4"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>50493</v>
+      </c>
+      <c r="B41" s="26">
+        <v>46.673650375450997</v>
+      </c>
+      <c r="D41" s="32">
+        <v>50493</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0.46682016786811098</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>8.3664113601000789E-5</v>
+      </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -3286,10 +3530,23 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="F42" s="4"/>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>52320</v>
+      </c>
+      <c r="B42" s="26">
+        <v>39.133069804314999</v>
+      </c>
+      <c r="D42" s="32">
+        <v>52320</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.39140320182520899</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>7.2503782058974675E-5</v>
+      </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -3302,10 +3559,9 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -3318,9 +3574,8 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -3334,9 +3589,8 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3350,9 +3604,8 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3366,9 +3619,8 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3382,9 +3634,8 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3398,9 +3649,8 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3414,9 +3664,8 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3430,9 +3679,8 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3446,9 +3694,8 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -3462,9 +3709,8 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -3478,9 +3724,8 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3494,9 +3739,8 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3510,9 +3754,8 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -3526,7 +3769,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -3536,7 +3779,7 @@
       <c r="P57" s="22"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3546,7 +3789,7 @@
       <c r="P58" s="22"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3556,7 +3799,7 @@
       <c r="P59" s="22"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3566,40 +3809,40 @@
       <c r="P60" s="22"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72"/>
     </row>
   </sheetData>
@@ -3609,31 +3852,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>41354</v>
       </c>
@@ -3654,7 +3897,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
@@ -3675,7 +3918,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
@@ -3696,7 +3939,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
@@ -3717,7 +3960,7 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
@@ -3738,7 +3981,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
@@ -3761,7 +4004,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>41722</v>
       </c>
@@ -3785,7 +4028,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>42086</v>
       </c>
@@ -3808,7 +4051,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>42451</v>
       </c>
@@ -3831,7 +4074,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>42816</v>
       </c>
@@ -3854,7 +4097,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>43181</v>
       </c>
@@ -3877,7 +4120,7 @@
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>43549</v>
       </c>
@@ -3900,7 +4143,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -3923,7 +4166,7 @@
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
@@ -3946,7 +4189,7 @@
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>44642</v>
       </c>
@@ -3969,7 +4212,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45007</v>
       </c>
@@ -3992,7 +4235,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>46834</v>
       </c>
@@ -4015,7 +4258,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
@@ -4037,7 +4280,7 @@
       <c r="I18" s="12"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
@@ -4059,7 +4302,7 @@
       <c r="I19" s="12"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
@@ -4081,7 +4324,7 @@
       <c r="I20" s="12"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="11"/>
       <c r="E21" s="4"/>
@@ -4095,45 +4338,45 @@
       </c>
       <c r="M21" s="21"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" s="21"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s">
         <v>38</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="J23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
       <c r="M23" s="21"/>
     </row>
-    <row r="24" spans="1:13" ht="14.4">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>-1000000</v>
@@ -4156,10 +4399,10 @@
       <c r="H24">
         <v>0.311</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="23">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="23">
         <v>-1559.7309635793999</v>
       </c>
       <c r="K24" s="12">
@@ -4172,9 +4415,9 @@
       </c>
       <c r="M24" s="21"/>
     </row>
-    <row r="25" spans="1:13" ht="14.4">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>-1000000</v>
@@ -4197,10 +4440,10 @@
       <c r="H25">
         <v>0.311</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="23">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="23">
         <v>-1558.7441860194001</v>
       </c>
       <c r="K25" s="12">
@@ -4216,7 +4459,7 @@
         <v>-9.8362897481930225E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.4">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4238,10 +4481,10 @@
       <c r="H26">
         <v>0.3</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="23">
         <v>783.33333333339999</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="23">
         <v>782.71194052689998</v>
       </c>
       <c r="K26" s="12">
@@ -4257,7 +4500,7 @@
         <v>3.0858330767174446E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.4">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4279,10 +4522,10 @@
       <c r="H27">
         <v>0.67610000000000003</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="23">
         <v>1708.9566671196999</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="23">
         <v>1704.6855561939001</v>
       </c>
       <c r="K27" s="12">
@@ -4298,7 +4541,7 @@
         <v>2.0598329417986051E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14.4">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4320,10 +4563,10 @@
       <c r="H28">
         <v>0.69879999999999998</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="23">
         <v>1766.3957430676001</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="23">
         <v>1758.874209582</v>
       </c>
       <c r="K28" s="12">
@@ -4339,7 +4582,7 @@
         <v>7.9351008033368024E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.4">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4361,10 +4604,10 @@
       <c r="H29">
         <v>-0.4476</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="23">
         <v>-1131.3380160260999</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="23">
         <v>-1127.7965567039</v>
       </c>
       <c r="K29" s="12">
@@ -4380,7 +4623,7 @@
         <v>-2.7607680298129497E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14.4">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -4394,7 +4637,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="21"/>
     </row>
-    <row r="31" spans="1:13" ht="14.4">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
@@ -4405,7 +4648,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
     </row>
-    <row r="32" spans="1:13" ht="14.4">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
@@ -4419,7 +4662,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="3:13" ht="14.4">
+    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
@@ -4430,7 +4673,7 @@
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
     </row>
-    <row r="34" spans="3:13" ht="14.4">
+    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
@@ -4441,7 +4684,7 @@
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
-    <row r="35" spans="3:13" ht="14.4">
+    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
@@ -4452,7 +4695,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
     </row>
-    <row r="36" spans="3:13" ht="14.4">
+    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
@@ -4463,7 +4706,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
     </row>
-    <row r="37" spans="3:13" ht="14.4">
+    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
@@ -4474,7 +4717,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
     </row>
-    <row r="38" spans="3:13" ht="14.4">
+    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
@@ -4485,7 +4728,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
     </row>
-    <row r="39" spans="3:13" ht="14.4">
+    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
@@ -4496,7 +4739,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="3:13" ht="14.4">
+    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
@@ -4507,7 +4750,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="3:13" ht="14.4">
+    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
@@ -4518,38 +4761,38 @@
       <c r="L41" s="20"/>
       <c r="M41" s="21"/>
     </row>
-    <row r="42" spans="3:13">
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="3:13">
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
       <c r="H43" s="19"/>
     </row>
-    <row r="44" spans="3:13">
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="3:13">
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="3:13">
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="3:13">
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="3:13">
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -4561,29 +4804,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="20" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
     <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B1">
         <v>6.5000000000000002E-2</v>
@@ -4592,7 +4836,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F1" s="11">
         <v>99.998374999999996</v>
@@ -4608,9 +4852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>100.078125</v>
@@ -4619,7 +4863,7 @@
         <v>100.078125</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F2" s="11">
         <v>99.825020604543994</v>
@@ -4635,9 +4879,9 @@
         <v>2.886579864025407E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>100.257813</v>
@@ -4646,7 +4890,7 @@
         <v>100.257813</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F3" s="11">
         <v>99.489366040422993</v>
@@ -4662,9 +4906,9 @@
         <v>-5.7065463465733046E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>102.375</v>
@@ -4673,7 +4917,7 @@
         <v>102.375</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F4" s="11">
         <v>99.348751843350996</v>
@@ -4689,9 +4933,9 @@
         <v>4.6962433941644122E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>101.75</v>
@@ -4700,7 +4944,7 @@
         <v>101.75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F5" s="11">
         <v>97.771415341388007</v>
@@ -4716,9 +4960,9 @@
         <v>6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>110.296875</v>
@@ -4727,7 +4971,7 @@
         <v>110.296875</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F6" s="11">
         <v>94.415583194966004</v>
@@ -4743,9 +4987,9 @@
         <v>6.2061467076546251E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <v>102.859375</v>
@@ -4754,7 +4998,7 @@
         <v>102.859375</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F7" s="11">
         <v>94.027098746248996</v>
@@ -4770,9 +5014,9 @@
         <v>1.4988010832439613E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>116.203125</v>
@@ -4781,7 +5025,7 @@
         <v>116.203125</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F8" s="11">
         <v>91.914726149455007</v>
@@ -4797,9 +5041,9 @@
         <v>-5.0959236830294685E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>102.9375</v>
@@ -4808,7 +5052,7 @@
         <v>102.9375</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F9" s="11">
         <v>86.452914276943005</v>
@@ -4824,9 +5068,9 @@
         <v>1.609823385706477E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>102.578125</v>
@@ -4835,7 +5079,7 @@
         <v>102.578125</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F10" s="11">
         <v>85.658166731351997</v>
@@ -4851,9 +5095,9 @@
         <v>-2.808864252301646E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>101.171875</v>
@@ -4862,7 +5106,7 @@
         <v>101.171875</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F11" s="11">
         <v>38.318232624048001</v>
@@ -4878,501 +5122,111 @@
         <v>-7.5210393468694292E-12</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="C13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="C14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="35"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>41001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>41182</v>
-      </c>
-      <c r="F17">
-        <v>181</v>
-      </c>
-      <c r="G17" s="4">
-        <v>41183</v>
-      </c>
-      <c r="H17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
-      <c r="G18" s="4">
-        <v>41358</v>
-      </c>
-      <c r="I18" s="20">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12">
-        <f>LN(I18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>41182</v>
-      </c>
-      <c r="E19" s="4">
-        <v>41364</v>
-      </c>
-      <c r="F19">
-        <v>182</v>
-      </c>
-      <c r="G19" s="4">
-        <v>41365</v>
-      </c>
-      <c r="H19">
-        <v>0.25</v>
-      </c>
-      <c r="I19" s="20">
-        <f>EXP(J19)</f>
-        <v>0.99998862497227325</v>
-      </c>
-      <c r="J19" s="12">
-        <f>J18+(J20-J18)/(G20-G18)*(G19-G18)</f>
-        <v>-1.1375092422911913E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="G18" s="4"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="G20" s="4">
-        <v>41368</v>
-      </c>
-      <c r="I20" s="20">
-        <f>F1/100</f>
-        <v>0.99998374999999995</v>
-      </c>
-      <c r="J20" s="12">
-        <f>LN(I20)</f>
-        <v>-1.6250132032731304E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>41364</v>
-      </c>
-      <c r="E21" s="4">
-        <v>41547</v>
-      </c>
-      <c r="F21">
-        <v>183</v>
-      </c>
-      <c r="G21" s="4">
-        <v>41547</v>
-      </c>
-      <c r="H21">
-        <v>0.25</v>
-      </c>
-      <c r="I21" s="20">
-        <f>EXP(J21)</f>
-        <v>0.99912380516010701</v>
-      </c>
-      <c r="J21" s="12">
-        <f>J20+(J22-J20)/(G22-G20)*(G21-G20)</f>
-        <v>-8.7657892296254876E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>41547</v>
-      </c>
-      <c r="E22" s="4">
-        <v>41729</v>
-      </c>
-      <c r="F22">
-        <v>182</v>
-      </c>
-      <c r="G22" s="4">
-        <v>41729</v>
-      </c>
-      <c r="H22">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="20">
-        <f>F2/100</f>
-        <v>0.9982502060454399</v>
-      </c>
-      <c r="J22" s="12">
-        <f>LN(I22)</f>
-        <v>-1.751326632176106E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
+      <c r="G20" s="4"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="4">
-        <v>41729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="H25">
-        <f>(H19/200)*I19+(H21/200)*I21+(H22/200+1)*I22</f>
-        <v>1.0019969093406622</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="G29" s="4">
-        <v>41368</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="12">
-        <f>LN(I29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>41333</v>
-      </c>
-      <c r="E30" s="4">
-        <v>41517</v>
-      </c>
-      <c r="F30">
-        <v>184</v>
-      </c>
-      <c r="G30" s="4">
-        <v>41520</v>
-      </c>
-      <c r="H30">
-        <v>1.25</v>
-      </c>
-      <c r="I30" s="20">
-        <f>EXP(J30)</f>
-        <v>0.99926287112583889</v>
-      </c>
-      <c r="J30" s="12">
-        <f>J29+(J32-J29)/(G32-G29)*(G30-G29)</f>
-        <v>-7.3740068723204474E-4</v>
-      </c>
-      <c r="K30">
-        <f>(H30/200)*I30</f>
-        <v>6.2453929445364931E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>41517</v>
-      </c>
-      <c r="E31" s="4">
-        <v>41698</v>
-      </c>
-      <c r="F31">
-        <v>181</v>
-      </c>
-      <c r="G31" s="4">
-        <v>41698</v>
-      </c>
-      <c r="H31">
-        <v>1.25</v>
-      </c>
-      <c r="I31" s="20">
-        <f>EXP(J31)</f>
-        <v>0.99840034511142717</v>
-      </c>
-      <c r="J31" s="12">
-        <f>J29+(J32-J29)/(G32-G29)*(G31-G29)</f>
-        <v>-1.6009357025432549E-3</v>
-      </c>
-      <c r="K31">
-        <f>(H31/200)*I31</f>
-        <v>6.24000215694642E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="4"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="G32" s="4">
-        <v>41729</v>
-      </c>
-      <c r="I32" s="20">
-        <f>F2/100</f>
-        <v>0.9982502060454399</v>
-      </c>
-      <c r="J32" s="12">
-        <f>LN(I32)</f>
-        <v>-1.751326632176106E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4">
-        <v>41698</v>
-      </c>
-      <c r="E33" s="4">
-        <v>41882</v>
-      </c>
-      <c r="F33">
-        <v>184</v>
-      </c>
-      <c r="G33" s="4">
-        <v>41884</v>
-      </c>
-      <c r="H33">
-        <v>1.25</v>
-      </c>
-      <c r="I33" s="20">
-        <f>EXP(J33)</f>
-        <v>0.99687972341104225</v>
-      </c>
-      <c r="J33" s="12">
-        <f>J32+(J35-J32)/(G35-G32)*(G33-G32)</f>
-        <v>-3.1251548021795266E-3</v>
-      </c>
-      <c r="K33">
-        <f>(H33/200)*I33</f>
-        <v>6.2304982713190142E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4">
-        <v>41882</v>
-      </c>
-      <c r="E34" s="4">
-        <v>42063</v>
-      </c>
-      <c r="F34">
-        <v>181</v>
-      </c>
-      <c r="G34" s="4">
-        <v>42065</v>
-      </c>
-      <c r="H34">
-        <v>1.25</v>
-      </c>
-      <c r="I34" s="20">
-        <f>EXP(J34)</f>
-        <v>0.99528173458292024</v>
-      </c>
-      <c r="J34" s="12">
-        <f>J32+(J35-J32)/(G35-G32)*(G34-G32)</f>
-        <v>-4.7294315684415847E-3</v>
-      </c>
-      <c r="K34">
-        <f>(H34/200)*I34</f>
-        <v>6.2205108411432517E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="G32" s="4"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="4">
-        <v>42109</v>
-      </c>
-      <c r="I35" s="20">
-        <f>F3/100</f>
-        <v>0.99489366040422988</v>
-      </c>
-      <c r="J35" s="12">
-        <f>LN(I35)</f>
-        <v>-5.1194215005715884E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4">
-        <v>42063</v>
-      </c>
-      <c r="E36" s="4">
-        <v>42247</v>
-      </c>
-      <c r="F36">
-        <v>184</v>
-      </c>
-      <c r="G36" s="4">
-        <v>42247</v>
-      </c>
-      <c r="H36">
-        <v>1.25</v>
-      </c>
-      <c r="I36" s="20">
-        <f>F4/100</f>
-        <v>0.99348751843350991</v>
-      </c>
-      <c r="J36" s="12">
-        <f>LN(I36)</f>
-        <v>-6.5337802966521537E-3</v>
-      </c>
-      <c r="K36">
-        <f>(1+H36/200)*I36</f>
-        <v>0.99969681542371946</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>42247</v>
-      </c>
-      <c r="I37" s="20">
-        <f>F4/100</f>
-        <v>0.99348751843350991</v>
-      </c>
-      <c r="J37" s="12">
-        <f>LN(I37)</f>
-        <v>-6.5337802966521537E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="I39" s="20">
-        <v>1.024633152</v>
-      </c>
-      <c r="K39" s="9">
-        <f>SUM(K30:K36)</f>
-        <v>1.0246332196376646</v>
-      </c>
+      <c r="G35" s="4"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="G37" s="4"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5380,22 +5234,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
@@ -5413,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
@@ -5431,7 +5285,7 @@
         <v>-4.0331600281717783E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
@@ -5449,7 +5303,7 @@
         <v>1.5271117703719028E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
@@ -5467,7 +5321,7 @@
         <v>5.1950999058192338E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
@@ -5485,7 +5339,7 @@
         <v>-1.5963033006549665E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
@@ -5503,7 +5357,7 @@
         <v>8.5247087167061864E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -5521,7 +5375,7 @@
         <v>-2.3578964891690646E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -5539,7 +5393,7 @@
         <v>1.3497959416852723E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
@@ -5557,7 +5411,7 @@
         <v>8.609030155426467E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
@@ -5575,7 +5429,7 @@
         <v>7.0480488112423245E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
@@ -5593,60 +5447,60 @@
         <v>6.1303295773029731E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
     <numFmt numFmtId="174" formatCode="0.0000000"/>
     <numFmt numFmtId="175" formatCode="0.0000"/>
     <numFmt numFmtId="176" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="182" formatCode="0.000000000"/>
+    <numFmt numFmtId="177" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -856,7 +856,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2663,11 +2663,11 @@
         <v>42093</v>
       </c>
       <c r="E9" s="9">
-        <v>0.99257151572824398</v>
+        <v>0.99258349933219903</v>
       </c>
       <c r="F9" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1983608475985008E-5</v>
+        <v>-4.5209391785760999E-12</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="12"/>
@@ -2685,11 +2685,11 @@
         <v>42458</v>
       </c>
       <c r="E10" s="9">
-        <v>0.98542448349227596</v>
+        <v>0.98543639934888505</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1915861304001574E-5</v>
+        <v>-4.694911126534862E-12</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
@@ -2715,11 +2715,11 @@
         <v>42823</v>
       </c>
       <c r="E11" s="9">
-        <v>0.97313706500603603</v>
+        <v>0.97314886242740695</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1797426104021014E-5</v>
+        <v>-4.7331027985819674E-12</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="31" t="s">
@@ -2752,11 +2752,11 @@
         <v>43188</v>
       </c>
       <c r="E12" s="9">
-        <v>0.95512221545407605</v>
+        <v>0.95513383177322198</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1616324023910884E-5</v>
+        <v>-4.8779869032955503E-12</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>58</v>
@@ -2788,11 +2788,11 @@
         <v>43553</v>
       </c>
       <c r="E13" s="9">
-        <v>0.931989143471458</v>
+        <v>0.93200051845902698</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1374992551993479E-5</v>
+        <v>-4.9830140014250901E-12</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>59</v>
@@ -2824,11 +2824,11 @@
         <v>43920</v>
       </c>
       <c r="E14" s="9">
-        <v>0.90532697960418096</v>
+        <v>0.90533806771348702</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>-1.1088114479029798E-5</v>
+        <v>-5.1729731609384544E-12</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>60</v>
@@ -2860,11 +2860,11 @@
         <v>44284</v>
       </c>
       <c r="E15" s="9">
-        <v>0.876632894271831</v>
+        <v>0.87664366623458201</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0771967989042786E-5</v>
+        <v>-5.2380322301814886E-12</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="6"/>
@@ -2887,11 +2887,11 @@
         <v>44649</v>
       </c>
       <c r="E16" s="9">
-        <v>0.84720696185358402</v>
+        <v>0.84721740304344295</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>-1.044119583604175E-5</v>
+        <v>-5.9771076976744553E-12</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="6"/>
@@ -2914,11 +2914,11 @@
         <v>45014</v>
       </c>
       <c r="E17" s="9">
-        <v>0.81709525232871305</v>
+        <v>0.817105350303578</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>-1.0097979976864124E-5</v>
+        <v>-5.1119108945840708E-12</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="6"/>
@@ -2941,11 +2941,11 @@
         <v>46841</v>
       </c>
       <c r="E18" s="9">
-        <v>0.67270234203986001</v>
+        <v>0.67271074647295503</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>-8.4044379000669522E-6</v>
+        <v>-4.8050452505776775E-12</v>
       </c>
       <c r="L18" s="12"/>
       <c r="O18" s="8"/>
@@ -2964,11 +2964,11 @@
         <v>48667</v>
       </c>
       <c r="E19" s="9">
-        <v>0.55787782637010697</v>
+        <v>0.55788483837769698</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>-7.012011903118065E-6</v>
+        <v>-4.3131054283662706E-12</v>
       </c>
       <c r="L19" s="12"/>
       <c r="O19" s="8"/>
@@ -2987,11 +2987,11 @@
         <v>50493</v>
       </c>
       <c r="E20" s="9">
-        <v>0.46673981994928299</v>
+        <v>0.466745707809673</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
-        <v>3.0999177462964767E-5</v>
+        <v>3.6887037852983973E-5</v>
       </c>
       <c r="L20" s="12"/>
       <c r="O20" s="8"/>
@@ -3010,11 +3010,11 @@
         <v>52320</v>
       </c>
       <c r="E21" s="9">
-        <v>0.39133483360279497</v>
+        <v>0.39133978373329298</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="0"/>
-        <v>2.7752737304986841E-5</v>
+        <v>3.2702867802991697E-5</v>
       </c>
       <c r="L21" s="12"/>
       <c r="O21" s="8"/>
@@ -4807,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -244,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="14">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
@@ -254,11 +254,7 @@
     <numFmt numFmtId="170" formatCode="0.0000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
     <numFmt numFmtId="175" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000000000"/>
-    <numFmt numFmtId="177" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -445,7 +441,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +619,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -817,14 +819,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -842,21 +843,21 @@
     <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1540,7 +1541,7 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>41619</v>
       </c>
       <c r="H6">
@@ -1575,7 +1576,7 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>41709</v>
       </c>
       <c r="H7">
@@ -1602,7 +1603,7 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>42074</v>
       </c>
       <c r="H8">
@@ -1629,7 +1630,7 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>42440</v>
       </c>
       <c r="H9">
@@ -1656,7 +1657,7 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>42807</v>
       </c>
       <c r="H10">
@@ -1683,7 +1684,7 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>43171</v>
       </c>
       <c r="H11">
@@ -1710,7 +1711,7 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>43535</v>
       </c>
       <c r="H12">
@@ -1737,7 +1738,7 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>43901</v>
       </c>
       <c r="H13">
@@ -1764,7 +1765,7 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>44266</v>
       </c>
       <c r="H14">
@@ -1791,7 +1792,7 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>44631</v>
       </c>
       <c r="H15">
@@ -1818,7 +1819,7 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>44998</v>
       </c>
       <c r="H16">
@@ -1845,7 +1846,7 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>46825</v>
       </c>
       <c r="H17">
@@ -1872,7 +1873,7 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>48649</v>
       </c>
       <c r="H18">
@@ -1899,7 +1900,7 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>50475</v>
       </c>
       <c r="H19">
@@ -2438,830 +2439,721 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
+        <v>41360</v>
+      </c>
+      <c r="B1" s="23">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4">
+        <v>41360</v>
+      </c>
+      <c r="E1" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>41361</v>
       </c>
-      <c r="B1" s="34">
+      <c r="B2" s="29">
         <v>99.9995000025</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D2" s="4">
         <v>41361</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E2">
         <v>0.99999500002499997</v>
       </c>
-      <c r="F1" s="9">
-        <f>E1-B1/100</f>
+      <c r="F2" s="8">
+        <f>E2-B2/100</f>
         <v>0</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="G2" s="9"/>
+      <c r="J2" s="4">
+        <v>41361</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.99999500002499997</v>
+      </c>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>41362</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B3" s="29">
         <v>99.998944452808999</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D3" s="4">
         <v>41362</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E3">
         <v>0.99998944452808602</v>
       </c>
-      <c r="F2" s="9">
-        <f t="shared" ref="F2:F42" si="0">E2-B2/100</f>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F22" si="0">E3-B3/100</f>
         <v>-3.9968028886505635E-15</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="G3" s="9"/>
+      <c r="J3" s="4">
+        <v>41362</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.99998944452808602</v>
+      </c>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>41394</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B4" s="29">
         <v>99.982502885665994</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D4" s="4">
         <v>41394</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E4">
         <v>0.99982502885667401</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>1.4099832412739488E-14</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="G4" s="9"/>
+      <c r="J4" s="4">
+        <v>41394</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.99982502885668501</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30">
         <v>41453</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B5" s="31">
         <v>99.923169382693999</v>
       </c>
-      <c r="D4" s="32">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30">
         <v>41453</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="32">
         <v>0.999231693826933</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="33">
         <f t="shared" si="0"/>
         <v>-6.9944050551384862E-15</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="G5" s="34"/>
+      <c r="J5" s="30">
+        <v>41453</v>
+      </c>
+      <c r="K5" s="34">
+        <v>0.999216290390193</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="R5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>41536</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B6" s="29">
         <v>99.855665584131998</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D6" s="4">
         <v>41536</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6">
         <v>0.99855665592972997</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>8.8409946030765241E-11</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="G6" s="9"/>
+      <c r="J6" s="4">
+        <v>41536</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.99854361097290301</v>
+      </c>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>41626</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B7" s="29">
         <v>99.777044862875002</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D7" s="4">
         <v>41626</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7">
         <v>0.99777044868654696</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>5.7796989416658562E-11</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G7" s="19"/>
+      <c r="J7" s="4">
+        <v>41626</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.99775738573270001</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>41716</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B8" s="29">
         <v>99.693589212589004</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D8" s="4">
         <v>41716</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8">
         <v>0.99693589218462797</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>5.8737903430028382E-11</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="G8" s="19"/>
+      <c r="J8" s="4">
+        <v>41716</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.99692284015691401</v>
+      </c>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>41809</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B9" s="29">
         <v>99.599768127081006</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D9" s="4">
         <v>41809</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9">
         <v>0.99599768132963995</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>5.8829940918769807E-11</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="9"/>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="G9" s="19"/>
+      <c r="J9" s="4">
+        <v>41809</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.99598464158511701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>42093</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B10" s="29">
         <v>99.258349933671994</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D10" s="4">
         <v>42093</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10">
         <v>0.99258349933219903</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>-4.5209391785760999E-12</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="9"/>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="G10" s="19"/>
+      <c r="J10" s="4">
+        <v>42093</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.99256361129956605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>42458</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B11" s="29">
         <v>98.543639935358001</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D11" s="4">
         <v>42458</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11">
         <v>0.98543639934888505</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>-4.694911126534862E-12</v>
       </c>
-      <c r="I10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="J11" s="4">
+        <v>42458</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.98541342831135503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>42823</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B12" s="29">
         <v>97.314886243214005</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D12" s="4">
         <v>42823</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12">
         <v>0.97314886242740695</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>-4.7331027985819674E-12</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="29">
-        <v>41442</v>
-      </c>
-      <c r="J11" s="30">
-        <v>41444</v>
-      </c>
-      <c r="K11" s="4">
-        <v>41536</v>
-      </c>
-      <c r="L11" s="33">
-        <v>41535</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="G12" s="11"/>
+      <c r="J12" s="4">
+        <v>42823</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0.97310656642403404</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>43188</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B13" s="29">
         <v>95.513383177809999</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D13" s="4">
         <v>43188</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13">
         <v>0.95513383177322198</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>-4.8779869032955503E-12</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="29">
-        <v>41533</v>
-      </c>
-      <c r="J12" s="30">
-        <v>41535</v>
-      </c>
-      <c r="K12" s="4">
-        <v>41626</v>
-      </c>
-      <c r="L12" s="33">
-        <v>41626</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="J13" s="4">
+        <v>43188</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0.95508568404698901</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>43553</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B14" s="29">
         <v>93.200051846400996</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D14" s="4">
         <v>43553</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14">
         <v>0.93200051845902698</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>-4.9830140014250901E-12</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="29">
-        <v>41624</v>
-      </c>
-      <c r="J13" s="30">
-        <v>41626</v>
-      </c>
-      <c r="K13" s="4">
-        <v>41716</v>
-      </c>
-      <c r="L13" s="33">
-        <v>41717</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="J14" s="4">
+        <v>43553</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0.93194641778958998</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>43920</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B15" s="29">
         <v>90.533806771865997</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D15" s="4">
         <v>43920</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15">
         <v>0.90533806771348702</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>-5.1729731609384544E-12</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="29">
-        <v>41715</v>
-      </c>
-      <c r="J14" s="30">
-        <v>41717</v>
-      </c>
-      <c r="K14" s="4">
-        <v>41809</v>
-      </c>
-      <c r="L14" s="33">
-        <v>41808</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="J15" s="4">
+        <v>43920</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.90527865906374705</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>44284</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B16" s="29">
         <v>87.664366623982005</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D16" s="4">
         <v>44284</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16">
         <v>0.87664366623458201</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>-5.2380322301814886E-12</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>44649</v>
-      </c>
-      <c r="B16" s="34">
-        <v>84.721740304942003</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="32">
-        <v>44649</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.84721740304344295</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>-5.9771076976744553E-12</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="J16" s="4">
+        <v>44284</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.87658016942630101</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>45014</v>
-      </c>
-      <c r="B17" s="34">
-        <v>81.710535030868996</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="32">
-        <v>45014</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.817105350303578</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
-        <v>-5.1119108945840708E-12</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+        <v>44649</v>
+      </c>
+      <c r="B17" s="29">
+        <v>84.721740304942003</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4">
+        <v>44649</v>
+      </c>
+      <c r="E17">
+        <v>0.84721740304344295</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.9771076976744553E-12</v>
+      </c>
+      <c r="J17" s="4">
+        <v>44649</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0.84715056084691898</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>46841</v>
-      </c>
-      <c r="B18" s="34">
-        <v>67.271074647776004</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="32">
-        <v>46841</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.67271074647295503</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
-        <v>-4.8050452505776775E-12</v>
-      </c>
-      <c r="L18" s="12"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+        <v>45014</v>
+      </c>
+      <c r="B18" s="29">
+        <v>81.710535030868996</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4">
+        <v>45014</v>
+      </c>
+      <c r="E18">
+        <v>0.817105350303578</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.1119108945840708E-12</v>
+      </c>
+      <c r="J18" s="4">
+        <v>45014</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0.81703592621753895</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>48667</v>
-      </c>
-      <c r="B19" s="34">
-        <v>55.788483838201003</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="32">
-        <v>48667</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.55788483837769698</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
-        <v>-4.3131054283662706E-12</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+        <v>46841</v>
+      </c>
+      <c r="B19" s="29">
+        <v>67.271074647776004</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4">
+        <v>46841</v>
+      </c>
+      <c r="E19">
+        <v>0.67271070098277796</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.5494982114924198E-8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>46841</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0.67263740309444098</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>50493</v>
-      </c>
-      <c r="B20" s="34">
-        <v>46.670882077182</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="32">
-        <v>50493</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.466745707809673</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
-        <v>3.6887037852983973E-5</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+        <v>48667</v>
+      </c>
+      <c r="B20" s="29">
+        <v>55.788483838201003</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4">
+        <v>48667</v>
+      </c>
+      <c r="E20">
+        <v>0.55788505688108903</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1849907894111453E-7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>48667</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.55781728854388901</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
+        <v>50493</v>
+      </c>
+      <c r="B21" s="29">
+        <v>46.670882077182</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4">
+        <v>50493</v>
+      </c>
+      <c r="E21">
+        <v>0.46674589685301598</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7076081195963617E-5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>50493</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.466685406650235</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>52320</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B22" s="23">
         <v>39.130708086548999</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="32">
+      <c r="C22" s="8"/>
+      <c r="D22" s="4">
         <v>52320</v>
       </c>
-      <c r="E21" s="9">
-        <v>0.39133978373329298</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
-        <v>3.2702867802991697E-5</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="L22" s="12"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="E22">
+        <v>0.39133994617224699</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>3.2865306757001722E-5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>52320</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.39128683935963499</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>41361</v>
-      </c>
-      <c r="B23" s="26">
-        <v>99.9995000025</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="32">
-        <v>41361</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.99999500002499997</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>41362</v>
-      </c>
-      <c r="B24" s="26">
-        <v>99.998944452808999</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="32">
-        <v>41362</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.99998944452808602</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.9968028886505635E-15</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="M24" s="4"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="C24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>41394</v>
-      </c>
-      <c r="B25" s="26">
-        <v>99.982502885665994</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="32">
-        <v>41394</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.99982502885667401</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="0"/>
-        <v>1.4099832412739488E-14</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="6"/>
-      <c r="M25" s="11"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="C25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>41453</v>
-      </c>
-      <c r="B26" s="26">
-        <v>99.923169382693999</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="32">
-        <v>41453</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0.999231693826933</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="0"/>
-        <v>-6.9944050551384862E-15</v>
-      </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="C26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>41547</v>
-      </c>
-      <c r="B27" s="26">
-        <v>99.750074942915006</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="32">
-        <v>41547</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.99750074942914502</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="0"/>
-        <v>-4.9960036108132044E-15</v>
-      </c>
-      <c r="Q27" s="22"/>
-      <c r="R27"/>
+      <c r="A27" s="4"/>
+      <c r="C27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="H27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>41639</v>
-      </c>
-      <c r="B28" s="26">
-        <v>99.572655108123001</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="32">
-        <v>41639</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0.99572655108122499</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="0"/>
-        <v>-4.9960036108132044E-15</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="Q28" s="21"/>
       <c r="R28"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>41729</v>
-      </c>
-      <c r="B29" s="26">
-        <v>99.693270795589996</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="32">
-        <v>41729</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0.99689615138226295</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="0"/>
-        <v>-3.6556573636992162E-5</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="R29"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>42093</v>
-      </c>
-      <c r="B30" s="26">
-        <v>99.262617406588006</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="32">
-        <v>42093</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0.99260164085570601</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.4533210174038089E-5</v>
-      </c>
-      <c r="Q30" s="19"/>
+      <c r="A30" s="4"/>
+      <c r="C30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="4"/>
+      <c r="L30" s="4"/>
       <c r="R30"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>42458</v>
-      </c>
-      <c r="B31" s="26">
-        <v>98.547932558414004</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="32">
-        <v>42458</v>
-      </c>
-      <c r="E31" s="9">
-        <v>0.98545496495407103</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.4360630069053535E-5</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="C31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="8"/>
+      <c r="J31"/>
+      <c r="Q31" s="18"/>
+      <c r="R31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>42823</v>
-      </c>
-      <c r="B32" s="26">
-        <v>97.319216192867003</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="32">
-        <v>42823</v>
-      </c>
-      <c r="E32" s="9">
-        <v>0.97316809843524399</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.4063493426096372E-5</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="C32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -3269,27 +3161,25 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>43188</v>
-      </c>
-      <c r="B33" s="26">
-        <v>95.517745364424997</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="32">
-        <v>43188</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.95515382742795296</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.3626216297034652E-5</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="24">
+        <v>41442</v>
+      </c>
+      <c r="J33" s="25">
+        <v>41444</v>
+      </c>
+      <c r="K33" s="4">
+        <v>41536</v>
+      </c>
+      <c r="L33" s="28">
+        <v>41535</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -3297,28 +3187,25 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>43553</v>
-      </c>
-      <c r="B34" s="26">
-        <v>93.204428979731006</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="32">
-        <v>43553</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.93183570102577296</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="0"/>
-        <v>-2.0858877153706601E-4</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="C34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="24">
+        <v>41533</v>
+      </c>
+      <c r="J34" s="25">
+        <v>41535</v>
+      </c>
+      <c r="K34" s="4">
+        <v>41626</v>
+      </c>
+      <c r="L34" s="28">
+        <v>41626</v>
+      </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -3326,28 +3213,25 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>43920</v>
-      </c>
-      <c r="B35" s="26">
-        <v>90.538174821889996</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="32">
-        <v>43920</v>
-      </c>
-      <c r="E35" s="9">
-        <v>0.90525203445709801</v>
-      </c>
-      <c r="F35" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.2971376180193062E-4</v>
-      </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="C35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="H35" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="24">
+        <v>41624</v>
+      </c>
+      <c r="J35" s="25">
+        <v>41626</v>
+      </c>
+      <c r="K35" s="4">
+        <v>41716</v>
+      </c>
+      <c r="L35" s="28">
+        <v>41717</v>
+      </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -3355,28 +3239,25 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>44284</v>
-      </c>
-      <c r="B36" s="26">
-        <v>87.668702580323</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="32">
-        <v>44284</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0.87656028431309496</v>
-      </c>
-      <c r="F36" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.2674149013502944E-4</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="C36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="H36" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="24">
+        <v>41715</v>
+      </c>
+      <c r="J36" s="25">
+        <v>41717</v>
+      </c>
+      <c r="K36" s="4">
+        <v>41809</v>
+      </c>
+      <c r="L36" s="28">
+        <v>41808</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -3385,27 +3266,10 @@
       <c r="R36" s="4"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>44649</v>
-      </c>
-      <c r="B37" s="26">
-        <v>84.726023569510005</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="32">
-        <v>44649</v>
-      </c>
-      <c r="E37" s="9">
-        <v>0.84713675411518097</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.2348157991903808E-4</v>
-      </c>
-      <c r="G37" s="4"/>
+      <c r="A37" s="4"/>
+      <c r="C37" s="8"/>
+      <c r="F37" s="8"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3415,26 +3279,11 @@
       <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>45014</v>
-      </c>
-      <c r="B38" s="26">
-        <v>81.714750109516999</v>
-      </c>
-      <c r="D38" s="32">
-        <v>45014</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0.81702750818415604</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="0"/>
-        <v>-1.1999291101394416E-4</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="C38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3444,26 +3293,10 @@
       <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>46841</v>
-      </c>
-      <c r="B39" s="26">
-        <v>67.274818875164996</v>
-      </c>
-      <c r="D39" s="32">
-        <v>46841</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.67287564660825905</v>
-      </c>
-      <c r="F39" s="9">
-        <f t="shared" si="0"/>
-        <v>1.2745785660905895E-4</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3473,26 +3306,10 @@
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>48667</v>
-      </c>
-      <c r="B40" s="26">
-        <v>55.791715956033002</v>
-      </c>
-      <c r="D40" s="32">
-        <v>48667</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.55797243237454697</v>
-      </c>
-      <c r="F40" s="9">
-        <f t="shared" si="0"/>
-        <v>5.5272814216911215E-5</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3502,26 +3319,10 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>50493</v>
-      </c>
-      <c r="B41" s="26">
-        <v>46.673650375450997</v>
-      </c>
-      <c r="D41" s="32">
-        <v>50493</v>
-      </c>
-      <c r="E41" s="9">
-        <v>0.46682016786811098</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="0"/>
-        <v>8.3664113601000789E-5</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -3531,26 +3332,10 @@
       <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>52320</v>
-      </c>
-      <c r="B42" s="26">
-        <v>39.133069804314999</v>
-      </c>
-      <c r="D42" s="32">
-        <v>52320</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0.39140320182520899</v>
-      </c>
-      <c r="F42" s="9">
-        <f t="shared" si="0"/>
-        <v>7.2503782058974675E-5</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -3561,11 +3346,9 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -3576,7 +3359,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -3591,6 +3374,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -3606,6 +3390,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -3621,6 +3406,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3636,6 +3422,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3651,6 +3438,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3770,23 +3558,28 @@
       <c r="R56" s="4"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57"/>
-      <c r="L57" s="11"/>
-      <c r="N57"/>
-      <c r="P57" s="22"/>
-      <c r="R57"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58"/>
-      <c r="L58" s="11"/>
+      <c r="L58" s="10"/>
       <c r="N58"/>
-      <c r="P58" s="22"/>
+      <c r="P58" s="21"/>
       <c r="R58"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
@@ -3794,9 +3587,9 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59"/>
-      <c r="L59" s="11"/>
+      <c r="L59" s="10"/>
       <c r="N59"/>
-      <c r="P59" s="22"/>
+      <c r="P59" s="21"/>
       <c r="R59"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
@@ -3804,13 +3597,20 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60"/>
-      <c r="L60" s="11"/>
+      <c r="L60" s="10"/>
       <c r="N60"/>
-      <c r="P60" s="22"/>
+      <c r="P60" s="21"/>
       <c r="R60"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61"/>
+      <c r="L61" s="10"/>
+      <c r="N61"/>
+      <c r="P61" s="21"/>
+      <c r="R61"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J62"/>
@@ -3844,6 +3644,9 @@
     </row>
     <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72"/>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3880,151 +3683,151 @@
       <c r="A1" s="4">
         <v>41354</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="10">
         <v>99.9995000025</v>
       </c>
       <c r="D1" s="4">
         <v>41354</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>0.99999500002499997</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <f>E1-B1/100</f>
         <v>0</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>99.998944452808999</v>
       </c>
       <c r="D2" s="4">
         <v>41355</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>0.99998944452808602</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <f t="shared" ref="F2:F20" si="0">E2-B2/100</f>
         <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>99.983016602801001</v>
       </c>
       <c r="D3" s="4">
         <v>41386</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>0.99983016602802499</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <f t="shared" si="0"/>
         <v>1.4988010832439613E-14</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>99.920673258755997</v>
       </c>
       <c r="D4" s="4">
         <v>41449</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>0.99920673258755899</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <f t="shared" si="0"/>
         <v>-9.9920072216264089E-16</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>99.750074942915006</v>
       </c>
       <c r="D5" s="4">
         <v>41540</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0.99750074942914502</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <f t="shared" si="0"/>
         <v>-4.9960036108132044E-15</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>99.574187521957001</v>
       </c>
       <c r="D6" s="4">
         <v>41631</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>0.99574187521956603</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <f t="shared" si="0"/>
         <v>-3.9968028886505635E-15</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>41722</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>99.686967177626997</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="14">
+      <c r="C7" s="15"/>
+      <c r="D7" s="13">
         <v>41722</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0.99686967177646002</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>1.900701818158268E-13</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -4032,22 +3835,22 @@
       <c r="A8" s="4">
         <v>42086</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>99.257251486841994</v>
       </c>
       <c r="D8" s="4">
         <v>42086</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0.99257251486847198</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>5.2069459854919842E-14</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
@@ -4055,22 +3858,22 @@
       <c r="A9" s="4">
         <v>42451</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>98.542602045609996</v>
       </c>
       <c r="D9" s="4">
         <v>42451</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>0.98542602045609995</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -4078,22 +3881,22 @@
       <c r="A10" s="4">
         <v>42816</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>97.313748211122004</v>
       </c>
       <c r="D10" s="4">
         <v>42816</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>0.97313748211130802</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="0"/>
         <v>8.7929663550312398E-14</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
@@ -4101,22 +3904,22 @@
       <c r="A11" s="4">
         <v>43181</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>95.512007753980001</v>
       </c>
       <c r="D11" s="4">
         <v>43181</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>0.95512007753974404</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>-5.595524044110789E-14</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
@@ -4124,22 +3927,22 @@
       <c r="A12" s="4">
         <v>43549</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>93.178143749049994</v>
       </c>
       <c r="D12" s="4">
         <v>43549</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>0.93178143749054099</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="0"/>
         <v>4.1078251911130792E-14</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -4147,22 +3950,22 @@
       <c r="A13" s="4">
         <v>43913</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>90.532315713458004</v>
       </c>
       <c r="D13" s="4">
         <v>43913</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>0.90532315713464395</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="0"/>
         <v>6.3948846218409017E-14</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
@@ -4170,22 +3973,22 @@
       <c r="A14" s="4">
         <v>44277</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>87.662473852261996</v>
       </c>
       <c r="D14" s="4">
         <v>44277</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>0.87662473852255896</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>-6.106226635438361E-14</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
@@ -4193,22 +3996,22 @@
       <c r="A15" s="4">
         <v>44642</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>84.719324922656</v>
       </c>
       <c r="D15" s="4">
         <v>44642</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>0.84719324922592398</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>-6.3604677080775218E-13</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
@@ -4216,22 +4019,22 @@
       <c r="A16" s="4">
         <v>45007</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>81.707618222658994</v>
       </c>
       <c r="D16" s="4">
         <v>45007</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>0.81707618222662304</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>3.3084646133829665E-14</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
@@ -4239,96 +4042,96 @@
       <c r="A17" s="4">
         <v>46834</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>67.223180685086007</v>
       </c>
       <c r="D17" s="4">
         <v>46834</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>0.67223180685088102</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>2.0983215165415459E-14</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="4"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>55.725022196459001</v>
       </c>
       <c r="D18" s="4">
         <v>48660</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>0.55725022196460405</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>1.3988810110276972E-14</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="L18" s="21"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>46.609894810813003</v>
       </c>
       <c r="D19" s="4">
         <v>50486</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>0.46609894810816799</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
         <v>3.7969627442180354E-14</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="L19" s="21"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>39.072969033905999</v>
       </c>
       <c r="D20" s="4">
         <v>52313</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>0.39072969033902599</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>-3.397282455352979E-14</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="L20" s="21"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
       <c r="J21">
         <f>SUM(J24:J25)</f>
         <v>-3118.4751495988003</v>
@@ -4336,10 +4139,10 @@
       <c r="L21" s="4">
         <v>41353</v>
       </c>
-      <c r="M21" s="21"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M22" s="21"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -4363,7 +4166,7 @@
       <c r="G23" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>40</v>
       </c>
       <c r="I23" t="s">
@@ -4372,7 +4175,7 @@
       <c r="J23" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="21"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -4399,21 +4202,21 @@
       <c r="H24">
         <v>0.311</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>-1559.7309635793999</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <f t="shared" ref="K24:K29" si="1">J24/I24</f>
         <v>0.99750074942911782</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <f t="shared" ref="L24:L27" si="2">K24^(-365/(D24-$L$21))-1</f>
         <v>4.8962702206791775E-3</v>
       </c>
-      <c r="M24" s="21"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4440,21 +4243,21 @@
       <c r="H25">
         <v>0.311</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>-1563.6388889653001</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>-1558.7441860194001</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <f t="shared" si="1"/>
         <v>0.99686967177623798</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="19">
         <f t="shared" si="2"/>
         <v>3.1060654865080473E-3</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="20">
         <f t="shared" ref="M25:M28" si="3">(L25-L24)/(F25-F24)</f>
         <v>-9.8362897481930225E-6</v>
       </c>
@@ -4481,21 +4284,21 @@
       <c r="H26">
         <v>0.3</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>783.33333333339999</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>782.71194052689998</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="11">
         <f t="shared" si="1"/>
         <v>0.99920673258744686</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <f t="shared" si="2"/>
         <v>3.021822243513661E-3</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="20">
         <f t="shared" si="3"/>
         <v>3.0858330767174446E-7</v>
       </c>
@@ -4522,21 +4325,21 @@
       <c r="H27">
         <v>0.67610000000000003</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>1708.9566671196999</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>1704.6855561939001</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="11">
         <f t="shared" si="1"/>
         <v>0.99750074942918332</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <f t="shared" si="2"/>
         <v>4.8962702205503916E-3</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="20">
         <f t="shared" si="3"/>
         <v>2.0598329417986051E-5</v>
       </c>
@@ -4563,21 +4366,21 @@
       <c r="H28">
         <v>0.69879999999999998</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <v>1766.3957430676001</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J28" s="22">
         <v>1758.874209582</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="11">
         <f t="shared" si="1"/>
         <v>0.99574187521957125</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <f>K28^(-365/(D28-$L$21))-1</f>
         <v>5.6183643936540406E-3</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="20">
         <f t="shared" si="3"/>
         <v>7.9351008033368024E-6</v>
       </c>
@@ -4604,21 +4407,21 @@
       <c r="H29">
         <v>-0.4476</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>-1131.3380160260999</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="22">
         <v>-1127.7965567039</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="11">
         <f t="shared" si="1"/>
         <v>0.99686967177622166</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="19">
         <f t="shared" ref="L29" si="4">K29^(-365/(D29-$L$21))-1</f>
         <v>3.1060654865242565E-3</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="20">
         <f>(L29-L28)/(F29-F28)</f>
         <v>-2.7607680298129497E-5</v>
       </c>
@@ -4627,145 +4430,145 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18">
+      <c r="H30" s="10"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17">
         <f>SUM(J26:J29)</f>
         <v>3118.4751495989003</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="21"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="21"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="18">
+      <c r="H32" s="10"/>
+      <c r="I32" s="17">
         <f>(B2/100-B7/100)*B28</f>
         <v>3119.7727518200713</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="21"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="21"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="20"/>
     </row>
     <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="21"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
     </row>
     <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="21"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
     </row>
     <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="21"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="21"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="21"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="21"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="J42" s="19"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="H43" s="19"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C44" s="4"/>
@@ -4805,428 +4608,377 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
       <c r="B1">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="11">
+      <c r="E1" s="10">
         <v>99.998374999999996</v>
       </c>
-      <c r="H1" s="4">
+      <c r="G1" s="4">
         <v>41368</v>
       </c>
-      <c r="I1" s="20">
+      <c r="H1" s="19">
         <v>0.99998374999999995</v>
       </c>
-      <c r="J1" s="11">
-        <f>F1/100-I1</f>
+      <c r="I1" s="10">
+        <f>E1/100-H1</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2">
         <v>100.078125</v>
       </c>
-      <c r="C2">
-        <v>100.078125</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="11">
+      <c r="E2" s="10">
         <v>99.825020604543994</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>41729</v>
       </c>
-      <c r="I2" s="20">
+      <c r="H2" s="19">
         <v>0.99825020604541104</v>
       </c>
-      <c r="J2" s="11">
-        <f t="shared" ref="J2:J11" si="0">F2/100-I2</f>
+      <c r="I2" s="10">
+        <f t="shared" ref="I2:I11" si="0">E2/100-H2</f>
         <v>2.886579864025407E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3">
         <v>100.257813</v>
       </c>
-      <c r="C3">
-        <v>100.257813</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="11">
+      <c r="E3" s="10">
         <v>99.489366040422993</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
         <v>42109</v>
       </c>
-      <c r="I3" s="20">
+      <c r="H3" s="19">
         <v>0.99489366040428695</v>
       </c>
-      <c r="J3" s="11">
+      <c r="I3" s="10">
         <f t="shared" si="0"/>
         <v>-5.7065463465733046E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
       <c r="B4">
         <v>102.375</v>
       </c>
-      <c r="C4">
-        <v>102.375</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E4" s="10">
         <v>99.348751843350996</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <v>42247</v>
       </c>
-      <c r="I4" s="20">
+      <c r="H4" s="19">
         <v>0.99348751843346295</v>
       </c>
-      <c r="J4" s="11">
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>4.6962433941644122E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5">
         <v>101.75</v>
       </c>
-      <c r="C5">
-        <v>101.75</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="11">
+      <c r="E5" s="10">
         <v>97.771415341388007</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>42825</v>
       </c>
-      <c r="I5" s="20">
+      <c r="H5" s="19">
         <v>0.97771415341381895</v>
       </c>
-      <c r="J5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6">
         <v>110.296875</v>
       </c>
-      <c r="C6">
-        <v>110.296875</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="11">
+      <c r="E6" s="10">
         <v>94.415583194966004</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <v>43511</v>
       </c>
-      <c r="I6" s="20">
+      <c r="H6" s="19">
         <v>0.94415583194959796</v>
       </c>
-      <c r="J6" s="11">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>6.2061467076546251E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7">
         <v>102.859375</v>
       </c>
-      <c r="C7">
-        <v>102.859375</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="11">
+      <c r="E7" s="10">
         <v>94.027098746248996</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>43556</v>
       </c>
-      <c r="I7" s="20">
+      <c r="H7" s="19">
         <v>0.94027098746247495</v>
       </c>
-      <c r="J7" s="11">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>1.4988010832439613E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8">
         <v>116.203125</v>
       </c>
-      <c r="C8">
-        <v>116.203125</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="11">
+      <c r="E8" s="10">
         <v>91.914726149455007</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>43879</v>
       </c>
-      <c r="I8" s="20">
+      <c r="H8" s="19">
         <v>0.91914726149460102</v>
       </c>
-      <c r="J8" s="11">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>-5.0959236830294685E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9">
         <v>102.9375</v>
       </c>
-      <c r="C9">
-        <v>102.9375</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="11">
+      <c r="E9" s="10">
         <v>86.452914276943005</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>44515</v>
       </c>
-      <c r="I9" s="20">
+      <c r="H9" s="19">
         <v>0.86452914276941395</v>
       </c>
-      <c r="J9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>1.609823385706477E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10">
         <v>102.578125</v>
       </c>
-      <c r="C10">
-        <v>102.578125</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="11">
+      <c r="E10" s="10">
         <v>85.658166731351997</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>44607</v>
       </c>
-      <c r="I10" s="20">
+      <c r="H10" s="19">
         <v>0.85658166731354801</v>
       </c>
-      <c r="J10" s="11">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>-2.808864252301646E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11">
         <v>101.171875</v>
       </c>
-      <c r="C11">
-        <v>101.171875</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="11">
+      <c r="E11" s="10">
         <v>38.318232624048001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
         <v>51914</v>
       </c>
-      <c r="I11" s="20">
+      <c r="H11" s="19">
         <v>0.38318232624800103</v>
       </c>
-      <c r="J11" s="11">
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>-7.5210393468694292E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
-      <c r="C13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
-      <c r="C14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="4"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="4"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="4"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="4"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="4"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F29" s="4"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="4"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F31" s="4"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F32" s="4"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F33" s="4"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F34" s="4"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F35" s="4"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="G37" s="4"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K39" s="9"/>
+      <c r="F36" s="4"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="J39" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5262,7 +5014,7 @@
       <c r="E1">
         <v>0.99998374999999995</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <f>E1-B1/100</f>
         <v>0</v>
       </c>
@@ -5280,7 +5032,7 @@
       <c r="E2">
         <v>0.99824985350138995</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f t="shared" ref="G2:G11" si="0">E2-B2/100</f>
         <v>-4.0331600281717783E-9</v>
       </c>
@@ -5298,7 +5050,7 @@
       <c r="E3">
         <v>0.99489265446203101</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f t="shared" si="0"/>
         <v>1.5271117703719028E-11</v>
       </c>
@@ -5316,7 +5068,7 @@
       <c r="E4">
         <v>0.99348360122966095</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>5.1950999058192338E-11</v>
       </c>
@@ -5334,7 +5086,7 @@
       <c r="E5">
         <v>0.977700449451817</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f t="shared" si="0"/>
         <v>-1.5963033006549665E-8</v>
       </c>
@@ -5352,7 +5104,7 @@
       <c r="E6">
         <v>0.94405641099926096</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>8.5247087167061864E-10</v>
       </c>
@@ -5370,7 +5122,7 @@
       <c r="E7">
         <v>0.94021833971930502</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>-2.3578964891690646E-8</v>
       </c>
@@ -5388,7 +5140,7 @@
       <c r="E8">
         <v>0.91901302534209595</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>1.3497959416852723E-9</v>
       </c>
@@ -5406,7 +5158,7 @@
       <c r="E9">
         <v>0.86441355816718302</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>8.609030155426467E-10</v>
       </c>
@@ -5424,7 +5176,7 @@
       <c r="E10">
         <v>0.85647192001402495</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>7.0480488112423245E-10</v>
       </c>
@@ -5442,7 +5194,7 @@
       <c r="E11">
         <v>0.368397063148933</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="0"/>
         <v>6.1303295773029731E-10</v>
       </c>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="03122013" sheetId="4" r:id="rId4"/>
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
+    <sheet name="SG Swap" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>Mty/Pay</t>
   </si>
@@ -238,6 +239,60 @@
   </si>
   <si>
     <t>18/02/2042,0.383170230770597</t>
+  </si>
+  <si>
+    <t>SGD/SOR/1D</t>
+  </si>
+  <si>
+    <t>SGD/SOR/1W</t>
+  </si>
+  <si>
+    <t>SGD/SOR/1M</t>
+  </si>
+  <si>
+    <t>SGD/SOR/2M</t>
+  </si>
+  <si>
+    <t>SGD/SOR/3M</t>
+  </si>
+  <si>
+    <t>SGD/SOR/6M</t>
+  </si>
+  <si>
+    <t>SGD/SOR/9M</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/1Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/2Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/3Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/4Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/5Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/7Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/10Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/12Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/15Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/20Y</t>
+  </si>
+  <si>
+    <t>SGD/IRS/F-SI/30Y</t>
   </si>
 </sst>
 </file>
@@ -254,7 +309,7 @@
     <numFmt numFmtId="170" formatCode="0.0000000000000"/>
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -819,7 +874,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -843,7 +898,7 @@
     <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="59" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="59"/>
@@ -858,6 +913,7 @@
     <xf numFmtId="168" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2441,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -5260,4 +5316,559 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D1" s="4">
+        <v>41361</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="18">
+        <f>LN(E1)</f>
+        <v>0</v>
+      </c>
+      <c r="I1" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="J1" s="38">
+        <v>999988.35679138696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D2" s="4">
+        <v>41366</v>
+      </c>
+      <c r="E2">
+        <v>0.99999068542226699</v>
+      </c>
+      <c r="F2" s="18">
+        <f>F1+(F3-F1)/(D3-D1)*(D2-D1)</f>
+        <v>-9.7027303271602111E-6</v>
+      </c>
+      <c r="I2">
+        <v>1.940547948729</v>
+      </c>
+      <c r="J2">
+        <v>1.940525354524</v>
+      </c>
+      <c r="K2" s="19">
+        <f>J2/I2</f>
+        <v>0.99998835679117604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>7.0830000000000004E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>41367</v>
+      </c>
+      <c r="E3">
+        <v>0.99998835679139009</v>
+      </c>
+      <c r="F3" s="18">
+        <f>LN(E3)</f>
+        <v>-1.1643276392592253E-5</v>
+      </c>
+      <c r="G3" s="11">
+        <f>1/(1+1/365*B3/100)*E2</f>
+        <v>0.99998874489616285</v>
+      </c>
+      <c r="J3" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K3" s="4">
+        <v>41367</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>41367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>0.15817000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41373</v>
+      </c>
+      <c r="E4">
+        <v>0.99995996455858005</v>
+      </c>
+      <c r="J4" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K4" s="4">
+        <v>41373</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" s="4">
+        <v>41373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>0.20530999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41396</v>
+      </c>
+      <c r="E5">
+        <v>0.99982157947965011</v>
+      </c>
+      <c r="J5" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K5" s="4">
+        <v>41396</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4">
+        <v>41396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>0.25178</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41428</v>
+      </c>
+      <c r="E6">
+        <v>0.99956280320167001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K6" s="4">
+        <v>41428</v>
+      </c>
+      <c r="L6">
+        <v>62</v>
+      </c>
+      <c r="M6" s="4">
+        <v>41428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>0.28892000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41457</v>
+      </c>
+      <c r="E7">
+        <v>0.99927050169389009</v>
+      </c>
+      <c r="J7" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K7" s="4">
+        <v>41457</v>
+      </c>
+      <c r="L7">
+        <v>91</v>
+      </c>
+      <c r="M7" s="4">
+        <v>41457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>0.44768999999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41549</v>
+      </c>
+      <c r="E8">
+        <v>0.99775076317518996</v>
+      </c>
+      <c r="J8" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K8" s="4">
+        <v>41549</v>
+      </c>
+      <c r="L8">
+        <v>183</v>
+      </c>
+      <c r="M8" s="4">
+        <v>41549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>0.59053999999999995</v>
+      </c>
+      <c r="D9" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E9">
+        <v>0.99556077467386006</v>
+      </c>
+      <c r="J9" s="4">
+        <v>41366</v>
+      </c>
+      <c r="K9" s="4">
+        <v>41641</v>
+      </c>
+      <c r="L9">
+        <v>275</v>
+      </c>
+      <c r="M9" s="4">
+        <v>41641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41731</v>
+      </c>
+      <c r="E10">
+        <v>0.99550545698047999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42096</v>
+      </c>
+      <c r="E11">
+        <v>0.99034720592929004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42464</v>
+      </c>
+      <c r="E12">
+        <v>0.98270068573583003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>0.72</v>
+      </c>
+      <c r="D13" s="4">
+        <v>42828</v>
+      </c>
+      <c r="E13">
+        <v>0.97153156439035004</v>
+      </c>
+      <c r="I13" s="19">
+        <f>1000000*(B3/100/365)</f>
+        <v>1.9405479452054797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E14">
+        <v>0.95555940268748008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43923</v>
+      </c>
+      <c r="E15">
+        <v>0.91100251206207006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>1.835</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45019</v>
+      </c>
+      <c r="E16">
+        <v>0.82831104472345007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45749</v>
+      </c>
+      <c r="E17">
+        <v>0.7707998309184001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="D18" s="4">
+        <v>46847</v>
+      </c>
+      <c r="E18">
+        <v>0.68729545917257995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="D19" s="4">
+        <v>48673</v>
+      </c>
+      <c r="E19">
+        <v>0.56347458538136008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>2.915</v>
+      </c>
+      <c r="D20" s="4">
+        <v>52323</v>
+      </c>
+      <c r="E20">
+        <v>0.39143338480904999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="4">
+        <v>41367</v>
+      </c>
+      <c r="E23">
+        <v>100.000033124886</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="4">
+        <v>41373</v>
+      </c>
+      <c r="E24">
+        <v>99.997193867606995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="4">
+        <v>41396</v>
+      </c>
+      <c r="E25">
+        <v>99.983355194002996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="4">
+        <v>41428</v>
+      </c>
+      <c r="E26">
+        <v>99.957477256331003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="4">
+        <v>41457</v>
+      </c>
+      <c r="E27">
+        <v>99.928246755534005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="4">
+        <v>41549</v>
+      </c>
+      <c r="E28">
+        <v>99.776271083837997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E29">
+        <v>99.557269611283004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="4">
+        <v>41731</v>
+      </c>
+      <c r="E30">
+        <v>99.551737775703998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="4">
+        <v>42096</v>
+      </c>
+      <c r="E31">
+        <v>99.035883703690004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="4">
+        <v>42464</v>
+      </c>
+      <c r="E32">
+        <v>98.271149174507997</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="4">
+        <v>42828</v>
+      </c>
+      <c r="E33">
+        <v>97.154266344435996</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E34">
+        <v>95.557013655421002</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="4">
+        <v>43923</v>
+      </c>
+      <c r="E35">
+        <v>91.097871356517004</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="4">
+        <v>45019</v>
+      </c>
+      <c r="E36">
+        <v>82.815336348301997</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="4">
+        <v>45749</v>
+      </c>
+      <c r="E37">
+        <v>77.059650102053993</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="4">
+        <v>46847</v>
+      </c>
+      <c r="E38">
+        <v>68.699120960604006</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="4">
+        <v>48673</v>
+      </c>
+      <c r="E39">
+        <v>56.293937777121002</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="4">
+        <v>52323</v>
+      </c>
+      <c r="E40">
+        <v>39.048347390521002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="USD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
     <sheet name="SG Swap" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -298,8 +298,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
@@ -310,8 +310,9 @@
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.000000000000000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -874,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -914,6 +915,7 @@
     <xf numFmtId="167" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1026,7 +1028,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1046,7 +1048,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1086,7 +1088,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1106,7 +1108,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1195,7 +1197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1230,7 +1231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1406,24 +1406,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>41344</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0.99984071981866218</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0.99928495609808088</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0.99734926728073825</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0.99505925439657261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.4">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.4">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.4">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>3654</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.4">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.4">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>9131</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1994,49 +1994,49 @@
         <v>10957</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="O23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="1"/>
     </row>
   </sheetData>
@@ -2046,20 +2046,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>41581</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2403,84 +2403,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2494,37 +2494,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4">
         <v>41360</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4">
         <v>41361</v>
       </c>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="4">
         <v>41362</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="4">
         <v>41394</v>
       </c>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="32" customFormat="1">
       <c r="A5" s="30">
         <v>41453</v>
       </c>
@@ -2645,7 +2645,7 @@
       <c r="N5" s="36"/>
       <c r="R5" s="37"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <v>41536</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="4">
         <v>41626</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
         <v>41716</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <v>41809</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>0.99598464158511701</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="4">
         <v>42093</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>0.99256361129956605</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="4">
         <v>42458</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>0.98541342831135503</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="4">
         <v>42823</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <v>43188</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
         <v>43553</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <v>43920</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="4">
         <v>44284</v>
       </c>
@@ -2934,7 +2934,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <v>44649</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <v>45014</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>46841</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>48667</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <v>50493</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <v>52320</v>
       </c>
@@ -3108,7 +3108,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="C23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="4"/>
@@ -3117,7 +3117,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="4"/>
       <c r="C24" s="8"/>
       <c r="F24" s="8"/>
@@ -3127,7 +3127,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="4"/>
       <c r="C25" s="8"/>
       <c r="F25" s="8"/>
@@ -3138,7 +3138,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="4"/>
       <c r="C26" s="8"/>
       <c r="F26" s="8"/>
@@ -3149,7 +3149,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="4"/>
       <c r="C27" s="8"/>
       <c r="F27" s="8"/>
@@ -3159,7 +3159,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="4"/>
       <c r="C28" s="8"/>
       <c r="F28" s="8"/>
@@ -3168,7 +3168,7 @@
       <c r="Q28" s="21"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="4"/>
       <c r="C29" s="8"/>
       <c r="F29" s="8"/>
@@ -3176,7 +3176,7 @@
       <c r="L29" s="4"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="4"/>
       <c r="C30" s="8"/>
       <c r="F30" s="8"/>
@@ -3184,7 +3184,7 @@
       <c r="L30" s="4"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="4"/>
       <c r="C31" s="8"/>
       <c r="F31" s="8"/>
@@ -3194,7 +3194,7 @@
       <c r="Q31" s="18"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="4"/>
       <c r="C32" s="8"/>
       <c r="F32" s="8"/>
@@ -3217,7 +3217,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="14.4">
       <c r="A33" s="4"/>
       <c r="C33" s="8"/>
       <c r="F33" s="8"/>
@@ -3243,7 +3243,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="14.4">
       <c r="A34" s="4"/>
       <c r="C34" s="8"/>
       <c r="F34" s="8"/>
@@ -3269,7 +3269,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="14.4">
       <c r="A35" s="4"/>
       <c r="C35" s="8"/>
       <c r="F35" s="8"/>
@@ -3295,7 +3295,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="14.4">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="F36" s="8"/>
@@ -3321,7 +3321,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="4"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -3334,7 +3334,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="4"/>
       <c r="C38" s="8"/>
       <c r="F38" s="8"/>
@@ -3348,7 +3348,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="4"/>
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
@@ -3361,7 +3361,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
@@ -3374,7 +3374,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="4"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
@@ -3387,7 +3387,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="4"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
@@ -3400,7 +3400,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="4"/>
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
@@ -3413,7 +3413,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="4"/>
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
@@ -3428,7 +3428,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="4"/>
       <c r="E45" s="27"/>
       <c r="F45" s="4"/>
@@ -3444,7 +3444,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="4"/>
       <c r="E46" s="27"/>
       <c r="F46" s="4"/>
@@ -3460,7 +3460,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="4"/>
       <c r="E47" s="27"/>
       <c r="F47" s="4"/>
@@ -3476,7 +3476,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="4"/>
       <c r="E48" s="27"/>
       <c r="F48" s="4"/>
@@ -3492,7 +3492,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="4"/>
       <c r="E49" s="27"/>
       <c r="F49" s="4"/>
@@ -3508,7 +3508,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3523,7 +3523,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3538,7 +3538,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -3553,7 +3553,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3568,7 +3568,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -3583,7 +3583,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -3598,7 +3598,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3613,7 +3613,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -3628,7 +3628,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -3638,7 +3638,7 @@
       <c r="P58" s="21"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -3648,7 +3648,7 @@
       <c r="P59" s="21"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -3658,7 +3658,7 @@
       <c r="P60" s="21"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -3668,40 +3668,40 @@
       <c r="P61" s="21"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10">
       <c r="J71"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:10">
       <c r="J72"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:10">
       <c r="J73"/>
     </row>
   </sheetData>
@@ -3711,31 +3711,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="4">
         <v>41354</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>41355</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>41386</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>41449</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>41540</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>41631</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="13">
         <v>41722</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>42086</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>42451</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>42816</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="J10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>43181</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="J11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>43549</v>
       </c>
@@ -4002,7 +4002,7 @@
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>43913</v>
       </c>
@@ -4025,7 +4025,7 @@
       <c r="J13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>44277</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="J14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>44642</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="J15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>45007</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="J16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="4">
         <v>46834</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="J17" s="4"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="4">
         <v>48660</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="I18" s="11"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="4">
         <v>50486</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="I19" s="11"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="4">
         <v>52313</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="I20" s="11"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="10"/>
       <c r="E21" s="4"/>
@@ -4197,10 +4197,10 @@
       </c>
       <c r="M21" s="20"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="M22" s="20"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="M23" s="20"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.4">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="14.4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>-9.8362897481930225E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="14.4">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>3.0858330767174446E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>2.0598329417986051E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>7.9351008033368024E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="14.4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>-2.7607680298129497E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="14.4">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
@@ -4496,7 +4496,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="20"/>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="14.4">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
@@ -4507,7 +4507,7 @@
       <c r="L31" s="19"/>
       <c r="M31" s="20"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="14.4">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
@@ -4521,7 +4521,7 @@
       <c r="L32" s="19"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:13" ht="14.4">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
@@ -4532,7 +4532,7 @@
       <c r="L33" s="19"/>
       <c r="M33" s="20"/>
     </row>
-    <row r="34" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:13" ht="14.4">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
@@ -4543,7 +4543,7 @@
       <c r="L34" s="19"/>
       <c r="M34" s="20"/>
     </row>
-    <row r="35" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:13" ht="14.4">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
@@ -4554,7 +4554,7 @@
       <c r="L35" s="19"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:13" ht="14.4">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
@@ -4565,7 +4565,7 @@
       <c r="L36" s="19"/>
       <c r="M36" s="20"/>
     </row>
-    <row r="37" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:13" ht="14.4">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="F37" s="4"/>
@@ -4576,7 +4576,7 @@
       <c r="L37" s="19"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:13" ht="14.4">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
@@ -4587,7 +4587,7 @@
       <c r="L38" s="19"/>
       <c r="M38" s="20"/>
     </row>
-    <row r="39" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:13" ht="14.4">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="F39" s="4"/>
@@ -4598,7 +4598,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="20"/>
     </row>
-    <row r="40" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:13" ht="14.4">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="F40" s="4"/>
@@ -4609,7 +4609,7 @@
       <c r="L40" s="19"/>
       <c r="M40" s="20"/>
     </row>
-    <row r="41" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:13" ht="14.4">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="F41" s="4"/>
@@ -4620,38 +4620,38 @@
       <c r="L41" s="19"/>
       <c r="M41" s="20"/>
     </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:13">
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:13">
       <c r="H43" s="18"/>
     </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:13">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:13">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:13">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:13">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:13">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="F49" s="4"/>
@@ -4663,28 +4663,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="19" customWidth="1"/>
     <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>2.886579864025407E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>-5.7065463465733046E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>4.6962433941644122E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>6.2061467076546251E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>1.4988010832439613E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>-5.0959236830294685E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>1.609823385706477E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>-2.808864252301646E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -4948,92 +4948,92 @@
         <v>-7.5210393468694292E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="F15" s="12"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9">
       <c r="D17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:9">
       <c r="F18" s="4"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:9">
       <c r="D19" s="4"/>
       <c r="F19" s="4"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:9">
       <c r="D20" s="4"/>
       <c r="F20" s="4"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:9">
       <c r="D21" s="4"/>
       <c r="F21" s="4"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9">
       <c r="D22" s="4"/>
       <c r="F22" s="4"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9">
       <c r="D23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:9">
       <c r="F29" s="4"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:9">
       <c r="D30" s="4"/>
       <c r="F30" s="4"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:9">
       <c r="D31" s="4"/>
       <c r="F31" s="4"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:9">
       <c r="D32" s="4"/>
       <c r="F32" s="4"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:10">
       <c r="D33" s="4"/>
       <c r="F33" s="4"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:10">
       <c r="D34" s="4"/>
       <c r="F34" s="4"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:10">
       <c r="D35" s="4"/>
       <c r="F35" s="4"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:10">
       <c r="D36" s="4"/>
       <c r="F36" s="4"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:10">
       <c r="F37" s="4"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:10">
       <c r="J39" s="8"/>
     </row>
   </sheetData>
@@ -5042,22 +5042,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>-4.0331600281717783E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1.5271117703719028E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>5.1950999058192338E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>-1.5963033006549665E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>8.5247087167061864E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>-2.3578964891690646E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>1.3497959416852723E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>8.609030155426467E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>7.0480488112423245E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
@@ -5255,60 +5255,60 @@
         <v>6.1303295773029731E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
@@ -5319,552 +5319,623 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1">
+        <v>7.0830000000000004E-2</v>
+      </c>
       <c r="D1" s="4">
-        <v>41361</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="18">
-        <f>LN(E1)</f>
-        <v>0</v>
-      </c>
-      <c r="I1" s="38">
-        <v>1000000</v>
-      </c>
-      <c r="J1" s="38">
-        <v>999988.35679138696</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41367</v>
+      </c>
+      <c r="E1" s="19">
+        <v>0.99998835679139009</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="4">
+        <v>41367</v>
+      </c>
+      <c r="H1" s="39">
+        <v>0.99998835679144804</v>
+      </c>
+      <c r="I1" s="19">
+        <f>E1-H1</f>
+        <v>-5.7953641885433171E-14</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>0.15817000000000001</v>
+      </c>
       <c r="D2" s="4">
-        <v>41366</v>
-      </c>
-      <c r="E2">
-        <v>0.99999068542226699</v>
-      </c>
-      <c r="F2" s="18">
-        <f>F1+(F3-F1)/(D3-D1)*(D2-D1)</f>
-        <v>-9.7027303271602111E-6</v>
-      </c>
-      <c r="I2">
-        <v>1.940547948729</v>
-      </c>
-      <c r="J2">
-        <v>1.940525354524</v>
-      </c>
-      <c r="K2" s="19">
-        <f>J2/I2</f>
-        <v>0.99998835679117604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>41373</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.99995996455858005</v>
+      </c>
+      <c r="G2" s="4">
+        <v>41373</v>
+      </c>
+      <c r="H2" s="39">
+        <v>0.99995996455862401</v>
+      </c>
+      <c r="I2" s="19">
+        <f t="shared" ref="I2:I18" si="0">E2-H2</f>
+        <v>-4.3964831775156199E-14</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>7.0830000000000004E-2</v>
+        <v>0.20530999999999999</v>
       </c>
       <c r="D3" s="4">
+        <v>41396</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.99982157947965011</v>
+      </c>
+      <c r="G3" s="4">
+        <v>41396</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0.99982157947968298</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="0"/>
+        <v>-3.2862601528904634E-14</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>0.25178</v>
+      </c>
+      <c r="D4" s="4">
+        <v>41428</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.99956280320167001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>41428</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0.99956280320170798</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
+        <v>-3.7969627442180354E-14</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>0.28892000000000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>41457</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.99927050169389009</v>
+      </c>
+      <c r="G5" s="4">
+        <v>41457</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0.99927050169392095</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>-3.0864200084579352E-14</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>0.44768999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41549</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.99775076317518996</v>
+      </c>
+      <c r="G6" s="4">
+        <v>41549</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0.99775076317522104</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="0"/>
+        <v>-3.1086244689504383E-14</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>0.59053999999999995</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41641</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.99556077467386006</v>
+      </c>
+      <c r="G7" s="4">
+        <v>41641</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0.99556077467389203</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="0"/>
+        <v>-3.1974423109204508E-14</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41731</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.99550545698047999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>41731</v>
+      </c>
+      <c r="H8">
+        <v>0.99544856324700204</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="0"/>
+        <v>5.689373347794735E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42096</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.99034720592929004</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42096</v>
+      </c>
+      <c r="H9">
+        <v>0.99022601834995505</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.2118757933499147E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42464</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.98270068573583003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42464</v>
+      </c>
+      <c r="H10">
+        <v>0.98250366210389195</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.9702363193807582E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>0.72</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42828</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.97153156439035004</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42828</v>
+      </c>
+      <c r="H11">
+        <v>0.97121268159631902</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>3.1888279403102793E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43192</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.95555940268748008</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43192</v>
+      </c>
+      <c r="H12">
+        <v>0.95507942279143598</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>4.7997989604409153E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43923</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.91100251206207006</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43923</v>
+      </c>
+      <c r="H13">
+        <v>0.91016687602785895</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>8.3563603421110688E-4</v>
+      </c>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>1.835</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45019</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.82831104472345007</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45019</v>
+      </c>
+      <c r="H14">
+        <v>0.826933825556461</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="0"/>
+        <v>1.3772191669890743E-3</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45749</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.7707998309184001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45749</v>
+      </c>
+      <c r="H15">
+        <v>0.76918252891170602</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="0"/>
+        <v>1.6173020066940769E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="D16" s="4">
+        <v>46847</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0.68729545917257995</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46847</v>
+      </c>
+      <c r="H16">
+        <v>0.68541199019552401</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="0"/>
+        <v>1.8834689770559354E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="D17" s="4">
+        <v>48673</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0.56347458538136008</v>
+      </c>
+      <c r="G17" s="4">
+        <v>48673</v>
+      </c>
+      <c r="H17">
+        <v>0.56135131525639104</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="0"/>
+        <v>2.1232701249690455E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>2.915</v>
+      </c>
+      <c r="D18" s="4">
+        <v>52323</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.39143338480904999</v>
+      </c>
+      <c r="G18" s="4">
+        <v>52323</v>
+      </c>
+      <c r="H18">
+        <v>0.38922816962580797</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="0"/>
+        <v>2.2052151832420153E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="D21" s="4">
         <v>41367</v>
       </c>
-      <c r="E3">
-        <v>0.99998835679139009</v>
-      </c>
-      <c r="F3" s="18">
-        <f>LN(E3)</f>
-        <v>-1.1643276392592253E-5</v>
-      </c>
-      <c r="G3" s="11">
-        <f>1/(1+1/365*B3/100)*E2</f>
-        <v>0.99998874489616285</v>
-      </c>
-      <c r="J3" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K3" s="4">
-        <v>41367</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4">
-        <v>41367</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4">
-        <v>0.15817000000000001</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="E21" s="19">
+        <v>100.000033124886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="D22" s="4">
         <v>41373</v>
       </c>
-      <c r="E4">
-        <v>0.99995996455858005</v>
-      </c>
-      <c r="J4" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K4" s="4">
-        <v>41373</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4" s="4">
-        <v>41373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5">
-        <v>0.20530999999999999</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="E22" s="19">
+        <v>99.997193867606995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="D23" s="4">
         <v>41396</v>
       </c>
-      <c r="E5">
-        <v>0.99982157947965011</v>
-      </c>
-      <c r="J5" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K5" s="4">
-        <v>41396</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5" s="4">
-        <v>41396</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6">
-        <v>0.25178</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="E23" s="19">
+        <v>99.983355194002996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="D24" s="4">
         <v>41428</v>
       </c>
-      <c r="E6">
-        <v>0.99956280320167001</v>
-      </c>
-      <c r="J6" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K6" s="4">
-        <v>41428</v>
-      </c>
-      <c r="L6">
-        <v>62</v>
-      </c>
-      <c r="M6" s="4">
-        <v>41428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7">
-        <v>0.28892000000000001</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="E24" s="19">
+        <v>99.957477256331003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="D25" s="4">
         <v>41457</v>
       </c>
-      <c r="E7">
-        <v>0.99927050169389009</v>
-      </c>
-      <c r="J7" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K7" s="4">
-        <v>41457</v>
-      </c>
-      <c r="L7">
-        <v>91</v>
-      </c>
-      <c r="M7" s="4">
-        <v>41457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8">
-        <v>0.44768999999999998</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="E25" s="19">
+        <v>99.928246755534005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="D26" s="4">
         <v>41549</v>
       </c>
-      <c r="E8">
-        <v>0.99775076317518996</v>
-      </c>
-      <c r="J8" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K8" s="4">
-        <v>41549</v>
-      </c>
-      <c r="L8">
-        <v>183</v>
-      </c>
-      <c r="M8" s="4">
-        <v>41549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9">
-        <v>0.59053999999999995</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="E26" s="19">
+        <v>99.776271083837997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="D27" s="4">
         <v>41641</v>
       </c>
-      <c r="E9">
-        <v>0.99556077467386006</v>
-      </c>
-      <c r="J9" s="4">
-        <v>41366</v>
-      </c>
-      <c r="K9" s="4">
-        <v>41641</v>
-      </c>
-      <c r="L9">
-        <v>275</v>
-      </c>
-      <c r="M9" s="4">
-        <v>41641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>0.45</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="E27" s="19">
+        <v>99.557269611283004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="D28" s="4">
         <v>41731</v>
       </c>
-      <c r="E10">
-        <v>0.99550545698047999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="E28" s="19">
+        <v>99.551737775703998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="D29" s="4">
         <v>42096</v>
       </c>
-      <c r="E11">
-        <v>0.99034720592929004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="E29" s="19">
+        <v>99.035883703690004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="D30" s="4">
         <v>42464</v>
       </c>
-      <c r="E12">
-        <v>0.98270068573583003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13">
-        <v>0.72</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="E30" s="19">
+        <v>98.271149174507997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="D31" s="4">
         <v>42828</v>
       </c>
-      <c r="E13">
-        <v>0.97153156439035004</v>
-      </c>
-      <c r="I13" s="19">
-        <f>1000000*(B3/100/365)</f>
-        <v>1.9405479452054797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="E31" s="19">
+        <v>97.154266344435996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="D32" s="4">
         <v>43192</v>
       </c>
-      <c r="E14">
-        <v>0.95555940268748008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="E32" s="19">
+        <v>95.557013655421002</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="4">
         <v>43923</v>
       </c>
-      <c r="E15">
-        <v>0.91100251206207006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <v>1.835</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="E33" s="19">
+        <v>91.097871356517004</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="4">
         <v>45019</v>
       </c>
-      <c r="E16">
-        <v>0.82831104472345007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17">
-        <v>2.0950000000000002</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="E34" s="19">
+        <v>82.815336348301997</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="4">
         <v>45749</v>
       </c>
-      <c r="E17">
-        <v>0.7707998309184001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="E35" s="19">
+        <v>77.059650102053993</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="4">
         <v>46847</v>
       </c>
-      <c r="E18">
-        <v>0.68729545917257995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19">
-        <v>2.6949999999999998</v>
-      </c>
-      <c r="D19" s="4">
+      <c r="E36" s="19">
+        <v>68.699120960604006</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37" s="4">
         <v>48673</v>
       </c>
-      <c r="E19">
-        <v>0.56347458538136008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20">
-        <v>2.915</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="E37" s="19">
+        <v>56.293937777121002</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="4">
         <v>52323</v>
       </c>
-      <c r="E20">
-        <v>0.39143338480904999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="4">
-        <v>41367</v>
-      </c>
-      <c r="E23">
-        <v>100.000033124886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D24" s="4">
-        <v>41373</v>
-      </c>
-      <c r="E24">
-        <v>99.997193867606995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D25" s="4">
-        <v>41396</v>
-      </c>
-      <c r="E25">
-        <v>99.983355194002996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="4">
-        <v>41428</v>
-      </c>
-      <c r="E26">
-        <v>99.957477256331003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="4">
-        <v>41457</v>
-      </c>
-      <c r="E27">
-        <v>99.928246755534005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="4">
-        <v>41549</v>
-      </c>
-      <c r="E28">
-        <v>99.776271083837997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="4">
-        <v>41641</v>
-      </c>
-      <c r="E29">
-        <v>99.557269611283004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D30" s="4">
-        <v>41731</v>
-      </c>
-      <c r="E30">
-        <v>99.551737775703998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="4">
-        <v>42096</v>
-      </c>
-      <c r="E31">
-        <v>99.035883703690004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D32" s="4">
-        <v>42464</v>
-      </c>
-      <c r="E32">
-        <v>98.271149174507997</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="4">
-        <v>42828</v>
-      </c>
-      <c r="E33">
-        <v>97.154266344435996</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="4">
-        <v>43192</v>
-      </c>
-      <c r="E34">
-        <v>95.557013655421002</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D35" s="4">
-        <v>43923</v>
-      </c>
-      <c r="E35">
-        <v>91.097871356517004</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D36" s="4">
-        <v>45019</v>
-      </c>
-      <c r="E36">
-        <v>82.815336348301997</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D37" s="4">
-        <v>45749</v>
-      </c>
-      <c r="E37">
-        <v>77.059650102053993</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D38" s="4">
-        <v>46847</v>
-      </c>
-      <c r="E38">
-        <v>68.699120960604006</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="4">
-        <v>48673</v>
-      </c>
-      <c r="E39">
-        <v>56.293937777121002</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="4">
-        <v>52323</v>
-      </c>
-      <c r="E40">
+      <c r="E38" s="19">
         <v>39.048347390521002</v>
       </c>
     </row>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5605,7 +5605,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USD swap" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -285,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
@@ -297,8 +297,9 @@
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="183" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -855,7 +856,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -896,6 +897,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="72" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="74">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1058,7 +1061,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1093,7 +1095,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1269,24 +1270,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="G1" sqref="G1:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1297,18 +1304,28 @@
       <c r="D1" s="23">
         <v>41368</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="16">
         <v>99.999277782994</v>
       </c>
       <c r="G1" s="4">
         <v>41368</v>
       </c>
       <c r="H1">
+        <v>0.99999277782993801</v>
+      </c>
+      <c r="I1" s="8">
+        <f>E1/100-H1</f>
+        <v>1.9984014443252818E-15</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="L1" s="4">
+        <v>41368</v>
+      </c>
+      <c r="M1">
         <v>99.999277782994</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1319,18 +1336,28 @@
       <c r="D2" s="23">
         <v>41369</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="40">
         <v>99.998583348387001</v>
       </c>
       <c r="G2" s="4">
         <v>41369</v>
       </c>
       <c r="H2">
+        <v>0.99998583348387204</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I20" si="0">E2/100-H2</f>
+        <v>-1.9984014443252818E-15</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4">
+        <v>41369</v>
+      </c>
+      <c r="M2">
         <v>99.998583348387001</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1341,17 +1368,27 @@
       <c r="D3" s="23">
         <v>41400</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="40">
         <v>99.982655555898006</v>
       </c>
       <c r="G3" s="4">
         <v>41400</v>
       </c>
       <c r="H3">
+        <v>0.99982655555898003</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>41400</v>
+      </c>
+      <c r="M3">
         <v>99.982655555898006</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1362,17 +1399,27 @@
       <c r="D4" s="23">
         <v>41460</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="40">
         <v>99.927856632081998</v>
       </c>
       <c r="G4" s="4">
         <v>41460</v>
       </c>
       <c r="H4">
+        <v>0.99927856632082102</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>-9.9920072216264089E-16</v>
+      </c>
+      <c r="L4" s="4">
+        <v>41460</v>
+      </c>
+      <c r="M4">
         <v>99.927856632081998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1383,17 +1430,27 @@
       <c r="D5" s="23">
         <v>41554</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="40">
         <v>99.743681443813998</v>
       </c>
       <c r="G5" s="4">
         <v>41554</v>
       </c>
       <c r="H5">
+        <v>0.99743681443813004</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9920072216264089E-15</v>
+      </c>
+      <c r="L5" s="4">
+        <v>41554</v>
+      </c>
+      <c r="M5">
         <v>99.743681443813998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.4">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1404,17 +1461,27 @@
       <c r="D6" s="23">
         <v>41645</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="40">
         <v>99.550648568444004</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>41645</v>
       </c>
       <c r="H6">
+        <v>0.995506485684436</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9968028886505635E-15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>41645</v>
+      </c>
+      <c r="M6">
         <v>99.550648568444004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.4">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1425,17 +1492,27 @@
       <c r="D7" s="23">
         <v>41736</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="40">
         <v>99.645829254492995</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>41736</v>
       </c>
       <c r="H7">
+        <v>0.99650533641251904</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.7043867589136035E-5</v>
+      </c>
+      <c r="L7" s="6">
+        <v>41736</v>
+      </c>
+      <c r="M7">
         <v>99.646467796633999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.4">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1446,17 +1523,27 @@
       <c r="D8" s="23">
         <v>42100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="40">
         <v>99.180438777161996</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
+        <v>42101</v>
+      </c>
+      <c r="H8">
+        <v>0.99179085605778905</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3531713830894354E-5</v>
+      </c>
+      <c r="L8" s="6">
         <v>42100</v>
       </c>
-      <c r="H8">
+      <c r="M8">
         <v>99.181125118164005</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.4">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1467,17 +1554,27 @@
       <c r="D9" s="23">
         <v>42465</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="40">
         <v>98.432974159745001</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>42465</v>
       </c>
       <c r="H9">
+        <v>0.98433668918885198</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.9475914019623275E-6</v>
+      </c>
+      <c r="L9" s="6">
+        <v>42465</v>
+      </c>
+      <c r="M9">
         <v>98.433806341961002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.4">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1488,17 +1585,27 @@
       <c r="D10" s="23">
         <v>42830</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="40">
         <v>97.205864618801996</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>42830</v>
       </c>
       <c r="H10">
+        <v>0.97206546999340904</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.8238053890778971E-6</v>
+      </c>
+      <c r="L10" s="6">
+        <v>42830</v>
+      </c>
+      <c r="M10">
         <v>97.206493257899993</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.4">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1509,17 +1616,27 @@
       <c r="D11" s="23">
         <v>43195</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="40">
         <v>95.390186862760999</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>43195</v>
       </c>
       <c r="H11">
+        <v>0.95390851712373304</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.6484961230850459E-6</v>
+      </c>
+      <c r="L11" s="6">
+        <v>43195</v>
+      </c>
+      <c r="M11">
         <v>95.390440854093001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.4">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1530,17 +1647,27 @@
       <c r="D12" s="23">
         <v>43563</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="40">
         <v>93.031510520959998</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>43563</v>
       </c>
       <c r="H12">
+        <v>0.93032153691061903</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.4317010191050628E-6</v>
+      </c>
+      <c r="L12" s="6">
+        <v>43563</v>
+      </c>
+      <c r="M12">
         <v>93.029737631429001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.4">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1551,17 +1678,27 @@
       <c r="D13" s="23">
         <v>43927</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="40">
         <v>90.364228471646001</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>43927</v>
       </c>
       <c r="H13">
+        <v>0.90364848256345498</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.1978469949597326E-6</v>
+      </c>
+      <c r="L13" s="6">
+        <v>43927</v>
+      </c>
+      <c r="M13">
         <v>90.363933854730007</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.4">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1572,17 +1709,27 @@
       <c r="D14" s="23">
         <v>44291</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="40">
         <v>87.487764884296993</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
+        <v>44292</v>
+      </c>
+      <c r="H14">
+        <v>0.87480616405693001</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="0"/>
+        <v>7.1484786039910375E-5</v>
+      </c>
+      <c r="L14" s="6">
         <v>44291</v>
       </c>
-      <c r="H14">
+      <c r="M14">
         <v>87.486935240511002</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.4">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1593,17 +1740,27 @@
       <c r="D15" s="23">
         <v>44656</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="40">
         <v>84.516723321135999</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>44656</v>
       </c>
       <c r="H15">
+        <v>0.84517821866253195</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0985451171952043E-5</v>
+      </c>
+      <c r="L15" s="6">
+        <v>44656</v>
+      </c>
+      <c r="M15">
         <v>84.515477450505998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.4">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1614,17 +1771,27 @@
       <c r="D16" s="23">
         <v>45021</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="40">
         <v>81.480980600248003</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>45021</v>
       </c>
       <c r="H16">
+        <v>0.81482043767739398</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.0631674913996747E-5</v>
+      </c>
+      <c r="L16" s="6">
+        <v>45021</v>
+      </c>
+      <c r="M16">
         <v>81.479112561380006</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="14.4">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1635,17 +1802,27 @@
       <c r="D17" s="23">
         <v>46848</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="40">
         <v>67.019148841410001</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>46848</v>
       </c>
       <c r="H17">
+        <v>0.67020037769461405</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="0"/>
+        <v>-8.8892805140128317E-6</v>
+      </c>
+      <c r="L17" s="6">
+        <v>46848</v>
+      </c>
+      <c r="M17">
         <v>66.972055402986001</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="14.4">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1656,17 +1833,27 @@
       <c r="D18" s="23">
         <v>48674</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="40">
         <v>55.506963819665003</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>48674</v>
       </c>
       <c r="H18">
+        <v>0.55507680178938001</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="0"/>
+        <v>-7.163592730008439E-6</v>
+      </c>
+      <c r="L18" s="6">
+        <v>48674</v>
+      </c>
+      <c r="M18">
         <v>55.443950109023</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="14.4">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1677,17 +1864,27 @@
       <c r="D19" s="23">
         <v>50500</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="40">
         <v>46.361396087095002</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>50500</v>
       </c>
       <c r="H19">
+        <v>0.463620165766918</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.2048959679761317E-6</v>
+      </c>
+      <c r="L19" s="6">
+        <v>50500</v>
+      </c>
+      <c r="M19">
         <v>46.297005707757997</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1698,23 +1895,37 @@
       <c r="D20" s="23">
         <v>52327</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="40">
         <v>38.875101055259996</v>
       </c>
       <c r="G20" s="4">
         <v>52327</v>
       </c>
       <c r="H20">
+        <v>0.38875605069604102</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.040143441048528E-6</v>
+      </c>
+      <c r="L20" s="4">
+        <v>52327</v>
+      </c>
+      <c r="M20">
         <v>38.814596152179</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L22" s="41">
+        <f>SUM(L24:L25)</f>
+        <v>-3496.1983237526201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1755,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -1792,8 +2003,12 @@
       <c r="L24" s="34">
         <v>-1763.24663536562</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f t="shared" ref="M24:M25" si="1">L24/K24</f>
+        <v>0.99743681443813581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1830,20 +2045,24 @@
       <c r="L25" s="34">
         <v>-1732.9516883870001</v>
       </c>
-      <c r="P25" t="s">
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.99645829254492568</v>
+      </c>
+      <c r="S25" t="s">
         <v>65</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>66</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="U25" t="s">
         <v>67</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="V25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1868,6 +2087,10 @@
       <c r="H26" s="4">
         <v>41460</v>
       </c>
+      <c r="I26">
+        <f>G26/360</f>
+        <v>0.25277777777777777</v>
+      </c>
       <c r="J26">
         <v>0.28000000000000003</v>
       </c>
@@ -1877,47 +2100,34 @@
       <c r="L26">
         <v>707.26716305148796</v>
       </c>
-      <c r="N26" t="s">
+      <c r="M26">
+        <f>L26/K26</f>
+        <v>0.99927856632082002</v>
+      </c>
+      <c r="N26">
+        <f>LN(M26)</f>
+        <v>-7.2169403768517176E-4</v>
+      </c>
+      <c r="Q26" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="36">
+      <c r="R26" s="36">
         <v>-1494</v>
       </c>
-      <c r="P26" s="4">
+      <c r="S26" s="4">
         <v>41367</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
+      <c r="T26">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S26">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="4">
+      <c r="U26" s="4">
         <v>41369</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="V26" s="4">
         <v>41460</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -1942,6 +2152,10 @@
       <c r="H27" s="4">
         <v>41554</v>
       </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I29" si="2">G27/360</f>
+        <v>0.26111111111111113</v>
+      </c>
       <c r="J27">
         <v>0.70716437838299995</v>
       </c>
@@ -1951,47 +2165,34 @@
       <c r="L27" s="34">
         <v>1841.7518826852399</v>
       </c>
-      <c r="N27" t="s">
+      <c r="M27">
+        <f t="shared" ref="M27:M29" si="3">L27/K27</f>
+        <v>0.99743681443813148</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N29" si="4">LN(M27)</f>
+        <v>-2.5664761461021636E-3</v>
+      </c>
+      <c r="Q27" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="36">
+      <c r="R27" s="36">
         <v>-1495</v>
       </c>
-      <c r="P27" s="4">
+      <c r="S27" s="4">
         <v>41458</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
+      <c r="T27">
         <v>0.70720000000000005</v>
       </c>
-      <c r="S27">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="4">
+      <c r="U27" s="4">
         <v>41460</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="V27" s="4">
         <v>41554</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2016,6 +2217,10 @@
       <c r="H28" s="4">
         <v>41645</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.25277777777777777</v>
+      </c>
       <c r="J28">
         <v>0.75463824132500001</v>
       </c>
@@ -2025,47 +2230,34 @@
       <c r="L28" s="34">
         <v>1898.9861385055101</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0.99550648568443578</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>-4.5036404971640709E-3</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O28" s="36">
+      <c r="R28" s="36">
         <v>-1496</v>
       </c>
-      <c r="P28" s="4">
+      <c r="S28" s="4">
         <v>41550</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
+      <c r="T28">
         <v>0.75460000000000005</v>
       </c>
-      <c r="S28">
-        <v>0.75460000000000005</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="4">
+      <c r="U28" s="4">
         <v>41554</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="V28" s="4">
         <v>41646</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2090,6 +2282,10 @@
       <c r="H29" s="4">
         <v>41736</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.25277777777777777</v>
+      </c>
       <c r="J29">
         <v>-0.37787730865699998</v>
       </c>
@@ -2099,203 +2295,176 @@
       <c r="L29">
         <v>-951.80686048961695</v>
       </c>
-      <c r="N29" t="s">
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.99645829254492535</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>-3.5479941490666154E-3</v>
+      </c>
+      <c r="Q29" t="s">
         <v>64</v>
       </c>
-      <c r="O29" s="36">
+      <c r="R29" s="36">
         <v>-1497</v>
       </c>
-      <c r="P29" s="4">
+      <c r="S29" s="4">
         <v>41641</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
+      <c r="T29">
         <v>-0.37790000000000001</v>
       </c>
-      <c r="S29">
-        <v>-0.37790000000000001</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="4">
+      <c r="U29" s="4">
         <v>41645</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="V29" s="4">
         <v>41736</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="7">
+        <f>F35-E35</f>
+        <v>185</v>
+      </c>
+      <c r="G30">
+        <f>G35/360</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="H30" s="7">
+        <f>G30*I35*D35</f>
+        <v>-206772.22222222219</v>
+      </c>
+      <c r="L30">
+        <f>SUM(L26:L29)</f>
+        <v>3496.198323752621</v>
+      </c>
+      <c r="R30" s="36"/>
+      <c r="S30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="1"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7">
+        <f t="shared" ref="F31:F33" si="5">F36-E36</f>
+        <v>182</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ref="G31:G33" si="6">G36/360</f>
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" ref="H31:H33" si="7">G31*I36*D36</f>
+        <v>-204500</v>
+      </c>
+      <c r="I31">
+        <f>F24-E24</f>
+        <v>185</v>
+      </c>
+      <c r="J31">
+        <f>G24/360</f>
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="K31" s="7">
+        <f>D24*G24/360*I24</f>
+        <v>-176777.77777777775</v>
+      </c>
+      <c r="R31" s="36"/>
+      <c r="S31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="1"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="7"/>
+        <v>-203363.88888888888</v>
+      </c>
+      <c r="I32">
+        <f>F25-E25</f>
+        <v>182</v>
+      </c>
+      <c r="J32">
+        <f>G25/360</f>
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="K32" s="7">
+        <f>D25*G25/360*I25</f>
+        <v>-173911.11111111109</v>
+      </c>
+      <c r="R32" s="36"/>
+      <c r="S32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="F33" s="7">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="7"/>
+        <v>-204500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C34" t="s">
         <v>60</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D34" t="s">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E34" t="s">
         <v>5</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F34" t="s">
         <v>6</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G34" t="s">
         <v>7</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H34" t="s">
         <v>8</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I34" t="s">
         <v>9</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J34" t="s">
         <v>10</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K34" t="s">
         <v>11</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32">
-        <v>-1000000</v>
-      </c>
-      <c r="E32" s="4">
-        <v>41369</v>
-      </c>
-      <c r="F32" s="4">
-        <v>41554</v>
-      </c>
-      <c r="G32">
-        <v>182</v>
-      </c>
-      <c r="H32" s="4">
-        <v>41554</v>
-      </c>
-      <c r="I32">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J32">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K32" s="34">
-        <v>-2067.7222222221299</v>
-      </c>
-      <c r="L32" s="34">
-        <v>-2062.4222664761801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33">
-        <v>-1000000</v>
-      </c>
-      <c r="E33" s="4">
-        <v>41554</v>
-      </c>
-      <c r="F33" s="4">
-        <v>41736</v>
-      </c>
-      <c r="G33">
-        <v>180</v>
-      </c>
-      <c r="H33" s="4">
-        <v>41736</v>
-      </c>
-      <c r="I33">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J33">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K33" s="34">
-        <v>-2044.99999999991</v>
-      </c>
-      <c r="L33" s="34">
-        <v>-2037.7572082542799</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34">
-        <v>-1000000</v>
-      </c>
-      <c r="E34" s="4">
-        <v>41736</v>
-      </c>
-      <c r="F34" s="4">
-        <v>41918</v>
-      </c>
-      <c r="G34">
-        <v>179</v>
-      </c>
-      <c r="H34" s="4">
-        <v>41918</v>
-      </c>
-      <c r="I34">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J34">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K34" s="34">
-        <v>-2033.6388888888</v>
-      </c>
-      <c r="L34" s="34">
-        <v>-2021.6986157193401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B35" t="s">
@@ -2308,16 +2477,16 @@
         <v>-1000000</v>
       </c>
       <c r="E35" s="4">
-        <v>41918</v>
+        <v>41369</v>
       </c>
       <c r="F35" s="4">
-        <v>42100</v>
+        <v>41554</v>
       </c>
       <c r="G35">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H35" s="4">
-        <v>42100</v>
+        <v>41554</v>
       </c>
       <c r="I35">
         <v>0.40899999999999997</v>
@@ -2326,118 +2495,127 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="K35" s="34">
-        <v>-2044.99999999991</v>
+        <v>-2067.7222222221299</v>
       </c>
       <c r="L35" s="34">
-        <v>-2028.23997299287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>63</v>
+        <v>-2062.4222664761801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>62</v>
       </c>
       <c r="D36">
-        <v>1000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E36" s="4">
-        <v>41369</v>
+        <v>41554</v>
       </c>
       <c r="F36" s="4">
-        <v>41460</v>
+        <v>41736</v>
       </c>
       <c r="G36">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="H36" s="4">
-        <v>41460</v>
+        <v>41736</v>
+      </c>
+      <c r="I36">
+        <v>0.40899999999999997</v>
       </c>
       <c r="J36">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K36">
-        <v>707.77777777775202</v>
-      </c>
-      <c r="L36">
-        <v>707.26716305148796</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>63</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="K36" s="34">
+        <v>-2044.99999999991</v>
+      </c>
+      <c r="L36" s="34">
+        <v>-2037.7572082542799</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>62</v>
       </c>
       <c r="D37">
-        <v>1000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E37" s="4">
-        <v>41460</v>
+        <v>41736</v>
       </c>
       <c r="F37" s="4">
-        <v>41554</v>
+        <v>41918</v>
       </c>
       <c r="G37">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="H37" s="4">
-        <v>41554</v>
+        <v>41918</v>
+      </c>
+      <c r="I37">
+        <v>0.40899999999999997</v>
       </c>
       <c r="J37">
-        <v>0.70716437838299995</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="K37" s="34">
-        <v>1846.4847657770899</v>
+        <v>-2033.6388888888</v>
       </c>
       <c r="L37" s="34">
-        <v>1841.7518826852399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-2021.6986157193401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
       </c>
       <c r="D38">
-        <v>1000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E38" s="4">
-        <v>41554</v>
+        <v>41918</v>
       </c>
       <c r="F38" s="4">
-        <v>41645</v>
+        <v>42100</v>
       </c>
       <c r="G38">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="H38" s="4">
-        <v>41645</v>
+        <v>42100</v>
+      </c>
+      <c r="I38">
+        <v>0.40899999999999997</v>
       </c>
       <c r="J38">
-        <v>0.75463824132500001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="K38" s="34">
-        <v>1907.5577766828001</v>
+        <v>-2044.99999999991</v>
       </c>
       <c r="L38" s="34">
-        <v>1898.9861385055101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-2028.23997299287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2451,28 +2629,28 @@
         <v>1000000</v>
       </c>
       <c r="E39" s="4">
-        <v>41645</v>
+        <v>41369</v>
       </c>
       <c r="F39" s="4">
-        <v>41736</v>
+        <v>41460</v>
       </c>
       <c r="G39">
         <v>91</v>
       </c>
       <c r="H39" s="4">
-        <v>41736</v>
+        <v>41460</v>
       </c>
       <c r="J39">
-        <v>-0.37787730865699998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K39">
-        <v>-955.18986355036498</v>
+        <v>707.77777777775202</v>
       </c>
       <c r="L39">
-        <v>-951.80686048961695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>707.26716305148796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2486,28 +2664,28 @@
         <v>1000000</v>
       </c>
       <c r="E40" s="4">
-        <v>41736</v>
+        <v>41460</v>
       </c>
       <c r="F40" s="4">
-        <v>41827</v>
+        <v>41554</v>
       </c>
       <c r="G40">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H40" s="4">
-        <v>41827</v>
+        <v>41554</v>
       </c>
       <c r="J40">
-        <v>0.46326533051199997</v>
+        <v>0.70716437838299995</v>
       </c>
       <c r="K40" s="34">
-        <v>1171.0318076829601</v>
+        <v>1846.4847657770899</v>
       </c>
       <c r="L40" s="34">
-        <v>1165.5194951982101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1841.7518826852399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2521,28 +2699,28 @@
         <v>1000000</v>
       </c>
       <c r="E41" s="4">
-        <v>41827</v>
+        <v>41554</v>
       </c>
       <c r="F41" s="4">
-        <v>41918</v>
+        <v>41645</v>
       </c>
       <c r="G41">
         <v>91</v>
       </c>
       <c r="H41" s="4">
-        <v>41918</v>
+        <v>41645</v>
       </c>
       <c r="J41">
-        <v>0.46326831012199998</v>
+        <v>0.75463824132500001</v>
       </c>
       <c r="K41" s="34">
-        <v>1171.03933947613</v>
+        <v>1907.5577766828001</v>
       </c>
       <c r="L41" s="34">
-        <v>1164.16371879346</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1898.9861385055101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -2556,28 +2734,28 @@
         <v>1000000</v>
       </c>
       <c r="E42" s="4">
-        <v>41918</v>
+        <v>41645</v>
       </c>
       <c r="F42" s="4">
-        <v>42009</v>
+        <v>41736</v>
       </c>
       <c r="G42">
         <v>91</v>
       </c>
       <c r="H42" s="4">
-        <v>42009</v>
+        <v>41736</v>
       </c>
       <c r="J42">
-        <v>0.46326831012300002</v>
-      </c>
-      <c r="K42" s="34">
-        <v>1171.0393394763501</v>
-      </c>
-      <c r="L42" s="34">
-        <v>1162.8020406180699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-0.37787730865699998</v>
+      </c>
+      <c r="K42">
+        <v>-955.18986355036498</v>
+      </c>
+      <c r="L42">
+        <v>-951.80686048961695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2591,180 +2769,171 @@
         <v>1000000</v>
       </c>
       <c r="E43" s="4">
-        <v>42009</v>
+        <v>41736</v>
       </c>
       <c r="F43" s="4">
-        <v>42100</v>
+        <v>41827</v>
       </c>
       <c r="G43">
         <v>91</v>
       </c>
       <c r="H43" s="4">
-        <v>42100</v>
+        <v>41827</v>
       </c>
       <c r="J43">
         <v>0.46326533051199997</v>
       </c>
       <c r="K43" s="34">
-        <v>1171.03180768318</v>
+        <v>1171.0318076829601</v>
       </c>
       <c r="L43" s="34">
-        <v>1161.43448508031</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1165.5194951982101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>1000000</v>
+      </c>
+      <c r="E44" s="4">
+        <v>41827</v>
+      </c>
+      <c r="F44" s="4">
+        <v>41918</v>
+      </c>
+      <c r="G44">
+        <v>91</v>
+      </c>
+      <c r="H44" s="4">
+        <v>41918</v>
+      </c>
+      <c r="J44">
+        <v>0.46326831012199998</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1171.03933947613</v>
+      </c>
+      <c r="L44" s="34">
+        <v>1164.16371879346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>1000000</v>
+      </c>
+      <c r="E45" s="4">
+        <v>41918</v>
+      </c>
+      <c r="F45" s="4">
+        <v>42009</v>
+      </c>
+      <c r="G45">
+        <v>91</v>
+      </c>
+      <c r="H45" s="4">
+        <v>42009</v>
+      </c>
+      <c r="J45">
+        <v>0.46326831012300002</v>
+      </c>
+      <c r="K45" s="34">
+        <v>1171.0393394763501</v>
+      </c>
+      <c r="L45" s="34">
+        <v>1162.8020406180699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
       </c>
       <c r="D46">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="E46" s="4">
-        <v>41369</v>
+        <v>42009</v>
       </c>
       <c r="F46" s="4">
-        <v>41554</v>
+        <v>42100</v>
       </c>
       <c r="G46">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="H46" s="4">
-        <v>41554</v>
-      </c>
-      <c r="I46">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J46" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K46" s="35">
-        <v>-2654.16666666221</v>
-      </c>
-      <c r="L46" s="35">
-        <v>-2647.3635449834401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47">
-        <v>-1000000</v>
-      </c>
-      <c r="E47" s="4">
-        <v>41554</v>
-      </c>
-      <c r="F47" s="4">
-        <v>41736</v>
-      </c>
-      <c r="G47">
-        <v>180</v>
-      </c>
-      <c r="H47" s="4">
-        <v>41736</v>
-      </c>
-      <c r="I47">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J47" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K47" s="35">
-        <v>-2624.9999999955899</v>
-      </c>
-      <c r="L47" s="35">
-        <v>-2615.70301792604</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>42100</v>
+      </c>
+      <c r="J46">
+        <v>0.46326533051199997</v>
+      </c>
+      <c r="K46" s="34">
+        <v>1171.03180768318</v>
+      </c>
+      <c r="L46" s="34">
+        <v>1161.43448508031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48">
-        <v>-1000000</v>
-      </c>
-      <c r="E48" s="4">
-        <v>41736</v>
-      </c>
-      <c r="F48" s="4">
-        <v>41918</v>
-      </c>
-      <c r="G48">
-        <v>179</v>
-      </c>
-      <c r="H48" s="4">
-        <v>41918</v>
-      </c>
-      <c r="I48">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J48" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K48" s="35">
-        <v>-2610.41666666229</v>
-      </c>
-      <c r="L48" s="35">
-        <v>-2595.0899101489499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.4">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2778,16 +2947,16 @@
         <v>-1000000</v>
       </c>
       <c r="E49" s="4">
-        <v>41918</v>
+        <v>41369</v>
       </c>
       <c r="F49" s="4">
-        <v>42100</v>
+        <v>41554</v>
       </c>
       <c r="G49">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H49" s="4">
-        <v>42100</v>
+        <v>41554</v>
       </c>
       <c r="I49">
         <v>0.52500000000000002</v>
@@ -2796,13 +2965,13 @@
         <v>0.52499999999911995</v>
       </c>
       <c r="K49" s="35">
-        <v>-2624.9999999955899</v>
+        <v>-2654.16666666221</v>
       </c>
       <c r="L49" s="35">
-        <v>-2603.48651789613</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-2647.3635449834401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.4">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2816,16 +2985,16 @@
         <v>-1000000</v>
       </c>
       <c r="E50" s="4">
-        <v>42100</v>
+        <v>41554</v>
       </c>
       <c r="F50" s="4">
-        <v>42282</v>
+        <v>41736</v>
       </c>
       <c r="G50">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H50" s="4">
-        <v>42282</v>
+        <v>41736</v>
       </c>
       <c r="I50">
         <v>0.52500000000000002</v>
@@ -2834,13 +3003,13 @@
         <v>0.52499999999911995</v>
       </c>
       <c r="K50" s="35">
-        <v>-2610.41666666229</v>
+        <v>-2624.9999999955899</v>
       </c>
       <c r="L50" s="35">
-        <v>-2579.27501134879</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-2615.70301792604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.4">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2854,16 +3023,16 @@
         <v>-1000000</v>
       </c>
       <c r="E51" s="4">
-        <v>42282</v>
+        <v>41736</v>
       </c>
       <c r="F51" s="4">
-        <v>42465</v>
+        <v>41918</v>
       </c>
       <c r="G51">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H51" s="4">
-        <v>42465</v>
+        <v>41918</v>
       </c>
       <c r="I51">
         <v>0.52500000000000002</v>
@@ -2872,118 +3041,127 @@
         <v>0.52499999999911995</v>
       </c>
       <c r="K51" s="35">
-        <v>-2624.9999999955899</v>
+        <v>-2610.41666666229</v>
       </c>
       <c r="L51" s="35">
-        <v>-2583.8655716889698</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-2595.0899101489499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.4">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>62</v>
       </c>
       <c r="D52">
-        <v>1000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E52" s="4">
-        <v>41369</v>
+        <v>41918</v>
       </c>
       <c r="F52" s="4">
-        <v>41460</v>
+        <v>42100</v>
       </c>
       <c r="G52">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="H52" s="4">
-        <v>41460</v>
+        <v>42100</v>
+      </c>
+      <c r="I52">
+        <v>0.52500000000000002</v>
       </c>
       <c r="J52" s="35">
-        <v>0.27999999999998998</v>
+        <v>0.52499999999911995</v>
       </c>
       <c r="K52" s="35">
-        <v>707.77777777775202</v>
+        <v>-2624.9999999955899</v>
       </c>
       <c r="L52" s="35">
-        <v>707.26716305148796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-2603.48651789613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.4">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>62</v>
       </c>
       <c r="D53">
-        <v>1000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E53" s="4">
-        <v>41460</v>
+        <v>42100</v>
       </c>
       <c r="F53" s="4">
-        <v>41554</v>
+        <v>42282</v>
       </c>
       <c r="G53">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="H53" s="4">
-        <v>41554</v>
+        <v>42282</v>
+      </c>
+      <c r="I53">
+        <v>0.52500000000000002</v>
       </c>
       <c r="J53" s="35">
-        <v>0.70716437838271995</v>
+        <v>0.52499999999911995</v>
       </c>
       <c r="K53" s="35">
-        <v>1846.4847657770899</v>
+        <v>-2610.41666666229</v>
       </c>
       <c r="L53" s="35">
-        <v>1841.7518826852499</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-2579.27501134879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.4">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>62</v>
       </c>
       <c r="D54">
-        <v>1000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E54" s="4">
-        <v>41554</v>
+        <v>42282</v>
       </c>
       <c r="F54" s="4">
-        <v>41645</v>
+        <v>42465</v>
       </c>
       <c r="G54">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="H54" s="4">
-        <v>41645</v>
+        <v>42465</v>
+      </c>
+      <c r="I54">
+        <v>0.52500000000000002</v>
       </c>
       <c r="J54" s="35">
-        <v>0.75463824132505997</v>
+        <v>0.52499999999911995</v>
       </c>
       <c r="K54" s="35">
-        <v>1907.5577766828001</v>
+        <v>-2624.9999999955899</v>
       </c>
       <c r="L54" s="35">
-        <v>1898.9861385055101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-2583.8655716889698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.4">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2997,28 +3175,28 @@
         <v>1000000</v>
       </c>
       <c r="E55" s="4">
-        <v>41645</v>
+        <v>41369</v>
       </c>
       <c r="F55" s="4">
-        <v>41736</v>
+        <v>41460</v>
       </c>
       <c r="G55">
         <v>91</v>
       </c>
       <c r="H55" s="4">
-        <v>41736</v>
+        <v>41460</v>
       </c>
       <c r="J55" s="35">
-        <v>-0.37787730865729002</v>
+        <v>0.27999999999998998</v>
       </c>
       <c r="K55" s="35">
-        <v>-955.18986355036498</v>
+        <v>707.77777777775202</v>
       </c>
       <c r="L55" s="35">
-        <v>-951.80686048961695</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>707.26716305148796</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.4">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3032,28 +3210,28 @@
         <v>1000000</v>
       </c>
       <c r="E56" s="4">
-        <v>41736</v>
+        <v>41460</v>
       </c>
       <c r="F56" s="4">
-        <v>41827</v>
+        <v>41554</v>
       </c>
       <c r="G56">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H56" s="4">
-        <v>41827</v>
+        <v>41554</v>
       </c>
       <c r="J56" s="35">
-        <v>0.46326533051194002</v>
+        <v>0.70716437838271995</v>
       </c>
       <c r="K56" s="35">
-        <v>1171.0318076829701</v>
+        <v>1846.4847657770899</v>
       </c>
       <c r="L56" s="35">
-        <v>1165.5194951982101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1841.7518826852499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.4">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3067,28 +3245,28 @@
         <v>1000000</v>
       </c>
       <c r="E57" s="4">
-        <v>41827</v>
+        <v>41554</v>
       </c>
       <c r="F57" s="4">
-        <v>41918</v>
+        <v>41645</v>
       </c>
       <c r="G57">
         <v>91</v>
       </c>
       <c r="H57" s="4">
-        <v>41918</v>
+        <v>41645</v>
       </c>
       <c r="J57" s="35">
-        <v>0.46326831012243003</v>
+        <v>0.75463824132505997</v>
       </c>
       <c r="K57" s="35">
-        <v>1171.03933947613</v>
+        <v>1907.5577766828001</v>
       </c>
       <c r="L57" s="35">
-        <v>1164.16371879346</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1898.9861385055101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.4">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3102,28 +3280,28 @@
         <v>1000000</v>
       </c>
       <c r="E58" s="4">
-        <v>41918</v>
+        <v>41645</v>
       </c>
       <c r="F58" s="4">
-        <v>42009</v>
+        <v>41736</v>
       </c>
       <c r="G58">
         <v>91</v>
       </c>
       <c r="H58" s="4">
-        <v>42009</v>
+        <v>41736</v>
       </c>
       <c r="J58" s="35">
-        <v>0.46326831012251002</v>
+        <v>-0.37787730865729002</v>
       </c>
       <c r="K58" s="35">
-        <v>1171.0393394763501</v>
+        <v>-955.18986355036498</v>
       </c>
       <c r="L58" s="35">
-        <v>1162.8020406180799</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>-951.80686048961695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.4">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3137,28 +3315,28 @@
         <v>1000000</v>
       </c>
       <c r="E59" s="4">
-        <v>42009</v>
+        <v>41736</v>
       </c>
       <c r="F59" s="4">
-        <v>42100</v>
+        <v>41827</v>
       </c>
       <c r="G59">
         <v>91</v>
       </c>
       <c r="H59" s="4">
-        <v>42100</v>
+        <v>41827</v>
       </c>
       <c r="J59" s="35">
-        <v>0.46326533051203</v>
+        <v>0.46326533051194002</v>
       </c>
       <c r="K59" s="35">
-        <v>1171.03180768319</v>
+        <v>1171.0318076829701</v>
       </c>
       <c r="L59" s="35">
-        <v>1161.43448508032</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1165.5194951982101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.4">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3172,28 +3350,28 @@
         <v>1000000</v>
       </c>
       <c r="E60" s="4">
-        <v>42100</v>
+        <v>41827</v>
       </c>
       <c r="F60" s="4">
-        <v>42191</v>
+        <v>41918</v>
       </c>
       <c r="G60">
         <v>91</v>
       </c>
       <c r="H60" s="4">
-        <v>42191</v>
+        <v>41918</v>
       </c>
       <c r="J60" s="35">
-        <v>0.74683650883500996</v>
+        <v>0.46326831012243003</v>
       </c>
       <c r="K60" s="35">
-        <v>1887.8367306662799</v>
+        <v>1171.03933947613</v>
       </c>
       <c r="L60" s="35">
-        <v>1868.8366943161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1164.16371879346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.4">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3207,28 +3385,28 @@
         <v>1000000</v>
       </c>
       <c r="E61" s="4">
-        <v>42191</v>
+        <v>41918</v>
       </c>
       <c r="F61" s="4">
-        <v>42282</v>
+        <v>42009</v>
       </c>
       <c r="G61">
         <v>91</v>
       </c>
       <c r="H61" s="4">
-        <v>42282</v>
+        <v>42009</v>
       </c>
       <c r="J61" s="35">
-        <v>0.74684425075117</v>
+        <v>0.46326831012251002</v>
       </c>
       <c r="K61" s="35">
-        <v>1887.8563005099099</v>
+        <v>1171.0393394763501</v>
       </c>
       <c r="L61" s="35">
-        <v>1865.3346199894399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1162.8020406180799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.4">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -3242,28 +3420,28 @@
         <v>1000000</v>
       </c>
       <c r="E62" s="4">
-        <v>42282</v>
+        <v>42009</v>
       </c>
       <c r="F62" s="4">
-        <v>42374</v>
+        <v>42100</v>
       </c>
       <c r="G62">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="4">
-        <v>42374</v>
+        <v>42100</v>
       </c>
       <c r="J62" s="35">
-        <v>0.74684425075108996</v>
+        <v>0.46326533051203</v>
       </c>
       <c r="K62" s="35">
-        <v>1908.6019741416701</v>
+        <v>1171.03180768319</v>
       </c>
       <c r="L62" s="35">
-        <v>1882.2403549691601</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1161.43448508032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="14.4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3277,16 +3455,16 @@
         <v>1000000</v>
       </c>
       <c r="E63" s="4">
-        <v>42374</v>
+        <v>42100</v>
       </c>
       <c r="F63" s="4">
-        <v>42465</v>
+        <v>42191</v>
       </c>
       <c r="G63">
         <v>91</v>
       </c>
       <c r="H63" s="4">
-        <v>42465</v>
+        <v>42191</v>
       </c>
       <c r="J63" s="35">
         <v>0.74683650883500996</v>
@@ -3295,6 +3473,111 @@
         <v>1887.8367306662799</v>
       </c>
       <c r="L63" s="35">
+        <v>1868.8366943161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="14.4">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>1000000</v>
+      </c>
+      <c r="E64" s="4">
+        <v>42191</v>
+      </c>
+      <c r="F64" s="4">
+        <v>42282</v>
+      </c>
+      <c r="G64">
+        <v>91</v>
+      </c>
+      <c r="H64" s="4">
+        <v>42282</v>
+      </c>
+      <c r="J64" s="35">
+        <v>0.74684425075117</v>
+      </c>
+      <c r="K64" s="35">
+        <v>1887.8563005099099</v>
+      </c>
+      <c r="L64" s="35">
+        <v>1865.3346199894399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="14.4">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <v>1000000</v>
+      </c>
+      <c r="E65" s="4">
+        <v>42282</v>
+      </c>
+      <c r="F65" s="4">
+        <v>42374</v>
+      </c>
+      <c r="G65">
+        <v>92</v>
+      </c>
+      <c r="H65" s="4">
+        <v>42374</v>
+      </c>
+      <c r="J65" s="35">
+        <v>0.74684425075108996</v>
+      </c>
+      <c r="K65" s="35">
+        <v>1908.6019741416701</v>
+      </c>
+      <c r="L65" s="35">
+        <v>1882.2403549691601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="14.4">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66">
+        <v>1000000</v>
+      </c>
+      <c r="E66" s="4">
+        <v>42374</v>
+      </c>
+      <c r="F66" s="4">
+        <v>42465</v>
+      </c>
+      <c r="G66">
+        <v>91</v>
+      </c>
+      <c r="H66" s="4">
+        <v>42465</v>
+      </c>
+      <c r="J66" s="35">
+        <v>0.74683650883500996</v>
+      </c>
+      <c r="K66" s="35">
+        <v>1887.8367306662799</v>
+      </c>
+      <c r="L66" s="35">
         <v>1858.25384127492</v>
       </c>
     </row>
@@ -3304,23 +3587,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="G1" sqref="G1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -3334,9 +3619,18 @@
       <c r="E1" s="3">
         <v>100.000619729099</v>
       </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G1" s="4">
+        <v>41372</v>
+      </c>
+      <c r="H1">
+        <v>1.0000061972910399</v>
+      </c>
+      <c r="I1" s="10">
+        <f>E1/100-H1</f>
+        <v>-4.9960036108132044E-14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3350,8 +3644,18 @@
       <c r="E2" s="3">
         <v>99.998391099135006</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <v>41376</v>
+      </c>
+      <c r="H2">
+        <v>0.99998391099137496</v>
+      </c>
+      <c r="I2" s="10">
+        <f t="shared" ref="I2:I18" si="0">E2/100-H2</f>
+        <v>-2.4868995751603507E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3365,8 +3669,18 @@
       <c r="E3" s="3">
         <v>99.986308293159993</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="4">
+        <v>41400</v>
+      </c>
+      <c r="H3">
+        <v>0.99986308293161796</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.7985612998927536E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3380,8 +3694,18 @@
       <c r="E4" s="3">
         <v>99.968492776199994</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <v>41430</v>
+      </c>
+      <c r="H4">
+        <v>0.99968492776201701</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.7097434579227411E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3395,8 +3719,18 @@
       <c r="E5" s="3">
         <v>99.947261493994006</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <v>41460</v>
+      </c>
+      <c r="H5">
+        <v>0.99947261493995898</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.8873791418627661E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3410,8 +3744,18 @@
       <c r="E6" s="3">
         <v>99.818290769783005</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <v>41554</v>
+      </c>
+      <c r="H6">
+        <v>0.99818290769785201</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.19824158875781E-14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3425,8 +3769,18 @@
       <c r="E7" s="3">
         <v>99.623048499804995</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <v>41645</v>
+      </c>
+      <c r="H7">
+        <v>0.99623048499806299</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.3100631690576847E-14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3440,8 +3794,18 @@
       <c r="E8" s="3">
         <v>99.599223863391998</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="4">
+        <v>41736</v>
+      </c>
+      <c r="H8">
+        <v>0.995992238633987</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.7057470687359455E-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3455,8 +3819,18 @@
       <c r="E9" s="3">
         <v>99.112394093226996</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <v>42101</v>
+      </c>
+      <c r="H9">
+        <v>0.99112395713380996</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>-1.6201539998483838E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -3470,8 +3844,18 @@
       <c r="E10" s="3">
         <v>98.383285435616003</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="4">
+        <v>42465</v>
+      </c>
+      <c r="H10">
+        <v>0.98383958683781303</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.7324816529490406E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -3485,8 +3869,18 @@
       <c r="E11" s="3">
         <v>97.221327772579002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="4">
+        <v>42830</v>
+      </c>
+      <c r="H11">
+        <v>0.97221995499064895</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.6772648589230599E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -3500,8 +3894,18 @@
       <c r="E12" s="3">
         <v>95.603106614035994</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="4">
+        <v>43195</v>
+      </c>
+      <c r="H12">
+        <v>0.95603766153249203</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.5953921321026954E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3515,8 +3919,18 @@
       <c r="E13" s="3">
         <v>91.087196444217</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="4">
+        <v>43928</v>
+      </c>
+      <c r="H13">
+        <v>0.91087831230466598</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.3478624959811825E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3530,8 +3944,18 @@
       <c r="E14" s="3">
         <v>82.675616142335997</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G14" s="4">
+        <v>45021</v>
+      </c>
+      <c r="H14">
+        <v>0.82676262254264099</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.4611192810426488E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -3545,8 +3969,18 @@
       <c r="E15" s="3">
         <v>76.966148591785995</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="4">
+        <v>45754</v>
+      </c>
+      <c r="H15">
+        <v>0.76966755634515804</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.070427298054959E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -3560,8 +3994,18 @@
       <c r="E16" s="3">
         <v>68.246376899257001</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G16" s="4">
+        <v>46848</v>
+      </c>
+      <c r="H16">
+        <v>0.68247001214564396</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.2431530739592844E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -3575,8 +4019,18 @@
       <c r="E17" s="3">
         <v>55.364903346353998</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G17" s="4">
+        <v>48674</v>
+      </c>
+      <c r="H17">
+        <v>0.55365421836029005</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>-5.1848967500545129E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -3590,28 +4044,46 @@
       <c r="E18" s="3">
         <v>37.783376043350003</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G18" s="4">
+        <v>52327</v>
+      </c>
+      <c r="H18">
+        <v>0.37783778949416802</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>-4.0290606679871388E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
+      <c r="F19">
+        <f>G22/365</f>
+        <v>0.50684931506849318</v>
+      </c>
       <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f>G23/365</f>
+        <v>0.49863013698630138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -3636,7 +4108,7 @@
       <c r="H21" t="s">
         <v>8</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J21" t="s">
@@ -3649,7 +4121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="14.4">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -3674,7 +4146,7 @@
       <c r="H22" s="4">
         <v>41554</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="10">
         <v>0.4</v>
       </c>
       <c r="J22" s="37">
@@ -3686,8 +4158,12 @@
       <c r="L22" s="37">
         <v>-2023.7132923166801</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f>L22/K22</f>
+        <v>0.99818290769783513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14.4">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -3712,7 +4188,7 @@
       <c r="H23" s="4">
         <v>41736</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="10">
         <v>0.4</v>
       </c>
       <c r="J23" s="37">
@@ -3724,20 +4200,24 @@
       <c r="L23" s="37">
         <v>-1986.5269855471299</v>
       </c>
-      <c r="P23" t="s">
+      <c r="M23">
+        <f t="shared" ref="M23:M25" si="1">L23/K23</f>
+        <v>0.99599223863392439</v>
+      </c>
+      <c r="R23" t="s">
         <v>71</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>66</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="T23" t="s">
         <v>67</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="U23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="14.4">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -3771,47 +4251,30 @@
       <c r="L24" s="37">
         <v>1819.5712139518</v>
       </c>
-      <c r="N24" t="s">
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0.99818290769783391</v>
+      </c>
+      <c r="P24" t="s">
         <v>64</v>
       </c>
-      <c r="O24" s="36">
+      <c r="Q24" s="36">
         <v>-2584</v>
       </c>
-      <c r="P24" s="4">
+      <c r="R24" s="4">
         <v>41367</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0.35959999999999998</v>
       </c>
       <c r="S24">
         <v>0.35959999999999998</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="4">
+      <c r="T24" s="4">
         <v>41369</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="U24" s="4">
         <v>41554</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="14.4">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -3845,54 +4308,37 @@
       <c r="L25" s="37">
         <v>2190.6690639120102</v>
       </c>
-      <c r="N25" t="s">
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.99599223863392239</v>
+      </c>
+      <c r="P25" t="s">
         <v>64</v>
       </c>
-      <c r="O25" s="36">
+      <c r="Q25" s="36">
         <v>-2585</v>
       </c>
-      <c r="P25" s="4">
+      <c r="R25" s="4">
         <v>41550</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0.44109999999999999</v>
       </c>
       <c r="S25">
         <v>0.44109999999999999</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="4">
+      <c r="T25" s="4">
         <v>41554</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="U25" s="4">
         <v>41736</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -3917,7 +4363,7 @@
       <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="J27" t="s">
@@ -3930,7 +4376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="14.4">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -3955,7 +4401,7 @@
       <c r="H28" s="4">
         <v>41554</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="10">
         <v>0.44500000000000001</v>
       </c>
       <c r="J28" s="37">
@@ -3968,7 +4414,7 @@
         <v>-2251.3810377033701</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="14.4">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -3993,7 +4439,7 @@
       <c r="H29" s="4">
         <v>41736</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="10">
         <v>0.44500000000000001</v>
       </c>
       <c r="J29" s="37">
@@ -4006,7 +4452,7 @@
         <v>-2210.01127142222</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.4">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -4031,7 +4477,7 @@
       <c r="H30" s="4">
         <v>41919</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="10">
         <v>0.44500000000000001</v>
       </c>
       <c r="J30" s="37">
@@ -4044,7 +4490,7 @@
         <v>-2216.7018395288001</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="14.4">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -4069,7 +4515,7 @@
       <c r="H31" s="4">
         <v>42100</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="10">
         <v>0.44500000000000001</v>
       </c>
       <c r="J31" s="37">
@@ -4082,7 +4528,7 @@
         <v>-2187.1547806298299</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="14.4">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -4116,47 +4562,26 @@
       <c r="L32" s="37">
         <v>1819.5712139518</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>64</v>
       </c>
-      <c r="O32" s="36">
+      <c r="Q32" s="36">
         <v>-2456</v>
       </c>
-      <c r="P32" s="4">
+      <c r="R32" s="4">
         <v>41367</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0.35959999999999998</v>
       </c>
       <c r="S32">
         <v>0.35959999999999998</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="4">
+      <c r="T32" s="4">
         <v>41369</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="U32" s="4">
         <v>41554</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="14.4">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4190,47 +4615,26 @@
       <c r="L33" s="37">
         <v>2190.6690639120102</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>64</v>
       </c>
-      <c r="O33" s="36">
+      <c r="Q33" s="36">
         <v>-2457</v>
       </c>
-      <c r="P33" s="4">
+      <c r="R33" s="4">
         <v>41550</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0.44109999999999999</v>
       </c>
       <c r="S33">
         <v>0.44109999999999999</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="4">
+      <c r="T33" s="4">
         <v>41554</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="U33" s="4">
         <v>41736</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="14.4">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4264,47 +4668,26 @@
       <c r="L34" s="37">
         <v>2443.7994756778799</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>64</v>
       </c>
-      <c r="O34" s="36">
+      <c r="Q34" s="36">
         <v>-2458</v>
       </c>
-      <c r="P34" s="4">
+      <c r="R34" s="4">
         <v>41732</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0.49059999999999998</v>
       </c>
       <c r="S34">
         <v>0.49059999999999998</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="4">
+      <c r="T34" s="4">
         <v>41736</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="U34" s="4">
         <v>41919</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="14.4">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4338,43 +4721,22 @@
       <c r="L35" s="37">
         <v>2411.2091757425201</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>64</v>
       </c>
-      <c r="O35" s="36">
+      <c r="Q35" s="36">
         <v>-2459</v>
       </c>
-      <c r="P35" s="4">
+      <c r="R35" s="4">
         <v>41914</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0.49059999999999998</v>
       </c>
       <c r="S35">
         <v>0.49059999999999998</v>
       </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4">
+      <c r="T35" s="4">
         <v>41919</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="U35" s="4">
         <v>42101</v>
       </c>
     </row>
@@ -4384,37 +4746,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4">
         <v>41360</v>
       </c>
@@ -4428,7 +4790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4">
         <v>41361</v>
       </c>
@@ -4454,7 +4816,7 @@
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="4">
         <v>41362</v>
       </c>
@@ -4480,7 +4842,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="4">
         <v>41394</v>
       </c>
@@ -4506,7 +4868,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="28" customFormat="1">
       <c r="A5" s="26">
         <v>41453</v>
       </c>
@@ -4535,7 +4897,7 @@
       <c r="N5" s="32"/>
       <c r="R5" s="33"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <v>41536</v>
       </c>
@@ -4561,7 +4923,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="4">
         <v>41626</v>
       </c>
@@ -4587,7 +4949,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="4">
         <v>41716</v>
       </c>
@@ -4613,7 +4975,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <v>41809</v>
       </c>
@@ -4638,7 +5000,7 @@
         <v>0.99598464158511701</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="4">
         <v>42093</v>
       </c>
@@ -4663,7 +5025,7 @@
         <v>0.99256361129956605</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="4">
         <v>42458</v>
       </c>
@@ -4687,7 +5049,7 @@
         <v>0.98541342831135503</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="4">
         <v>42823</v>
       </c>
@@ -4715,7 +5077,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <v>43188</v>
       </c>
@@ -4742,7 +5104,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
         <v>43553</v>
       </c>
@@ -4769,7 +5131,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <v>43920</v>
       </c>
@@ -4796,7 +5158,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="4">
         <v>44284</v>
       </c>
@@ -4824,7 +5186,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="4">
         <v>44649</v>
       </c>
@@ -4853,7 +5215,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="4">
         <v>45014</v>
       </c>
@@ -4882,7 +5244,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="4">
         <v>46841</v>
       </c>
@@ -4911,7 +5273,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="4">
         <v>48667</v>
       </c>
@@ -4940,7 +5302,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18">
       <c r="A21" s="4">
         <v>50493</v>
       </c>
@@ -4969,7 +5331,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" s="4">
         <v>52320</v>
       </c>
@@ -4998,7 +5360,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18">
       <c r="C23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="4"/>
@@ -5007,7 +5369,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="4"/>
       <c r="C24" s="8"/>
       <c r="F24" s="8"/>
@@ -5017,7 +5379,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="4"/>
       <c r="C25" s="8"/>
       <c r="F25" s="8"/>
@@ -5028,7 +5390,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="4"/>
       <c r="C26" s="8"/>
       <c r="F26" s="8"/>
@@ -5039,7 +5401,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="4"/>
       <c r="C27" s="8"/>
       <c r="F27" s="8"/>
@@ -5049,7 +5411,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="4"/>
       <c r="C28" s="8"/>
       <c r="F28" s="8"/>
@@ -5058,7 +5420,7 @@
       <c r="Q28" s="18"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="4"/>
       <c r="C29" s="8"/>
       <c r="F29" s="8"/>
@@ -5066,7 +5428,7 @@
       <c r="L29" s="4"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="4"/>
       <c r="C30" s="8"/>
       <c r="F30" s="8"/>
@@ -5074,7 +5436,7 @@
       <c r="L30" s="4"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="4"/>
       <c r="C31" s="8"/>
       <c r="F31" s="8"/>
@@ -5084,7 +5446,7 @@
       <c r="Q31" s="15"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" s="4"/>
       <c r="C32" s="8"/>
       <c r="F32" s="8"/>
@@ -5107,7 +5469,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="14.4">
       <c r="A33" s="4"/>
       <c r="C33" s="8"/>
       <c r="F33" s="8"/>
@@ -5133,7 +5495,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="14.4">
       <c r="A34" s="4"/>
       <c r="C34" s="8"/>
       <c r="F34" s="8"/>
@@ -5159,7 +5521,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="14.4">
       <c r="A35" s="4"/>
       <c r="C35" s="8"/>
       <c r="F35" s="8"/>
@@ -5185,7 +5547,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="14.4">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="F36" s="8"/>
@@ -5211,7 +5573,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" s="4"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -5224,7 +5586,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" s="4"/>
       <c r="C38" s="8"/>
       <c r="F38" s="8"/>
@@ -5238,7 +5600,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" s="4"/>
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
@@ -5251,7 +5613,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" s="4"/>
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
@@ -5264,7 +5626,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" s="4"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
@@ -5277,7 +5639,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" s="4"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
@@ -5290,7 +5652,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" s="4"/>
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
@@ -5303,7 +5665,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" s="4"/>
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
@@ -5318,7 +5680,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" s="4"/>
       <c r="E45" s="23"/>
       <c r="F45" s="4"/>
@@ -5334,7 +5696,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" s="4"/>
       <c r="E46" s="23"/>
       <c r="F46" s="4"/>
@@ -5350,7 +5712,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" s="4"/>
       <c r="E47" s="23"/>
       <c r="F47" s="4"/>
@@ -5366,7 +5728,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" s="4"/>
       <c r="E48" s="23"/>
       <c r="F48" s="4"/>
@@ -5382,7 +5744,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" s="4"/>
       <c r="E49" s="23"/>
       <c r="F49" s="4"/>
@@ -5398,7 +5760,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5413,7 +5775,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5428,7 +5790,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5443,7 +5805,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5458,7 +5820,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5473,7 +5835,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5488,7 +5850,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -5503,7 +5865,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5518,7 +5880,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -5528,7 +5890,7 @@
       <c r="P58" s="18"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -5538,7 +5900,7 @@
       <c r="P59" s="18"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -5548,7 +5910,7 @@
       <c r="P60" s="18"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -5558,40 +5920,40 @@
       <c r="P61" s="18"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10">
       <c r="J71"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:10">
       <c r="J72"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:10">
       <c r="J73"/>
     </row>
   </sheetData>
@@ -5601,29 +5963,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -5644,7 +6006,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -5665,7 +6027,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -5686,7 +6048,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
@@ -5709,7 +6071,7 @@
         <v>2.6397160999999999E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -5730,7 +6092,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
@@ -5753,7 +6115,7 @@
         <v>8.9848690000000005E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
@@ -5777,7 +6139,7 @@
         <v>2.1340537900000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -5800,7 +6162,7 @@
         <v>4.1329120599999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -5821,7 +6183,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -5842,7 +6204,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -5863,7 +6225,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -5884,7 +6246,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -5905,7 +6267,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -5926,7 +6288,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -5947,7 +6309,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -5968,7 +6330,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -5989,7 +6351,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -6010,7 +6372,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -6031,7 +6393,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -6052,7 +6414,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -6074,159 +6436,159 @@
       <c r="I21" s="4"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="H24" s="11"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="H25" s="11"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="H26" s="11"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="H27" s="11"/>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="H28" s="11"/>
       <c r="I28" s="16"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="H29" s="11"/>
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="H30" s="11"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="H31" s="11"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="H32" s="11"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="H33" s="11"/>
       <c r="I33" s="16"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="H34" s="11"/>
       <c r="I34" s="16"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="H35" s="11"/>
       <c r="I35" s="16"/>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="H36" s="11"/>
       <c r="I36" s="16"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="H37" s="11"/>
       <c r="I37" s="16"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="H38" s="11"/>
       <c r="I38" s="16"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="H39" s="11"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="H40" s="11"/>
       <c r="I40" s="16"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="H41" s="11"/>
       <c r="I41" s="16"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
@@ -6237,29 +6599,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="16" customWidth="1"/>
     <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
@@ -6276,12 +6638,21 @@
       <c r="G1" s="4">
         <v>41389</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="16">
+        <v>0.99996791666666696</v>
+      </c>
+      <c r="I1" s="8">
+        <f>E1/100-H1</f>
+        <v>-7.2219383469018794E-6</v>
+      </c>
+      <c r="K1" s="4">
+        <v>41389</v>
+      </c>
+      <c r="L1">
         <v>99.996069472832005</v>
       </c>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -6298,12 +6669,21 @@
       <c r="G2" s="4">
         <v>41452</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="16">
+        <v>0.99989499999999998</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" ref="I2:I10" si="0">E2/100-H2</f>
+        <v>-7.2214117299296277E-6</v>
+      </c>
+      <c r="K2" s="4">
+        <v>41452</v>
+      </c>
+      <c r="L2">
         <v>99.988777858827007</v>
       </c>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -6320,12 +6700,21 @@
       <c r="G3" s="4">
         <v>41543</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="16">
+        <v>0.99951388888888903</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="0"/>
+        <v>-7.2186592889877943E-6</v>
+      </c>
+      <c r="K3" s="4">
+        <v>41543</v>
+      </c>
+      <c r="L3">
         <v>99.950667022960005</v>
       </c>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -6342,12 +6731,21 @@
       <c r="G4" s="4">
         <v>41704</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="16">
+        <v>0.99883333333333302</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>-7.213744192990923E-6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>41704</v>
+      </c>
+      <c r="L4">
         <v>99.882611958913998</v>
       </c>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -6364,12 +6762,21 @@
       <c r="G5" s="4">
         <v>42094</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="16">
+        <v>0.99526711165266002</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.8685414000271265E-7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>42094</v>
+      </c>
+      <c r="L5">
         <v>99.526616594746997</v>
       </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -6386,12 +6793,21 @@
       <c r="G6" s="4">
         <v>42444</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="16">
+        <v>0.98986326157973303</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>-7.1740754330473777E-6</v>
+      </c>
+      <c r="K6" s="4">
+        <v>42444</v>
+      </c>
+      <c r="L6">
         <v>98.985489355301993</v>
       </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -6408,12 +6824,21 @@
       <c r="G7" s="4">
         <v>43192</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="16">
+        <v>0.96299665975885296</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2944903526990181E-5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>43192</v>
+      </c>
+      <c r="L7">
         <v>96.298761588849004</v>
       </c>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -6430,12 +6855,21 @@
       <c r="G8" s="4">
         <v>43921</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="16">
+        <v>0.91687798535596698</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2646786763003135E-5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>43921</v>
+      </c>
+      <c r="L8">
         <v>91.683681917442996</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -6452,12 +6886,21 @@
       <c r="G9" s="4">
         <v>44972</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="16">
+        <v>0.82959789620060198</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>-8.2494804619637208E-6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>44972</v>
+      </c>
+      <c r="L9">
         <v>82.932466769418994</v>
       </c>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -6474,12 +6917,21 @@
       <c r="G10" s="4">
         <v>52279</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="16">
+        <v>0.36838761870418901</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.7620283190052959E-6</v>
+      </c>
+      <c r="K10" s="4">
+        <v>52279</v>
+      </c>
+      <c r="L10">
         <v>35.518862533859</v>
       </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="D11" s="4"/>
@@ -6488,7 +6940,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="14.4">
       <c r="A13" s="38" t="s">
         <v>3</v>
       </c>
@@ -6542,7 +6994,7 @@
       <c r="AC13" s="38"/>
       <c r="AD13" s="38"/>
     </row>
-    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="14.4">
       <c r="A14" s="38" t="s">
         <v>2</v>
       </c>
@@ -6596,7 +7048,7 @@
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
     </row>
-    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="14.4">
       <c r="A15" s="38" t="s">
         <v>2</v>
       </c>
@@ -6650,7 +7102,7 @@
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
     </row>
-    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="14.4">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -6704,7 +7156,7 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
     </row>
-    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="14.4">
       <c r="A17" s="38" t="s">
         <v>82</v>
       </c>
@@ -6748,7 +7200,7 @@
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
     </row>
-    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="14.4">
       <c r="A18" s="38" t="s">
         <v>2</v>
       </c>
@@ -6802,7 +7254,7 @@
       <c r="AC18" s="38"/>
       <c r="AD18" s="38"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30">
       <c r="A19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="16"/>
@@ -6810,7 +7262,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -6845,7 +7297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -6880,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -6915,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -6950,7 +7402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -6985,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -7020,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -7044,7 +7496,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -7079,13 +7531,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30">
       <c r="E28" s="16"/>
       <c r="F28" s="5"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -7120,7 +7572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -7155,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
@@ -7190,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
@@ -7225,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
@@ -7260,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -7295,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -7330,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
@@ -7365,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -7400,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -7435,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -7459,7 +7911,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -7500,22 +7952,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
@@ -7533,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
@@ -7551,7 +8003,7 @@
         <v>-4.0331600281717783E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
@@ -7569,7 +8021,7 @@
         <v>1.5271117703719028E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
@@ -7587,7 +8039,7 @@
         <v>5.1950999058192338E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
@@ -7605,7 +8057,7 @@
         <v>-1.5963033006549665E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
@@ -7623,7 +8075,7 @@
         <v>8.5247087167061864E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -7641,7 +8093,7 @@
         <v>-2.3578964891690646E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -7659,7 +8111,7 @@
         <v>1.3497959416852723E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
@@ -7677,7 +8129,7 @@
         <v>8.609030155426467E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
@@ -7695,7 +8147,7 @@
         <v>7.0480488112423245E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
@@ -7713,60 +8165,60 @@
         <v>6.1303295773029731E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USD swap" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="88">
   <si>
     <t>BBG_SERVERAPI "EUDR1 Curncy" BSF</t>
   </si>
@@ -280,13 +280,16 @@
   </si>
   <si>
     <t>EDH4 PIT Comdty</t>
+  </si>
+  <si>
+    <t>check accrual factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000000"/>
     <numFmt numFmtId="166" formatCode="0.00000000000000"/>
@@ -297,9 +300,10 @@
     <numFmt numFmtId="171" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -856,7 +860,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -898,7 +902,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="74">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1061,6 +1067,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1095,6 +1102,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1270,14 +1278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
@@ -1293,7 +1301,7 @@
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1333,7 @@
         <v>99.999277782994</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1365,7 @@
         <v>99.998583348387001</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>99.982655555898006</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1427,7 @@
         <v>99.927856632081998</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>99.743681443813998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.4">
+    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>99.550648568444004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.4">
+    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>99.646467796633999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.4">
+    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -1527,14 +1535,14 @@
         <v>99.180438777161996</v>
       </c>
       <c r="G8" s="4">
-        <v>42101</v>
+        <v>42100</v>
       </c>
       <c r="H8">
-        <v>0.99179085605778905</v>
+        <v>0.99180373432356606</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>1.3531713830894354E-5</v>
+        <v>6.5344805388889426E-7</v>
       </c>
       <c r="L8" s="6">
         <v>42100</v>
@@ -1543,7 +1551,7 @@
         <v>99.181125118164005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.4">
+    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1561,11 +1569,11 @@
         <v>42465</v>
       </c>
       <c r="H9">
-        <v>0.98433668918885198</v>
+        <v>0.984329051462281</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
-        <v>-6.9475914019623275E-6</v>
+        <v>6.9013516901250682E-7</v>
       </c>
       <c r="L9" s="6">
         <v>42465</v>
@@ -1574,7 +1582,7 @@
         <v>98.433806341961002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.4">
+    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1592,11 +1600,11 @@
         <v>42830</v>
       </c>
       <c r="H10">
-        <v>0.97206546999340904</v>
+        <v>0.97205789964612599</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
-        <v>-6.8238053890778971E-6</v>
+        <v>7.465418939700541E-7</v>
       </c>
       <c r="L10" s="6">
         <v>42830</v>
@@ -1605,7 +1613,7 @@
         <v>97.206493257899993</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.4">
+    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>49</v>
       </c>
@@ -1623,11 +1631,11 @@
         <v>43195</v>
       </c>
       <c r="H11">
-        <v>0.95390851712373304</v>
+        <v>0.95390105235090195</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="0"/>
-        <v>-6.6484961230850459E-6</v>
+        <v>8.1627670800443752E-7</v>
       </c>
       <c r="L11" s="6">
         <v>43195</v>
@@ -1636,7 +1644,7 @@
         <v>95.390440854093001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.4">
+    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1654,11 +1662,11 @@
         <v>43563</v>
       </c>
       <c r="H12">
-        <v>0.93032153691061903</v>
+        <v>0.93031421747904197</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="0"/>
-        <v>-6.4317010191050628E-6</v>
+        <v>8.8773055795243749E-7</v>
       </c>
       <c r="L12" s="6">
         <v>43563</v>
@@ -1667,7 +1675,7 @@
         <v>93.029737631429001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.4">
+    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -1685,11 +1693,11 @@
         <v>43927</v>
       </c>
       <c r="H13">
-        <v>0.90364848256345498</v>
+        <v>0.90364133595540597</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="0"/>
-        <v>-6.1978469949597326E-6</v>
+        <v>9.4876105405372613E-7</v>
       </c>
       <c r="L13" s="6">
         <v>43927</v>
@@ -1698,7 +1706,7 @@
         <v>90.363933854730007</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.4">
+    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -1713,14 +1721,14 @@
         <v>87.487764884296993</v>
       </c>
       <c r="G14" s="4">
-        <v>44292</v>
+        <v>44291</v>
       </c>
       <c r="H14">
-        <v>0.87480616405693001</v>
+        <v>0.87487665097937795</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>7.1484786039910375E-5</v>
+        <v>9.9786359197828745E-7</v>
       </c>
       <c r="L14" s="6">
         <v>44291</v>
@@ -1729,7 +1737,7 @@
         <v>87.486935240511002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.4">
+    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1747,11 +1755,11 @@
         <v>44656</v>
       </c>
       <c r="H15">
-        <v>0.84517821866253195</v>
+        <v>0.84516620580931301</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>-1.0985451171952043E-5</v>
+        <v>1.0274020469935863E-6</v>
       </c>
       <c r="L15" s="6">
         <v>44656</v>
@@ -1760,7 +1768,7 @@
         <v>84.515477450505998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.4">
+    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -1778,11 +1786,11 @@
         <v>45021</v>
       </c>
       <c r="H16">
-        <v>0.81482043767739398</v>
+        <v>0.81480875210277404</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>-1.0631674913996747E-5</v>
+        <v>1.0538997059494903E-6</v>
       </c>
       <c r="L16" s="6">
         <v>45021</v>
@@ -1791,7 +1799,7 @@
         <v>81.479112561380006</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4">
+    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1809,11 +1817,11 @@
         <v>46848</v>
       </c>
       <c r="H17">
-        <v>0.67020037769461405</v>
+        <v>0.670190084042943</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
-        <v>-8.8892805140128317E-6</v>
+        <v>1.4043711570321804E-6</v>
       </c>
       <c r="L17" s="6">
         <v>46848</v>
@@ -1822,7 +1830,7 @@
         <v>66.972055402986001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.4">
+    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1840,11 +1848,11 @@
         <v>48674</v>
       </c>
       <c r="H18">
-        <v>0.55507680178938001</v>
+        <v>0.55506811258023603</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>-7.163592730008439E-6</v>
+        <v>1.5256164139776374E-6</v>
       </c>
       <c r="L18" s="6">
         <v>48674</v>
@@ -1853,7 +1861,7 @@
         <v>55.443950109023</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4">
+    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -1871,11 +1879,11 @@
         <v>50500</v>
       </c>
       <c r="H19">
-        <v>0.463620165766918</v>
+        <v>0.46361262465838898</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
-        <v>-6.2048959679761317E-6</v>
+        <v>1.3362125610427711E-6</v>
       </c>
       <c r="L19" s="6">
         <v>50500</v>
@@ -1884,7 +1892,7 @@
         <v>46.297005707757997</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -1902,11 +1910,11 @@
         <v>52327</v>
       </c>
       <c r="H20">
-        <v>0.38875605069604102</v>
+        <v>0.388749674604426</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>-5.040143441048528E-6</v>
+        <v>1.3359481739749768E-6</v>
       </c>
       <c r="L20" s="4">
         <v>52327</v>
@@ -1915,17 +1923,17 @@
         <v>38.814596152179</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="L22" s="41">
         <f>SUM(L24:L25)</f>
         <v>-3496.1983237526201</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1966,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>0.99743681443813581</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -2127,7 +2135,7 @@
         <v>41460</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -2192,7 +2200,7 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2265,7 @@
         <v>41646</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4"/>
       <c r="F30" s="7">
@@ -2346,7 +2354,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="4"/>
       <c r="F31" s="7">
@@ -2378,7 +2386,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="E32" s="4"/>
       <c r="F32" s="7">
@@ -2410,7 +2418,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="F33" s="7">
         <f t="shared" si="5"/>
@@ -2425,7 +2433,7 @@
         <v>-204500</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -2463,7 +2471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -2501,7 +2509,7 @@
         <v>-2062.4222664761801</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>-2037.7572082542799</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>-2021.6986157193401</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>-2028.23997299287</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>707.26716305148796</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2685,7 +2693,7 @@
         <v>1841.7518826852399</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2720,7 +2728,7 @@
         <v>1898.9861385055101</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>-951.80686048961695</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2790,7 +2798,7 @@
         <v>1165.5194951982101</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2825,7 +2833,7 @@
         <v>1164.16371879346</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2860,7 +2868,7 @@
         <v>1162.8020406180699</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>1161.43448508031</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.4">
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2971,7 +2979,7 @@
         <v>-2647.3635449834401</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.4">
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3009,7 +3017,7 @@
         <v>-2615.70301792604</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.4">
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>-2595.0899101489499</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.4">
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -3085,7 +3093,7 @@
         <v>-2603.48651789613</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.4">
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -3123,7 +3131,7 @@
         <v>-2579.27501134879</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.4">
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -3161,7 +3169,7 @@
         <v>-2583.8655716889698</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.4">
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>707.26716305148796</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.4">
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>1841.7518826852499</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="14.4">
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -3266,7 +3274,7 @@
         <v>1898.9861385055101</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.4">
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>-951.80686048961695</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="14.4">
+    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3336,7 +3344,7 @@
         <v>1165.5194951982101</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="14.4">
+    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3371,7 +3379,7 @@
         <v>1164.16371879346</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="14.4">
+    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>1162.8020406180799</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.4">
+    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>1161.43448508032</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.4">
+    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>1868.8366943161</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="14.4">
+    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>1865.3346199894399</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="14.4">
+    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3546,7 +3554,7 @@
         <v>1882.2403549691601</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="14.4">
+    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -3587,25 +3595,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H18"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -3630,7 +3641,7 @@
         <v>-4.9960036108132044E-14</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>-2.4868995751603507E-14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3680,7 +3691,7 @@
         <v>-1.7985612998927536E-14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3705,7 +3716,7 @@
         <v>-1.7097434579227411E-14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3730,7 +3741,7 @@
         <v>-1.8873791418627661E-14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3755,7 +3766,7 @@
         <v>-2.19824158875781E-14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>-1.3100631690576847E-14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3805,7 +3816,7 @@
         <v>-6.7057470687359455E-14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
@@ -3823,14 +3834,14 @@
         <v>42101</v>
       </c>
       <c r="H9">
-        <v>0.99112395713380996</v>
+        <v>0.99112395711354195</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" si="0"/>
-        <v>-1.6201539998483838E-8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-1.6181271988990886E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -3848,14 +3859,14 @@
         <v>42465</v>
       </c>
       <c r="H10">
-        <v>0.98383958683781303</v>
+        <v>0.98383958686107498</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="0"/>
-        <v>-6.7324816529490406E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-6.732504914896964E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -3873,14 +3884,14 @@
         <v>42830</v>
       </c>
       <c r="H11">
-        <v>0.97221995499064895</v>
+        <v>0.97221995508477199</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="0"/>
-        <v>-6.6772648589230599E-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-6.6773589819657531E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -3898,14 +3909,14 @@
         <v>43195</v>
       </c>
       <c r="H12">
-        <v>0.95603766153249203</v>
+        <v>0.95603766171070903</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="0"/>
-        <v>-6.5953921321026954E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-6.5955703490994111E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3923,14 +3934,14 @@
         <v>43928</v>
       </c>
       <c r="H13">
-        <v>0.91087831230466598</v>
+        <v>0.91087831266184305</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="0"/>
-        <v>-6.3478624959811825E-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-6.3482196730468843E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -3948,14 +3959,14 @@
         <v>45021</v>
       </c>
       <c r="H14">
-        <v>0.82676262254264099</v>
+        <v>0.82676262310801496</v>
       </c>
       <c r="I14" s="10">
         <f t="shared" si="0"/>
-        <v>-6.4611192810426488E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>-6.4616846550125118E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -3973,14 +3984,14 @@
         <v>45754</v>
       </c>
       <c r="H15">
-        <v>0.76966755634515804</v>
+        <v>0.76966755699160905</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="0"/>
-        <v>-6.070427298054959E-6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-6.0710737490587974E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -3998,14 +4009,14 @@
         <v>46848</v>
       </c>
       <c r="H16">
-        <v>0.68247001214564396</v>
+        <v>0.68247001287303399</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="0"/>
-        <v>-6.2431530739592844E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>-6.2438804639963763E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
@@ -4023,14 +4034,14 @@
         <v>48674</v>
       </c>
       <c r="H17">
-        <v>0.55365421836029005</v>
+        <v>0.55365421911704404</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="0"/>
-        <v>-5.1848967500545129E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>-5.1856535040473162E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -4048,14 +4059,14 @@
         <v>52327</v>
       </c>
       <c r="H18">
-        <v>0.37783778949416802</v>
+        <v>0.37783844885342199</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="0"/>
-        <v>-4.0290606679871388E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>-4.6884199219610068E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4072,7 +4083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4083,7 +4094,7 @@
         <v>0.49863013698630138</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -4121,7 +4132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.4">
+    <row r="22" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>61</v>
       </c>
@@ -4149,7 +4160,7 @@
       <c r="I22" s="10">
         <v>0.4</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="43">
         <v>0.39999999999955999</v>
       </c>
       <c r="K22" s="37">
@@ -4163,7 +4174,7 @@
         <v>0.99818290769783513</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.4">
+    <row r="23" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
@@ -4191,7 +4202,7 @@
       <c r="I23" s="10">
         <v>0.4</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="43">
         <v>0.39999999999955999</v>
       </c>
       <c r="K23" s="37">
@@ -4217,7 +4228,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.4">
+    <row r="24" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -4242,7 +4253,7 @@
       <c r="H24" s="4">
         <v>41554</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="43">
         <v>0.35964999999912001</v>
       </c>
       <c r="K24" s="37">
@@ -4274,7 +4285,7 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.4">
+    <row r="25" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
@@ -4299,7 +4310,7 @@
       <c r="H25" s="4">
         <v>41736</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="43">
         <v>0.441105321971</v>
       </c>
       <c r="K25" s="37">
@@ -4331,14 +4342,14 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -4376,7 +4387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.4">
+    <row r="28" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
@@ -4404,7 +4415,7 @@
       <c r="I28" s="10">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="43">
         <v>0.44499999999972001</v>
       </c>
       <c r="K28" s="37">
@@ -4414,7 +4425,7 @@
         <v>-2251.3810377033701</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.4">
+    <row r="29" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -4442,7 +4453,7 @@
       <c r="I29" s="10">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="43">
         <v>0.44499999999972001</v>
       </c>
       <c r="K29" s="37">
@@ -4452,7 +4463,7 @@
         <v>-2210.01127142222</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.4">
+    <row r="30" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -4480,7 +4491,7 @@
       <c r="I30" s="10">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="43">
         <v>0.44499999999972001</v>
       </c>
       <c r="K30" s="37">
@@ -4490,7 +4501,7 @@
         <v>-2216.7018395288001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.4">
+    <row r="31" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -4518,7 +4529,7 @@
       <c r="I31" s="10">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="43">
         <v>0.44499999999972001</v>
       </c>
       <c r="K31" s="37">
@@ -4528,7 +4539,7 @@
         <v>-2187.1547806298299</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="14.4">
+    <row r="32" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>63</v>
       </c>
@@ -4553,7 +4564,7 @@
       <c r="H32" s="4">
         <v>41554</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="43">
         <v>0.35964999999912001</v>
       </c>
       <c r="K32" s="37">
@@ -4562,6 +4573,10 @@
       <c r="L32" s="37">
         <v>1819.5712139518</v>
       </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M34" si="2">L32/K32</f>
+        <v>0.99818290769783391</v>
+      </c>
       <c r="P32" t="s">
         <v>64</v>
       </c>
@@ -4581,7 +4596,7 @@
         <v>41554</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.4">
+    <row r="33" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4606,7 +4621,7 @@
       <c r="H33" s="4">
         <v>41736</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="43">
         <v>0.441105321971</v>
       </c>
       <c r="K33" s="37">
@@ -4615,6 +4630,10 @@
       <c r="L33" s="37">
         <v>2190.6690639120102</v>
       </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.99599223863392239</v>
+      </c>
       <c r="P33" t="s">
         <v>64</v>
       </c>
@@ -4634,7 +4653,7 @@
         <v>41736</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.4">
+    <row r="34" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4659,7 +4678,7 @@
       <c r="H34" s="4">
         <v>41919</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="43">
         <v>0.49058955394161002</v>
       </c>
       <c r="K34" s="37">
@@ -4668,6 +4687,14 @@
       <c r="L34" s="37">
         <v>2443.7994756778799</v>
       </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0.99354843915824487</v>
+      </c>
+      <c r="N34" s="11">
+        <f>(M33/M34-1)/(H34-H33)*365</f>
+        <v>4.9058955394152073E-3</v>
+      </c>
       <c r="P34" t="s">
         <v>64</v>
       </c>
@@ -4687,7 +4714,7 @@
         <v>41919</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.4">
+    <row r="35" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4712,7 +4739,7 @@
       <c r="H35" s="4">
         <v>42100</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="43">
         <v>0.49058625969570002</v>
       </c>
       <c r="K35" s="37">
@@ -4721,6 +4748,14 @@
       <c r="L35" s="37">
         <v>2411.2091757425201</v>
       </c>
+      <c r="M35">
+        <f>L35/K35</f>
+        <v>0.99113724617342647</v>
+      </c>
+      <c r="N35" s="11">
+        <f>(M34/M36-1)/(H36-H34)*365</f>
+        <v>4.9058625969627713E-3</v>
+      </c>
       <c r="P35" t="s">
         <v>64</v>
       </c>
@@ -4738,6 +4773,79 @@
       </c>
       <c r="U35" s="4">
         <v>42101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G36" s="42">
+        <f>D35*G35/365*J35/100</f>
+        <v>2432.7702193129235</v>
+      </c>
+      <c r="H36" s="23">
+        <v>42101</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0.99112394093226996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I38" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" ref="I39:I41" si="3">(F32-E32)</f>
+        <v>185</v>
+      </c>
+      <c r="J39">
+        <f>I39/365</f>
+        <v>0.50684931506849318</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" ref="K39:K41" si="4">D32*J39*J32/100</f>
+        <v>1822.8835616393753</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J39:J41" si="5">I40/365</f>
+        <v>0.49863013698630138</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="4"/>
+        <v>2199.4840711978632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0.50136986301369868</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="4"/>
+        <v>2459.6681745565652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f>(F35-E35)</f>
+        <v>181</v>
+      </c>
+      <c r="J42" s="8">
+        <f>I42/365</f>
+        <v>0.49589041095890413</v>
+      </c>
+      <c r="K42" s="5">
+        <f>D35*J42*J35/100</f>
+        <v>2432.7702193129235</v>
       </c>
     </row>
   </sheetData>
@@ -4746,14 +4854,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="19" bestFit="1" customWidth="1"/>
@@ -4776,7 +4884,7 @@
     <col min="19" max="19" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>41360</v>
       </c>
@@ -4790,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>41361</v>
       </c>
@@ -4816,7 +4924,7 @@
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>41362</v>
       </c>
@@ -4842,7 +4950,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>41394</v>
       </c>
@@ -4868,7 +4976,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:18" s="28" customFormat="1">
+    <row r="5" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
         <v>41453</v>
       </c>
@@ -4897,7 +5005,7 @@
       <c r="N5" s="32"/>
       <c r="R5" s="33"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>41536</v>
       </c>
@@ -4923,7 +5031,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>41626</v>
       </c>
@@ -4949,7 +5057,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>41716</v>
       </c>
@@ -4975,7 +5083,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>41809</v>
       </c>
@@ -5000,7 +5108,7 @@
         <v>0.99598464158511701</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>42093</v>
       </c>
@@ -5025,7 +5133,7 @@
         <v>0.99256361129956605</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>42458</v>
       </c>
@@ -5049,7 +5157,7 @@
         <v>0.98541342831135503</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>42823</v>
       </c>
@@ -5077,7 +5185,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43188</v>
       </c>
@@ -5104,7 +5212,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43553</v>
       </c>
@@ -5131,7 +5239,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43920</v>
       </c>
@@ -5158,7 +5266,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44284</v>
       </c>
@@ -5186,7 +5294,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>44649</v>
       </c>
@@ -5215,7 +5323,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45014</v>
       </c>
@@ -5244,7 +5352,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>46841</v>
       </c>
@@ -5273,7 +5381,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>48667</v>
       </c>
@@ -5302,7 +5410,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>50493</v>
       </c>
@@ -5331,7 +5439,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>52320</v>
       </c>
@@ -5360,7 +5468,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="8"/>
       <c r="F23" s="8"/>
       <c r="H23" s="4"/>
@@ -5369,7 +5477,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="C24" s="8"/>
       <c r="F24" s="8"/>
@@ -5379,7 +5487,7 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25" s="8"/>
       <c r="F25" s="8"/>
@@ -5390,7 +5498,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="8"/>
       <c r="F26" s="8"/>
@@ -5401,7 +5509,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="C27" s="8"/>
       <c r="F27" s="8"/>
@@ -5411,7 +5519,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="C28" s="8"/>
       <c r="F28" s="8"/>
@@ -5420,7 +5528,7 @@
       <c r="Q28" s="18"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="C29" s="8"/>
       <c r="F29" s="8"/>
@@ -5428,7 +5536,7 @@
       <c r="L29" s="4"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="C30" s="8"/>
       <c r="F30" s="8"/>
@@ -5436,7 +5544,7 @@
       <c r="L30" s="4"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="C31" s="8"/>
       <c r="F31" s="8"/>
@@ -5446,7 +5554,7 @@
       <c r="Q31" s="15"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="C32" s="8"/>
       <c r="F32" s="8"/>
@@ -5469,7 +5577,7 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="1:18" ht="14.4">
+    <row r="33" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33" s="8"/>
       <c r="F33" s="8"/>
@@ -5495,7 +5603,7 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="1:18" ht="14.4">
+    <row r="34" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="C34" s="8"/>
       <c r="F34" s="8"/>
@@ -5521,7 +5629,7 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="1:18" ht="14.4">
+    <row r="35" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="C35" s="8"/>
       <c r="F35" s="8"/>
@@ -5547,7 +5655,7 @@
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="1:18" ht="14.4">
+    <row r="36" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="C36" s="8"/>
       <c r="F36" s="8"/>
@@ -5573,7 +5681,7 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="C37" s="8"/>
       <c r="F37" s="8"/>
@@ -5586,7 +5694,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="C38" s="8"/>
       <c r="F38" s="8"/>
@@ -5600,7 +5708,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="F39" s="8"/>
       <c r="G39" s="4"/>
@@ -5613,7 +5721,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="F40" s="8"/>
       <c r="G40" s="4"/>
@@ -5626,7 +5734,7 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="F41" s="8"/>
       <c r="G41" s="4"/>
@@ -5639,7 +5747,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="F42" s="8"/>
       <c r="G42" s="4"/>
@@ -5652,7 +5760,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="F43" s="8"/>
       <c r="G43" s="4"/>
@@ -5665,7 +5773,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="F44" s="8"/>
       <c r="G44" s="4"/>
@@ -5680,7 +5788,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="E45" s="23"/>
       <c r="F45" s="4"/>
@@ -5696,7 +5804,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="E46" s="23"/>
       <c r="F46" s="4"/>
@@ -5712,7 +5820,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="E47" s="23"/>
       <c r="F47" s="4"/>
@@ -5728,7 +5836,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="E48" s="23"/>
       <c r="F48" s="4"/>
@@ -5744,7 +5852,7 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="E49" s="23"/>
       <c r="F49" s="4"/>
@@ -5760,7 +5868,7 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -5775,7 +5883,7 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -5790,7 +5898,7 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -5805,7 +5913,7 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -5820,7 +5928,7 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -5835,7 +5943,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -5850,7 +5958,7 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -5865,7 +5973,7 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5880,7 +5988,7 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -5890,7 +5998,7 @@
       <c r="P58" s="18"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -5900,7 +6008,7 @@
       <c r="P59" s="18"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -5910,7 +6018,7 @@
       <c r="P60" s="18"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
@@ -5920,40 +6028,40 @@
       <c r="P61" s="18"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J64"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73"/>
     </row>
   </sheetData>
@@ -5963,14 +6071,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -5985,7 +6093,7 @@
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
@@ -6006,7 +6114,7 @@
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
@@ -6027,7 +6135,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
@@ -6048,7 +6156,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>83</v>
       </c>
@@ -6071,7 +6179,7 @@
         <v>2.6397160999999999E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -6092,7 +6200,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
@@ -6115,7 +6223,7 @@
         <v>8.9848690000000005E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>85</v>
       </c>
@@ -6139,7 +6247,7 @@
         <v>2.1340537900000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
@@ -6162,7 +6270,7 @@
         <v>4.1329120599999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -6183,7 +6291,7 @@
       </c>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
@@ -6204,7 +6312,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>48</v>
       </c>
@@ -6225,7 +6333,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
@@ -6246,7 +6354,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -6267,7 +6375,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -6288,7 +6396,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -6309,7 +6417,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -6330,7 +6438,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -6351,7 +6459,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -6372,7 +6480,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -6393,7 +6501,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -6414,7 +6522,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -6436,159 +6544,159 @@
       <c r="I21" s="4"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="H24" s="11"/>
       <c r="I24" s="16"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="H25" s="11"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="H26" s="11"/>
       <c r="I26" s="16"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="H27" s="11"/>
       <c r="I27" s="16"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="H28" s="11"/>
       <c r="I28" s="16"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="H29" s="11"/>
       <c r="I29" s="16"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="H30" s="11"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="H31" s="11"/>
       <c r="I31" s="16"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="H32" s="11"/>
       <c r="I32" s="16"/>
       <c r="J32" s="17"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="H33" s="11"/>
       <c r="I33" s="16"/>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="H34" s="11"/>
       <c r="I34" s="16"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="H35" s="11"/>
       <c r="I35" s="16"/>
       <c r="J35" s="17"/>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="H36" s="11"/>
       <c r="I36" s="16"/>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="H37" s="11"/>
       <c r="I37" s="16"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="H38" s="11"/>
       <c r="I38" s="16"/>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="H39" s="11"/>
       <c r="I39" s="16"/>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="H40" s="11"/>
       <c r="I40" s="16"/>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="H41" s="11"/>
       <c r="I41" s="16"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="44" spans="3:10">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="3:10">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="3:10">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="3:10">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
@@ -6599,29 +6707,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" style="16" customWidth="1"/>
     <col min="9" max="9" width="18" style="5" customWidth="1"/>
     <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
@@ -6634,7 +6743,10 @@
       <c r="E1" s="16">
         <v>99.996069472832005</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="16">
+        <f>(1-E1/100)/(D1-D11)*360</f>
+        <v>6.7380465737049936E-4</v>
+      </c>
       <c r="G1" s="4">
         <v>41389</v>
       </c>
@@ -6652,7 +6764,7 @@
         <v>99.996069472832005</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -6665,7 +6777,6 @@
       <c r="E2" s="16">
         <v>99.988777858827007</v>
       </c>
-      <c r="F2" s="10"/>
       <c r="G2" s="4">
         <v>41452</v>
       </c>
@@ -6683,7 +6794,7 @@
         <v>99.988777858827007</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -6696,7 +6807,6 @@
       <c r="E3" s="16">
         <v>99.950667022960005</v>
       </c>
-      <c r="F3" s="10"/>
       <c r="G3" s="4">
         <v>41543</v>
       </c>
@@ -6714,7 +6824,7 @@
         <v>99.950667022960005</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
@@ -6727,7 +6837,6 @@
       <c r="E4" s="16">
         <v>99.882611958913998</v>
       </c>
-      <c r="F4" s="10"/>
       <c r="G4" s="4">
         <v>41704</v>
       </c>
@@ -6745,7 +6854,7 @@
         <v>99.882611958913998</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -6758,7 +6867,6 @@
       <c r="E5" s="16">
         <v>99.526662479852007</v>
       </c>
-      <c r="F5" s="10"/>
       <c r="G5" s="4">
         <v>42094</v>
       </c>
@@ -6776,7 +6884,7 @@
         <v>99.526616594746997</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>77</v>
       </c>
@@ -6789,7 +6897,6 @@
       <c r="E6" s="16">
         <v>98.985608750430004</v>
       </c>
-      <c r="F6" s="10"/>
       <c r="G6" s="4">
         <v>42444</v>
       </c>
@@ -6807,7 +6914,7 @@
         <v>98.985489355301993</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>78</v>
       </c>
@@ -6820,7 +6927,6 @@
       <c r="E7" s="16">
         <v>96.300960466237996</v>
       </c>
-      <c r="F7" s="10"/>
       <c r="G7" s="4">
         <v>43192</v>
       </c>
@@ -6838,7 +6944,7 @@
         <v>96.298761588849004</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -6851,7 +6957,6 @@
       <c r="E8" s="16">
         <v>91.690063214272996</v>
       </c>
-      <c r="F8" s="10"/>
       <c r="G8" s="4">
         <v>43921</v>
       </c>
@@ -6869,7 +6974,7 @@
         <v>91.683681917442996</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
@@ -6882,7 +6987,6 @@
       <c r="E9" s="16">
         <v>82.958964672014005</v>
       </c>
-      <c r="F9" s="10"/>
       <c r="G9" s="4">
         <v>44972</v>
       </c>
@@ -6900,7 +7004,7 @@
         <v>82.932466769418994</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -6913,7 +7017,6 @@
       <c r="E10" s="16">
         <v>36.838285667587002</v>
       </c>
-      <c r="F10" s="10"/>
       <c r="G10" s="4">
         <v>52279</v>
       </c>
@@ -6931,16 +7034,17 @@
         <v>35.518862533859</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <v>41368</v>
+      </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="10"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="13" spans="1:30" ht="14.4">
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>3</v>
       </c>
@@ -6956,7 +7060,7 @@
       <c r="E13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="38" t="s">
@@ -6994,7 +7098,7 @@
       <c r="AC13" s="38"/>
       <c r="AD13" s="38"/>
     </row>
-    <row r="14" spans="1:30" ht="14.4">
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>2</v>
       </c>
@@ -7010,7 +7114,7 @@
       <c r="E14" s="39">
         <v>41547</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="16">
         <v>182</v>
       </c>
       <c r="G14" s="39">
@@ -7048,7 +7152,7 @@
       <c r="AC14" s="38"/>
       <c r="AD14" s="38"/>
     </row>
-    <row r="15" spans="1:30" ht="14.4">
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>2</v>
       </c>
@@ -7064,7 +7168,7 @@
       <c r="E15" s="39">
         <v>41729</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="16">
         <v>182</v>
       </c>
       <c r="G15" s="39">
@@ -7102,7 +7206,7 @@
       <c r="AC15" s="38"/>
       <c r="AD15" s="38"/>
     </row>
-    <row r="16" spans="1:30" ht="14.4">
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>2</v>
       </c>
@@ -7118,7 +7222,7 @@
       <c r="E16" s="39">
         <v>41912</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="16">
         <v>183</v>
       </c>
       <c r="G16" s="39">
@@ -7156,7 +7260,7 @@
       <c r="AC16" s="38"/>
       <c r="AD16" s="38"/>
     </row>
-    <row r="17" spans="1:30" ht="14.4">
+    <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>82</v>
       </c>
@@ -7168,7 +7272,6 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
       <c r="G17" s="39">
         <v>42094</v>
       </c>
@@ -7200,7 +7303,7 @@
       <c r="AC17" s="38"/>
       <c r="AD17" s="38"/>
     </row>
-    <row r="18" spans="1:30" ht="14.4">
+    <row r="18" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>2</v>
       </c>
@@ -7216,7 +7319,7 @@
       <c r="E18" s="39">
         <v>42094</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="16">
         <v>182</v>
       </c>
       <c r="G18" s="39">
@@ -7254,15 +7357,14 @@
       <c r="AC18" s="38"/>
       <c r="AD18" s="38"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -7278,7 +7380,7 @@
       <c r="E20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="s">
@@ -7297,7 +7399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -7313,7 +7415,7 @@
       <c r="E21" s="16">
         <v>41532</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="16">
         <v>184</v>
       </c>
       <c r="G21" s="4">
@@ -7332,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>2</v>
       </c>
@@ -7348,7 +7450,7 @@
       <c r="E22" s="16">
         <v>41713</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="16">
         <v>181</v>
       </c>
       <c r="G22" s="4">
@@ -7367,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -7383,7 +7485,7 @@
       <c r="E23" s="16">
         <v>41897</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="16">
         <v>184</v>
       </c>
       <c r="G23" s="4">
@@ -7402,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -7418,7 +7520,7 @@
       <c r="E24" s="16">
         <v>42078</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="16">
         <v>181</v>
       </c>
       <c r="G24" s="4">
@@ -7437,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -7453,7 +7555,7 @@
       <c r="E25" s="16">
         <v>42262</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="16">
         <v>184</v>
       </c>
       <c r="G25" s="4">
@@ -7472,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -7483,7 +7585,6 @@
         <v>1</v>
       </c>
       <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
       <c r="G26" s="4">
         <v>42444</v>
       </c>
@@ -7496,7 +7597,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -7512,7 +7613,7 @@
       <c r="E27" s="16">
         <v>42444</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="16">
         <v>182</v>
       </c>
       <c r="G27" s="4">
@@ -7531,13 +7632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E28" s="16"/>
-      <c r="F28" s="5"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -7553,7 +7653,7 @@
       <c r="E29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="16" t="s">
         <v>7</v>
       </c>
       <c r="G29" t="s">
@@ -7572,7 +7672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
@@ -7588,7 +7688,7 @@
       <c r="E30" s="16">
         <v>41547</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="16">
         <v>182</v>
       </c>
       <c r="G30" s="4">
@@ -7607,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
@@ -7623,7 +7723,7 @@
       <c r="E31" s="16">
         <v>41729</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="16">
         <v>182</v>
       </c>
       <c r="G31" s="4">
@@ -7642,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>2</v>
       </c>
@@ -7658,7 +7758,7 @@
       <c r="E32" s="16">
         <v>41912</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="16">
         <v>183</v>
       </c>
       <c r="G32" s="4">
@@ -7677,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
@@ -7693,7 +7793,7 @@
       <c r="E33" s="16">
         <v>42094</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="16">
         <v>182</v>
       </c>
       <c r="G33" s="4">
@@ -7712,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>2</v>
       </c>
@@ -7728,7 +7828,7 @@
       <c r="E34" s="16">
         <v>42277</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="16">
         <v>183</v>
       </c>
       <c r="G34" s="4">
@@ -7747,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -7763,7 +7863,7 @@
       <c r="E35" s="16">
         <v>42460</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="16">
         <v>183</v>
       </c>
       <c r="G35" s="4">
@@ -7782,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
@@ -7798,7 +7898,7 @@
       <c r="E36" s="16">
         <v>42643</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="16">
         <v>183</v>
       </c>
       <c r="G36" s="4">
@@ -7817,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -7833,7 +7933,7 @@
       <c r="E37" s="16">
         <v>42825</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="16">
         <v>182</v>
       </c>
       <c r="G37" s="4">
@@ -7852,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -7868,7 +7968,7 @@
       <c r="E38" s="16">
         <v>43008</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="16">
         <v>183</v>
       </c>
       <c r="G38" s="4">
@@ -7887,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -7898,7 +7998,6 @@
         <v>1</v>
       </c>
       <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
       <c r="G39" s="8">
         <v>43192</v>
       </c>
@@ -7911,7 +8010,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -7927,7 +8026,7 @@
       <c r="E40" s="16">
         <v>43190</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="16">
         <v>182</v>
       </c>
       <c r="G40" s="4">
@@ -7952,14 +8051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -7967,7 +8066,7 @@
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>41368</v>
       </c>
@@ -7985,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>41729</v>
       </c>
@@ -8003,7 +8102,7 @@
         <v>-4.0331600281717783E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>42109</v>
       </c>
@@ -8021,7 +8120,7 @@
         <v>1.5271117703719028E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>42247</v>
       </c>
@@ -8039,7 +8138,7 @@
         <v>5.1950999058192338E-11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>42825</v>
       </c>
@@ -8057,7 +8156,7 @@
         <v>-1.5963033006549665E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43511</v>
       </c>
@@ -8075,7 +8174,7 @@
         <v>8.5247087167061864E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43556</v>
       </c>
@@ -8093,7 +8192,7 @@
         <v>-2.3578964891690646E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43879</v>
       </c>
@@ -8111,7 +8210,7 @@
         <v>1.3497959416852723E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44515</v>
       </c>
@@ -8129,7 +8228,7 @@
         <v>8.609030155426467E-10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44607</v>
       </c>
@@ -8147,7 +8246,7 @@
         <v>7.0480488112423245E-10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>51914</v>
       </c>
@@ -8165,60 +8264,60 @@
         <v>6.1303295773029731E-10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="4:7">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="4:7">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="4:7">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="4:7">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="4:7">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="4:7">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="4:7">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>

--- a/DymonProject/DymonProject/SwapCurveBB.xlsx
+++ b/DymonProject/DymonProject/SwapCurveBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="132" windowWidth="10008" windowHeight="6240" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="6240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USD swap" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,12 @@
     <sheet name="Bond Linear RT" sheetId="6" r:id="rId5"/>
     <sheet name="Bond Linear Spot" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="88">
-  <si>
-    <t>BBG_SERVERAPI "EUDR1 Curncy" BSF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>Float Rate</t>
   </si>
@@ -216,9 +213,6 @@
     <t>Single</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>estimate</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>ACT/365</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>T 3 1/8 02/15/43</t>
   </si>
   <si>
-    <t>Fixed Amount</t>
-  </si>
-  <si>
     <t>EDM3 PIT Comdty</t>
   </si>
   <si>
@@ -283,6 +271,15 @@
   </si>
   <si>
     <t>check accrual factor</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>21d</t>
+  </si>
+  <si>
+    <t>49d</t>
   </si>
 </sst>
 </file>
@@ -301,12 +298,19 @@
     <numFmt numFmtId="172" formatCode="0.00000000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000"/>
     <numFmt numFmtId="174" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="177" formatCode="0.0000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -784,49 +788,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -841,72 +860,65 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="57" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="57"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="57" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="57"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="71" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="72" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="71" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="72" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="73" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="72" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="74" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="73" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="44"/>
     <cellStyle name="20% - Accent1 3" xfId="59"/>
@@ -974,6 +986,7 @@
     <cellStyle name="Normal_Bond Linear RT" xfId="73"/>
     <cellStyle name="Normal_SGD" xfId="72"/>
     <cellStyle name="Normal_USD" xfId="71"/>
+    <cellStyle name="Normal_USD swap" xfId="74"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="43"/>
     <cellStyle name="Note 3" xfId="58"/>
@@ -1282,48 +1295,47 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H20"/>
+      <selection activeCell="G37" sqref="G37:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3">
         <v>0.26</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="23">
-        <v>41368</v>
+        <v>41369</v>
       </c>
       <c r="E1" s="16">
-        <v>99.999277782994</v>
+        <v>99.999277782993801</v>
       </c>
       <c r="G1" s="4">
-        <v>41368</v>
+        <v>41369</v>
       </c>
       <c r="H1">
         <v>0.99999277782993801</v>
       </c>
       <c r="I1" s="8">
         <f>E1/100-H1</f>
-        <v>1.9984014443252818E-15</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3"/>
       <c r="L1" s="4">
@@ -1333,29 +1345,29 @@
         <v>99.999277782994</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3">
         <v>0.25</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="23">
-        <v>41369</v>
+        <v>41372</v>
       </c>
       <c r="E2" s="40">
-        <v>99.998583348387001</v>
+        <v>99.997194508107697</v>
       </c>
       <c r="G2" s="4">
-        <v>41369</v>
+        <v>41372</v>
       </c>
       <c r="H2">
-        <v>0.99998583348387204</v>
+        <v>0.999971945081082</v>
       </c>
       <c r="I2" s="8">
         <f t="shared" ref="I2:I20" si="0">E2/100-H2</f>
-        <v>-1.9984014443252818E-15</v>
+        <v>-4.9960036108132044E-15</v>
       </c>
       <c r="J2" s="4"/>
       <c r="L2" s="4">
@@ -1365,29 +1377,29 @@
         <v>99.998583348387001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3">
         <v>0.185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="23">
-        <v>41400</v>
+        <v>41402</v>
       </c>
       <c r="E3" s="40">
-        <v>99.982655555898006</v>
+        <v>99.981780650257505</v>
       </c>
       <c r="G3" s="4">
-        <v>41400</v>
+        <v>41402</v>
       </c>
       <c r="H3">
-        <v>0.99982655555898003</v>
+        <v>0.99981780650258001</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.9960036108132044E-15</v>
       </c>
       <c r="L3" s="4">
         <v>41400</v>
@@ -1396,29 +1408,29 @@
         <v>99.982655555898006</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="23">
-        <v>41460</v>
+        <v>41463</v>
       </c>
       <c r="E4" s="40">
-        <v>99.927856632081998</v>
+        <v>99.9264687740976</v>
       </c>
       <c r="G4" s="4">
-        <v>41460</v>
+        <v>41463</v>
       </c>
       <c r="H4">
-        <v>0.99927856632082102</v>
+        <v>0.99926468774098098</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="0"/>
-        <v>-9.9920072216264089E-16</v>
+        <v>-4.9960036108132044E-15</v>
       </c>
       <c r="L4" s="4">
         <v>41460</v>
@@ -1427,29 +1439,29 @@
         <v>99.927856632081998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3">
         <v>0.49730000000000002</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="23">
-        <v>41554</v>
+        <v>41555</v>
       </c>
       <c r="E5" s="40">
-        <v>99.743681443813998</v>
+        <v>99.745044853180303</v>
       </c>
       <c r="G5" s="4">
-        <v>41554</v>
+        <v>41555</v>
       </c>
       <c r="H5">
-        <v>0.99743681443813004</v>
+        <v>0.99745044853180298</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="0"/>
-        <v>9.9920072216264089E-15</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <v>41554</v>
@@ -1458,29 +1470,29 @@
         <v>99.743681443813998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="3">
         <v>0.58689999999999998</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="23">
-        <v>41645</v>
+        <v>41647</v>
       </c>
       <c r="E6" s="40">
-        <v>99.550648568444004</v>
+        <v>99.550881635364803</v>
       </c>
       <c r="G6" s="4">
-        <v>41645</v>
+        <v>41647</v>
       </c>
       <c r="H6">
-        <v>0.995506485684436</v>
+        <v>0.99550881635365296</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="0"/>
-        <v>3.9968028886505635E-15</v>
+        <v>-4.8849813083506888E-15</v>
       </c>
       <c r="L6" s="6">
         <v>41645</v>
@@ -1489,29 +1501,29 @@
         <v>99.550648568444004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3">
         <v>0.34399999999999997</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="23">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="E7" s="40">
-        <v>99.645829254492995</v>
+        <v>99.654227759199998</v>
       </c>
       <c r="G7" s="4">
-        <v>41736</v>
+        <v>41737</v>
       </c>
       <c r="H7">
-        <v>0.99650533641251904</v>
+        <v>0.99654227759217195</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="0"/>
-        <v>-4.7043867589136035E-5</v>
+        <v>-1.7197354651443675E-13</v>
       </c>
       <c r="L7" s="6">
         <v>41736</v>
@@ -1520,29 +1532,29 @@
         <v>99.646467796633999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3">
         <v>0.40899999999999997</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="23">
-        <v>42100</v>
+        <v>42102</v>
       </c>
       <c r="E8" s="40">
-        <v>99.180438777161996</v>
+        <v>99.183283714482101</v>
       </c>
       <c r="G8" s="4">
-        <v>42100</v>
+        <v>42102</v>
       </c>
       <c r="H8">
-        <v>0.99180373432356606</v>
+        <v>0.99183283714478698</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="0"/>
-        <v>6.5344805388889426E-7</v>
+        <v>3.4083846855992306E-14</v>
       </c>
       <c r="L8" s="6">
         <v>42100</v>
@@ -1551,29 +1563,29 @@
         <v>99.181125118164005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3">
         <v>0.52500000000000002</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="23">
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="E9" s="40">
-        <v>98.432974159745001</v>
+        <v>98.434680735133099</v>
       </c>
       <c r="G9" s="4">
-        <v>42465</v>
+        <v>42468</v>
       </c>
       <c r="H9">
-        <v>0.984329051462281</v>
+        <v>0.98434680735136304</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
-        <v>6.9013516901250682E-7</v>
+        <v>-3.2085445411667024E-14</v>
       </c>
       <c r="L9" s="6">
         <v>42465</v>
@@ -1582,29 +1594,29 @@
         <v>98.433806341961002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3">
         <v>0.70599999999999996</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="23">
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="E10" s="40">
-        <v>97.205864618801996</v>
+        <v>97.203753048595004</v>
       </c>
       <c r="G10" s="4">
-        <v>42830</v>
+        <v>42835</v>
       </c>
       <c r="H10">
-        <v>0.97205789964612599</v>
+        <v>0.97203753048599795</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
-        <v>7.465418939700541E-7</v>
+        <v>-4.7850612361344247E-14</v>
       </c>
       <c r="L10" s="6">
         <v>42830</v>
@@ -1613,29 +1625,29 @@
         <v>97.206493257899993</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
         <v>0.93799999999999994</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="23">
-        <v>43195</v>
+        <v>43199</v>
       </c>
       <c r="E11" s="40">
-        <v>95.390186862760999</v>
+        <v>95.389336793848997</v>
       </c>
       <c r="G11" s="4">
-        <v>43195</v>
+        <v>43199</v>
       </c>
       <c r="H11">
-        <v>0.95390105235090195</v>
+        <v>0.95389336793854496</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="0"/>
-        <v>8.1627670800443752E-7</v>
+        <v>-5.4956039718945249E-14</v>
       </c>
       <c r="L11" s="6">
         <v>43195</v>
@@ -1644,9 +1656,9 @@
         <v>95.390440854093001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3">
         <v>1.1879999999999999</v>
@@ -1656,17 +1668,17 @@
         <v>43563</v>
       </c>
       <c r="E12" s="40">
-        <v>93.031510520959998</v>
+        <v>93.051992984016906</v>
       </c>
       <c r="G12" s="4">
         <v>43563</v>
       </c>
       <c r="H12">
-        <v>0.93031421747904197</v>
+        <v>0.93051992984021004</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="0"/>
-        <v>8.8773055795243749E-7</v>
+        <v>-4.0967229608668276E-14</v>
       </c>
       <c r="L12" s="6">
         <v>43563</v>
@@ -1675,29 +1687,29 @@
         <v>93.029737631429001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>1.425</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="23">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="E13" s="40">
-        <v>90.364228471646001</v>
+        <v>90.369201042750802</v>
       </c>
       <c r="G13" s="4">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="H13">
-        <v>0.90364133595540597</v>
+        <v>0.90369201042751401</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="0"/>
-        <v>9.4876105405372613E-7</v>
+        <v>-5.9952043329758453E-15</v>
       </c>
       <c r="L13" s="6">
         <v>43927</v>
@@ -1706,29 +1718,29 @@
         <v>90.363933854730007</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>1.6375</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="23">
-        <v>44291</v>
+        <v>44294</v>
       </c>
       <c r="E14" s="40">
-        <v>87.487764884296993</v>
+        <v>87.489142486638102</v>
       </c>
       <c r="G14" s="4">
-        <v>44291</v>
+        <v>44294</v>
       </c>
       <c r="H14">
-        <v>0.87487665097937795</v>
+        <v>0.87489142486637494</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="0"/>
-        <v>9.9786359197828745E-7</v>
+        <v>6.106226635438361E-15</v>
       </c>
       <c r="L14" s="6">
         <v>44291</v>
@@ -1737,29 +1749,29 @@
         <v>87.486935240511002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3">
         <v>1.823</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="23">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="E15" s="40">
-        <v>84.516723321135999</v>
+        <v>84.494145865422993</v>
       </c>
       <c r="G15" s="4">
-        <v>44656</v>
+        <v>44662</v>
       </c>
       <c r="H15">
-        <v>0.84516620580931301</v>
+        <v>0.84494145865353598</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>1.0274020469935863E-6</v>
+        <v>6.9400041269318535E-13</v>
       </c>
       <c r="L15" s="6">
         <v>44656</v>
@@ -1768,29 +1780,29 @@
         <v>84.515477450505998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3">
         <v>1.988</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="23">
-        <v>45021</v>
+        <v>45026</v>
       </c>
       <c r="E16" s="40">
-        <v>81.480980600248003</v>
+        <v>81.473460524045294</v>
       </c>
       <c r="G16" s="4">
-        <v>45021</v>
+        <v>45027</v>
       </c>
       <c r="H16">
-        <v>0.81480875210277404</v>
+        <v>0.81465349332193204</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>1.0538997059494903E-6</v>
+        <v>8.1111918520893056E-5</v>
       </c>
       <c r="L16" s="6">
         <v>45021</v>
@@ -1799,29 +1811,29 @@
         <v>81.479112561380006</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3">
         <v>2.5409999999999999</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="23">
-        <v>46848</v>
+        <v>46853</v>
       </c>
       <c r="E17" s="40">
-        <v>67.019148841410001</v>
+        <v>67.010002524041198</v>
       </c>
       <c r="G17" s="4">
-        <v>46848</v>
+        <v>46853</v>
       </c>
       <c r="H17">
-        <v>0.670190084042943</v>
+        <v>0.67010534413020695</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
-        <v>1.4043711570321804E-6</v>
+        <v>-5.3188897949363323E-6</v>
       </c>
       <c r="L17" s="6">
         <v>46848</v>
@@ -1830,29 +1842,29 @@
         <v>66.972055402986001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>2.78</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="23">
-        <v>48674</v>
+        <v>48680</v>
       </c>
       <c r="E18" s="40">
-        <v>55.506963819665003</v>
+        <v>55.489477816690702</v>
       </c>
       <c r="G18" s="4">
-        <v>48674</v>
+        <v>48680</v>
       </c>
       <c r="H18">
-        <v>0.55506811258023603</v>
+        <v>0.55489934775104899</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>1.5256164139776374E-6</v>
+        <v>-4.5695841419668426E-6</v>
       </c>
       <c r="L18" s="6">
         <v>48674</v>
@@ -1861,29 +1873,29 @@
         <v>55.443950109023</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>2.8959999999999999</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="23">
-        <v>50500</v>
+        <v>50503</v>
       </c>
       <c r="E19" s="40">
-        <v>46.361396087095002</v>
+        <v>46.361154801092603</v>
       </c>
       <c r="G19" s="4">
-        <v>50500</v>
+        <v>50503</v>
       </c>
       <c r="H19">
-        <v>0.46361262465838898</v>
+        <v>0.46361566973444002</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
-        <v>1.3362125610427711E-6</v>
+        <v>-4.1217235139945352E-6</v>
       </c>
       <c r="L19" s="6">
         <v>50500</v>
@@ -1892,29 +1904,29 @@
         <v>46.297005707757997</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3">
         <v>2.9630000000000001</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="23">
-        <v>52327</v>
+        <v>52329</v>
       </c>
       <c r="E20" s="40">
-        <v>38.875101055259996</v>
+        <v>38.878031874142799</v>
       </c>
       <c r="G20" s="4">
-        <v>52327</v>
+        <v>52329</v>
       </c>
       <c r="H20">
-        <v>0.388749674604426</v>
+        <v>0.388784000298249</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>1.3359481739749768E-6</v>
+        <v>-3.6815568210113447E-6</v>
       </c>
       <c r="L20" s="4">
         <v>52327</v>
@@ -1923,1671 +1935,781 @@
         <v>38.814596152179</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="L22" s="41">
-        <f>SUM(L24:L25)</f>
-        <v>-3496.1983237526201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="O23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24">
-        <v>-1000000</v>
-      </c>
-      <c r="E24" s="4">
-        <v>41369</v>
-      </c>
-      <c r="F24" s="4">
-        <v>41554</v>
-      </c>
-      <c r="G24">
-        <v>185</v>
-      </c>
-      <c r="H24" s="4">
-        <v>41554</v>
-      </c>
-      <c r="I24">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="J24">
-        <v>0.34400000001300002</v>
-      </c>
-      <c r="K24" s="34">
-        <v>-1767.7777778423699</v>
-      </c>
-      <c r="L24" s="34">
-        <v>-1763.24663536562</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ref="M24:M25" si="1">L24/K24</f>
-        <v>0.99743681443813581</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
       </c>
       <c r="D25">
         <v>-1000000</v>
       </c>
       <c r="E25" s="4">
-        <v>41554</v>
+        <v>41372</v>
       </c>
       <c r="F25" s="4">
-        <v>41736</v>
+        <v>41555</v>
       </c>
       <c r="G25">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H25" s="4">
-        <v>41736</v>
+        <v>41555</v>
       </c>
       <c r="I25">
         <v>0.34399999999999997</v>
       </c>
-      <c r="J25">
-        <v>0.34400000001300002</v>
-      </c>
-      <c r="K25" s="34">
-        <v>-1739.11111117465</v>
-      </c>
-      <c r="L25" s="34">
-        <v>-1732.9516883870001</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0.99645829254492568</v>
-      </c>
-      <c r="S25" t="s">
-        <v>65</v>
-      </c>
-      <c r="T25" t="s">
-        <v>66</v>
-      </c>
-      <c r="U25" t="s">
-        <v>67</v>
-      </c>
-      <c r="V25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J25" s="45">
+        <v>0.34400000001448</v>
+      </c>
+      <c r="K25" s="45">
+        <v>-1720.0000000724201</v>
+      </c>
+      <c r="L25" s="45">
+        <v>-1715.6147715469399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>-1000000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>41555</v>
+      </c>
+      <c r="F26" s="4">
+        <v>41737</v>
+      </c>
+      <c r="G26">
+        <v>180</v>
+      </c>
+      <c r="H26" s="4">
+        <v>41737</v>
+      </c>
+      <c r="I26">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J26" s="45">
+        <v>0.34400000001448</v>
+      </c>
+      <c r="K26" s="45">
+        <v>-1720.0000000724201</v>
+      </c>
+      <c r="L26" s="45">
+        <v>-1714.0527175304101</v>
+      </c>
+      <c r="R26" s="36"/>
+      <c r="S26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26">
-        <v>1000000</v>
-      </c>
-      <c r="E26" s="4">
-        <v>41369</v>
-      </c>
-      <c r="F26" s="4">
-        <v>41460</v>
-      </c>
-      <c r="G26">
-        <v>91</v>
-      </c>
-      <c r="H26" s="4">
-        <v>41460</v>
-      </c>
-      <c r="I26">
-        <f>G26/360</f>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="J26">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K26">
-        <v>707.77777777775202</v>
-      </c>
-      <c r="L26">
-        <v>707.26716305148796</v>
-      </c>
-      <c r="M26">
-        <f>L26/K26</f>
-        <v>0.99927856632082002</v>
-      </c>
-      <c r="N26">
-        <f>LN(M26)</f>
-        <v>-7.2169403768517176E-4</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26" s="36">
-        <v>-1494</v>
-      </c>
-      <c r="S26" s="4">
-        <v>41367</v>
-      </c>
-      <c r="T26">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="U26" s="4">
-        <v>41369</v>
-      </c>
-      <c r="V26" s="4">
-        <v>41460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>1000000</v>
       </c>
       <c r="E27" s="4">
-        <v>41460</v>
+        <v>41372</v>
       </c>
       <c r="F27" s="4">
-        <v>41554</v>
+        <v>41463</v>
       </c>
       <c r="G27">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H27" s="4">
-        <v>41554</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ref="I27:I29" si="2">G27/360</f>
-        <v>0.26111111111111113</v>
-      </c>
-      <c r="J27">
-        <v>0.70716437838299995</v>
-      </c>
-      <c r="K27" s="34">
-        <v>1846.4847657770899</v>
-      </c>
-      <c r="L27" s="34">
-        <v>1841.7518826852399</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ref="M27:M29" si="3">L27/K27</f>
-        <v>0.99743681443813148</v>
-      </c>
-      <c r="N27">
-        <f t="shared" ref="N27:N29" si="4">LN(M27)</f>
-        <v>-2.5664761461021636E-3</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>64</v>
-      </c>
-      <c r="R27" s="36">
-        <v>-1495</v>
-      </c>
-      <c r="S27" s="4">
-        <v>41458</v>
-      </c>
-      <c r="T27">
-        <v>0.70720000000000005</v>
-      </c>
-      <c r="U27" s="4">
-        <v>41460</v>
-      </c>
-      <c r="V27" s="4">
-        <v>41554</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <v>41463</v>
+      </c>
+      <c r="J27" s="45">
+        <v>0.27999999999998998</v>
+      </c>
+      <c r="K27" s="45">
+        <v>707.77777777775202</v>
+      </c>
+      <c r="L27" s="45">
+        <v>707.25734010108704</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>1000000</v>
       </c>
       <c r="E28" s="4">
-        <v>41554</v>
+        <v>41463</v>
       </c>
       <c r="F28" s="4">
-        <v>41645</v>
+        <v>41555</v>
       </c>
       <c r="G28">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="4">
-        <v>41645</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="2"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="J28">
-        <v>0.75463824132500001</v>
-      </c>
-      <c r="K28" s="34">
-        <v>1907.5577766828001</v>
-      </c>
-      <c r="L28" s="34">
-        <v>1898.9861385055101</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
-        <v>0.99550648568443578</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="4"/>
-        <v>-4.5036404971640709E-3</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="36">
-        <v>-1496</v>
-      </c>
-      <c r="S28" s="4">
-        <v>41550</v>
-      </c>
-      <c r="T28">
-        <v>0.75460000000000005</v>
-      </c>
-      <c r="U28" s="4">
-        <v>41554</v>
-      </c>
-      <c r="V28" s="4">
-        <v>41646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <v>41555</v>
+      </c>
+      <c r="J28" s="45">
+        <v>0.71173429375942998</v>
+      </c>
+      <c r="K28" s="45">
+        <v>1818.8765284963299</v>
+      </c>
+      <c r="L28" s="45">
+        <v>1814.2392091726299</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>1000000</v>
       </c>
       <c r="E29" s="4">
-        <v>41645</v>
+        <v>41555</v>
       </c>
       <c r="F29" s="4">
-        <v>41736</v>
+        <v>41647</v>
       </c>
       <c r="G29">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" s="4">
-        <v>41736</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="2"/>
-        <v>0.25277777777777777</v>
-      </c>
-      <c r="J29">
-        <v>-0.37787730865699998</v>
-      </c>
-      <c r="K29">
-        <v>-955.18986355036498</v>
-      </c>
-      <c r="L29">
-        <v>-951.80686048961695</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="3"/>
-        <v>0.99645829254492535</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="4"/>
-        <v>-3.5479941490666154E-3</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>64</v>
-      </c>
-      <c r="R29" s="36">
-        <v>-1497</v>
-      </c>
-      <c r="S29" s="4">
-        <v>41641</v>
-      </c>
-      <c r="T29">
-        <v>-0.37790000000000001</v>
-      </c>
-      <c r="U29" s="4">
-        <v>41645</v>
-      </c>
-      <c r="V29" s="4">
-        <v>41736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7">
-        <f>F35-E35</f>
-        <v>185</v>
+        <v>41647</v>
+      </c>
+      <c r="J29" s="45">
+        <v>0.76319677004366004</v>
+      </c>
+      <c r="K29" s="45">
+        <v>1950.39174566714</v>
+      </c>
+      <c r="L29" s="45">
+        <v>1941.63217815502</v>
+      </c>
+      <c r="R29" s="36"/>
+      <c r="S29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>1000000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41647</v>
+      </c>
+      <c r="F30" s="4">
+        <v>41737</v>
       </c>
       <c r="G30">
-        <f>G35/360</f>
-        <v>0.50555555555555554</v>
+        <v>90</v>
       </c>
       <c r="H30" s="7">
-        <f>G30*I35*D35</f>
-        <v>-206772.22222222219</v>
-      </c>
-      <c r="L30">
-        <f>SUM(L26:L29)</f>
-        <v>3496.198323752621</v>
+        <v>41737</v>
+      </c>
+      <c r="J30" s="45">
+        <v>-0.41481882368245998</v>
+      </c>
+      <c r="K30" s="45">
+        <v>-1037.0470592061499</v>
+      </c>
+      <c r="L30" s="45">
+        <v>-1033.46123835139</v>
       </c>
       <c r="R30" s="36"/>
       <c r="S30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="7">
-        <f t="shared" ref="F31:F33" si="5">F36-E36</f>
-        <v>182</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G33" si="6">G36/360</f>
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" ref="H31:H33" si="7">G31*I36*D36</f>
-        <v>-204500</v>
-      </c>
-      <c r="I31">
-        <f>F24-E24</f>
-        <v>185</v>
-      </c>
-      <c r="J31">
-        <f>G24/360</f>
-        <v>0.51388888888888884</v>
-      </c>
-      <c r="K31" s="7">
-        <f>D24*G24/360*I24</f>
-        <v>-176777.77777777775</v>
-      </c>
+      <c r="F31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="R31" s="36"/>
       <c r="S31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="7">
-        <f t="shared" si="5"/>
-        <v>182</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>0.49722222222222223</v>
-      </c>
-      <c r="H32" s="7">
-        <f t="shared" si="7"/>
-        <v>-203363.88888888888</v>
-      </c>
-      <c r="I32">
-        <f>F25-E25</f>
-        <v>182</v>
-      </c>
-      <c r="J32">
-        <f>G25/360</f>
-        <v>0.50555555555555554</v>
-      </c>
-      <c r="K32" s="7">
-        <f>D25*G25/360*I25</f>
-        <v>-173911.11111111109</v>
-      </c>
+      <c r="F32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="R32" s="36"/>
       <c r="S32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="F33" s="7">
-        <f t="shared" si="5"/>
-        <v>182</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="7"/>
-        <v>-204500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0.26</v>
+      </c>
+      <c r="D34" s="4">
+        <v>41369</v>
+      </c>
+      <c r="E34">
+        <v>99.999277782993801</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35">
-        <v>-1000000</v>
-      </c>
-      <c r="E35" s="4">
-        <v>41369</v>
-      </c>
-      <c r="F35" s="4">
-        <v>41554</v>
-      </c>
-      <c r="G35">
-        <v>182</v>
-      </c>
-      <c r="H35" s="4">
-        <v>41554</v>
-      </c>
-      <c r="I35">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="4">
+        <v>41372</v>
+      </c>
+      <c r="E35">
+        <v>99.997194508107697</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0.185</v>
+      </c>
+      <c r="D36" s="4">
+        <v>41402</v>
+      </c>
+      <c r="E36">
+        <v>99.981780650257505</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>99.68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>41463</v>
+      </c>
+      <c r="E37">
+        <v>99.9264687740976</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D38" s="4">
+        <v>41536</v>
+      </c>
+      <c r="E38">
+        <v>99.862035563392297</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>99.64</v>
+      </c>
+      <c r="D39" s="4">
+        <v>41626</v>
+      </c>
+      <c r="E39">
+        <v>99.772147742844894</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>99.614999999999995</v>
+      </c>
+      <c r="D40" s="4">
+        <v>41716</v>
+      </c>
+      <c r="E40">
+        <v>99.676262148885201</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41">
+        <v>99.594999999999999</v>
+      </c>
+      <c r="D41" s="4">
+        <v>41809</v>
+      </c>
+      <c r="E41">
+        <v>99.572189901263101</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
         <v>0.40899999999999997</v>
       </c>
-      <c r="J35">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K35" s="34">
-        <v>-2067.7222222221299</v>
-      </c>
-      <c r="L35" s="34">
-        <v>-2062.4222664761801</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36">
-        <v>-1000000</v>
-      </c>
-      <c r="E36" s="4">
-        <v>41554</v>
-      </c>
-      <c r="F36" s="4">
-        <v>41736</v>
-      </c>
-      <c r="G36">
-        <v>180</v>
-      </c>
-      <c r="H36" s="4">
-        <v>41736</v>
-      </c>
-      <c r="I36">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J36">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K36" s="34">
-        <v>-2044.99999999991</v>
-      </c>
-      <c r="L36" s="34">
-        <v>-2037.7572082542799</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37">
-        <v>-1000000</v>
-      </c>
-      <c r="E37" s="4">
-        <v>41736</v>
-      </c>
-      <c r="F37" s="4">
-        <v>41918</v>
-      </c>
-      <c r="G37">
-        <v>179</v>
-      </c>
-      <c r="H37" s="4">
-        <v>41918</v>
-      </c>
-      <c r="I37">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J37">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K37" s="34">
-        <v>-2033.6388888888</v>
-      </c>
-      <c r="L37" s="34">
-        <v>-2021.6986157193401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38">
-        <v>-1000000</v>
-      </c>
-      <c r="E38" s="4">
-        <v>41918</v>
-      </c>
-      <c r="F38" s="4">
-        <v>42100</v>
-      </c>
-      <c r="G38">
-        <v>180</v>
-      </c>
-      <c r="H38" s="4">
-        <v>42100</v>
-      </c>
-      <c r="I38">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J38">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="K38" s="34">
-        <v>-2044.99999999991</v>
-      </c>
-      <c r="L38" s="34">
-        <v>-2028.23997299287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39">
-        <v>1000000</v>
-      </c>
-      <c r="E39" s="4">
-        <v>41369</v>
-      </c>
-      <c r="F39" s="4">
-        <v>41460</v>
-      </c>
-      <c r="G39">
-        <v>91</v>
-      </c>
-      <c r="H39" s="4">
-        <v>41460</v>
-      </c>
-      <c r="J39">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K39">
-        <v>707.77777777775202</v>
-      </c>
-      <c r="L39">
-        <v>707.26716305148796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40">
-        <v>1000000</v>
-      </c>
-      <c r="E40" s="4">
-        <v>41460</v>
-      </c>
-      <c r="F40" s="4">
-        <v>41554</v>
-      </c>
-      <c r="G40">
-        <v>94</v>
-      </c>
-      <c r="H40" s="4">
-        <v>41554</v>
-      </c>
-      <c r="J40">
-        <v>0.70716437838299995</v>
-      </c>
-      <c r="K40" s="34">
-        <v>1846.4847657770899</v>
-      </c>
-      <c r="L40" s="34">
-        <v>1841.7518826852399</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41">
-        <v>1000000</v>
-      </c>
-      <c r="E41" s="4">
-        <v>41554</v>
-      </c>
-      <c r="F41" s="4">
-        <v>41645</v>
-      </c>
-      <c r="G41">
-        <v>91</v>
-      </c>
-      <c r="H41" s="4">
-        <v>41645</v>
-      </c>
-      <c r="J41">
-        <v>0.75463824132500001</v>
-      </c>
-      <c r="K41" s="34">
-        <v>1907.5577766828001</v>
-      </c>
-      <c r="L41" s="34">
-        <v>1898.9861385055101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42">
-        <v>1000000</v>
-      </c>
-      <c r="E42" s="4">
-        <v>41645</v>
-      </c>
-      <c r="F42" s="4">
-        <v>41736</v>
-      </c>
-      <c r="G42">
-        <v>91</v>
-      </c>
-      <c r="H42" s="4">
-        <v>41736</v>
-      </c>
-      <c r="J42">
-        <v>-0.37787730865699998</v>
-      </c>
-      <c r="K42">
-        <v>-955.18986355036498</v>
-      </c>
-      <c r="L42">
-        <v>-951.80686048961695</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="4">
+        <v>42102</v>
+      </c>
+      <c r="E42">
+        <v>99.183072900617006</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43">
-        <v>1000000</v>
-      </c>
-      <c r="E43" s="4">
-        <v>41736</v>
-      </c>
-      <c r="F43" s="4">
-        <v>41827</v>
-      </c>
-      <c r="G43">
-        <v>91</v>
-      </c>
-      <c r="H43" s="4">
-        <v>41827</v>
-      </c>
-      <c r="J43">
-        <v>0.46326533051199997</v>
-      </c>
-      <c r="K43" s="34">
-        <v>1171.0318076829601</v>
-      </c>
-      <c r="L43" s="34">
-        <v>1165.5194951982101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D43" s="4">
+        <v>42468</v>
+      </c>
+      <c r="E43">
+        <v>98.434411467767006</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44">
-        <v>1000000</v>
-      </c>
-      <c r="E44" s="4">
-        <v>41827</v>
-      </c>
-      <c r="F44" s="4">
-        <v>41918</v>
-      </c>
-      <c r="G44">
-        <v>91</v>
-      </c>
-      <c r="H44" s="4">
-        <v>41918</v>
-      </c>
-      <c r="J44">
-        <v>0.46326831012199998</v>
-      </c>
-      <c r="K44" s="34">
-        <v>1171.03933947613</v>
-      </c>
-      <c r="L44" s="34">
-        <v>1164.16371879346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D44" s="4">
+        <v>42835</v>
+      </c>
+      <c r="E44">
+        <v>97.203393344244205</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45">
-        <v>1000000</v>
-      </c>
-      <c r="E45" s="4">
-        <v>41918</v>
-      </c>
-      <c r="F45" s="4">
-        <v>42009</v>
-      </c>
-      <c r="G45">
-        <v>91</v>
-      </c>
-      <c r="H45" s="4">
-        <v>42009</v>
-      </c>
-      <c r="J45">
-        <v>0.46326831012300002</v>
-      </c>
-      <c r="K45" s="34">
-        <v>1171.0393394763501</v>
-      </c>
-      <c r="L45" s="34">
-        <v>1162.8020406180699</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D45" s="4">
+        <v>43199</v>
+      </c>
+      <c r="E45">
+        <v>95.3888630568499</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46">
-        <v>1000000</v>
-      </c>
-      <c r="E46" s="4">
-        <v>42009</v>
-      </c>
-      <c r="F46" s="4">
-        <v>42100</v>
-      </c>
-      <c r="G46">
-        <v>91</v>
-      </c>
-      <c r="H46" s="4">
-        <v>42100</v>
-      </c>
-      <c r="J46">
-        <v>0.46326533051199997</v>
-      </c>
-      <c r="K46" s="34">
-        <v>1171.03180768318</v>
-      </c>
-      <c r="L46" s="34">
-        <v>1161.43448508031</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="D46" s="4">
+        <v>43563</v>
+      </c>
+      <c r="E46">
+        <v>93.051399665902593</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>1.425</v>
+      </c>
+      <c r="D47" s="4">
+        <v>43929</v>
+      </c>
+      <c r="E47">
+        <v>90.368498982456899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>1.6375</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44294</v>
+      </c>
+      <c r="E48">
+        <v>87.488348366923404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49">
-        <v>-1000000</v>
-      </c>
-      <c r="E49" s="4">
-        <v>41369</v>
-      </c>
-      <c r="F49" s="4">
-        <v>41554</v>
-      </c>
-      <c r="G49">
-        <v>182</v>
-      </c>
-      <c r="H49" s="4">
-        <v>41554</v>
-      </c>
-      <c r="I49">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J49" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K49" s="35">
-        <v>-2654.16666666221</v>
-      </c>
-      <c r="L49" s="35">
-        <v>-2647.3635449834401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>1.823</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44662</v>
+      </c>
+      <c r="E49">
+        <v>84.4932767070258</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50">
-        <v>-1000000</v>
-      </c>
-      <c r="E50" s="4">
-        <v>41554</v>
-      </c>
-      <c r="F50" s="4">
-        <v>41736</v>
-      </c>
-      <c r="G50">
-        <v>180</v>
-      </c>
-      <c r="H50" s="4">
-        <v>41736</v>
-      </c>
-      <c r="I50">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J50" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K50" s="35">
-        <v>-2624.9999999955899</v>
-      </c>
-      <c r="L50" s="35">
-        <v>-2615.70301792604</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>1.988</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45026</v>
+      </c>
+      <c r="E50">
+        <v>81.472531616468501</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51">
-        <v>-1000000</v>
-      </c>
-      <c r="E51" s="4">
-        <v>41736</v>
-      </c>
-      <c r="F51" s="4">
-        <v>41918</v>
-      </c>
-      <c r="G51">
-        <v>179</v>
-      </c>
-      <c r="H51" s="4">
-        <v>41918</v>
-      </c>
-      <c r="I51">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J51" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K51" s="35">
-        <v>-2610.41666666229</v>
-      </c>
-      <c r="L51" s="35">
-        <v>-2595.0899101489499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="D51" s="4">
+        <v>46853</v>
+      </c>
+      <c r="E51">
+        <v>67.008943281555005</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52">
-        <v>-1000000</v>
-      </c>
-      <c r="E52" s="4">
-        <v>41918</v>
-      </c>
-      <c r="F52" s="4">
-        <v>42100</v>
-      </c>
-      <c r="G52">
-        <v>180</v>
-      </c>
-      <c r="H52" s="4">
-        <v>42100</v>
-      </c>
-      <c r="I52">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J52" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K52" s="35">
-        <v>-2624.9999999955899</v>
-      </c>
-      <c r="L52" s="35">
-        <v>-2603.48651789613</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>2.78</v>
+      </c>
+      <c r="D52" s="4">
+        <v>48680</v>
+      </c>
+      <c r="E52">
+        <v>55.488462951842401</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53">
-        <v>-1000000</v>
-      </c>
-      <c r="E53" s="4">
-        <v>42100</v>
-      </c>
-      <c r="F53" s="4">
-        <v>42282</v>
-      </c>
-      <c r="G53">
-        <v>179</v>
-      </c>
-      <c r="H53" s="4">
-        <v>42282</v>
-      </c>
-      <c r="I53">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J53" s="35">
-        <v>0.52499999999911995</v>
-      </c>
-      <c r="K53" s="35">
-        <v>-2610.41666666229</v>
-      </c>
-      <c r="L53" s="35">
-        <v>-2579.27501134879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+ 